--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)/XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью) от 23.01.2020.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)/XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью) от 23.01.2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" activeTab="2"/>
+    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="155">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -507,6 +507,9 @@
   </si>
   <si>
     <t>48  / 29,7</t>
+  </si>
+  <si>
+    <t>стоит</t>
   </si>
 </sst>
 </file>
@@ -2198,7 +2201,7 @@
     <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="654">
+  <cellXfs count="652">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -3443,13 +3446,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="59" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3466,7 +3462,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3479,7 +3474,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3507,7 +3501,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3518,8 +3511,6 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="46" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3612,455 +3603,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4075,6 +3617,473 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6505,25 +6514,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="495" t="s">
+      <c r="A1" s="502" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="499"/>
-      <c r="C1" s="499"/>
-      <c r="D1" s="499"/>
-      <c r="E1" s="499"/>
+      <c r="B1" s="506"/>
+      <c r="C1" s="506"/>
+      <c r="D1" s="506"/>
+      <c r="E1" s="506"/>
       <c r="G1" s="363" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="496" t="s">
+      <c r="A2" s="503" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="497"/>
-      <c r="C2" s="497"/>
-      <c r="D2" s="497"/>
-      <c r="E2" s="498"/>
+      <c r="B2" s="504"/>
+      <c r="C2" s="504"/>
+      <c r="D2" s="504"/>
+      <c r="E2" s="505"/>
       <c r="G2" s="362" t="s">
         <v>79</v>
       </c>
@@ -6534,45 +6543,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="500" t="s">
+      <c r="A4" s="507" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="501"/>
-      <c r="C4" s="501"/>
-      <c r="D4" s="501"/>
-      <c r="E4" s="501"/>
+      <c r="B4" s="508"/>
+      <c r="C4" s="508"/>
+      <c r="D4" s="508"/>
+      <c r="E4" s="508"/>
     </row>
     <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="502" t="s">
+      <c r="A5" s="509" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="503"/>
-      <c r="C5" s="503"/>
-      <c r="D5" s="503"/>
-      <c r="E5" s="504"/>
+      <c r="B5" s="510"/>
+      <c r="C5" s="510"/>
+      <c r="D5" s="510"/>
+      <c r="E5" s="511"/>
     </row>
     <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="495" t="s">
+      <c r="A7" s="502" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="499"/>
-      <c r="C7" s="499"/>
-      <c r="D7" s="499"/>
-      <c r="E7" s="499"/>
+      <c r="B7" s="506"/>
+      <c r="C7" s="506"/>
+      <c r="D7" s="506"/>
+      <c r="E7" s="506"/>
     </row>
     <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="505"/>
-      <c r="B8" s="506"/>
-      <c r="C8" s="506"/>
-      <c r="D8" s="506"/>
-      <c r="E8" s="507"/>
+      <c r="A8" s="512"/>
+      <c r="B8" s="513"/>
+      <c r="C8" s="513"/>
+      <c r="D8" s="513"/>
+      <c r="E8" s="514"/>
     </row>
     <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="495" t="s">
+      <c r="A10" s="502" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="495"/>
+      <c r="B10" s="502"/>
       <c r="C10" s="364"/>
       <c r="D10" s="370" t="s">
         <v>93</v>
@@ -6583,33 +6592,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="493"/>
-      <c r="B11" s="494"/>
+      <c r="A11" s="500"/>
+      <c r="B11" s="501"/>
       <c r="D11" s="369">
         <v>43853</v>
       </c>
-      <c r="F11" s="508" t="s">
+      <c r="F11" s="497" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="508"/>
-      <c r="H11" s="508"/>
-      <c r="I11" s="508"/>
-      <c r="J11" s="509" t="s">
+      <c r="G11" s="497"/>
+      <c r="H11" s="497"/>
+      <c r="I11" s="497"/>
+      <c r="J11" s="498" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="509"/>
+      <c r="K11" s="498"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="508" t="s">
+      <c r="F12" s="497" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="508"/>
-      <c r="H12" s="508"/>
-      <c r="I12" s="508"/>
-      <c r="J12" s="509" t="s">
+      <c r="G12" s="497"/>
+      <c r="H12" s="497"/>
+      <c r="I12" s="497"/>
+      <c r="J12" s="498" t="s">
         <v>99</v>
       </c>
-      <c r="K12" s="509"/>
+      <c r="K12" s="498"/>
     </row>
     <row r="13" spans="1:11" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A13" s="374" t="s">
@@ -6624,19 +6633,19 @@
       <c r="D13" s="374" t="s">
         <v>133</v>
       </c>
-      <c r="E13" s="474" t="s">
+      <c r="E13" s="466" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="508" t="s">
+      <c r="F13" s="497" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="508"/>
-      <c r="H13" s="508"/>
-      <c r="I13" s="508"/>
-      <c r="J13" s="509" t="s">
+      <c r="G13" s="497"/>
+      <c r="H13" s="497"/>
+      <c r="I13" s="497"/>
+      <c r="J13" s="498" t="s">
         <v>100</v>
       </c>
-      <c r="K13" s="509"/>
+      <c r="K13" s="498"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="365" t="s">
@@ -6891,11 +6900,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="492" t="s">
+      <c r="A29" s="499" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="492"/>
-      <c r="C29" s="492"/>
+      <c r="B29" s="499"/>
+      <c r="C29" s="499"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="363" t="s">
@@ -6904,12 +6913,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -6919,6 +6922,12 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -6972,47 +6981,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="163"/>
-      <c r="B2" s="598"/>
-      <c r="C2" s="599"/>
-      <c r="D2" s="600"/>
-      <c r="E2" s="607" t="s">
+      <c r="B2" s="606"/>
+      <c r="C2" s="607"/>
+      <c r="D2" s="608"/>
+      <c r="E2" s="615" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="608"/>
-      <c r="G2" s="608"/>
-      <c r="H2" s="609"/>
-      <c r="I2" s="613" t="s">
+      <c r="F2" s="616"/>
+      <c r="G2" s="616"/>
+      <c r="H2" s="617"/>
+      <c r="I2" s="621" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="614"/>
-      <c r="K2" s="617">
+      <c r="J2" s="622"/>
+      <c r="K2" s="625">
         <f>Данные!B20</f>
         <v>60</v>
       </c>
-      <c r="L2" s="618"/>
+      <c r="L2" s="626"/>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
-      <c r="P2" s="636"/>
-      <c r="Q2" s="636"/>
+      <c r="P2" s="641"/>
+      <c r="Q2" s="641"/>
       <c r="R2" s="167"/>
       <c r="S2" s="168"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="163"/>
-      <c r="B3" s="601"/>
-      <c r="C3" s="602"/>
-      <c r="D3" s="603"/>
-      <c r="E3" s="610" t="s">
+      <c r="B3" s="609"/>
+      <c r="C3" s="610"/>
+      <c r="D3" s="611"/>
+      <c r="E3" s="618" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="611"/>
-      <c r="G3" s="611"/>
-      <c r="H3" s="612"/>
-      <c r="I3" s="615"/>
-      <c r="J3" s="616"/>
-      <c r="K3" s="619"/>
-      <c r="L3" s="620"/>
+      <c r="F3" s="619"/>
+      <c r="G3" s="619"/>
+      <c r="H3" s="620"/>
+      <c r="I3" s="623"/>
+      <c r="J3" s="624"/>
+      <c r="K3" s="627"/>
+      <c r="L3" s="628"/>
       <c r="M3" s="169"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -7023,9 +7032,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="163"/>
-      <c r="B4" s="604"/>
-      <c r="C4" s="605"/>
-      <c r="D4" s="606"/>
+      <c r="B4" s="612"/>
+      <c r="C4" s="613"/>
+      <c r="D4" s="614"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7044,22 +7053,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="163"/>
-      <c r="B5" s="590" t="s">
+      <c r="B5" s="585" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="621"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="600"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="622"/>
-      <c r="J5" s="623"/>
-      <c r="K5" s="624"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="601"/>
+      <c r="J5" s="602"/>
+      <c r="K5" s="603"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
       <c r="O5" s="170"/>
@@ -7070,22 +7079,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="163"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="585" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="621"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="600"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="622"/>
-      <c r="J6" s="623"/>
-      <c r="K6" s="624"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="590"/>
+      <c r="F6" s="590"/>
+      <c r="G6" s="590"/>
+      <c r="H6" s="591"/>
+      <c r="I6" s="601"/>
+      <c r="J6" s="602"/>
+      <c r="K6" s="603"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
       <c r="O6" s="170"/>
@@ -7096,27 +7105,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="163"/>
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="595" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="625"/>
-      <c r="D7" s="505">
+      <c r="C7" s="604"/>
+      <c r="D7" s="512">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="626" t="s">
+      <c r="E7" s="597"/>
+      <c r="F7" s="597"/>
+      <c r="G7" s="597"/>
+      <c r="H7" s="598"/>
+      <c r="I7" s="605" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="625"/>
-      <c r="K7" s="493">
+      <c r="J7" s="604"/>
+      <c r="K7" s="500">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="172"/>
       <c r="N7" s="170"/>
       <c r="O7" s="170"/>
@@ -7499,28 +7508,33 @@
     </row>
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L21" s="627" t="s">
+      <c r="L21" s="632" t="s">
         <v>136</v>
       </c>
-      <c r="M21" s="627"/>
-      <c r="N21" s="627"/>
-      <c r="O21" s="475"/>
-      <c r="P21" s="475"/>
-      <c r="Q21" s="491"/>
-      <c r="R21" s="491"/>
+      <c r="M21" s="632"/>
+      <c r="N21" s="632"/>
+      <c r="O21" s="467"/>
+      <c r="P21" s="467"/>
+      <c r="Q21" s="483"/>
+      <c r="R21" s="483"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O22" s="559" t="s">
+      <c r="O22" s="554" t="s">
         <v>140</v>
       </c>
-      <c r="P22" s="559"/>
-      <c r="Q22" s="560" t="s">
+      <c r="P22" s="554"/>
+      <c r="Q22" s="555" t="s">
         <v>141</v>
       </c>
-      <c r="R22" s="561"/>
+      <c r="R22" s="556"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="B2:D4"/>
@@ -7537,11 +7551,6 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -7607,47 +7616,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="202"/>
-      <c r="B2" s="598"/>
-      <c r="C2" s="599"/>
-      <c r="D2" s="600"/>
-      <c r="E2" s="607" t="s">
+      <c r="B2" s="606"/>
+      <c r="C2" s="607"/>
+      <c r="D2" s="608"/>
+      <c r="E2" s="615" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="608"/>
-      <c r="G2" s="608"/>
-      <c r="H2" s="609"/>
-      <c r="I2" s="613" t="s">
+      <c r="F2" s="616"/>
+      <c r="G2" s="616"/>
+      <c r="H2" s="617"/>
+      <c r="I2" s="621" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="614"/>
-      <c r="K2" s="617">
+      <c r="J2" s="622"/>
+      <c r="K2" s="625">
         <f>Данные!B21</f>
         <v>18</v>
       </c>
-      <c r="L2" s="618"/>
+      <c r="L2" s="626"/>
       <c r="M2" s="203"/>
       <c r="N2" s="204"/>
       <c r="O2" s="205"/>
-      <c r="P2" s="640"/>
-      <c r="Q2" s="640"/>
+      <c r="P2" s="642"/>
+      <c r="Q2" s="642"/>
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="202"/>
-      <c r="B3" s="601"/>
-      <c r="C3" s="602"/>
-      <c r="D3" s="603"/>
-      <c r="E3" s="610" t="s">
+      <c r="B3" s="609"/>
+      <c r="C3" s="610"/>
+      <c r="D3" s="611"/>
+      <c r="E3" s="618" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="611"/>
-      <c r="G3" s="611"/>
-      <c r="H3" s="612"/>
-      <c r="I3" s="615"/>
-      <c r="J3" s="616"/>
-      <c r="K3" s="619"/>
-      <c r="L3" s="620"/>
+      <c r="F3" s="619"/>
+      <c r="G3" s="619"/>
+      <c r="H3" s="620"/>
+      <c r="I3" s="623"/>
+      <c r="J3" s="624"/>
+      <c r="K3" s="627"/>
+      <c r="L3" s="628"/>
       <c r="M3" s="208"/>
       <c r="N3" s="209"/>
       <c r="O3" s="209"/>
@@ -7658,9 +7667,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="202"/>
-      <c r="B4" s="604"/>
-      <c r="C4" s="605"/>
-      <c r="D4" s="606"/>
+      <c r="B4" s="612"/>
+      <c r="C4" s="613"/>
+      <c r="D4" s="614"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7679,22 +7688,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="202"/>
-      <c r="B5" s="590" t="s">
+      <c r="B5" s="585" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="621"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="600"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="622"/>
-      <c r="J5" s="623"/>
-      <c r="K5" s="624"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="601"/>
+      <c r="J5" s="602"/>
+      <c r="K5" s="603"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
       <c r="O5" s="209"/>
@@ -7705,22 +7714,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="202"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="585" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="621"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="600"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="622"/>
-      <c r="J6" s="623"/>
-      <c r="K6" s="624"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="590"/>
+      <c r="F6" s="590"/>
+      <c r="G6" s="590"/>
+      <c r="H6" s="591"/>
+      <c r="I6" s="601"/>
+      <c r="J6" s="602"/>
+      <c r="K6" s="603"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
       <c r="O6" s="209"/>
@@ -7731,27 +7740,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="202"/>
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="595" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="625"/>
-      <c r="D7" s="505">
+      <c r="C7" s="604"/>
+      <c r="D7" s="512">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="626" t="s">
+      <c r="E7" s="597"/>
+      <c r="F7" s="597"/>
+      <c r="G7" s="597"/>
+      <c r="H7" s="598"/>
+      <c r="I7" s="605" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="625"/>
-      <c r="K7" s="493">
+      <c r="J7" s="604"/>
+      <c r="K7" s="500">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="211"/>
       <c r="N7" s="209"/>
       <c r="O7" s="209"/>
@@ -8080,12 +8089,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="212"/>
-      <c r="B18" s="637" t="s">
+      <c r="B18" s="643" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="638"/>
-      <c r="D18" s="638"/>
-      <c r="E18" s="639"/>
+      <c r="C18" s="644"/>
+      <c r="D18" s="644"/>
+      <c r="E18" s="645"/>
       <c r="F18" s="114" t="s">
         <v>16</v>
       </c>
@@ -8128,28 +8137,37 @@
     </row>
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L21" s="627" t="s">
+      <c r="L21" s="632" t="s">
         <v>136</v>
       </c>
-      <c r="M21" s="627"/>
-      <c r="N21" s="627"/>
-      <c r="O21" s="475"/>
-      <c r="P21" s="475"/>
-      <c r="Q21" s="491"/>
-      <c r="R21" s="491"/>
+      <c r="M21" s="632"/>
+      <c r="N21" s="632"/>
+      <c r="O21" s="467"/>
+      <c r="P21" s="467"/>
+      <c r="Q21" s="483"/>
+      <c r="R21" s="483"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O22" s="559" t="s">
+      <c r="O22" s="554" t="s">
         <v>140</v>
       </c>
-      <c r="P22" s="559"/>
-      <c r="Q22" s="560" t="s">
+      <c r="P22" s="554"/>
+      <c r="Q22" s="555" t="s">
         <v>141</v>
       </c>
-      <c r="R22" s="561"/>
+      <c r="R22" s="556"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="P2:Q2"/>
@@ -8163,15 +8181,6 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="L21:N21"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8246,47 +8255,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="130"/>
-      <c r="B2" s="598"/>
-      <c r="C2" s="599"/>
-      <c r="D2" s="600"/>
-      <c r="E2" s="607" t="s">
+      <c r="B2" s="606"/>
+      <c r="C2" s="607"/>
+      <c r="D2" s="608"/>
+      <c r="E2" s="615" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="608"/>
-      <c r="G2" s="608"/>
-      <c r="H2" s="609"/>
-      <c r="I2" s="613" t="s">
+      <c r="F2" s="616"/>
+      <c r="G2" s="616"/>
+      <c r="H2" s="617"/>
+      <c r="I2" s="621" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="614"/>
-      <c r="K2" s="617">
+      <c r="J2" s="622"/>
+      <c r="K2" s="625">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="L2" s="618"/>
+      <c r="L2" s="626"/>
       <c r="M2" s="131"/>
       <c r="N2" s="132"/>
       <c r="O2" s="133"/>
-      <c r="P2" s="641"/>
-      <c r="Q2" s="641"/>
+      <c r="P2" s="646"/>
+      <c r="Q2" s="646"/>
       <c r="R2" s="134"/>
       <c r="S2" s="135"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="130"/>
-      <c r="B3" s="601"/>
-      <c r="C3" s="602"/>
-      <c r="D3" s="603"/>
-      <c r="E3" s="610" t="s">
+      <c r="B3" s="609"/>
+      <c r="C3" s="610"/>
+      <c r="D3" s="611"/>
+      <c r="E3" s="618" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="611"/>
-      <c r="G3" s="611"/>
-      <c r="H3" s="612"/>
-      <c r="I3" s="615"/>
-      <c r="J3" s="616"/>
-      <c r="K3" s="619"/>
-      <c r="L3" s="620"/>
+      <c r="F3" s="619"/>
+      <c r="G3" s="619"/>
+      <c r="H3" s="620"/>
+      <c r="I3" s="623"/>
+      <c r="J3" s="624"/>
+      <c r="K3" s="627"/>
+      <c r="L3" s="628"/>
       <c r="M3" s="136"/>
       <c r="N3" s="137"/>
       <c r="O3" s="137"/>
@@ -8297,9 +8306,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="130"/>
-      <c r="B4" s="604"/>
-      <c r="C4" s="605"/>
-      <c r="D4" s="606"/>
+      <c r="B4" s="612"/>
+      <c r="C4" s="613"/>
+      <c r="D4" s="614"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8318,22 +8327,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="130"/>
-      <c r="B5" s="590" t="s">
+      <c r="B5" s="585" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="621"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="600"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="622"/>
-      <c r="J5" s="623"/>
-      <c r="K5" s="624"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="601"/>
+      <c r="J5" s="602"/>
+      <c r="K5" s="603"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
@@ -8344,22 +8353,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="130"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="585" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="621"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="600"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="622"/>
-      <c r="J6" s="623"/>
-      <c r="K6" s="624"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="590"/>
+      <c r="F6" s="590"/>
+      <c r="G6" s="590"/>
+      <c r="H6" s="591"/>
+      <c r="I6" s="601"/>
+      <c r="J6" s="602"/>
+      <c r="K6" s="603"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
       <c r="O6" s="137"/>
@@ -8370,27 +8379,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="130"/>
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="595" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="625"/>
-      <c r="D7" s="505">
+      <c r="C7" s="604"/>
+      <c r="D7" s="512">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="626" t="s">
+      <c r="E7" s="597"/>
+      <c r="F7" s="597"/>
+      <c r="G7" s="597"/>
+      <c r="H7" s="598"/>
+      <c r="I7" s="605" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="625"/>
-      <c r="K7" s="493">
+      <c r="J7" s="604"/>
+      <c r="K7" s="500">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="139"/>
       <c r="N7" s="137"/>
       <c r="O7" s="137"/>
@@ -8707,28 +8716,33 @@
     </row>
     <row r="18" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L19" s="627" t="s">
+      <c r="L19" s="632" t="s">
         <v>136</v>
       </c>
-      <c r="M19" s="627"/>
-      <c r="N19" s="627"/>
-      <c r="O19" s="475"/>
-      <c r="P19" s="475"/>
-      <c r="Q19" s="491"/>
-      <c r="R19" s="491"/>
+      <c r="M19" s="632"/>
+      <c r="N19" s="632"/>
+      <c r="O19" s="467"/>
+      <c r="P19" s="467"/>
+      <c r="Q19" s="483"/>
+      <c r="R19" s="483"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O20" s="559" t="s">
+      <c r="O20" s="554" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="559"/>
-      <c r="Q20" s="560" t="s">
+      <c r="P20" s="554"/>
+      <c r="Q20" s="555" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="561"/>
+      <c r="R20" s="556"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B2:D4"/>
@@ -8745,11 +8759,6 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.17" bottom="0" header="0" footer="0"/>
@@ -8806,47 +8815,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="259"/>
-      <c r="B2" s="598"/>
-      <c r="C2" s="599"/>
-      <c r="D2" s="600"/>
-      <c r="E2" s="607" t="s">
+      <c r="B2" s="606"/>
+      <c r="C2" s="607"/>
+      <c r="D2" s="608"/>
+      <c r="E2" s="615" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="608"/>
-      <c r="G2" s="608"/>
-      <c r="H2" s="609"/>
-      <c r="I2" s="613" t="s">
+      <c r="F2" s="616"/>
+      <c r="G2" s="616"/>
+      <c r="H2" s="617"/>
+      <c r="I2" s="621" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="614"/>
-      <c r="K2" s="642">
+      <c r="J2" s="622"/>
+      <c r="K2" s="648">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="L2" s="643"/>
+      <c r="L2" s="649"/>
       <c r="M2" s="260"/>
       <c r="N2" s="261"/>
       <c r="O2" s="262"/>
-      <c r="P2" s="646"/>
-      <c r="Q2" s="646"/>
+      <c r="P2" s="647"/>
+      <c r="Q2" s="647"/>
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="259"/>
-      <c r="B3" s="601"/>
-      <c r="C3" s="602"/>
-      <c r="D3" s="603"/>
-      <c r="E3" s="610" t="s">
+      <c r="B3" s="609"/>
+      <c r="C3" s="610"/>
+      <c r="D3" s="611"/>
+      <c r="E3" s="618" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="611"/>
-      <c r="G3" s="611"/>
-      <c r="H3" s="612"/>
-      <c r="I3" s="615"/>
-      <c r="J3" s="616"/>
-      <c r="K3" s="644"/>
-      <c r="L3" s="645"/>
+      <c r="F3" s="619"/>
+      <c r="G3" s="619"/>
+      <c r="H3" s="620"/>
+      <c r="I3" s="623"/>
+      <c r="J3" s="624"/>
+      <c r="K3" s="650"/>
+      <c r="L3" s="651"/>
       <c r="M3" s="265"/>
       <c r="N3" s="266"/>
       <c r="O3" s="266"/>
@@ -8857,9 +8866,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="259"/>
-      <c r="B4" s="604"/>
-      <c r="C4" s="605"/>
-      <c r="D4" s="606"/>
+      <c r="B4" s="612"/>
+      <c r="C4" s="613"/>
+      <c r="D4" s="614"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8878,22 +8887,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="259"/>
-      <c r="B5" s="590" t="s">
+      <c r="B5" s="585" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="621"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="600"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="622"/>
-      <c r="J5" s="623"/>
-      <c r="K5" s="624"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="601"/>
+      <c r="J5" s="602"/>
+      <c r="K5" s="603"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
       <c r="O5" s="266"/>
@@ -8904,22 +8913,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="259"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="585" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="621"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="600"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="622"/>
-      <c r="J6" s="623"/>
-      <c r="K6" s="624"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="590"/>
+      <c r="F6" s="590"/>
+      <c r="G6" s="590"/>
+      <c r="H6" s="591"/>
+      <c r="I6" s="601"/>
+      <c r="J6" s="602"/>
+      <c r="K6" s="603"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
       <c r="O6" s="266"/>
@@ -8930,27 +8939,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="259"/>
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="595" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="625"/>
-      <c r="D7" s="505">
+      <c r="C7" s="604"/>
+      <c r="D7" s="512">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="626" t="s">
+      <c r="E7" s="597"/>
+      <c r="F7" s="597"/>
+      <c r="G7" s="597"/>
+      <c r="H7" s="598"/>
+      <c r="I7" s="605" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="625"/>
-      <c r="K7" s="493">
+      <c r="J7" s="604"/>
+      <c r="K7" s="500">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="268"/>
       <c r="N7" s="266"/>
       <c r="O7" s="266"/>
@@ -9220,28 +9229,33 @@
     </row>
     <row r="17" spans="12:18" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L18" s="627" t="s">
+      <c r="L18" s="632" t="s">
         <v>136</v>
       </c>
-      <c r="M18" s="627"/>
-      <c r="N18" s="627"/>
-      <c r="O18" s="475"/>
-      <c r="P18" s="475"/>
-      <c r="Q18" s="491"/>
-      <c r="R18" s="491"/>
+      <c r="M18" s="632"/>
+      <c r="N18" s="632"/>
+      <c r="O18" s="467"/>
+      <c r="P18" s="467"/>
+      <c r="Q18" s="483"/>
+      <c r="R18" s="483"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="O19" s="559" t="s">
+      <c r="O19" s="554" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="559"/>
-      <c r="Q19" s="560" t="s">
+      <c r="P19" s="554"/>
+      <c r="Q19" s="555" t="s">
         <v>141</v>
       </c>
-      <c r="R19" s="561"/>
+      <c r="R19" s="556"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="I5:J5"/>
@@ -9258,11 +9272,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9291,8 +9300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21:J32"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9313,11 +9322,11 @@
   <sheetData>
     <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="380"/>
-      <c r="B1" s="473" t="s">
+      <c r="B1" s="465" t="s">
         <v>109</v>
       </c>
       <c r="C1" s="380"/>
-      <c r="D1" s="472" t="str">
+      <c r="D1" s="464" t="str">
         <f>Данные!A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
@@ -9347,17 +9356,17 @@
       <c r="L2" s="381"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="512" t="s">
+      <c r="A3" s="520" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="512"/>
-      <c r="C3" s="512"/>
-      <c r="D3" s="512"/>
-      <c r="E3" s="512"/>
-      <c r="F3" s="512"/>
-      <c r="G3" s="512"/>
-      <c r="H3" s="512"/>
-      <c r="I3" s="512"/>
+      <c r="B3" s="520"/>
+      <c r="C3" s="520"/>
+      <c r="D3" s="520"/>
+      <c r="E3" s="520"/>
+      <c r="F3" s="520"/>
+      <c r="G3" s="520"/>
+      <c r="H3" s="520"/>
+      <c r="I3" s="520"/>
       <c r="K3" s="382"/>
       <c r="L3" s="382"/>
       <c r="M3" s="383"/>
@@ -9670,7 +9679,7 @@
         <f>Данные!$B22</f>
         <v>24</v>
       </c>
-      <c r="E14" s="471">
+      <c r="E14" s="463">
         <v>24</v>
       </c>
       <c r="F14" s="379"/>
@@ -9846,216 +9855,230 @@
         <f>D6*700000</f>
         <v>16800000</v>
       </c>
-      <c r="B21" s="423">
-        <v>43759</v>
-      </c>
-      <c r="C21" s="424">
-        <v>43765</v>
-      </c>
-      <c r="D21" s="423">
-        <v>43769</v>
-      </c>
-      <c r="E21" s="425">
-        <v>948096</v>
-      </c>
-      <c r="F21" s="425">
-        <v>1031915</v>
-      </c>
-      <c r="G21" s="426">
+      <c r="B21" s="428">
+        <v>43887</v>
+      </c>
+      <c r="C21" s="491" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="428">
+        <v>43892</v>
+      </c>
+      <c r="E21" s="492">
+        <v>491040</v>
+      </c>
+      <c r="F21" s="492">
+        <v>540631</v>
+      </c>
+      <c r="G21" s="423">
         <f>F21/A$21</f>
-        <v>6.1423511904761904E-2</v>
-      </c>
-      <c r="H21" s="427">
+        <v>3.218041666666667E-2</v>
+      </c>
+      <c r="H21" s="424">
         <f>A21-F21</f>
-        <v>15768085</v>
-      </c>
-      <c r="I21" s="428">
+        <v>16259369</v>
+      </c>
+      <c r="I21" s="425">
         <f>1-G21</f>
-        <v>0.93857648809523808</v>
-      </c>
-      <c r="J21" s="647"/>
+        <v>0.96781958333333329</v>
+      </c>
+      <c r="J21" s="484">
+        <v>455</v>
+      </c>
       <c r="K21" s="403"/>
       <c r="L21" s="403"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="430"/>
-      <c r="B22" s="431"/>
-      <c r="C22" s="431"/>
-      <c r="D22" s="431"/>
-      <c r="E22" s="432"/>
-      <c r="F22" s="432"/>
-      <c r="G22" s="426">
+      <c r="A22" s="427"/>
+      <c r="B22" s="491" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="491">
+        <v>43893</v>
+      </c>
+      <c r="D22" s="428">
+        <v>43900</v>
+      </c>
+      <c r="E22" s="492">
+        <v>400752</v>
+      </c>
+      <c r="F22" s="492">
+        <v>414822</v>
+      </c>
+      <c r="G22" s="423">
         <f>F22/A$21</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="433">
+        <v>2.4691785714285715E-2</v>
+      </c>
+      <c r="H22" s="429">
         <f>H21-F22</f>
-        <v>15768085</v>
-      </c>
-      <c r="I22" s="434">
+        <v>15844547</v>
+      </c>
+      <c r="I22" s="430">
         <f>I21-G22</f>
-        <v>0.93857648809523808</v>
-      </c>
-      <c r="J22" s="648"/>
+        <v>0.94312779761904753</v>
+      </c>
+      <c r="J22" s="485">
+        <v>455</v>
+      </c>
       <c r="K22" s="383"/>
       <c r="L22" s="383"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="435"/>
-      <c r="B23" s="436"/>
-      <c r="C23" s="436"/>
-      <c r="D23" s="436"/>
-      <c r="E23" s="437"/>
-      <c r="F23" s="437"/>
-      <c r="G23" s="438"/>
-      <c r="H23" s="439"/>
-      <c r="I23" s="440"/>
-      <c r="J23" s="649"/>
+      <c r="A23" s="431"/>
+      <c r="B23" s="432"/>
+      <c r="C23" s="432"/>
+      <c r="D23" s="432"/>
+      <c r="E23" s="493"/>
+      <c r="F23" s="493"/>
+      <c r="G23" s="433"/>
+      <c r="H23" s="434"/>
+      <c r="I23" s="435"/>
+      <c r="J23" s="486"/>
       <c r="K23" s="403"/>
       <c r="L23" s="403"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="435"/>
+      <c r="A24" s="431"/>
       <c r="B24" s="375"/>
       <c r="C24" s="375"/>
       <c r="D24" s="375"/>
-      <c r="E24" s="375"/>
-      <c r="F24" s="375"/>
+      <c r="E24" s="493"/>
+      <c r="F24" s="493"/>
       <c r="G24" s="375"/>
       <c r="H24" s="375"/>
-      <c r="I24" s="441"/>
-      <c r="J24" s="650"/>
-      <c r="K24" s="429"/>
+      <c r="I24" s="436"/>
+      <c r="J24" s="487"/>
+      <c r="K24" s="426"/>
       <c r="L24" s="383"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="435"/>
-      <c r="B25" s="436"/>
-      <c r="C25" s="436"/>
-      <c r="D25" s="436"/>
-      <c r="E25" s="437"/>
-      <c r="F25" s="437"/>
-      <c r="G25" s="442"/>
-      <c r="H25" s="439"/>
-      <c r="I25" s="440"/>
-      <c r="J25" s="649"/>
-      <c r="K25" s="443"/>
+      <c r="A25" s="431"/>
+      <c r="B25" s="432"/>
+      <c r="C25" s="432"/>
+      <c r="D25" s="432"/>
+      <c r="E25" s="493"/>
+      <c r="F25" s="493"/>
+      <c r="G25" s="437"/>
+      <c r="H25" s="434"/>
+      <c r="I25" s="435"/>
+      <c r="J25" s="486"/>
+      <c r="K25" s="438"/>
       <c r="L25" s="383"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="435"/>
-      <c r="B26" s="436"/>
-      <c r="C26" s="436"/>
-      <c r="D26" s="436"/>
-      <c r="E26" s="437"/>
-      <c r="F26" s="437"/>
-      <c r="G26" s="442"/>
-      <c r="H26" s="439"/>
-      <c r="I26" s="440"/>
-      <c r="J26" s="649"/>
-      <c r="K26" s="429"/>
+      <c r="A26" s="431"/>
+      <c r="B26" s="432"/>
+      <c r="C26" s="432"/>
+      <c r="D26" s="432"/>
+      <c r="E26" s="493"/>
+      <c r="F26" s="493"/>
+      <c r="G26" s="437"/>
+      <c r="H26" s="434"/>
+      <c r="I26" s="435"/>
+      <c r="J26" s="486"/>
+      <c r="K26" s="426"/>
       <c r="L26" s="383"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="435"/>
-      <c r="B27" s="436"/>
-      <c r="C27" s="436"/>
-      <c r="D27" s="436"/>
-      <c r="E27" s="439"/>
-      <c r="F27" s="437"/>
-      <c r="G27" s="442"/>
-      <c r="H27" s="439"/>
-      <c r="I27" s="440"/>
-      <c r="J27" s="649"/>
-      <c r="K27" s="429"/>
+      <c r="A27" s="431"/>
+      <c r="B27" s="432"/>
+      <c r="C27" s="432"/>
+      <c r="D27" s="432"/>
+      <c r="E27" s="493"/>
+      <c r="F27" s="493"/>
+      <c r="G27" s="437"/>
+      <c r="H27" s="434"/>
+      <c r="I27" s="435"/>
+      <c r="J27" s="486"/>
+      <c r="K27" s="426"/>
       <c r="L27" s="383"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="435"/>
-      <c r="B28" s="436"/>
-      <c r="C28" s="436"/>
-      <c r="D28" s="436"/>
-      <c r="E28" s="439"/>
-      <c r="F28" s="437"/>
-      <c r="G28" s="442"/>
-      <c r="H28" s="439"/>
-      <c r="I28" s="440"/>
-      <c r="J28" s="649"/>
-      <c r="K28" s="429"/>
+      <c r="A28" s="431"/>
+      <c r="B28" s="432"/>
+      <c r="C28" s="432"/>
+      <c r="D28" s="432"/>
+      <c r="E28" s="493"/>
+      <c r="F28" s="493"/>
+      <c r="G28" s="437"/>
+      <c r="H28" s="434"/>
+      <c r="I28" s="435"/>
+      <c r="J28" s="486"/>
+      <c r="K28" s="426"/>
       <c r="L28" s="383"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="435"/>
-      <c r="B29" s="436"/>
-      <c r="C29" s="436"/>
+      <c r="A29" s="431"/>
+      <c r="B29" s="432"/>
+      <c r="C29" s="432"/>
       <c r="D29" s="375"/>
-      <c r="E29" s="375"/>
-      <c r="F29" s="437"/>
-      <c r="G29" s="444"/>
-      <c r="H29" s="439"/>
-      <c r="I29" s="445"/>
-      <c r="J29" s="651"/>
-      <c r="K29" s="429"/>
+      <c r="E29" s="493"/>
+      <c r="F29" s="493"/>
+      <c r="G29" s="439"/>
+      <c r="H29" s="434"/>
+      <c r="I29" s="440"/>
+      <c r="J29" s="488"/>
+      <c r="K29" s="426"/>
       <c r="L29" s="383"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="435"/>
-      <c r="B30" s="436"/>
-      <c r="C30" s="436"/>
+      <c r="A30" s="431"/>
+      <c r="B30" s="432"/>
+      <c r="C30" s="432"/>
       <c r="D30" s="375"/>
-      <c r="E30" s="375"/>
-      <c r="F30" s="437"/>
-      <c r="G30" s="442"/>
-      <c r="H30" s="439"/>
-      <c r="I30" s="445"/>
-      <c r="J30" s="651"/>
-      <c r="K30" s="429"/>
+      <c r="E30" s="493"/>
+      <c r="F30" s="493"/>
+      <c r="G30" s="437"/>
+      <c r="H30" s="434"/>
+      <c r="I30" s="440"/>
+      <c r="J30" s="488"/>
+      <c r="K30" s="426"/>
       <c r="L30" s="383"/>
     </row>
     <row r="31" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="446"/>
-      <c r="B31" s="447"/>
-      <c r="C31" s="447"/>
-      <c r="D31" s="448"/>
-      <c r="E31" s="448"/>
-      <c r="F31" s="449"/>
-      <c r="G31" s="450"/>
-      <c r="H31" s="451"/>
-      <c r="I31" s="452"/>
-      <c r="J31" s="652"/>
+      <c r="A31" s="441"/>
+      <c r="B31" s="442"/>
+      <c r="C31" s="442"/>
+      <c r="D31" s="443"/>
+      <c r="E31" s="494"/>
+      <c r="F31" s="494"/>
+      <c r="G31" s="444"/>
+      <c r="H31" s="445"/>
+      <c r="I31" s="446"/>
+      <c r="J31" s="489"/>
       <c r="K31" s="383"/>
       <c r="L31" s="383"/>
     </row>
     <row r="32" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="453" t="s">
+      <c r="A32" s="447" t="s">
         <v>127</v>
       </c>
-      <c r="B32" s="454"/>
-      <c r="C32" s="454"/>
-      <c r="D32" s="455"/>
-      <c r="E32" s="456">
+      <c r="B32" s="448"/>
+      <c r="C32" s="448"/>
+      <c r="D32" s="449"/>
+      <c r="E32" s="495">
         <f>SUM(E21:E31)</f>
-        <v>948096</v>
-      </c>
-      <c r="F32" s="457">
+        <v>891792</v>
+      </c>
+      <c r="F32" s="496">
         <f>SUM(F21:F31)</f>
-        <v>1031915</v>
-      </c>
-      <c r="G32" s="458">
+        <v>955453</v>
+      </c>
+      <c r="G32" s="450">
         <f>SUM(G21:G31)</f>
-        <v>6.1423511904761904E-2</v>
-      </c>
-      <c r="H32" s="459">
+        <v>5.6872202380952384E-2</v>
+      </c>
+      <c r="H32" s="451">
         <f>A21-F32</f>
-        <v>15768085</v>
-      </c>
-      <c r="I32" s="460">
+        <v>15844547</v>
+      </c>
+      <c r="I32" s="452">
         <f>1-G32</f>
-        <v>0.93857648809523808</v>
-      </c>
-      <c r="J32" s="653"/>
-      <c r="K32" s="461"/>
-      <c r="L32" s="461"/>
+        <v>0.94312779761904764</v>
+      </c>
+      <c r="J32" s="490"/>
+      <c r="K32" s="453"/>
+      <c r="L32" s="453"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="383"/>
@@ -10070,12 +10093,12 @@
       <c r="J35" s="383"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="513" t="s">
+      <c r="A36" s="521" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="513"/>
-      <c r="C36" s="513"/>
-      <c r="D36" s="513"/>
+      <c r="B36" s="521"/>
+      <c r="C36" s="521"/>
+      <c r="D36" s="521"/>
       <c r="E36" s="383"/>
       <c r="F36" s="383"/>
       <c r="G36" s="383"/>
@@ -10084,14 +10107,14 @@
       <c r="J36" s="383"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="514" t="s">
+      <c r="A37" s="522" t="s">
         <v>129</v>
       </c>
-      <c r="B37" s="514"/>
-      <c r="C37" s="462" t="s">
+      <c r="B37" s="522"/>
+      <c r="C37" s="454" t="s">
         <v>130</v>
       </c>
-      <c r="D37" s="462" t="s">
+      <c r="D37" s="454" t="s">
         <v>131</v>
       </c>
       <c r="E37" s="383"/>
@@ -10102,27 +10125,27 @@
       <c r="J37" s="383"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="515">
+      <c r="A38" s="523">
         <f>A21-F32</f>
-        <v>15768085</v>
-      </c>
-      <c r="B38" s="516"/>
-      <c r="C38" s="463">
+        <v>15844547</v>
+      </c>
+      <c r="B38" s="524"/>
+      <c r="C38" s="455">
         <f>1-G32</f>
-        <v>0.93857648809523808</v>
-      </c>
-      <c r="D38" s="464">
+        <v>0.94312779761904764</v>
+      </c>
+      <c r="D38" s="456">
         <f>(C38/0.8)*100</f>
-        <v>117.32206101190474</v>
-      </c>
-      <c r="E38" s="465" t="s">
+        <v>117.89097470238094</v>
+      </c>
+      <c r="E38" s="457" t="s">
         <v>132</v>
       </c>
-      <c r="F38" s="465"/>
-      <c r="G38" s="465"/>
-      <c r="H38" s="465"/>
-      <c r="I38" s="465"/>
-      <c r="J38" s="465"/>
+      <c r="F38" s="457"/>
+      <c r="G38" s="457"/>
+      <c r="H38" s="457"/>
+      <c r="I38" s="457"/>
+      <c r="J38" s="457"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="383"/>
@@ -10149,8 +10172,8 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="383"/>
-      <c r="B41" s="466"/>
-      <c r="C41" s="466"/>
+      <c r="B41" s="458"/>
+      <c r="C41" s="458"/>
       <c r="D41" s="383"/>
       <c r="E41" s="383"/>
       <c r="F41" s="383"/>
@@ -10160,113 +10183,113 @@
       <c r="J41" s="383"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="467"/>
-      <c r="B42" s="467"/>
-      <c r="C42" s="467"/>
-      <c r="D42" s="467"/>
-      <c r="E42" s="467"/>
-      <c r="F42" s="467"/>
-      <c r="G42" s="467"/>
-      <c r="H42" s="467"/>
-      <c r="I42" s="517"/>
-      <c r="J42" s="518"/>
+      <c r="A42" s="459"/>
+      <c r="B42" s="459"/>
+      <c r="C42" s="459"/>
+      <c r="D42" s="459"/>
+      <c r="E42" s="459"/>
+      <c r="F42" s="459"/>
+      <c r="G42" s="459"/>
+      <c r="H42" s="459"/>
+      <c r="I42" s="515"/>
+      <c r="J42" s="516"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="468"/>
-      <c r="B43" s="469"/>
-      <c r="C43" s="469"/>
+      <c r="A43" s="460"/>
+      <c r="B43" s="461"/>
+      <c r="C43" s="461"/>
       <c r="D43" s="383"/>
       <c r="E43" s="383"/>
-      <c r="F43" s="469"/>
+      <c r="F43" s="461"/>
       <c r="G43" s="413"/>
-      <c r="H43" s="469"/>
+      <c r="H43" s="461"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="468"/>
-      <c r="B44" s="469"/>
-      <c r="C44" s="469"/>
-      <c r="D44" s="469"/>
-      <c r="E44" s="469"/>
-      <c r="F44" s="469"/>
+      <c r="A44" s="460"/>
+      <c r="B44" s="461"/>
+      <c r="C44" s="461"/>
+      <c r="D44" s="461"/>
+      <c r="E44" s="461"/>
+      <c r="F44" s="461"/>
       <c r="G44" s="413"/>
-      <c r="H44" s="469"/>
+      <c r="H44" s="461"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="468"/>
-      <c r="B45" s="469"/>
-      <c r="C45" s="469"/>
+      <c r="A45" s="460"/>
+      <c r="B45" s="461"/>
+      <c r="C45" s="461"/>
       <c r="D45" s="383"/>
       <c r="E45" s="383"/>
-      <c r="F45" s="469"/>
+      <c r="F45" s="461"/>
       <c r="G45" s="413"/>
-      <c r="H45" s="469"/>
+      <c r="H45" s="461"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="468"/>
-      <c r="B46" s="469"/>
-      <c r="C46" s="469"/>
-      <c r="D46" s="469"/>
-      <c r="E46" s="469"/>
-      <c r="F46" s="469"/>
+      <c r="A46" s="460"/>
+      <c r="B46" s="461"/>
+      <c r="C46" s="461"/>
+      <c r="D46" s="461"/>
+      <c r="E46" s="461"/>
+      <c r="F46" s="461"/>
       <c r="G46" s="413"/>
-      <c r="H46" s="469"/>
+      <c r="H46" s="461"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="468"/>
-      <c r="B47" s="469"/>
-      <c r="C47" s="469"/>
+      <c r="A47" s="460"/>
+      <c r="B47" s="461"/>
+      <c r="C47" s="461"/>
       <c r="D47" s="383"/>
       <c r="E47" s="383"/>
-      <c r="F47" s="469"/>
+      <c r="F47" s="461"/>
       <c r="G47" s="413"/>
-      <c r="H47" s="469"/>
+      <c r="H47" s="461"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="468"/>
-      <c r="B48" s="469"/>
+      <c r="A48" s="460"/>
+      <c r="B48" s="461"/>
       <c r="C48" s="403"/>
-      <c r="D48" s="470"/>
-      <c r="E48" s="470"/>
+      <c r="D48" s="462"/>
+      <c r="E48" s="462"/>
       <c r="F48" s="403"/>
       <c r="G48" s="403"/>
       <c r="H48" s="403"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="468"/>
-      <c r="B49" s="469"/>
-      <c r="C49" s="469"/>
-      <c r="D49" s="469"/>
-      <c r="E49" s="469"/>
-      <c r="F49" s="469"/>
+      <c r="A49" s="460"/>
+      <c r="B49" s="461"/>
+      <c r="C49" s="461"/>
+      <c r="D49" s="461"/>
+      <c r="E49" s="461"/>
+      <c r="F49" s="461"/>
       <c r="G49" s="413"/>
-      <c r="H49" s="469"/>
+      <c r="H49" s="461"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="468"/>
-      <c r="B50" s="469"/>
-      <c r="C50" s="469"/>
-      <c r="D50" s="469"/>
-      <c r="E50" s="469"/>
-      <c r="F50" s="469"/>
+      <c r="A50" s="460"/>
+      <c r="B50" s="461"/>
+      <c r="C50" s="461"/>
+      <c r="D50" s="461"/>
+      <c r="E50" s="461"/>
+      <c r="F50" s="461"/>
       <c r="G50" s="413"/>
-      <c r="H50" s="469"/>
+      <c r="H50" s="461"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="468"/>
-      <c r="B51" s="469"/>
-      <c r="C51" s="469"/>
+      <c r="A51" s="460"/>
+      <c r="B51" s="461"/>
+      <c r="C51" s="461"/>
       <c r="D51" s="383"/>
       <c r="E51" s="383"/>
-      <c r="F51" s="469"/>
+      <c r="F51" s="461"/>
       <c r="G51" s="413"/>
-      <c r="H51" s="469"/>
+      <c r="H51" s="461"/>
     </row>
     <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="383"/>
-      <c r="B52" s="510"/>
-      <c r="C52" s="510"/>
-      <c r="D52" s="511"/>
-      <c r="E52" s="465"/>
+      <c r="B52" s="518"/>
+      <c r="C52" s="518"/>
+      <c r="D52" s="519"/>
+      <c r="E52" s="457"/>
       <c r="F52" s="383"/>
       <c r="G52" s="383"/>
       <c r="H52" s="383"/>
@@ -10274,31 +10297,31 @@
       <c r="J52" s="383"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="467"/>
-      <c r="B53" s="467"/>
-      <c r="C53" s="467"/>
-      <c r="D53" s="467"/>
-      <c r="E53" s="467"/>
-      <c r="F53" s="467"/>
-      <c r="G53" s="467"/>
-      <c r="H53" s="467"/>
-      <c r="I53" s="517"/>
-      <c r="J53" s="518"/>
+      <c r="A53" s="459"/>
+      <c r="B53" s="459"/>
+      <c r="C53" s="459"/>
+      <c r="D53" s="459"/>
+      <c r="E53" s="459"/>
+      <c r="F53" s="459"/>
+      <c r="G53" s="459"/>
+      <c r="H53" s="459"/>
+      <c r="I53" s="515"/>
+      <c r="J53" s="516"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="468"/>
+      <c r="A54" s="460"/>
       <c r="B54" s="383"/>
       <c r="C54" s="383"/>
       <c r="D54" s="383"/>
       <c r="E54" s="383"/>
       <c r="F54" s="413"/>
       <c r="G54" s="413"/>
-      <c r="H54" s="469"/>
-      <c r="I54" s="519"/>
-      <c r="J54" s="519"/>
+      <c r="H54" s="461"/>
+      <c r="I54" s="517"/>
+      <c r="J54" s="517"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="468"/>
+      <c r="A55" s="460"/>
       <c r="B55" s="383"/>
       <c r="C55" s="383"/>
       <c r="D55" s="403"/>
@@ -10306,8 +10329,8 @@
       <c r="F55" s="403"/>
       <c r="G55" s="403"/>
       <c r="H55" s="403"/>
-      <c r="I55" s="519"/>
-      <c r="J55" s="519"/>
+      <c r="I55" s="517"/>
+      <c r="J55" s="517"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="383"/>
@@ -10320,26 +10343,26 @@
       <c r="H56" s="383"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="517"/>
-      <c r="C61" s="518"/>
+      <c r="B61" s="515"/>
+      <c r="C61" s="516"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="517"/>
-      <c r="C68" s="518"/>
+      <c r="B68" s="515"/>
+      <c r="C68" s="516"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B68:C68"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B68:C68"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10354,7 +10377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A26" sqref="A26:A47"/>
     </sheetView>
   </sheetViews>
@@ -10422,47 +10445,47 @@
       <c r="J8" s="310"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="521" t="s">
+      <c r="A11" s="549" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="521"/>
-      <c r="C11" s="521"/>
-      <c r="D11" s="521"/>
-      <c r="E11" s="521"/>
-      <c r="F11" s="521"/>
-      <c r="G11" s="521"/>
-      <c r="H11" s="521"/>
-      <c r="I11" s="521"/>
-      <c r="J11" s="521"/>
+      <c r="B11" s="549"/>
+      <c r="C11" s="549"/>
+      <c r="D11" s="549"/>
+      <c r="E11" s="549"/>
+      <c r="F11" s="549"/>
+      <c r="G11" s="549"/>
+      <c r="H11" s="549"/>
+      <c r="I11" s="549"/>
+      <c r="J11" s="549"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="520" t="s">
+      <c r="A12" s="548" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="520"/>
-      <c r="C12" s="520"/>
-      <c r="D12" s="520"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="520"/>
-      <c r="G12" s="520"/>
-      <c r="H12" s="520"/>
-      <c r="I12" s="520"/>
-      <c r="J12" s="520"/>
+      <c r="B12" s="548"/>
+      <c r="C12" s="548"/>
+      <c r="D12" s="548"/>
+      <c r="E12" s="548"/>
+      <c r="F12" s="548"/>
+      <c r="G12" s="548"/>
+      <c r="H12" s="548"/>
+      <c r="I12" s="548"/>
+      <c r="J12" s="548"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="522" t="str">
+      <c r="A13" s="550" t="str">
         <f>Данные!A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="B13" s="521"/>
-      <c r="C13" s="521"/>
-      <c r="D13" s="521"/>
-      <c r="E13" s="521"/>
-      <c r="F13" s="521"/>
-      <c r="G13" s="521"/>
-      <c r="H13" s="521"/>
-      <c r="I13" s="521"/>
-      <c r="J13" s="521"/>
+      <c r="B13" s="549"/>
+      <c r="C13" s="549"/>
+      <c r="D13" s="549"/>
+      <c r="E13" s="549"/>
+      <c r="F13" s="549"/>
+      <c r="G13" s="549"/>
+      <c r="H13" s="549"/>
+      <c r="I13" s="549"/>
+      <c r="J13" s="549"/>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="304" t="s">
@@ -10587,493 +10610,493 @@
       <c r="J21" s="305"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="526" t="s">
+      <c r="A22" s="546" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="526" t="s">
+      <c r="B22" s="546" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="526"/>
-      <c r="D22" s="526"/>
-      <c r="E22" s="526" t="s">
+      <c r="C22" s="546"/>
+      <c r="D22" s="546"/>
+      <c r="E22" s="546" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="526"/>
-      <c r="G22" s="544" t="s">
+      <c r="F22" s="546"/>
+      <c r="G22" s="547" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="526" t="s">
+      <c r="H22" s="546" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="526"/>
-      <c r="J22" s="526"/>
+      <c r="I22" s="546"/>
+      <c r="J22" s="546"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="526"/>
-      <c r="B23" s="526"/>
-      <c r="C23" s="526"/>
-      <c r="D23" s="526"/>
-      <c r="E23" s="526"/>
-      <c r="F23" s="526"/>
-      <c r="G23" s="544"/>
-      <c r="H23" s="526"/>
-      <c r="I23" s="526"/>
-      <c r="J23" s="526"/>
+      <c r="A23" s="546"/>
+      <c r="B23" s="546"/>
+      <c r="C23" s="546"/>
+      <c r="D23" s="546"/>
+      <c r="E23" s="546"/>
+      <c r="F23" s="546"/>
+      <c r="G23" s="547"/>
+      <c r="H23" s="546"/>
+      <c r="I23" s="546"/>
+      <c r="J23" s="546"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="527">
+      <c r="A24" s="525">
         <v>1</v>
       </c>
-      <c r="B24" s="541" t="s">
+      <c r="B24" s="551" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="542"/>
-      <c r="D24" s="543"/>
-      <c r="E24" s="529" t="str">
+      <c r="C24" s="552"/>
+      <c r="D24" s="553"/>
+      <c r="E24" s="530" t="str">
         <f>Данные!C14</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F24" s="530"/>
-      <c r="G24" s="533">
+      <c r="F24" s="531"/>
+      <c r="G24" s="534">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="535"/>
-      <c r="I24" s="536"/>
-      <c r="J24" s="537"/>
+      <c r="H24" s="536"/>
+      <c r="I24" s="537"/>
+      <c r="J24" s="538"/>
     </row>
     <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="528"/>
-      <c r="B25" s="523" t="str">
+      <c r="A25" s="526"/>
+      <c r="B25" s="542" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C25" s="524"/>
-      <c r="D25" s="525"/>
-      <c r="E25" s="531"/>
-      <c r="F25" s="532"/>
-      <c r="G25" s="534"/>
-      <c r="H25" s="538"/>
-      <c r="I25" s="539"/>
-      <c r="J25" s="540"/>
+      <c r="C25" s="543"/>
+      <c r="D25" s="544"/>
+      <c r="E25" s="545"/>
+      <c r="F25" s="533"/>
+      <c r="G25" s="535"/>
+      <c r="H25" s="539"/>
+      <c r="I25" s="540"/>
+      <c r="J25" s="541"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="527">
+      <c r="A26" s="525">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="545" t="s">
+      <c r="B26" s="527" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="546"/>
-      <c r="D26" s="547"/>
-      <c r="E26" s="529" t="str">
+      <c r="C26" s="528"/>
+      <c r="D26" s="529"/>
+      <c r="E26" s="530" t="str">
         <f>Данные!C15</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F26" s="530"/>
-      <c r="G26" s="533">
+      <c r="F26" s="531"/>
+      <c r="G26" s="534">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="535"/>
-      <c r="I26" s="536"/>
-      <c r="J26" s="537"/>
+      <c r="H26" s="536"/>
+      <c r="I26" s="537"/>
+      <c r="J26" s="538"/>
     </row>
     <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="528"/>
-      <c r="B27" s="523" t="str">
+      <c r="A27" s="526"/>
+      <c r="B27" s="542" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C27" s="524"/>
-      <c r="D27" s="525"/>
-      <c r="E27" s="531"/>
-      <c r="F27" s="532"/>
-      <c r="G27" s="534"/>
-      <c r="H27" s="538"/>
-      <c r="I27" s="539"/>
-      <c r="J27" s="540"/>
+      <c r="C27" s="543"/>
+      <c r="D27" s="544"/>
+      <c r="E27" s="545"/>
+      <c r="F27" s="533"/>
+      <c r="G27" s="535"/>
+      <c r="H27" s="539"/>
+      <c r="I27" s="540"/>
+      <c r="J27" s="541"/>
     </row>
     <row r="28" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="527">
+      <c r="A28" s="525">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="545" t="s">
+      <c r="B28" s="527" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="546"/>
-      <c r="D28" s="547"/>
-      <c r="E28" s="529" t="str">
+      <c r="C28" s="528"/>
+      <c r="D28" s="529"/>
+      <c r="E28" s="530" t="str">
         <f>Данные!C16</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F28" s="530"/>
-      <c r="G28" s="533">
+      <c r="F28" s="531"/>
+      <c r="G28" s="534">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H28" s="535"/>
-      <c r="I28" s="536"/>
-      <c r="J28" s="537"/>
+      <c r="H28" s="536"/>
+      <c r="I28" s="537"/>
+      <c r="J28" s="538"/>
     </row>
     <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="528"/>
-      <c r="B29" s="523" t="str">
+      <c r="A29" s="526"/>
+      <c r="B29" s="542" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C29" s="524"/>
-      <c r="D29" s="525"/>
-      <c r="E29" s="531"/>
-      <c r="F29" s="532"/>
-      <c r="G29" s="534"/>
-      <c r="H29" s="538"/>
-      <c r="I29" s="539"/>
-      <c r="J29" s="540"/>
+      <c r="C29" s="543"/>
+      <c r="D29" s="544"/>
+      <c r="E29" s="545"/>
+      <c r="F29" s="533"/>
+      <c r="G29" s="535"/>
+      <c r="H29" s="539"/>
+      <c r="I29" s="540"/>
+      <c r="J29" s="541"/>
     </row>
     <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="527">
+      <c r="A30" s="525">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="545" t="s">
+      <c r="B30" s="527" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="546"/>
-      <c r="D30" s="547"/>
-      <c r="E30" s="529" t="str">
+      <c r="C30" s="528"/>
+      <c r="D30" s="529"/>
+      <c r="E30" s="530" t="str">
         <f>Данные!C17</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F30" s="530"/>
-      <c r="G30" s="533">
+      <c r="F30" s="531"/>
+      <c r="G30" s="534">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="535"/>
-      <c r="I30" s="536"/>
-      <c r="J30" s="537"/>
+      <c r="H30" s="536"/>
+      <c r="I30" s="537"/>
+      <c r="J30" s="538"/>
     </row>
     <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="528"/>
-      <c r="B31" s="523" t="str">
+      <c r="A31" s="526"/>
+      <c r="B31" s="542" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C31" s="524"/>
-      <c r="D31" s="525"/>
-      <c r="E31" s="548"/>
-      <c r="F31" s="532"/>
-      <c r="G31" s="534"/>
-      <c r="H31" s="538"/>
-      <c r="I31" s="539"/>
-      <c r="J31" s="540"/>
+      <c r="C31" s="543"/>
+      <c r="D31" s="544"/>
+      <c r="E31" s="532"/>
+      <c r="F31" s="533"/>
+      <c r="G31" s="535"/>
+      <c r="H31" s="539"/>
+      <c r="I31" s="540"/>
+      <c r="J31" s="541"/>
     </row>
     <row r="32" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="527">
+      <c r="A32" s="525">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="545" t="s">
+      <c r="B32" s="527" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="546"/>
-      <c r="D32" s="547"/>
-      <c r="E32" s="529" t="str">
+      <c r="C32" s="528"/>
+      <c r="D32" s="529"/>
+      <c r="E32" s="530" t="str">
         <f>Данные!C18</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F32" s="530"/>
-      <c r="G32" s="533">
+      <c r="F32" s="531"/>
+      <c r="G32" s="534">
         <f>Данные!B18</f>
         <v>130</v>
       </c>
-      <c r="H32" s="535"/>
-      <c r="I32" s="536"/>
-      <c r="J32" s="537"/>
+      <c r="H32" s="536"/>
+      <c r="I32" s="537"/>
+      <c r="J32" s="538"/>
     </row>
     <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="528"/>
-      <c r="B33" s="523" t="str">
+      <c r="A33" s="526"/>
+      <c r="B33" s="542" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C33" s="524"/>
-      <c r="D33" s="525"/>
-      <c r="E33" s="548"/>
-      <c r="F33" s="532"/>
-      <c r="G33" s="534"/>
-      <c r="H33" s="538"/>
-      <c r="I33" s="539"/>
-      <c r="J33" s="540"/>
+      <c r="C33" s="543"/>
+      <c r="D33" s="544"/>
+      <c r="E33" s="532"/>
+      <c r="F33" s="533"/>
+      <c r="G33" s="535"/>
+      <c r="H33" s="539"/>
+      <c r="I33" s="540"/>
+      <c r="J33" s="541"/>
     </row>
     <row r="34" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="527">
+      <c r="A34" s="525">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="545" t="s">
+      <c r="B34" s="527" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="546"/>
-      <c r="D34" s="547"/>
-      <c r="E34" s="529" t="str">
+      <c r="C34" s="528"/>
+      <c r="D34" s="529"/>
+      <c r="E34" s="530" t="str">
         <f>Данные!C19</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F34" s="530"/>
-      <c r="G34" s="533">
+      <c r="F34" s="531"/>
+      <c r="G34" s="534">
         <f>Данные!B19</f>
         <v>130</v>
       </c>
-      <c r="H34" s="535"/>
-      <c r="I34" s="536"/>
-      <c r="J34" s="537"/>
+      <c r="H34" s="536"/>
+      <c r="I34" s="537"/>
+      <c r="J34" s="538"/>
     </row>
     <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="528"/>
-      <c r="B35" s="523" t="str">
+      <c r="A35" s="526"/>
+      <c r="B35" s="542" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C35" s="524"/>
-      <c r="D35" s="525"/>
-      <c r="E35" s="548"/>
-      <c r="F35" s="532"/>
-      <c r="G35" s="534"/>
-      <c r="H35" s="538"/>
-      <c r="I35" s="539"/>
-      <c r="J35" s="540"/>
+      <c r="C35" s="543"/>
+      <c r="D35" s="544"/>
+      <c r="E35" s="532"/>
+      <c r="F35" s="533"/>
+      <c r="G35" s="535"/>
+      <c r="H35" s="539"/>
+      <c r="I35" s="540"/>
+      <c r="J35" s="541"/>
     </row>
     <row r="36" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="527">
+      <c r="A36" s="525">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="545" t="s">
+      <c r="B36" s="527" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="546"/>
-      <c r="D36" s="547"/>
-      <c r="E36" s="529" t="str">
+      <c r="C36" s="528"/>
+      <c r="D36" s="529"/>
+      <c r="E36" s="530" t="str">
         <f>Данные!C20</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F36" s="530"/>
-      <c r="G36" s="533">
+      <c r="F36" s="531"/>
+      <c r="G36" s="534">
         <f>Данные!B20</f>
         <v>60</v>
       </c>
-      <c r="H36" s="535"/>
-      <c r="I36" s="536"/>
-      <c r="J36" s="537"/>
+      <c r="H36" s="536"/>
+      <c r="I36" s="537"/>
+      <c r="J36" s="538"/>
     </row>
     <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="528"/>
-      <c r="B37" s="523" t="str">
+      <c r="A37" s="526"/>
+      <c r="B37" s="542" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C37" s="524"/>
-      <c r="D37" s="525"/>
-      <c r="E37" s="548"/>
-      <c r="F37" s="532"/>
-      <c r="G37" s="534"/>
-      <c r="H37" s="538"/>
-      <c r="I37" s="539"/>
-      <c r="J37" s="540"/>
+      <c r="C37" s="543"/>
+      <c r="D37" s="544"/>
+      <c r="E37" s="532"/>
+      <c r="F37" s="533"/>
+      <c r="G37" s="535"/>
+      <c r="H37" s="539"/>
+      <c r="I37" s="540"/>
+      <c r="J37" s="541"/>
     </row>
     <row r="38" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="527">
+      <c r="A38" s="525">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="545" t="s">
+      <c r="B38" s="527" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="546"/>
-      <c r="D38" s="547"/>
-      <c r="E38" s="529" t="str">
+      <c r="C38" s="528"/>
+      <c r="D38" s="529"/>
+      <c r="E38" s="530" t="str">
         <f>Данные!C21</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F38" s="530"/>
-      <c r="G38" s="533">
+      <c r="F38" s="531"/>
+      <c r="G38" s="534">
         <f>Данные!B21</f>
         <v>18</v>
       </c>
-      <c r="H38" s="535"/>
-      <c r="I38" s="536"/>
-      <c r="J38" s="537"/>
+      <c r="H38" s="536"/>
+      <c r="I38" s="537"/>
+      <c r="J38" s="538"/>
     </row>
     <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="528"/>
-      <c r="B39" s="523" t="str">
+      <c r="A39" s="526"/>
+      <c r="B39" s="542" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C39" s="524"/>
-      <c r="D39" s="525"/>
-      <c r="E39" s="548"/>
-      <c r="F39" s="532"/>
-      <c r="G39" s="534"/>
-      <c r="H39" s="538"/>
-      <c r="I39" s="539"/>
-      <c r="J39" s="540"/>
+      <c r="C39" s="543"/>
+      <c r="D39" s="544"/>
+      <c r="E39" s="532"/>
+      <c r="F39" s="533"/>
+      <c r="G39" s="535"/>
+      <c r="H39" s="539"/>
+      <c r="I39" s="540"/>
+      <c r="J39" s="541"/>
     </row>
     <row r="40" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="527">
+      <c r="A40" s="525">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="545" t="s">
+      <c r="B40" s="527" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="546"/>
-      <c r="D40" s="547"/>
-      <c r="E40" s="529" t="str">
+      <c r="C40" s="528"/>
+      <c r="D40" s="529"/>
+      <c r="E40" s="530" t="str">
         <f>Данные!C23</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F40" s="530"/>
-      <c r="G40" s="533">
+      <c r="F40" s="531"/>
+      <c r="G40" s="534">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="H40" s="535"/>
-      <c r="I40" s="536"/>
-      <c r="J40" s="537"/>
+      <c r="H40" s="536"/>
+      <c r="I40" s="537"/>
+      <c r="J40" s="538"/>
     </row>
     <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="528"/>
-      <c r="B41" s="523" t="str">
+      <c r="A41" s="526"/>
+      <c r="B41" s="542" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C41" s="524"/>
-      <c r="D41" s="525"/>
-      <c r="E41" s="548"/>
-      <c r="F41" s="532"/>
-      <c r="G41" s="534"/>
-      <c r="H41" s="538"/>
-      <c r="I41" s="539"/>
-      <c r="J41" s="540"/>
+      <c r="C41" s="543"/>
+      <c r="D41" s="544"/>
+      <c r="E41" s="532"/>
+      <c r="F41" s="533"/>
+      <c r="G41" s="535"/>
+      <c r="H41" s="539"/>
+      <c r="I41" s="540"/>
+      <c r="J41" s="541"/>
     </row>
     <row r="42" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="527">
+      <c r="A42" s="525">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="545" t="s">
+      <c r="B42" s="527" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="546"/>
-      <c r="D42" s="547"/>
-      <c r="E42" s="529" t="str">
+      <c r="C42" s="528"/>
+      <c r="D42" s="529"/>
+      <c r="E42" s="530" t="str">
         <f>Данные!C26</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F42" s="530"/>
-      <c r="G42" s="533">
+      <c r="F42" s="531"/>
+      <c r="G42" s="534">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="H42" s="535"/>
-      <c r="I42" s="536"/>
-      <c r="J42" s="537"/>
+      <c r="H42" s="536"/>
+      <c r="I42" s="537"/>
+      <c r="J42" s="538"/>
     </row>
     <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="528"/>
-      <c r="B43" s="523" t="str">
+      <c r="A43" s="526"/>
+      <c r="B43" s="542" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C43" s="524"/>
-      <c r="D43" s="525"/>
-      <c r="E43" s="548"/>
-      <c r="F43" s="532"/>
-      <c r="G43" s="534"/>
-      <c r="H43" s="538"/>
-      <c r="I43" s="539"/>
-      <c r="J43" s="540"/>
+      <c r="C43" s="543"/>
+      <c r="D43" s="544"/>
+      <c r="E43" s="532"/>
+      <c r="F43" s="533"/>
+      <c r="G43" s="535"/>
+      <c r="H43" s="539"/>
+      <c r="I43" s="540"/>
+      <c r="J43" s="541"/>
     </row>
     <row r="44" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="527">
+      <c r="A44" s="525">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="545" t="s">
+      <c r="B44" s="527" t="s">
         <v>105</v>
       </c>
-      <c r="C44" s="546"/>
-      <c r="D44" s="547"/>
-      <c r="E44" s="529">
+      <c r="C44" s="528"/>
+      <c r="D44" s="529"/>
+      <c r="E44" s="530">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="530"/>
-      <c r="G44" s="533">
+      <c r="F44" s="531"/>
+      <c r="G44" s="534">
         <f>Данные!B27</f>
         <v>18</v>
       </c>
-      <c r="H44" s="535"/>
-      <c r="I44" s="536"/>
-      <c r="J44" s="537"/>
+      <c r="H44" s="536"/>
+      <c r="I44" s="537"/>
+      <c r="J44" s="538"/>
     </row>
     <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="528"/>
-      <c r="B45" s="523" t="str">
+      <c r="A45" s="526"/>
+      <c r="B45" s="542" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C45" s="524"/>
-      <c r="D45" s="525"/>
-      <c r="E45" s="548"/>
-      <c r="F45" s="532"/>
-      <c r="G45" s="534"/>
-      <c r="H45" s="538"/>
-      <c r="I45" s="539"/>
-      <c r="J45" s="540"/>
+      <c r="C45" s="543"/>
+      <c r="D45" s="544"/>
+      <c r="E45" s="532"/>
+      <c r="F45" s="533"/>
+      <c r="G45" s="535"/>
+      <c r="H45" s="539"/>
+      <c r="I45" s="540"/>
+      <c r="J45" s="541"/>
     </row>
     <row r="46" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="527">
+      <c r="A46" s="525">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="545" t="s">
+      <c r="B46" s="527" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="546"/>
-      <c r="D46" s="547"/>
-      <c r="E46" s="529" t="str">
+      <c r="C46" s="528"/>
+      <c r="D46" s="529"/>
+      <c r="E46" s="530" t="str">
         <f>Данные!C24</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F46" s="530"/>
-      <c r="G46" s="533">
+      <c r="F46" s="531"/>
+      <c r="G46" s="534">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="535"/>
-      <c r="I46" s="536"/>
-      <c r="J46" s="537"/>
+      <c r="H46" s="536"/>
+      <c r="I46" s="537"/>
+      <c r="J46" s="538"/>
     </row>
     <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="528"/>
-      <c r="B47" s="523" t="str">
+      <c r="A47" s="526"/>
+      <c r="B47" s="542" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C47" s="524"/>
-      <c r="D47" s="525"/>
-      <c r="E47" s="548"/>
-      <c r="F47" s="532"/>
-      <c r="G47" s="534"/>
-      <c r="H47" s="538"/>
-      <c r="I47" s="539"/>
-      <c r="J47" s="540"/>
+      <c r="C47" s="543"/>
+      <c r="D47" s="544"/>
+      <c r="E47" s="532"/>
+      <c r="F47" s="533"/>
+      <c r="G47" s="535"/>
+      <c r="H47" s="539"/>
+      <c r="I47" s="540"/>
+      <c r="J47" s="541"/>
     </row>
     <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="304"/>
@@ -11202,70 +11225,6 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -11282,6 +11241,70 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11336,47 +11359,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="563"/>
-      <c r="C2" s="564"/>
-      <c r="D2" s="565"/>
-      <c r="E2" s="572" t="s">
+      <c r="B2" s="558"/>
+      <c r="C2" s="559"/>
+      <c r="D2" s="560"/>
+      <c r="E2" s="567" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="573"/>
-      <c r="G2" s="573"/>
-      <c r="H2" s="574"/>
-      <c r="I2" s="579" t="s">
+      <c r="F2" s="568"/>
+      <c r="G2" s="568"/>
+      <c r="H2" s="569"/>
+      <c r="I2" s="574" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="580"/>
-      <c r="K2" s="583">
+      <c r="J2" s="575"/>
+      <c r="K2" s="578">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="584"/>
+      <c r="L2" s="579"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="575"/>
-      <c r="Q2" s="575"/>
+      <c r="P2" s="570"/>
+      <c r="Q2" s="570"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="566"/>
-      <c r="C3" s="567"/>
-      <c r="D3" s="568"/>
-      <c r="E3" s="576" t="s">
+      <c r="B3" s="561"/>
+      <c r="C3" s="562"/>
+      <c r="D3" s="563"/>
+      <c r="E3" s="571" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="577"/>
-      <c r="G3" s="577"/>
-      <c r="H3" s="578"/>
-      <c r="I3" s="581"/>
-      <c r="J3" s="582"/>
-      <c r="K3" s="585"/>
-      <c r="L3" s="586"/>
+      <c r="F3" s="572"/>
+      <c r="G3" s="572"/>
+      <c r="H3" s="573"/>
+      <c r="I3" s="576"/>
+      <c r="J3" s="577"/>
+      <c r="K3" s="580"/>
+      <c r="L3" s="581"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11387,9 +11410,9 @@
     </row>
     <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="569"/>
-      <c r="C4" s="570"/>
-      <c r="D4" s="571"/>
+      <c r="B4" s="564"/>
+      <c r="C4" s="565"/>
+      <c r="D4" s="566"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11408,22 +11431,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="590" t="s">
+      <c r="B5" s="585" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="591"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="586"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="552"/>
-      <c r="J5" s="553"/>
-      <c r="K5" s="503"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="587"/>
+      <c r="J5" s="588"/>
+      <c r="K5" s="510"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11434,22 +11457,22 @@
     </row>
     <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="585" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="592"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="589"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="552"/>
-      <c r="J6" s="553"/>
-      <c r="K6" s="503"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="590"/>
+      <c r="F6" s="590"/>
+      <c r="G6" s="590"/>
+      <c r="H6" s="591"/>
+      <c r="I6" s="587"/>
+      <c r="J6" s="588"/>
+      <c r="K6" s="510"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11460,27 +11483,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="595" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="555"/>
-      <c r="D7" s="505">
+      <c r="C7" s="596"/>
+      <c r="D7" s="512">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="554" t="s">
+      <c r="E7" s="597"/>
+      <c r="F7" s="597"/>
+      <c r="G7" s="597"/>
+      <c r="H7" s="598"/>
+      <c r="I7" s="595" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="558"/>
-      <c r="K7" s="493">
+      <c r="J7" s="599"/>
+      <c r="K7" s="500">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11972,12 +11995,12 @@
     </row>
     <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
-      <c r="B23" s="549" t="s">
+      <c r="B23" s="592" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="550"/>
-      <c r="D23" s="550"/>
-      <c r="E23" s="551"/>
+      <c r="C23" s="593"/>
+      <c r="D23" s="593"/>
+      <c r="E23" s="594"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -11999,12 +12022,12 @@
     </row>
     <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78"/>
-      <c r="B24" s="587" t="s">
+      <c r="B24" s="582" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="588"/>
-      <c r="D24" s="588"/>
-      <c r="E24" s="589"/>
+      <c r="C24" s="583"/>
+      <c r="D24" s="583"/>
+      <c r="E24" s="584"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -12047,28 +12070,35 @@
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K27" s="562" t="s">
+      <c r="K27" s="557" t="s">
         <v>136</v>
       </c>
-      <c r="L27" s="562"/>
-      <c r="M27" s="562"/>
-      <c r="N27" s="475"/>
-      <c r="O27" s="475"/>
-      <c r="P27" s="491"/>
-      <c r="Q27" s="491"/>
+      <c r="L27" s="557"/>
+      <c r="M27" s="557"/>
+      <c r="N27" s="467"/>
+      <c r="O27" s="467"/>
+      <c r="P27" s="483"/>
+      <c r="Q27" s="483"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N28" s="559" t="s">
+      <c r="N28" s="554" t="s">
         <v>140</v>
       </c>
-      <c r="O28" s="559"/>
-      <c r="P28" s="560" t="s">
+      <c r="O28" s="554"/>
+      <c r="P28" s="555" t="s">
         <v>141</v>
       </c>
-      <c r="Q28" s="561"/>
+      <c r="Q28" s="556"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="P28:Q28"/>
     <mergeCell ref="K27:M27"/>
@@ -12085,13 +12115,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
@@ -12157,50 +12180,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="598">
+      <c r="B2" s="606">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="599"/>
-      <c r="D2" s="600"/>
-      <c r="E2" s="607" t="s">
+      <c r="C2" s="607"/>
+      <c r="D2" s="608"/>
+      <c r="E2" s="615" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="608"/>
-      <c r="G2" s="608"/>
-      <c r="H2" s="609"/>
-      <c r="I2" s="613" t="s">
+      <c r="F2" s="616"/>
+      <c r="G2" s="616"/>
+      <c r="H2" s="617"/>
+      <c r="I2" s="621" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="614"/>
-      <c r="K2" s="617">
+      <c r="J2" s="622"/>
+      <c r="K2" s="625">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="618"/>
+      <c r="L2" s="626"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="575"/>
-      <c r="Q2" s="575"/>
+      <c r="P2" s="570"/>
+      <c r="Q2" s="570"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="601"/>
-      <c r="C3" s="602"/>
-      <c r="D3" s="603"/>
-      <c r="E3" s="610" t="s">
+      <c r="B3" s="609"/>
+      <c r="C3" s="610"/>
+      <c r="D3" s="611"/>
+      <c r="E3" s="618" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="611"/>
-      <c r="G3" s="611"/>
-      <c r="H3" s="612"/>
-      <c r="I3" s="615"/>
-      <c r="J3" s="616"/>
-      <c r="K3" s="619"/>
-      <c r="L3" s="620"/>
+      <c r="F3" s="619"/>
+      <c r="G3" s="619"/>
+      <c r="H3" s="620"/>
+      <c r="I3" s="623"/>
+      <c r="J3" s="624"/>
+      <c r="K3" s="627"/>
+      <c r="L3" s="628"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12211,9 +12234,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="604"/>
-      <c r="C4" s="605"/>
-      <c r="D4" s="606"/>
+      <c r="B4" s="612"/>
+      <c r="C4" s="613"/>
+      <c r="D4" s="614"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12232,22 +12255,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="590" t="s">
+      <c r="B5" s="585" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="621"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="600"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="622"/>
-      <c r="J5" s="623"/>
-      <c r="K5" s="624"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="601"/>
+      <c r="J5" s="602"/>
+      <c r="K5" s="603"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12258,22 +12281,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="585" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="621"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="600"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="622"/>
-      <c r="J6" s="623"/>
-      <c r="K6" s="624"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="590"/>
+      <c r="F6" s="590"/>
+      <c r="G6" s="590"/>
+      <c r="H6" s="591"/>
+      <c r="I6" s="601"/>
+      <c r="J6" s="602"/>
+      <c r="K6" s="603"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12284,27 +12307,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="595" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="625"/>
-      <c r="D7" s="505">
+      <c r="C7" s="604"/>
+      <c r="D7" s="512">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="626" t="s">
+      <c r="E7" s="597"/>
+      <c r="F7" s="597"/>
+      <c r="G7" s="597"/>
+      <c r="H7" s="598"/>
+      <c r="I7" s="605" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="625"/>
-      <c r="K7" s="493">
+      <c r="J7" s="604"/>
+      <c r="K7" s="500">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12499,12 +12522,12 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
-      <c r="B14" s="596" t="s">
+      <c r="B14" s="630" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="597"/>
-      <c r="D14" s="597"/>
-      <c r="E14" s="597"/>
+      <c r="C14" s="631"/>
+      <c r="D14" s="631"/>
+      <c r="E14" s="631"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -12526,13 +12549,13 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78"/>
-      <c r="B15" s="549" t="s">
+      <c r="B15" s="592" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="550"/>
-      <c r="D15" s="550"/>
-      <c r="E15" s="550"/>
-      <c r="F15" s="595"/>
+      <c r="C15" s="593"/>
+      <c r="D15" s="593"/>
+      <c r="E15" s="593"/>
+      <c r="F15" s="629"/>
       <c r="G15" s="56" t="s">
         <v>77</v>
       </c>
@@ -12551,12 +12574,12 @@
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
-      <c r="B16" s="587" t="s">
+      <c r="B16" s="582" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="588"/>
-      <c r="D16" s="588"/>
-      <c r="E16" s="589"/>
+      <c r="C16" s="583"/>
+      <c r="D16" s="583"/>
+      <c r="E16" s="584"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -12603,28 +12626,39 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="121"/>
-      <c r="L19" s="562" t="s">
+      <c r="L19" s="557" t="s">
         <v>136</v>
       </c>
-      <c r="M19" s="562"/>
-      <c r="N19" s="562"/>
-      <c r="O19" s="475"/>
-      <c r="P19" s="475"/>
-      <c r="Q19" s="491"/>
-      <c r="R19" s="491"/>
+      <c r="M19" s="557"/>
+      <c r="N19" s="557"/>
+      <c r="O19" s="467"/>
+      <c r="P19" s="467"/>
+      <c r="Q19" s="483"/>
+      <c r="R19" s="483"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O20" s="559" t="s">
+      <c r="O20" s="554" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="559"/>
-      <c r="Q20" s="560" t="s">
+      <c r="P20" s="554"/>
+      <c r="Q20" s="555" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="561"/>
+      <c r="R20" s="556"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -12638,17 +12672,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:R16">
     <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="notBetween">
@@ -12722,47 +12745,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="563"/>
-      <c r="C2" s="564"/>
-      <c r="D2" s="565"/>
-      <c r="E2" s="572" t="s">
+      <c r="B2" s="558"/>
+      <c r="C2" s="559"/>
+      <c r="D2" s="560"/>
+      <c r="E2" s="567" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="573"/>
-      <c r="G2" s="573"/>
-      <c r="H2" s="574"/>
-      <c r="I2" s="579" t="s">
+      <c r="F2" s="568"/>
+      <c r="G2" s="568"/>
+      <c r="H2" s="569"/>
+      <c r="I2" s="574" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="580"/>
-      <c r="K2" s="583">
+      <c r="J2" s="575"/>
+      <c r="K2" s="578">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="584"/>
+      <c r="L2" s="579"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="575"/>
-      <c r="Q2" s="575"/>
+      <c r="P2" s="570"/>
+      <c r="Q2" s="570"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="566"/>
-      <c r="C3" s="567"/>
-      <c r="D3" s="568"/>
-      <c r="E3" s="576" t="s">
+      <c r="B3" s="561"/>
+      <c r="C3" s="562"/>
+      <c r="D3" s="563"/>
+      <c r="E3" s="571" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="577"/>
-      <c r="G3" s="577"/>
-      <c r="H3" s="578"/>
-      <c r="I3" s="581"/>
-      <c r="J3" s="582"/>
-      <c r="K3" s="585"/>
-      <c r="L3" s="586"/>
+      <c r="F3" s="572"/>
+      <c r="G3" s="572"/>
+      <c r="H3" s="573"/>
+      <c r="I3" s="576"/>
+      <c r="J3" s="577"/>
+      <c r="K3" s="580"/>
+      <c r="L3" s="581"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12773,9 +12796,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="569"/>
-      <c r="C4" s="570"/>
-      <c r="D4" s="571"/>
+      <c r="B4" s="564"/>
+      <c r="C4" s="565"/>
+      <c r="D4" s="566"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12794,22 +12817,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="590" t="s">
+      <c r="B5" s="585" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="591"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="586"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="552"/>
-      <c r="J5" s="553"/>
-      <c r="K5" s="503"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="587"/>
+      <c r="J5" s="588"/>
+      <c r="K5" s="510"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12820,22 +12843,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="585" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="592"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="589"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="552"/>
-      <c r="J6" s="553"/>
-      <c r="K6" s="503"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="590"/>
+      <c r="F6" s="590"/>
+      <c r="G6" s="590"/>
+      <c r="H6" s="591"/>
+      <c r="I6" s="587"/>
+      <c r="J6" s="588"/>
+      <c r="K6" s="510"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12846,27 +12869,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="595" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="555"/>
-      <c r="D7" s="505">
+      <c r="C7" s="596"/>
+      <c r="D7" s="512">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="554" t="s">
+      <c r="E7" s="597"/>
+      <c r="F7" s="597"/>
+      <c r="G7" s="597"/>
+      <c r="H7" s="598"/>
+      <c r="I7" s="595" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="558"/>
-      <c r="K7" s="493">
+      <c r="J7" s="599"/>
+      <c r="K7" s="500">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13346,35 +13369,28 @@
     </row>
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="L23" s="627" t="s">
+      <c r="L23" s="632" t="s">
         <v>136</v>
       </c>
-      <c r="M23" s="627"/>
-      <c r="N23" s="627"/>
-      <c r="O23" s="475"/>
-      <c r="P23" s="475"/>
-      <c r="Q23" s="491"/>
-      <c r="R23" s="491"/>
+      <c r="M23" s="632"/>
+      <c r="N23" s="632"/>
+      <c r="O23" s="467"/>
+      <c r="P23" s="467"/>
+      <c r="Q23" s="483"/>
+      <c r="R23" s="483"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="O24" s="559" t="s">
+      <c r="O24" s="554" t="s">
         <v>140</v>
       </c>
-      <c r="P24" s="559"/>
-      <c r="Q24" s="560" t="s">
+      <c r="P24" s="554"/>
+      <c r="Q24" s="555" t="s">
         <v>141</v>
       </c>
-      <c r="R24" s="561"/>
+      <c r="R24" s="556"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B6:C6"/>
@@ -13389,6 +13405,13 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
@@ -13456,47 +13479,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="563"/>
-      <c r="C2" s="564"/>
-      <c r="D2" s="565"/>
-      <c r="E2" s="572" t="s">
+      <c r="B2" s="558"/>
+      <c r="C2" s="559"/>
+      <c r="D2" s="560"/>
+      <c r="E2" s="567" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="573"/>
-      <c r="G2" s="573"/>
-      <c r="H2" s="574"/>
-      <c r="I2" s="579" t="s">
+      <c r="F2" s="568"/>
+      <c r="G2" s="568"/>
+      <c r="H2" s="569"/>
+      <c r="I2" s="574" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="580"/>
-      <c r="K2" s="583">
+      <c r="J2" s="575"/>
+      <c r="K2" s="578">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="584"/>
+      <c r="L2" s="579"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="628"/>
-      <c r="Q2" s="628"/>
+      <c r="P2" s="633"/>
+      <c r="Q2" s="633"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="566"/>
-      <c r="C3" s="567"/>
-      <c r="D3" s="568"/>
-      <c r="E3" s="576" t="s">
+      <c r="B3" s="561"/>
+      <c r="C3" s="562"/>
+      <c r="D3" s="563"/>
+      <c r="E3" s="571" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="577"/>
-      <c r="G3" s="577"/>
-      <c r="H3" s="578"/>
-      <c r="I3" s="581"/>
-      <c r="J3" s="582"/>
-      <c r="K3" s="585"/>
-      <c r="L3" s="586"/>
+      <c r="F3" s="572"/>
+      <c r="G3" s="572"/>
+      <c r="H3" s="573"/>
+      <c r="I3" s="576"/>
+      <c r="J3" s="577"/>
+      <c r="K3" s="580"/>
+      <c r="L3" s="581"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13507,9 +13530,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="569"/>
-      <c r="C4" s="570"/>
-      <c r="D4" s="571"/>
+      <c r="B4" s="564"/>
+      <c r="C4" s="565"/>
+      <c r="D4" s="566"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13528,22 +13551,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="590" t="s">
+      <c r="B5" s="585" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="591"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="586"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="552"/>
-      <c r="J5" s="553"/>
-      <c r="K5" s="503"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="587"/>
+      <c r="J5" s="588"/>
+      <c r="K5" s="510"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13554,22 +13577,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="585" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="592"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="589"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="552"/>
-      <c r="J6" s="553"/>
-      <c r="K6" s="503"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="590"/>
+      <c r="F6" s="590"/>
+      <c r="G6" s="590"/>
+      <c r="H6" s="591"/>
+      <c r="I6" s="587"/>
+      <c r="J6" s="588"/>
+      <c r="K6" s="510"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13580,27 +13603,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="595" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="555"/>
-      <c r="D7" s="505">
+      <c r="C7" s="596"/>
+      <c r="D7" s="512">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="554" t="s">
+      <c r="E7" s="597"/>
+      <c r="F7" s="597"/>
+      <c r="G7" s="597"/>
+      <c r="H7" s="598"/>
+      <c r="I7" s="595" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="558"/>
-      <c r="K7" s="493">
+      <c r="J7" s="599"/>
+      <c r="K7" s="500">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13882,34 +13905,28 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L18" s="627" t="s">
+      <c r="L18" s="632" t="s">
         <v>136</v>
       </c>
-      <c r="M18" s="627"/>
-      <c r="N18" s="627"/>
-      <c r="O18" s="475"/>
-      <c r="P18" s="475"/>
-      <c r="Q18" s="491"/>
-      <c r="R18" s="491"/>
+      <c r="M18" s="632"/>
+      <c r="N18" s="632"/>
+      <c r="O18" s="467"/>
+      <c r="P18" s="467"/>
+      <c r="Q18" s="483"/>
+      <c r="R18" s="483"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="O19" s="559" t="s">
+      <c r="O19" s="554" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="559"/>
-      <c r="Q19" s="560" t="s">
+      <c r="P19" s="554"/>
+      <c r="Q19" s="555" t="s">
         <v>141</v>
       </c>
-      <c r="R19" s="561"/>
+      <c r="R19" s="556"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="L18:N18"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B7:C7"/>
@@ -13925,6 +13942,12 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E2:H2"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="L18:N18"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -13996,60 +14019,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="598"/>
-      <c r="C2" s="599"/>
-      <c r="D2" s="600"/>
-      <c r="E2" s="607" t="s">
+      <c r="B2" s="606"/>
+      <c r="C2" s="607"/>
+      <c r="D2" s="608"/>
+      <c r="E2" s="615" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="608"/>
-      <c r="G2" s="608"/>
-      <c r="H2" s="609"/>
-      <c r="I2" s="613" t="s">
+      <c r="F2" s="616"/>
+      <c r="G2" s="616"/>
+      <c r="H2" s="617"/>
+      <c r="I2" s="621" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="614"/>
-      <c r="K2" s="617">
+      <c r="J2" s="622"/>
+      <c r="K2" s="625">
         <f>Данные!B18</f>
         <v>130</v>
       </c>
-      <c r="L2" s="618"/>
-      <c r="M2" s="629"/>
-      <c r="N2" s="630"/>
-      <c r="O2" s="630"/>
-      <c r="P2" s="630"/>
-      <c r="Q2" s="630"/>
-      <c r="R2" s="631"/>
+      <c r="L2" s="626"/>
+      <c r="M2" s="634"/>
+      <c r="N2" s="635"/>
+      <c r="O2" s="635"/>
+      <c r="P2" s="635"/>
+      <c r="Q2" s="635"/>
+      <c r="R2" s="636"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="601"/>
-      <c r="C3" s="602"/>
-      <c r="D3" s="603"/>
-      <c r="E3" s="610" t="s">
+      <c r="B3" s="609"/>
+      <c r="C3" s="610"/>
+      <c r="D3" s="611"/>
+      <c r="E3" s="618" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="611"/>
-      <c r="G3" s="611"/>
-      <c r="H3" s="612"/>
-      <c r="I3" s="615"/>
-      <c r="J3" s="616"/>
-      <c r="K3" s="619"/>
-      <c r="L3" s="620"/>
-      <c r="M3" s="632"/>
-      <c r="N3" s="633"/>
-      <c r="O3" s="633"/>
-      <c r="P3" s="633"/>
-      <c r="Q3" s="633"/>
-      <c r="R3" s="634"/>
+      <c r="F3" s="619"/>
+      <c r="G3" s="619"/>
+      <c r="H3" s="620"/>
+      <c r="I3" s="623"/>
+      <c r="J3" s="624"/>
+      <c r="K3" s="627"/>
+      <c r="L3" s="628"/>
+      <c r="M3" s="637"/>
+      <c r="N3" s="638"/>
+      <c r="O3" s="638"/>
+      <c r="P3" s="638"/>
+      <c r="Q3" s="638"/>
+      <c r="R3" s="639"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="604"/>
-      <c r="C4" s="605"/>
-      <c r="D4" s="606"/>
+      <c r="B4" s="612"/>
+      <c r="C4" s="613"/>
+      <c r="D4" s="614"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14058,95 +14081,95 @@
       <c r="J4" s="242"/>
       <c r="K4" s="245"/>
       <c r="L4" s="246"/>
-      <c r="M4" s="632"/>
-      <c r="N4" s="633"/>
-      <c r="O4" s="633"/>
-      <c r="P4" s="633"/>
-      <c r="Q4" s="633"/>
-      <c r="R4" s="634"/>
+      <c r="M4" s="637"/>
+      <c r="N4" s="638"/>
+      <c r="O4" s="638"/>
+      <c r="P4" s="638"/>
+      <c r="Q4" s="638"/>
+      <c r="R4" s="639"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="590" t="s">
+      <c r="B5" s="585" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="621"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="600"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="622"/>
-      <c r="J5" s="623"/>
-      <c r="K5" s="624"/>
-      <c r="L5" s="504"/>
-      <c r="M5" s="632"/>
-      <c r="N5" s="633"/>
-      <c r="O5" s="633"/>
-      <c r="P5" s="633"/>
-      <c r="Q5" s="633"/>
-      <c r="R5" s="634"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="601"/>
+      <c r="J5" s="602"/>
+      <c r="K5" s="603"/>
+      <c r="L5" s="511"/>
+      <c r="M5" s="637"/>
+      <c r="N5" s="638"/>
+      <c r="O5" s="638"/>
+      <c r="P5" s="638"/>
+      <c r="Q5" s="638"/>
+      <c r="R5" s="639"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="585" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="621"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="600"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="622"/>
-      <c r="J6" s="623"/>
-      <c r="K6" s="624"/>
-      <c r="L6" s="504"/>
-      <c r="M6" s="632"/>
-      <c r="N6" s="633"/>
-      <c r="O6" s="633"/>
-      <c r="P6" s="633"/>
-      <c r="Q6" s="633"/>
-      <c r="R6" s="634"/>
+      <c r="E6" s="590"/>
+      <c r="F6" s="590"/>
+      <c r="G6" s="590"/>
+      <c r="H6" s="591"/>
+      <c r="I6" s="601"/>
+      <c r="J6" s="602"/>
+      <c r="K6" s="603"/>
+      <c r="L6" s="511"/>
+      <c r="M6" s="637"/>
+      <c r="N6" s="638"/>
+      <c r="O6" s="638"/>
+      <c r="P6" s="638"/>
+      <c r="Q6" s="638"/>
+      <c r="R6" s="639"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="595" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="625"/>
-      <c r="D7" s="505">
+      <c r="C7" s="604"/>
+      <c r="D7" s="512">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="626" t="s">
+      <c r="E7" s="597"/>
+      <c r="F7" s="597"/>
+      <c r="G7" s="597"/>
+      <c r="H7" s="598"/>
+      <c r="I7" s="605" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="625"/>
-      <c r="K7" s="493">
+      <c r="J7" s="604"/>
+      <c r="K7" s="500">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
-      <c r="M7" s="632"/>
-      <c r="N7" s="633"/>
-      <c r="O7" s="633"/>
-      <c r="P7" s="633"/>
-      <c r="Q7" s="633"/>
-      <c r="R7" s="634"/>
+      <c r="L7" s="501"/>
+      <c r="M7" s="637"/>
+      <c r="N7" s="638"/>
+      <c r="O7" s="638"/>
+      <c r="P7" s="638"/>
+      <c r="Q7" s="638"/>
+      <c r="R7" s="639"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14302,38 +14325,38 @@
       <c r="R12" s="322"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" s="486" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="476"/>
-      <c r="B13" s="477" t="s">
+    <row r="13" spans="1:19" s="478" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="468"/>
+      <c r="B13" s="469" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="478">
+      <c r="C13" s="470">
         <v>38.1</v>
       </c>
-      <c r="D13" s="479">
+      <c r="D13" s="471">
         <v>0.03</v>
       </c>
-      <c r="E13" s="479">
+      <c r="E13" s="471">
         <v>0</v>
       </c>
-      <c r="F13" s="480" t="s">
+      <c r="F13" s="472" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="296" t="s">
         <v>137</v>
       </c>
-      <c r="H13" s="481"/>
-      <c r="I13" s="482"/>
-      <c r="J13" s="482"/>
-      <c r="K13" s="482"/>
-      <c r="L13" s="482"/>
-      <c r="M13" s="483"/>
-      <c r="N13" s="483"/>
-      <c r="O13" s="483"/>
-      <c r="P13" s="483"/>
-      <c r="Q13" s="483"/>
-      <c r="R13" s="484"/>
-      <c r="S13" s="485"/>
+      <c r="H13" s="473"/>
+      <c r="I13" s="474"/>
+      <c r="J13" s="474"/>
+      <c r="K13" s="474"/>
+      <c r="L13" s="474"/>
+      <c r="M13" s="475"/>
+      <c r="N13" s="475"/>
+      <c r="O13" s="475"/>
+      <c r="P13" s="475"/>
+      <c r="Q13" s="475"/>
+      <c r="R13" s="476"/>
+      <c r="S13" s="477"/>
     </row>
     <row r="14" spans="1:19" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
@@ -14535,12 +14558,12 @@
     </row>
     <row r="20" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="78"/>
-      <c r="B20" s="587" t="s">
+      <c r="B20" s="582" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="588"/>
-      <c r="D20" s="588"/>
-      <c r="E20" s="589"/>
+      <c r="C20" s="583"/>
+      <c r="D20" s="583"/>
+      <c r="E20" s="584"/>
       <c r="F20" s="114" t="s">
         <v>16</v>
       </c>
@@ -14585,28 +14608,34 @@
       <c r="B22" s="121"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L23" s="627" t="s">
+      <c r="L23" s="632" t="s">
         <v>136</v>
       </c>
-      <c r="M23" s="627"/>
-      <c r="N23" s="627"/>
-      <c r="O23" s="475"/>
-      <c r="P23" s="475"/>
-      <c r="Q23" s="491"/>
-      <c r="R23" s="491"/>
+      <c r="M23" s="632"/>
+      <c r="N23" s="632"/>
+      <c r="O23" s="467"/>
+      <c r="P23" s="467"/>
+      <c r="Q23" s="483"/>
+      <c r="R23" s="483"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O24" s="559" t="s">
+      <c r="O24" s="554" t="s">
         <v>140</v>
       </c>
-      <c r="P24" s="559"/>
-      <c r="Q24" s="560" t="s">
+      <c r="P24" s="554"/>
+      <c r="Q24" s="555" t="s">
         <v>141</v>
       </c>
-      <c r="R24" s="561"/>
+      <c r="R24" s="556"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B20:E20"/>
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="Q24:R24"/>
     <mergeCell ref="B2:D4"/>
@@ -14623,12 +14652,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
@@ -14693,47 +14716,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="598"/>
-      <c r="C2" s="599"/>
-      <c r="D2" s="600"/>
-      <c r="E2" s="607" t="s">
+      <c r="B2" s="606"/>
+      <c r="C2" s="607"/>
+      <c r="D2" s="608"/>
+      <c r="E2" s="615" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="608"/>
-      <c r="G2" s="608"/>
-      <c r="H2" s="609"/>
-      <c r="I2" s="613" t="s">
+      <c r="F2" s="616"/>
+      <c r="G2" s="616"/>
+      <c r="H2" s="617"/>
+      <c r="I2" s="621" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="614"/>
-      <c r="K2" s="617">
+      <c r="J2" s="622"/>
+      <c r="K2" s="625">
         <f>Данные!B19</f>
         <v>130</v>
       </c>
-      <c r="L2" s="618"/>
+      <c r="L2" s="626"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="635"/>
-      <c r="Q2" s="635"/>
+      <c r="P2" s="640"/>
+      <c r="Q2" s="640"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="601"/>
-      <c r="C3" s="602"/>
-      <c r="D3" s="603"/>
-      <c r="E3" s="610" t="s">
+      <c r="B3" s="609"/>
+      <c r="C3" s="610"/>
+      <c r="D3" s="611"/>
+      <c r="E3" s="618" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="611"/>
-      <c r="G3" s="611"/>
-      <c r="H3" s="612"/>
-      <c r="I3" s="615"/>
-      <c r="J3" s="616"/>
-      <c r="K3" s="619"/>
-      <c r="L3" s="620"/>
+      <c r="F3" s="619"/>
+      <c r="G3" s="619"/>
+      <c r="H3" s="620"/>
+      <c r="I3" s="623"/>
+      <c r="J3" s="624"/>
+      <c r="K3" s="627"/>
+      <c r="L3" s="628"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14744,9 +14767,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="604"/>
-      <c r="C4" s="605"/>
-      <c r="D4" s="606"/>
+      <c r="B4" s="612"/>
+      <c r="C4" s="613"/>
+      <c r="D4" s="614"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14765,22 +14788,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="590" t="s">
+      <c r="B5" s="585" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="621"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="600"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="622"/>
-      <c r="J5" s="623"/>
-      <c r="K5" s="624"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="601"/>
+      <c r="J5" s="602"/>
+      <c r="K5" s="603"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14791,22 +14814,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="585" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="621"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="600"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="622"/>
-      <c r="J6" s="623"/>
-      <c r="K6" s="624"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="590"/>
+      <c r="F6" s="590"/>
+      <c r="G6" s="590"/>
+      <c r="H6" s="591"/>
+      <c r="I6" s="601"/>
+      <c r="J6" s="602"/>
+      <c r="K6" s="603"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14817,27 +14840,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="595" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="625"/>
-      <c r="D7" s="505">
+      <c r="C7" s="604"/>
+      <c r="D7" s="512">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="626" t="s">
+      <c r="E7" s="597"/>
+      <c r="F7" s="597"/>
+      <c r="G7" s="597"/>
+      <c r="H7" s="598"/>
+      <c r="I7" s="605" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="625"/>
-      <c r="K7" s="493">
+      <c r="J7" s="604"/>
+      <c r="K7" s="500">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -14966,38 +14989,38 @@
       <c r="R11" s="99"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" s="486" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="476"/>
-      <c r="B12" s="487" t="s">
+    <row r="12" spans="1:19" s="478" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="468"/>
+      <c r="B12" s="479" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="488">
+      <c r="C12" s="480">
         <v>28.6</v>
       </c>
-      <c r="D12" s="482">
+      <c r="D12" s="474">
         <v>0</v>
       </c>
-      <c r="E12" s="482">
+      <c r="E12" s="474">
         <v>-0.03</v>
       </c>
-      <c r="F12" s="480" t="s">
+      <c r="F12" s="472" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="296" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="489"/>
-      <c r="I12" s="482"/>
-      <c r="J12" s="482"/>
-      <c r="K12" s="482"/>
-      <c r="L12" s="482"/>
-      <c r="M12" s="482"/>
-      <c r="N12" s="482"/>
-      <c r="O12" s="482"/>
-      <c r="P12" s="482"/>
-      <c r="Q12" s="482"/>
-      <c r="R12" s="490"/>
-      <c r="S12" s="485"/>
+      <c r="H12" s="481"/>
+      <c r="I12" s="474"/>
+      <c r="J12" s="474"/>
+      <c r="K12" s="474"/>
+      <c r="L12" s="474"/>
+      <c r="M12" s="474"/>
+      <c r="N12" s="474"/>
+      <c r="O12" s="474"/>
+      <c r="P12" s="474"/>
+      <c r="Q12" s="474"/>
+      <c r="R12" s="482"/>
+      <c r="S12" s="477"/>
     </row>
     <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="78"/>
@@ -15100,12 +15123,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
-      <c r="B16" s="587" t="s">
+      <c r="B16" s="582" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="588"/>
-      <c r="D16" s="588"/>
-      <c r="E16" s="589"/>
+      <c r="C16" s="583"/>
+      <c r="D16" s="583"/>
+      <c r="E16" s="584"/>
       <c r="F16" s="252" t="s">
         <v>16</v>
       </c>
@@ -15150,28 +15173,38 @@
       <c r="B18" s="121"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L19" s="627" t="s">
+      <c r="L19" s="632" t="s">
         <v>136</v>
       </c>
-      <c r="M19" s="627"/>
-      <c r="N19" s="627"/>
-      <c r="O19" s="475"/>
-      <c r="P19" s="475"/>
-      <c r="Q19" s="491"/>
-      <c r="R19" s="491"/>
+      <c r="M19" s="632"/>
+      <c r="N19" s="632"/>
+      <c r="O19" s="467"/>
+      <c r="P19" s="467"/>
+      <c r="Q19" s="483"/>
+      <c r="R19" s="483"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O20" s="559" t="s">
+      <c r="O20" s="554" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="559"/>
-      <c r="Q20" s="560" t="s">
+      <c r="P20" s="554"/>
+      <c r="Q20" s="555" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="561"/>
+      <c r="R20" s="556"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
@@ -15184,16 +15217,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="B16:E16"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)/XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью) от 23.01.2020.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)/XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью) от 23.01.2020.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC7EED5-FDBE-48B0-81A5-EFC2B960A76F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -40,12 +41,19 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Чист.  поддон'!$A$1:$S$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Чист. форма'!$A$1:$S$28</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="155">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -515,13 +523,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="58" x14ac:knownFonts="1">
     <font>
@@ -2198,10 +2206,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="652">
+  <cellXfs count="651">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -3375,7 +3383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3390,7 +3398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3449,20 +3457,20 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3474,10 +3482,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3487,7 +3492,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3504,7 +3509,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1"/>
@@ -3514,13 +3519,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="98" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="98" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3533,7 +3538,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3702,10 +3707,10 @@
     <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4088,8 +4093,8 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Процентный" xfId="4" builtinId="5"/>
     <cellStyle name="Финансовый" xfId="3" builtinId="3"/>
   </cellStyles>
@@ -4360,7 +4365,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4406,7 +4417,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4451,7 +4468,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Прямая соединительная линия 9"/>
+        <xdr:cNvPr id="10" name="Прямая соединительная линия 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4495,7 +4518,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4544,7 +4573,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 8" descr="Fun_1"/>
+        <xdr:cNvPr id="2" name="Picture 8" descr="Fun_1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4590,7 +4625,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4634,7 +4675,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4678,7 +4725,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4727,7 +4780,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4" descr="BOT-1_HR.jpg"/>
+        <xdr:cNvPr id="3" name="Picture 4" descr="BOT-1_HR.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4773,7 +4832,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4817,7 +4882,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4861,7 +4932,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4910,7 +4987,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4956,7 +5039,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5000,7 +5089,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5044,7 +5139,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5093,7 +5194,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1078" name="Picture 4" descr="BAF-2_HR.JPG"/>
+        <xdr:cNvPr id="1078" name="Picture 4" descr="BAF-2_HR.JPG">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000036040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5139,7 +5246,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5183,7 +5296,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5227,7 +5346,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5276,7 +5401,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4" descr="NR-02.TIF"/>
+        <xdr:cNvPr id="3" name="Picture 4" descr="NR-02.TIF">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -5322,7 +5453,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5366,7 +5503,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Прямая соединительная линия 3"/>
+        <xdr:cNvPr id="4" name="Прямая соединительная линия 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5410,7 +5553,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5454,7 +5603,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Рисунок 5"/>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5497,7 +5652,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 4" descr="Iso0418(FGP)"/>
+        <xdr:cNvPr id="2" name="Picture 4" descr="Iso0418(FGP)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5543,7 +5704,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5587,7 +5754,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Прямая соединительная линия 3"/>
+        <xdr:cNvPr id="4" name="Прямая соединительная линия 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5631,7 +5804,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5680,7 +5859,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 5" descr="pbb.tif"/>
+        <xdr:cNvPr id="3" name="Picture 5" descr="pbb.tif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -5726,7 +5911,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5770,7 +5961,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5814,7 +6011,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5863,7 +6066,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 9" descr="THIMBLE"/>
+        <xdr:cNvPr id="2" name="Picture 9" descr="THIMBLE">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5909,7 +6118,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5953,7 +6168,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5997,7 +6218,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6046,7 +6273,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 6" descr="BLOWHEAD"/>
+        <xdr:cNvPr id="2" name="Picture 6" descr="BLOWHEAD">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6092,7 +6325,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6136,7 +6375,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6180,7 +6425,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6288,6 +6539,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -6323,6 +6591,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -6498,90 +6783,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="502" t="s">
+    <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="501" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="506"/>
-      <c r="C1" s="506"/>
-      <c r="D1" s="506"/>
-      <c r="E1" s="506"/>
+      <c r="B1" s="505"/>
+      <c r="C1" s="505"/>
+      <c r="D1" s="505"/>
+      <c r="E1" s="505"/>
       <c r="G1" s="363" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="503" t="s">
+    <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="502" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="504"/>
-      <c r="C2" s="504"/>
-      <c r="D2" s="504"/>
-      <c r="E2" s="505"/>
+      <c r="B2" s="503"/>
+      <c r="C2" s="503"/>
+      <c r="D2" s="503"/>
+      <c r="E2" s="504"/>
       <c r="G2" s="362" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="G3" s="362" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="507" t="s">
+    <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="506" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="508"/>
-      <c r="C4" s="508"/>
-      <c r="D4" s="508"/>
-      <c r="E4" s="508"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="509" t="s">
+      <c r="B4" s="507"/>
+      <c r="C4" s="507"/>
+      <c r="D4" s="507"/>
+      <c r="E4" s="507"/>
+    </row>
+    <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="508" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="510"/>
-      <c r="C5" s="510"/>
-      <c r="D5" s="510"/>
-      <c r="E5" s="511"/>
-    </row>
-    <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="502" t="s">
+      <c r="B5" s="509"/>
+      <c r="C5" s="509"/>
+      <c r="D5" s="509"/>
+      <c r="E5" s="510"/>
+    </row>
+    <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="501" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="506"/>
-      <c r="C7" s="506"/>
-      <c r="D7" s="506"/>
-      <c r="E7" s="506"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="512"/>
-      <c r="B8" s="513"/>
-      <c r="C8" s="513"/>
-      <c r="D8" s="513"/>
-      <c r="E8" s="514"/>
-    </row>
-    <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="502" t="s">
+      <c r="B7" s="505"/>
+      <c r="C7" s="505"/>
+      <c r="D7" s="505"/>
+      <c r="E7" s="505"/>
+    </row>
+    <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="511"/>
+      <c r="B8" s="512"/>
+      <c r="C8" s="512"/>
+      <c r="D8" s="512"/>
+      <c r="E8" s="513"/>
+    </row>
+    <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="501" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="502"/>
+      <c r="B10" s="501"/>
       <c r="C10" s="364"/>
       <c r="D10" s="370" t="s">
         <v>93</v>
@@ -6591,36 +6876,36 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="500"/>
-      <c r="B11" s="501"/>
+    <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="499"/>
+      <c r="B11" s="500"/>
       <c r="D11" s="369">
         <v>43853</v>
       </c>
-      <c r="F11" s="497" t="s">
+      <c r="F11" s="496" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="497"/>
-      <c r="H11" s="497"/>
-      <c r="I11" s="497"/>
-      <c r="J11" s="498" t="s">
+      <c r="G11" s="496"/>
+      <c r="H11" s="496"/>
+      <c r="I11" s="496"/>
+      <c r="J11" s="497" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="498"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="497" t="s">
+      <c r="K11" s="497"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F12" s="496" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="497"/>
-      <c r="H12" s="497"/>
-      <c r="I12" s="497"/>
-      <c r="J12" s="498" t="s">
+      <c r="G12" s="496"/>
+      <c r="H12" s="496"/>
+      <c r="I12" s="496"/>
+      <c r="J12" s="497" t="s">
         <v>99</v>
       </c>
-      <c r="K12" s="498"/>
-    </row>
-    <row r="13" spans="1:11" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="K12" s="497"/>
+    </row>
+    <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="374" t="s">
         <v>88</v>
       </c>
@@ -6633,21 +6918,21 @@
       <c r="D13" s="374" t="s">
         <v>133</v>
       </c>
-      <c r="E13" s="466" t="s">
+      <c r="E13" s="465" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="497" t="s">
+      <c r="F13" s="496" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="497"/>
-      <c r="H13" s="497"/>
-      <c r="I13" s="497"/>
-      <c r="J13" s="498" t="s">
+      <c r="G13" s="496"/>
+      <c r="H13" s="496"/>
+      <c r="I13" s="496"/>
+      <c r="J13" s="497" t="s">
         <v>100</v>
       </c>
-      <c r="K13" s="498"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="497"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="365" t="s">
         <v>43</v>
       </c>
@@ -6665,7 +6950,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="365" t="s">
         <v>44</v>
       </c>
@@ -6683,7 +6968,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="365" t="s">
         <v>38</v>
       </c>
@@ -6701,7 +6986,7 @@
         <v>1094.4000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="365" t="s">
         <v>23</v>
       </c>
@@ -6719,7 +7004,7 @@
         <v>41.6</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="365" t="s">
         <v>47</v>
       </c>
@@ -6737,7 +7022,7 @@
         <v>167.70000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="365" t="s">
         <v>90</v>
       </c>
@@ -6755,7 +7040,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="365" t="s">
         <v>51</v>
       </c>
@@ -6773,7 +7058,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="365" t="s">
         <v>53</v>
       </c>
@@ -6791,7 +7076,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="365" t="s">
         <v>91</v>
       </c>
@@ -6807,7 +7092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="365" t="s">
         <v>56</v>
       </c>
@@ -6825,7 +7110,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="365" t="s">
         <v>70</v>
       </c>
@@ -6843,7 +7128,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="365" t="s">
         <v>92</v>
       </c>
@@ -6855,7 +7140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="367" t="s">
         <v>55</v>
       </c>
@@ -6873,7 +7158,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="367" t="s">
         <v>105</v>
       </c>
@@ -6884,7 +7169,7 @@
       <c r="D27" s="366"/>
       <c r="E27" s="366"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="371"/>
       <c r="D28" s="370"/>
       <c r="E28" s="370">
@@ -6899,14 +7184,14 @@
         <v>83.100000000000364</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="499" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="498" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="499"/>
-      <c r="C29" s="499"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="498"/>
+      <c r="C29" s="498"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="363" t="s">
         <v>144</v>
       </c>
@@ -6935,7 +7220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -6945,20 +7230,20 @@
       <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="162" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="162" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="162" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="162" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="162" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="162" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="162" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="162" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="162" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="162" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="162" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="162" customWidth="1"/>
     <col min="8" max="18" width="9" style="162" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="162" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="162"/>
+    <col min="19" max="19" width="1.42578125" style="162" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="162"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="158"/>
       <c r="B1" s="159"/>
       <c r="C1" s="160"/>
@@ -6979,49 +7264,49 @@
       <c r="R1" s="160"/>
       <c r="S1" s="161"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="163"/>
-      <c r="B2" s="606"/>
-      <c r="C2" s="607"/>
-      <c r="D2" s="608"/>
-      <c r="E2" s="615" t="s">
+      <c r="B2" s="605"/>
+      <c r="C2" s="606"/>
+      <c r="D2" s="607"/>
+      <c r="E2" s="614" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="616"/>
-      <c r="G2" s="616"/>
-      <c r="H2" s="617"/>
-      <c r="I2" s="621" t="s">
+      <c r="F2" s="615"/>
+      <c r="G2" s="615"/>
+      <c r="H2" s="616"/>
+      <c r="I2" s="620" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="622"/>
-      <c r="K2" s="625">
+      <c r="J2" s="621"/>
+      <c r="K2" s="624">
         <f>Данные!B20</f>
         <v>60</v>
       </c>
-      <c r="L2" s="626"/>
+      <c r="L2" s="625"/>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
-      <c r="P2" s="641"/>
-      <c r="Q2" s="641"/>
+      <c r="P2" s="640"/>
+      <c r="Q2" s="640"/>
       <c r="R2" s="167"/>
       <c r="S2" s="168"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="163"/>
-      <c r="B3" s="609"/>
-      <c r="C3" s="610"/>
-      <c r="D3" s="611"/>
-      <c r="E3" s="618" t="s">
+      <c r="B3" s="608"/>
+      <c r="C3" s="609"/>
+      <c r="D3" s="610"/>
+      <c r="E3" s="617" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="619"/>
-      <c r="G3" s="619"/>
-      <c r="H3" s="620"/>
-      <c r="I3" s="623"/>
-      <c r="J3" s="624"/>
-      <c r="K3" s="627"/>
-      <c r="L3" s="628"/>
+      <c r="F3" s="618"/>
+      <c r="G3" s="618"/>
+      <c r="H3" s="619"/>
+      <c r="I3" s="622"/>
+      <c r="J3" s="623"/>
+      <c r="K3" s="626"/>
+      <c r="L3" s="627"/>
       <c r="M3" s="169"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -7030,11 +7315,11 @@
       <c r="R3" s="171"/>
       <c r="S3" s="168"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="163"/>
-      <c r="B4" s="612"/>
-      <c r="C4" s="613"/>
-      <c r="D4" s="614"/>
+      <c r="B4" s="611"/>
+      <c r="C4" s="612"/>
+      <c r="D4" s="613"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7051,24 +7336,24 @@
       <c r="R4" s="171"/>
       <c r="S4" s="168"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="163"/>
-      <c r="B5" s="585" t="s">
+      <c r="B5" s="584" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="600"/>
-      <c r="D5" s="509" t="str">
+      <c r="C5" s="599"/>
+      <c r="D5" s="508" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
-      <c r="I5" s="601"/>
-      <c r="J5" s="602"/>
-      <c r="K5" s="603"/>
-      <c r="L5" s="511"/>
+      <c r="E5" s="509"/>
+      <c r="F5" s="509"/>
+      <c r="G5" s="509"/>
+      <c r="H5" s="510"/>
+      <c r="I5" s="600"/>
+      <c r="J5" s="601"/>
+      <c r="K5" s="602"/>
+      <c r="L5" s="510"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
       <c r="O5" s="170"/>
@@ -7077,24 +7362,24 @@
       <c r="R5" s="171"/>
       <c r="S5" s="168"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="163"/>
-      <c r="B6" s="585" t="s">
+      <c r="B6" s="584" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="600"/>
-      <c r="D6" s="503" t="str">
+      <c r="C6" s="599"/>
+      <c r="D6" s="502" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="E6" s="590"/>
-      <c r="F6" s="590"/>
-      <c r="G6" s="590"/>
-      <c r="H6" s="591"/>
-      <c r="I6" s="601"/>
-      <c r="J6" s="602"/>
-      <c r="K6" s="603"/>
-      <c r="L6" s="511"/>
+      <c r="E6" s="589"/>
+      <c r="F6" s="589"/>
+      <c r="G6" s="589"/>
+      <c r="H6" s="590"/>
+      <c r="I6" s="600"/>
+      <c r="J6" s="601"/>
+      <c r="K6" s="602"/>
+      <c r="L6" s="510"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
       <c r="O6" s="170"/>
@@ -7103,29 +7388,29 @@
       <c r="R6" s="171"/>
       <c r="S6" s="168"/>
     </row>
-    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="163"/>
-      <c r="B7" s="595" t="s">
+      <c r="B7" s="594" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="604"/>
-      <c r="D7" s="512">
+      <c r="C7" s="603"/>
+      <c r="D7" s="511">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="597"/>
-      <c r="F7" s="597"/>
-      <c r="G7" s="597"/>
-      <c r="H7" s="598"/>
-      <c r="I7" s="605" t="s">
+      <c r="E7" s="596"/>
+      <c r="F7" s="596"/>
+      <c r="G7" s="596"/>
+      <c r="H7" s="597"/>
+      <c r="I7" s="604" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="604"/>
-      <c r="K7" s="500">
+      <c r="J7" s="603"/>
+      <c r="K7" s="499">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="500"/>
       <c r="M7" s="172"/>
       <c r="N7" s="170"/>
       <c r="O7" s="170"/>
@@ -7134,7 +7419,7 @@
       <c r="R7" s="171"/>
       <c r="S7" s="168"/>
     </row>
-    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="173"/>
       <c r="B8" s="174"/>
       <c r="C8" s="175"/>
@@ -7155,7 +7440,7 @@
       <c r="R8" s="178"/>
       <c r="S8" s="179"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="180"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -7188,7 +7473,7 @@
       <c r="R9" s="338"/>
       <c r="S9" s="195"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="173"/>
       <c r="B10" s="182" t="s">
         <v>25</v>
@@ -7223,7 +7508,7 @@
       <c r="R10" s="340"/>
       <c r="S10" s="179"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="173"/>
       <c r="B11" s="184" t="s">
         <v>26</v>
@@ -7256,7 +7541,7 @@
       <c r="R11" s="342"/>
       <c r="S11" s="179"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="173"/>
       <c r="B12" s="184" t="s">
         <v>2</v>
@@ -7289,7 +7574,7 @@
       <c r="R12" s="342"/>
       <c r="S12" s="179"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="173"/>
       <c r="B13" s="184" t="s">
         <v>3</v>
@@ -7322,7 +7607,7 @@
       <c r="R13" s="342"/>
       <c r="S13" s="179"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="173"/>
       <c r="B14" s="184" t="s">
         <v>27</v>
@@ -7355,7 +7640,7 @@
       <c r="R14" s="342"/>
       <c r="S14" s="179"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="173"/>
       <c r="B15" s="184" t="s">
         <v>28</v>
@@ -7388,7 +7673,7 @@
       <c r="R15" s="342"/>
       <c r="S15" s="179"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="173"/>
       <c r="B16" s="184" t="s">
         <v>4</v>
@@ -7421,7 +7706,7 @@
       <c r="R16" s="342"/>
       <c r="S16" s="179"/>
     </row>
-    <row r="17" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A17" s="173"/>
       <c r="B17" s="184" t="s">
         <v>9</v>
@@ -7452,7 +7737,7 @@
       <c r="R17" s="342"/>
       <c r="S17" s="179"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="173"/>
       <c r="B18" s="184" t="s">
         <v>5</v>
@@ -7485,7 +7770,7 @@
       <c r="R18" s="342"/>
       <c r="S18" s="179"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="186"/>
       <c r="B19" s="187"/>
       <c r="C19" s="187"/>
@@ -7506,27 +7791,27 @@
       <c r="R19" s="187"/>
       <c r="S19" s="189"/>
     </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L21" s="632" t="s">
+    <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="L21" s="631" t="s">
         <v>136</v>
       </c>
-      <c r="M21" s="632"/>
-      <c r="N21" s="632"/>
-      <c r="O21" s="467"/>
-      <c r="P21" s="467"/>
-      <c r="Q21" s="483"/>
-      <c r="R21" s="483"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O22" s="554" t="s">
+      <c r="M21" s="631"/>
+      <c r="N21" s="631"/>
+      <c r="O21" s="466"/>
+      <c r="P21" s="466"/>
+      <c r="Q21" s="482"/>
+      <c r="R21" s="482"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O22" s="553" t="s">
         <v>140</v>
       </c>
-      <c r="P22" s="554"/>
-      <c r="Q22" s="555" t="s">
+      <c r="P22" s="553"/>
+      <c r="Q22" s="554" t="s">
         <v>141</v>
       </c>
-      <c r="R22" s="556"/>
+      <c r="R22" s="555"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -7570,7 +7855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -7580,20 +7865,20 @@
       <selection pane="bottomRight" activeCell="O21" sqref="O21:R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="201" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="201" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="201" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="201" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="201" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="201" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="201" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="201" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="201" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="201" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="201" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="201" customWidth="1"/>
     <col min="8" max="18" width="9" style="201" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="201" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="201"/>
+    <col min="19" max="19" width="1.42578125" style="201" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="201"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="197"/>
       <c r="B1" s="198"/>
       <c r="C1" s="199"/>
@@ -7614,49 +7899,49 @@
       <c r="R1" s="199"/>
       <c r="S1" s="200"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="202"/>
-      <c r="B2" s="606"/>
-      <c r="C2" s="607"/>
-      <c r="D2" s="608"/>
-      <c r="E2" s="615" t="s">
+      <c r="B2" s="605"/>
+      <c r="C2" s="606"/>
+      <c r="D2" s="607"/>
+      <c r="E2" s="614" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="616"/>
-      <c r="G2" s="616"/>
-      <c r="H2" s="617"/>
-      <c r="I2" s="621" t="s">
+      <c r="F2" s="615"/>
+      <c r="G2" s="615"/>
+      <c r="H2" s="616"/>
+      <c r="I2" s="620" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="622"/>
-      <c r="K2" s="625">
+      <c r="J2" s="621"/>
+      <c r="K2" s="624">
         <f>Данные!B21</f>
         <v>18</v>
       </c>
-      <c r="L2" s="626"/>
+      <c r="L2" s="625"/>
       <c r="M2" s="203"/>
       <c r="N2" s="204"/>
       <c r="O2" s="205"/>
-      <c r="P2" s="642"/>
-      <c r="Q2" s="642"/>
+      <c r="P2" s="641"/>
+      <c r="Q2" s="641"/>
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202"/>
-      <c r="B3" s="609"/>
-      <c r="C3" s="610"/>
-      <c r="D3" s="611"/>
-      <c r="E3" s="618" t="s">
+      <c r="B3" s="608"/>
+      <c r="C3" s="609"/>
+      <c r="D3" s="610"/>
+      <c r="E3" s="617" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="619"/>
-      <c r="G3" s="619"/>
-      <c r="H3" s="620"/>
-      <c r="I3" s="623"/>
-      <c r="J3" s="624"/>
-      <c r="K3" s="627"/>
-      <c r="L3" s="628"/>
+      <c r="F3" s="618"/>
+      <c r="G3" s="618"/>
+      <c r="H3" s="619"/>
+      <c r="I3" s="622"/>
+      <c r="J3" s="623"/>
+      <c r="K3" s="626"/>
+      <c r="L3" s="627"/>
       <c r="M3" s="208"/>
       <c r="N3" s="209"/>
       <c r="O3" s="209"/>
@@ -7665,11 +7950,11 @@
       <c r="R3" s="210"/>
       <c r="S3" s="207"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="202"/>
-      <c r="B4" s="612"/>
-      <c r="C4" s="613"/>
-      <c r="D4" s="614"/>
+      <c r="B4" s="611"/>
+      <c r="C4" s="612"/>
+      <c r="D4" s="613"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7686,24 +7971,24 @@
       <c r="R4" s="210"/>
       <c r="S4" s="207"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="202"/>
-      <c r="B5" s="585" t="s">
+      <c r="B5" s="584" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="600"/>
-      <c r="D5" s="509" t="str">
+      <c r="C5" s="599"/>
+      <c r="D5" s="508" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
-      <c r="I5" s="601"/>
-      <c r="J5" s="602"/>
-      <c r="K5" s="603"/>
-      <c r="L5" s="511"/>
+      <c r="E5" s="509"/>
+      <c r="F5" s="509"/>
+      <c r="G5" s="509"/>
+      <c r="H5" s="510"/>
+      <c r="I5" s="600"/>
+      <c r="J5" s="601"/>
+      <c r="K5" s="602"/>
+      <c r="L5" s="510"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
       <c r="O5" s="209"/>
@@ -7712,24 +7997,24 @@
       <c r="R5" s="210"/>
       <c r="S5" s="207"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="202"/>
-      <c r="B6" s="585" t="s">
+      <c r="B6" s="584" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="600"/>
-      <c r="D6" s="503" t="str">
+      <c r="C6" s="599"/>
+      <c r="D6" s="502" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="E6" s="590"/>
-      <c r="F6" s="590"/>
-      <c r="G6" s="590"/>
-      <c r="H6" s="591"/>
-      <c r="I6" s="601"/>
-      <c r="J6" s="602"/>
-      <c r="K6" s="603"/>
-      <c r="L6" s="511"/>
+      <c r="E6" s="589"/>
+      <c r="F6" s="589"/>
+      <c r="G6" s="589"/>
+      <c r="H6" s="590"/>
+      <c r="I6" s="600"/>
+      <c r="J6" s="601"/>
+      <c r="K6" s="602"/>
+      <c r="L6" s="510"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
       <c r="O6" s="209"/>
@@ -7738,29 +8023,29 @@
       <c r="R6" s="210"/>
       <c r="S6" s="207"/>
     </row>
-    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="202"/>
-      <c r="B7" s="595" t="s">
+      <c r="B7" s="594" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="604"/>
-      <c r="D7" s="512">
+      <c r="C7" s="603"/>
+      <c r="D7" s="511">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="597"/>
-      <c r="F7" s="597"/>
-      <c r="G7" s="597"/>
-      <c r="H7" s="598"/>
-      <c r="I7" s="605" t="s">
+      <c r="E7" s="596"/>
+      <c r="F7" s="596"/>
+      <c r="G7" s="596"/>
+      <c r="H7" s="597"/>
+      <c r="I7" s="604" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="604"/>
-      <c r="K7" s="500">
+      <c r="J7" s="603"/>
+      <c r="K7" s="499">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="500"/>
       <c r="M7" s="211"/>
       <c r="N7" s="209"/>
       <c r="O7" s="209"/>
@@ -7769,7 +8054,7 @@
       <c r="R7" s="210"/>
       <c r="S7" s="207"/>
     </row>
-    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="212"/>
       <c r="B8" s="213"/>
       <c r="C8" s="214"/>
@@ -7790,7 +8075,7 @@
       <c r="R8" s="217"/>
       <c r="S8" s="218"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="219"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -7823,7 +8108,7 @@
       <c r="R9" s="221"/>
       <c r="S9" s="222"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="212"/>
       <c r="B10" s="223" t="s">
         <v>25</v>
@@ -7856,7 +8141,7 @@
       <c r="R10" s="227"/>
       <c r="S10" s="218"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="212"/>
       <c r="B11" s="228" t="s">
         <v>26</v>
@@ -7889,7 +8174,7 @@
       <c r="R11" s="232"/>
       <c r="S11" s="218"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="212"/>
       <c r="B12" s="228" t="s">
         <v>2</v>
@@ -7922,7 +8207,7 @@
       <c r="R12" s="232"/>
       <c r="S12" s="218"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="212"/>
       <c r="B13" s="228" t="s">
         <v>3</v>
@@ -7955,7 +8240,7 @@
       <c r="R13" s="232"/>
       <c r="S13" s="218"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="212"/>
       <c r="B14" s="228" t="s">
         <v>27</v>
@@ -7988,7 +8273,7 @@
       <c r="R14" s="232"/>
       <c r="S14" s="218"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="212"/>
       <c r="B15" s="228" t="s">
         <v>28</v>
@@ -8021,7 +8306,7 @@
       <c r="R15" s="232"/>
       <c r="S15" s="218"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="212"/>
       <c r="B16" s="228" t="s">
         <v>9</v>
@@ -8054,7 +8339,7 @@
       <c r="R16" s="232"/>
       <c r="S16" s="218"/>
     </row>
-    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="212"/>
       <c r="B17" s="228" t="s">
         <v>5</v>
@@ -8087,14 +8372,14 @@
       <c r="R17" s="232"/>
       <c r="S17" s="218"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="212"/>
-      <c r="B18" s="643" t="s">
+      <c r="B18" s="642" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="644"/>
-      <c r="D18" s="644"/>
-      <c r="E18" s="645"/>
+      <c r="C18" s="643"/>
+      <c r="D18" s="643"/>
+      <c r="E18" s="644"/>
       <c r="F18" s="114" t="s">
         <v>16</v>
       </c>
@@ -8114,7 +8399,7 @@
       <c r="R18" s="236"/>
       <c r="S18" s="218"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="237"/>
       <c r="B19" s="238"/>
       <c r="C19" s="238"/>
@@ -8135,27 +8420,27 @@
       <c r="R19" s="238"/>
       <c r="S19" s="240"/>
     </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L21" s="632" t="s">
+    <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="L21" s="631" t="s">
         <v>136</v>
       </c>
-      <c r="M21" s="632"/>
-      <c r="N21" s="632"/>
-      <c r="O21" s="467"/>
-      <c r="P21" s="467"/>
-      <c r="Q21" s="483"/>
-      <c r="R21" s="483"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O22" s="554" t="s">
+      <c r="M21" s="631"/>
+      <c r="N21" s="631"/>
+      <c r="O21" s="466"/>
+      <c r="P21" s="466"/>
+      <c r="Q21" s="482"/>
+      <c r="R21" s="482"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O22" s="553" t="s">
         <v>140</v>
       </c>
-      <c r="P22" s="554"/>
-      <c r="Q22" s="555" t="s">
+      <c r="P22" s="553"/>
+      <c r="Q22" s="554" t="s">
         <v>141</v>
       </c>
-      <c r="R22" s="556"/>
+      <c r="R22" s="555"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -8209,7 +8494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -8219,20 +8504,20 @@
       <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -8253,49 +8538,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="130"/>
-      <c r="B2" s="606"/>
-      <c r="C2" s="607"/>
-      <c r="D2" s="608"/>
-      <c r="E2" s="615" t="s">
+      <c r="B2" s="605"/>
+      <c r="C2" s="606"/>
+      <c r="D2" s="607"/>
+      <c r="E2" s="614" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="616"/>
-      <c r="G2" s="616"/>
-      <c r="H2" s="617"/>
-      <c r="I2" s="621" t="s">
+      <c r="F2" s="615"/>
+      <c r="G2" s="615"/>
+      <c r="H2" s="616"/>
+      <c r="I2" s="620" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="622"/>
-      <c r="K2" s="625">
+      <c r="J2" s="621"/>
+      <c r="K2" s="624">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="L2" s="626"/>
+      <c r="L2" s="625"/>
       <c r="M2" s="131"/>
       <c r="N2" s="132"/>
       <c r="O2" s="133"/>
-      <c r="P2" s="646"/>
-      <c r="Q2" s="646"/>
+      <c r="P2" s="645"/>
+      <c r="Q2" s="645"/>
       <c r="R2" s="134"/>
       <c r="S2" s="135"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130"/>
-      <c r="B3" s="609"/>
-      <c r="C3" s="610"/>
-      <c r="D3" s="611"/>
-      <c r="E3" s="618" t="s">
+      <c r="B3" s="608"/>
+      <c r="C3" s="609"/>
+      <c r="D3" s="610"/>
+      <c r="E3" s="617" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="619"/>
-      <c r="G3" s="619"/>
-      <c r="H3" s="620"/>
-      <c r="I3" s="623"/>
-      <c r="J3" s="624"/>
-      <c r="K3" s="627"/>
-      <c r="L3" s="628"/>
+      <c r="F3" s="618"/>
+      <c r="G3" s="618"/>
+      <c r="H3" s="619"/>
+      <c r="I3" s="622"/>
+      <c r="J3" s="623"/>
+      <c r="K3" s="626"/>
+      <c r="L3" s="627"/>
       <c r="M3" s="136"/>
       <c r="N3" s="137"/>
       <c r="O3" s="137"/>
@@ -8304,11 +8589,11 @@
       <c r="R3" s="138"/>
       <c r="S3" s="135"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="130"/>
-      <c r="B4" s="612"/>
-      <c r="C4" s="613"/>
-      <c r="D4" s="614"/>
+      <c r="B4" s="611"/>
+      <c r="C4" s="612"/>
+      <c r="D4" s="613"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8325,24 +8610,24 @@
       <c r="R4" s="138"/>
       <c r="S4" s="135"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130"/>
-      <c r="B5" s="585" t="s">
+      <c r="B5" s="584" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="600"/>
-      <c r="D5" s="509" t="str">
+      <c r="C5" s="599"/>
+      <c r="D5" s="508" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
-      <c r="I5" s="601"/>
-      <c r="J5" s="602"/>
-      <c r="K5" s="603"/>
-      <c r="L5" s="511"/>
+      <c r="E5" s="509"/>
+      <c r="F5" s="509"/>
+      <c r="G5" s="509"/>
+      <c r="H5" s="510"/>
+      <c r="I5" s="600"/>
+      <c r="J5" s="601"/>
+      <c r="K5" s="602"/>
+      <c r="L5" s="510"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
@@ -8351,24 +8636,24 @@
       <c r="R5" s="138"/>
       <c r="S5" s="135"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="130"/>
-      <c r="B6" s="585" t="s">
+      <c r="B6" s="584" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="600"/>
-      <c r="D6" s="503" t="str">
+      <c r="C6" s="599"/>
+      <c r="D6" s="502" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="E6" s="590"/>
-      <c r="F6" s="590"/>
-      <c r="G6" s="590"/>
-      <c r="H6" s="591"/>
-      <c r="I6" s="601"/>
-      <c r="J6" s="602"/>
-      <c r="K6" s="603"/>
-      <c r="L6" s="511"/>
+      <c r="E6" s="589"/>
+      <c r="F6" s="589"/>
+      <c r="G6" s="589"/>
+      <c r="H6" s="590"/>
+      <c r="I6" s="600"/>
+      <c r="J6" s="601"/>
+      <c r="K6" s="602"/>
+      <c r="L6" s="510"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
       <c r="O6" s="137"/>
@@ -8377,29 +8662,29 @@
       <c r="R6" s="138"/>
       <c r="S6" s="135"/>
     </row>
-    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="130"/>
-      <c r="B7" s="595" t="s">
+      <c r="B7" s="594" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="604"/>
-      <c r="D7" s="512">
+      <c r="C7" s="603"/>
+      <c r="D7" s="511">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="597"/>
-      <c r="F7" s="597"/>
-      <c r="G7" s="597"/>
-      <c r="H7" s="598"/>
-      <c r="I7" s="605" t="s">
+      <c r="E7" s="596"/>
+      <c r="F7" s="596"/>
+      <c r="G7" s="596"/>
+      <c r="H7" s="597"/>
+      <c r="I7" s="604" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="604"/>
-      <c r="K7" s="500">
+      <c r="J7" s="603"/>
+      <c r="K7" s="499">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="500"/>
       <c r="M7" s="139"/>
       <c r="N7" s="137"/>
       <c r="O7" s="137"/>
@@ -8408,7 +8693,7 @@
       <c r="R7" s="138"/>
       <c r="S7" s="135"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="140"/>
       <c r="C8" s="141"/>
@@ -8429,7 +8714,7 @@
       <c r="R8" s="144"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="145"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -8462,7 +8747,7 @@
       <c r="R9" s="148"/>
       <c r="S9" s="149"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="150"/>
       <c r="B10" s="151" t="s">
         <v>25</v>
@@ -8495,7 +8780,7 @@
       <c r="R10" s="153"/>
       <c r="S10" s="154"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="150"/>
       <c r="B11" s="151" t="s">
         <v>26</v>
@@ -8528,7 +8813,7 @@
       <c r="R11" s="153"/>
       <c r="S11" s="154"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="150"/>
       <c r="B12" s="151" t="s">
         <v>2</v>
@@ -8561,7 +8846,7 @@
       <c r="R12" s="153"/>
       <c r="S12" s="154"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="150"/>
       <c r="B13" s="151" t="s">
         <v>3</v>
@@ -8594,7 +8879,7 @@
       <c r="R13" s="153"/>
       <c r="S13" s="154"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="150"/>
       <c r="B14" s="151" t="s">
         <v>27</v>
@@ -8627,7 +8912,7 @@
       <c r="R14" s="153"/>
       <c r="S14" s="154"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="150"/>
       <c r="B15" s="151" t="s">
         <v>28</v>
@@ -8660,7 +8945,7 @@
       <c r="R15" s="153"/>
       <c r="S15" s="154"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="150"/>
       <c r="B16" s="151" t="s">
         <v>4</v>
@@ -8693,7 +8978,7 @@
       <c r="R16" s="153"/>
       <c r="S16" s="154"/>
     </row>
-    <row r="17" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="108"/>
       <c r="B17" s="109"/>
       <c r="C17" s="109"/>
@@ -8714,27 +8999,27 @@
       <c r="R17" s="111"/>
       <c r="S17" s="112"/>
     </row>
-    <row r="18" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L19" s="632" t="s">
+    <row r="18" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="L19" s="631" t="s">
         <v>136</v>
       </c>
-      <c r="M19" s="632"/>
-      <c r="N19" s="632"/>
-      <c r="O19" s="467"/>
-      <c r="P19" s="467"/>
-      <c r="Q19" s="483"/>
-      <c r="R19" s="483"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O20" s="554" t="s">
+      <c r="M19" s="631"/>
+      <c r="N19" s="631"/>
+      <c r="O19" s="466"/>
+      <c r="P19" s="466"/>
+      <c r="Q19" s="482"/>
+      <c r="R19" s="482"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O20" s="553" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="554"/>
-      <c r="Q20" s="555" t="s">
+      <c r="P20" s="553"/>
+      <c r="Q20" s="554" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="556"/>
+      <c r="R20" s="555"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -8769,7 +9054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -8779,20 +9064,20 @@
       <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="258" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="258" customWidth="1"/>
     <col min="2" max="2" width="5" style="258" customWidth="1"/>
     <col min="3" max="3" width="11" style="258" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="258" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="258" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="258" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="258" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="258" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="258" customWidth="1"/>
     <col min="8" max="18" width="9" style="258" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="258" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="258"/>
+    <col min="19" max="19" width="1.42578125" style="258" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="258"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="254"/>
       <c r="B1" s="255"/>
       <c r="C1" s="256"/>
@@ -8813,49 +9098,49 @@
       <c r="R1" s="256"/>
       <c r="S1" s="257"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="259"/>
-      <c r="B2" s="606"/>
-      <c r="C2" s="607"/>
-      <c r="D2" s="608"/>
-      <c r="E2" s="615" t="s">
+      <c r="B2" s="605"/>
+      <c r="C2" s="606"/>
+      <c r="D2" s="607"/>
+      <c r="E2" s="614" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="616"/>
-      <c r="G2" s="616"/>
-      <c r="H2" s="617"/>
-      <c r="I2" s="621" t="s">
+      <c r="F2" s="615"/>
+      <c r="G2" s="615"/>
+      <c r="H2" s="616"/>
+      <c r="I2" s="620" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="622"/>
-      <c r="K2" s="648">
+      <c r="J2" s="621"/>
+      <c r="K2" s="647">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="L2" s="649"/>
+      <c r="L2" s="648"/>
       <c r="M2" s="260"/>
       <c r="N2" s="261"/>
       <c r="O2" s="262"/>
-      <c r="P2" s="647"/>
-      <c r="Q2" s="647"/>
+      <c r="P2" s="646"/>
+      <c r="Q2" s="646"/>
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="259"/>
-      <c r="B3" s="609"/>
-      <c r="C3" s="610"/>
-      <c r="D3" s="611"/>
-      <c r="E3" s="618" t="s">
+      <c r="B3" s="608"/>
+      <c r="C3" s="609"/>
+      <c r="D3" s="610"/>
+      <c r="E3" s="617" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="619"/>
-      <c r="G3" s="619"/>
-      <c r="H3" s="620"/>
-      <c r="I3" s="623"/>
-      <c r="J3" s="624"/>
-      <c r="K3" s="650"/>
-      <c r="L3" s="651"/>
+      <c r="F3" s="618"/>
+      <c r="G3" s="618"/>
+      <c r="H3" s="619"/>
+      <c r="I3" s="622"/>
+      <c r="J3" s="623"/>
+      <c r="K3" s="649"/>
+      <c r="L3" s="650"/>
       <c r="M3" s="265"/>
       <c r="N3" s="266"/>
       <c r="O3" s="266"/>
@@ -8864,11 +9149,11 @@
       <c r="R3" s="267"/>
       <c r="S3" s="264"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="259"/>
-      <c r="B4" s="612"/>
-      <c r="C4" s="613"/>
-      <c r="D4" s="614"/>
+      <c r="B4" s="611"/>
+      <c r="C4" s="612"/>
+      <c r="D4" s="613"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8885,24 +9170,24 @@
       <c r="R4" s="267"/>
       <c r="S4" s="264"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="259"/>
-      <c r="B5" s="585" t="s">
+      <c r="B5" s="584" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="600"/>
-      <c r="D5" s="509" t="str">
+      <c r="C5" s="599"/>
+      <c r="D5" s="508" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
-      <c r="I5" s="601"/>
-      <c r="J5" s="602"/>
-      <c r="K5" s="603"/>
-      <c r="L5" s="511"/>
+      <c r="E5" s="509"/>
+      <c r="F5" s="509"/>
+      <c r="G5" s="509"/>
+      <c r="H5" s="510"/>
+      <c r="I5" s="600"/>
+      <c r="J5" s="601"/>
+      <c r="K5" s="602"/>
+      <c r="L5" s="510"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
       <c r="O5" s="266"/>
@@ -8911,24 +9196,24 @@
       <c r="R5" s="267"/>
       <c r="S5" s="264"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="259"/>
-      <c r="B6" s="585" t="s">
+      <c r="B6" s="584" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="600"/>
-      <c r="D6" s="503" t="str">
+      <c r="C6" s="599"/>
+      <c r="D6" s="502" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="E6" s="590"/>
-      <c r="F6" s="590"/>
-      <c r="G6" s="590"/>
-      <c r="H6" s="591"/>
-      <c r="I6" s="601"/>
-      <c r="J6" s="602"/>
-      <c r="K6" s="603"/>
-      <c r="L6" s="511"/>
+      <c r="E6" s="589"/>
+      <c r="F6" s="589"/>
+      <c r="G6" s="589"/>
+      <c r="H6" s="590"/>
+      <c r="I6" s="600"/>
+      <c r="J6" s="601"/>
+      <c r="K6" s="602"/>
+      <c r="L6" s="510"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
       <c r="O6" s="266"/>
@@ -8937,29 +9222,29 @@
       <c r="R6" s="267"/>
       <c r="S6" s="264"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="259"/>
-      <c r="B7" s="595" t="s">
+      <c r="B7" s="594" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="604"/>
-      <c r="D7" s="512">
+      <c r="C7" s="603"/>
+      <c r="D7" s="511">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="597"/>
-      <c r="F7" s="597"/>
-      <c r="G7" s="597"/>
-      <c r="H7" s="598"/>
-      <c r="I7" s="605" t="s">
+      <c r="E7" s="596"/>
+      <c r="F7" s="596"/>
+      <c r="G7" s="596"/>
+      <c r="H7" s="597"/>
+      <c r="I7" s="604" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="604"/>
-      <c r="K7" s="500">
+      <c r="J7" s="603"/>
+      <c r="K7" s="499">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="500"/>
       <c r="M7" s="268"/>
       <c r="N7" s="266"/>
       <c r="O7" s="266"/>
@@ -8968,7 +9253,7 @@
       <c r="R7" s="267"/>
       <c r="S7" s="264"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="269"/>
       <c r="B8" s="270"/>
       <c r="C8" s="271"/>
@@ -8989,7 +9274,7 @@
       <c r="R8" s="274"/>
       <c r="S8" s="275"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="276"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -9022,7 +9307,7 @@
       <c r="R9" s="344"/>
       <c r="S9" s="278"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="269"/>
       <c r="B10" s="279" t="s">
         <v>25</v>
@@ -9055,7 +9340,7 @@
       <c r="R10" s="346"/>
       <c r="S10" s="275"/>
     </row>
-    <row r="11" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A11" s="269"/>
       <c r="B11" s="283" t="s">
         <v>26</v>
@@ -9086,7 +9371,7 @@
       <c r="R11" s="347"/>
       <c r="S11" s="275"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="269"/>
       <c r="B12" s="283" t="s">
         <v>2</v>
@@ -9119,7 +9404,7 @@
       <c r="R12" s="349"/>
       <c r="S12" s="275"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="269"/>
       <c r="B13" s="283" t="s">
         <v>28</v>
@@ -9152,7 +9437,7 @@
       <c r="R13" s="349"/>
       <c r="S13" s="275"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="269"/>
       <c r="B14" s="283" t="s">
         <v>4</v>
@@ -9185,7 +9470,7 @@
       <c r="R14" s="349"/>
       <c r="S14" s="275"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="269"/>
       <c r="B15" s="289"/>
       <c r="C15" s="290"/>
@@ -9206,7 +9491,7 @@
       <c r="R15" s="332"/>
       <c r="S15" s="275"/>
     </row>
-    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="292"/>
       <c r="B16" s="293"/>
       <c r="C16" s="293"/>
@@ -9227,27 +9512,27 @@
       <c r="R16" s="293"/>
       <c r="S16" s="295"/>
     </row>
-    <row r="17" spans="12:18" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L18" s="632" t="s">
+    <row r="17" spans="12:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L18" s="631" t="s">
         <v>136</v>
       </c>
-      <c r="M18" s="632"/>
-      <c r="N18" s="632"/>
-      <c r="O18" s="467"/>
-      <c r="P18" s="467"/>
-      <c r="Q18" s="483"/>
-      <c r="R18" s="483"/>
-    </row>
-    <row r="19" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="O19" s="554" t="s">
+      <c r="M18" s="631"/>
+      <c r="N18" s="631"/>
+      <c r="O18" s="466"/>
+      <c r="P18" s="466"/>
+      <c r="Q18" s="482"/>
+      <c r="R18" s="482"/>
+    </row>
+    <row r="19" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="O19" s="553" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="554"/>
-      <c r="Q19" s="555" t="s">
+      <c r="P19" s="553"/>
+      <c r="Q19" s="554" t="s">
         <v>141</v>
       </c>
-      <c r="R19" s="556"/>
+      <c r="R19" s="555"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -9297,36 +9582,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="380"/>
-      <c r="B1" s="465" t="s">
+      <c r="B1" s="464" t="s">
         <v>109</v>
       </c>
       <c r="C1" s="380"/>
-      <c r="D1" s="464" t="str">
+      <c r="D1" s="463" t="str">
         <f>Данные!A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
@@ -9339,7 +9624,7 @@
       <c r="K1" s="380"/>
       <c r="L1" s="380"/>
     </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="380"/>
       <c r="B2" s="380" t="s">
         <v>146</v>
@@ -9355,23 +9640,23 @@
       <c r="K2" s="381"/>
       <c r="L2" s="381"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="520" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="519" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="520"/>
-      <c r="C3" s="520"/>
-      <c r="D3" s="520"/>
-      <c r="E3" s="520"/>
-      <c r="F3" s="520"/>
-      <c r="G3" s="520"/>
-      <c r="H3" s="520"/>
-      <c r="I3" s="520"/>
+      <c r="B3" s="519"/>
+      <c r="C3" s="519"/>
+      <c r="D3" s="519"/>
+      <c r="E3" s="519"/>
+      <c r="F3" s="519"/>
+      <c r="G3" s="519"/>
+      <c r="H3" s="519"/>
+      <c r="I3" s="519"/>
       <c r="K3" s="382"/>
       <c r="L3" s="382"/>
       <c r="M3" s="383"/>
     </row>
-    <row r="4" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="383"/>
       <c r="B4" s="384"/>
       <c r="C4" s="384"/>
@@ -9383,7 +9668,7 @@
       <c r="K4" s="382"/>
       <c r="M4" s="364"/>
     </row>
-    <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="387" t="s">
         <v>110</v>
       </c>
@@ -9413,7 +9698,7 @@
       <c r="K5" s="391"/>
       <c r="L5" s="391"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="392">
         <v>1</v>
       </c>
@@ -9443,7 +9728,7 @@
       <c r="K6" s="383"/>
       <c r="L6" s="397"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="398">
         <f>A6+1</f>
         <v>2</v>
@@ -9474,7 +9759,7 @@
       <c r="K7" s="383"/>
       <c r="L7" s="397"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="398">
         <f t="shared" ref="A8:A17" si="1">A7+1</f>
         <v>3</v>
@@ -9505,7 +9790,7 @@
       <c r="K8" s="383"/>
       <c r="L8" s="397"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="398">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -9536,7 +9821,7 @@
       <c r="K9" s="383"/>
       <c r="L9" s="397"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="398">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -9567,7 +9852,7 @@
       <c r="K10" s="403"/>
       <c r="L10" s="397"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="398">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -9598,7 +9883,7 @@
       <c r="K11" s="383"/>
       <c r="L11" s="397"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="398">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -9630,7 +9915,7 @@
       <c r="L12" s="397"/>
       <c r="M12" s="405"/>
     </row>
-    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="398">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -9662,7 +9947,7 @@
       <c r="L13" s="397"/>
       <c r="M13" s="405"/>
     </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="398">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -9679,7 +9964,7 @@
         <f>Данные!$B22</f>
         <v>24</v>
       </c>
-      <c r="E14" s="463">
+      <c r="E14" s="462">
         <v>24</v>
       </c>
       <c r="F14" s="379"/>
@@ -9695,7 +9980,7 @@
       <c r="K14" s="403"/>
       <c r="L14" s="397"/>
     </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="398">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -9726,7 +10011,7 @@
       <c r="K15" s="403"/>
       <c r="L15" s="397"/>
     </row>
-    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="398">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -9757,21 +10042,20 @@
       <c r="K16" s="403"/>
       <c r="L16" s="397"/>
     </row>
-    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="407">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B17" s="408" t="str">
-        <f>Данные!A25</f>
-        <v>Охладитель плунжера</v>
+      <c r="B17" s="408" t="s">
+        <v>55</v>
       </c>
       <c r="C17" s="409" t="str">
         <f>Данные!C26</f>
         <v>ExtraNew 0.5L</v>
       </c>
       <c r="D17" s="410">
-        <f>Данные!$B26</f>
+        <f>Данные!B26</f>
         <v>18</v>
       </c>
       <c r="E17" s="410">
@@ -9788,7 +10072,7 @@
       <c r="K17" s="403"/>
       <c r="L17" s="397"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="414"/>
       <c r="B18" s="415"/>
       <c r="C18" s="383"/>
@@ -9800,7 +10084,7 @@
       <c r="I18" s="383"/>
       <c r="J18" s="383"/>
     </row>
-    <row r="19" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="383"/>
       <c r="B19" s="417" t="s">
         <v>117</v>
@@ -9816,7 +10100,7 @@
       <c r="K19" s="418"/>
       <c r="L19" s="418"/>
     </row>
-    <row r="20" spans="1:12" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="387" t="s">
         <v>118</v>
       </c>
@@ -9850,7 +10134,7 @@
       <c r="K20" s="391"/>
       <c r="L20" s="391"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="422">
         <f>D6*700000</f>
         <v>16800000</v>
@@ -9858,16 +10142,16 @@
       <c r="B21" s="428">
         <v>43887</v>
       </c>
-      <c r="C21" s="491" t="s">
+      <c r="C21" s="490" t="s">
         <v>154</v>
       </c>
       <c r="D21" s="428">
         <v>43892</v>
       </c>
-      <c r="E21" s="492">
+      <c r="E21" s="491">
         <v>491040</v>
       </c>
-      <c r="F21" s="492">
+      <c r="F21" s="491">
         <v>540631</v>
       </c>
       <c r="G21" s="423">
@@ -9882,27 +10166,27 @@
         <f>1-G21</f>
         <v>0.96781958333333329</v>
       </c>
-      <c r="J21" s="484">
+      <c r="J21" s="483">
         <v>455</v>
       </c>
       <c r="K21" s="403"/>
       <c r="L21" s="403"/>
     </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="427"/>
-      <c r="B22" s="491" t="s">
+      <c r="B22" s="490" t="s">
         <v>154</v>
       </c>
-      <c r="C22" s="491">
+      <c r="C22" s="490">
         <v>43893</v>
       </c>
       <c r="D22" s="428">
         <v>43900</v>
       </c>
-      <c r="E22" s="492">
+      <c r="E22" s="491">
         <v>400752</v>
       </c>
-      <c r="F22" s="492">
+      <c r="F22" s="491">
         <v>414822</v>
       </c>
       <c r="G22" s="423">
@@ -9917,170 +10201,191 @@
         <f>I21-G22</f>
         <v>0.94312779761904753</v>
       </c>
-      <c r="J22" s="485">
+      <c r="J22" s="484">
         <v>455</v>
       </c>
       <c r="K22" s="383"/>
       <c r="L22" s="383"/>
     </row>
-    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="431"/>
-      <c r="B23" s="432"/>
-      <c r="C23" s="432"/>
-      <c r="D23" s="432"/>
-      <c r="E23" s="493"/>
-      <c r="F23" s="493"/>
-      <c r="G23" s="433"/>
-      <c r="H23" s="434"/>
-      <c r="I23" s="435"/>
-      <c r="J23" s="486"/>
+      <c r="B23" s="432">
+        <v>43958</v>
+      </c>
+      <c r="C23" s="432">
+        <v>43968</v>
+      </c>
+      <c r="D23" s="432">
+        <v>43972</v>
+      </c>
+      <c r="E23" s="492">
+        <v>1424016</v>
+      </c>
+      <c r="F23" s="492">
+        <v>1496436</v>
+      </c>
+      <c r="G23" s="423">
+        <f>F23/A$21</f>
+        <v>8.9073571428571433E-2</v>
+      </c>
+      <c r="H23" s="429">
+        <f>H22-F23</f>
+        <v>14348111</v>
+      </c>
+      <c r="I23" s="430">
+        <f>I22-G23</f>
+        <v>0.85405422619047611</v>
+      </c>
+      <c r="J23" s="484">
+        <v>456</v>
+      </c>
       <c r="K23" s="403"/>
       <c r="L23" s="403"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="431"/>
       <c r="B24" s="375"/>
       <c r="C24" s="375"/>
       <c r="D24" s="375"/>
-      <c r="E24" s="493"/>
-      <c r="F24" s="493"/>
+      <c r="E24" s="492"/>
+      <c r="F24" s="492"/>
       <c r="G24" s="375"/>
       <c r="H24" s="375"/>
-      <c r="I24" s="436"/>
-      <c r="J24" s="487"/>
+      <c r="I24" s="435"/>
+      <c r="J24" s="486"/>
       <c r="K24" s="426"/>
       <c r="L24" s="383"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="431"/>
       <c r="B25" s="432"/>
       <c r="C25" s="432"/>
       <c r="D25" s="432"/>
-      <c r="E25" s="493"/>
-      <c r="F25" s="493"/>
-      <c r="G25" s="437"/>
-      <c r="H25" s="434"/>
-      <c r="I25" s="435"/>
-      <c r="J25" s="486"/>
-      <c r="K25" s="438"/>
+      <c r="E25" s="492"/>
+      <c r="F25" s="492"/>
+      <c r="G25" s="436"/>
+      <c r="H25" s="433"/>
+      <c r="I25" s="434"/>
+      <c r="J25" s="485"/>
+      <c r="K25" s="437"/>
       <c r="L25" s="383"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="431"/>
       <c r="B26" s="432"/>
       <c r="C26" s="432"/>
       <c r="D26" s="432"/>
-      <c r="E26" s="493"/>
-      <c r="F26" s="493"/>
-      <c r="G26" s="437"/>
-      <c r="H26" s="434"/>
-      <c r="I26" s="435"/>
-      <c r="J26" s="486"/>
+      <c r="E26" s="492"/>
+      <c r="F26" s="492"/>
+      <c r="G26" s="436"/>
+      <c r="H26" s="433"/>
+      <c r="I26" s="434"/>
+      <c r="J26" s="485"/>
       <c r="K26" s="426"/>
       <c r="L26" s="383"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="431"/>
       <c r="B27" s="432"/>
       <c r="C27" s="432"/>
       <c r="D27" s="432"/>
-      <c r="E27" s="493"/>
-      <c r="F27" s="493"/>
-      <c r="G27" s="437"/>
-      <c r="H27" s="434"/>
-      <c r="I27" s="435"/>
-      <c r="J27" s="486"/>
+      <c r="E27" s="492"/>
+      <c r="F27" s="492"/>
+      <c r="G27" s="436"/>
+      <c r="H27" s="433"/>
+      <c r="I27" s="434"/>
+      <c r="J27" s="485"/>
       <c r="K27" s="426"/>
       <c r="L27" s="383"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="431"/>
       <c r="B28" s="432"/>
       <c r="C28" s="432"/>
       <c r="D28" s="432"/>
-      <c r="E28" s="493"/>
-      <c r="F28" s="493"/>
-      <c r="G28" s="437"/>
-      <c r="H28" s="434"/>
-      <c r="I28" s="435"/>
-      <c r="J28" s="486"/>
+      <c r="E28" s="492"/>
+      <c r="F28" s="492"/>
+      <c r="G28" s="436"/>
+      <c r="H28" s="433"/>
+      <c r="I28" s="434"/>
+      <c r="J28" s="485"/>
       <c r="K28" s="426"/>
       <c r="L28" s="383"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="431"/>
       <c r="B29" s="432"/>
       <c r="C29" s="432"/>
       <c r="D29" s="375"/>
-      <c r="E29" s="493"/>
-      <c r="F29" s="493"/>
-      <c r="G29" s="439"/>
-      <c r="H29" s="434"/>
-      <c r="I29" s="440"/>
-      <c r="J29" s="488"/>
+      <c r="E29" s="492"/>
+      <c r="F29" s="492"/>
+      <c r="G29" s="438"/>
+      <c r="H29" s="433"/>
+      <c r="I29" s="439"/>
+      <c r="J29" s="487"/>
       <c r="K29" s="426"/>
       <c r="L29" s="383"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="431"/>
       <c r="B30" s="432"/>
       <c r="C30" s="432"/>
       <c r="D30" s="375"/>
-      <c r="E30" s="493"/>
-      <c r="F30" s="493"/>
-      <c r="G30" s="437"/>
-      <c r="H30" s="434"/>
-      <c r="I30" s="440"/>
-      <c r="J30" s="488"/>
+      <c r="E30" s="492"/>
+      <c r="F30" s="492"/>
+      <c r="G30" s="436"/>
+      <c r="H30" s="433"/>
+      <c r="I30" s="439"/>
+      <c r="J30" s="487"/>
       <c r="K30" s="426"/>
       <c r="L30" s="383"/>
     </row>
-    <row r="31" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="441"/>
-      <c r="B31" s="442"/>
-      <c r="C31" s="442"/>
-      <c r="D31" s="443"/>
-      <c r="E31" s="494"/>
-      <c r="F31" s="494"/>
-      <c r="G31" s="444"/>
-      <c r="H31" s="445"/>
-      <c r="I31" s="446"/>
-      <c r="J31" s="489"/>
+    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="440"/>
+      <c r="B31" s="441"/>
+      <c r="C31" s="441"/>
+      <c r="D31" s="442"/>
+      <c r="E31" s="493"/>
+      <c r="F31" s="493"/>
+      <c r="G31" s="443"/>
+      <c r="H31" s="444"/>
+      <c r="I31" s="445"/>
+      <c r="J31" s="488"/>
       <c r="K31" s="383"/>
       <c r="L31" s="383"/>
     </row>
-    <row r="32" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="447" t="s">
+    <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="446" t="s">
         <v>127</v>
       </c>
-      <c r="B32" s="448"/>
-      <c r="C32" s="448"/>
-      <c r="D32" s="449"/>
-      <c r="E32" s="495">
+      <c r="B32" s="447"/>
+      <c r="C32" s="447"/>
+      <c r="D32" s="448"/>
+      <c r="E32" s="494">
         <f>SUM(E21:E31)</f>
-        <v>891792</v>
-      </c>
-      <c r="F32" s="496">
+        <v>2315808</v>
+      </c>
+      <c r="F32" s="495">
         <f>SUM(F21:F31)</f>
-        <v>955453</v>
-      </c>
-      <c r="G32" s="450">
+        <v>2451889</v>
+      </c>
+      <c r="G32" s="449">
         <f>SUM(G21:G31)</f>
-        <v>5.6872202380952384E-2</v>
-      </c>
-      <c r="H32" s="451">
+        <v>0.14594577380952381</v>
+      </c>
+      <c r="H32" s="450">
         <f>A21-F32</f>
-        <v>15844547</v>
-      </c>
-      <c r="I32" s="452">
+        <v>14348111</v>
+      </c>
+      <c r="I32" s="451">
         <f>1-G32</f>
-        <v>0.94312779761904764</v>
-      </c>
-      <c r="J32" s="490"/>
-      <c r="K32" s="453"/>
-      <c r="L32" s="453"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.85405422619047622</v>
+      </c>
+      <c r="J32" s="489"/>
+      <c r="K32" s="452"/>
+      <c r="L32" s="452"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="383"/>
       <c r="B35" s="383"/>
       <c r="C35" s="383"/>
@@ -10092,13 +10397,13 @@
       <c r="I35" s="383"/>
       <c r="J35" s="383"/>
     </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="521" t="s">
+    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="520" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="521"/>
-      <c r="C36" s="521"/>
-      <c r="D36" s="521"/>
+      <c r="B36" s="520"/>
+      <c r="C36" s="520"/>
+      <c r="D36" s="520"/>
       <c r="E36" s="383"/>
       <c r="F36" s="383"/>
       <c r="G36" s="383"/>
@@ -10106,15 +10411,15 @@
       <c r="I36" s="383"/>
       <c r="J36" s="383"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="522" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="521" t="s">
         <v>129</v>
       </c>
-      <c r="B37" s="522"/>
-      <c r="C37" s="454" t="s">
+      <c r="B37" s="521"/>
+      <c r="C37" s="453" t="s">
         <v>130</v>
       </c>
-      <c r="D37" s="454" t="s">
+      <c r="D37" s="453" t="s">
         <v>131</v>
       </c>
       <c r="E37" s="383"/>
@@ -10124,30 +10429,30 @@
       <c r="I37" s="383"/>
       <c r="J37" s="383"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="523">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="522">
         <f>A21-F32</f>
-        <v>15844547</v>
-      </c>
-      <c r="B38" s="524"/>
-      <c r="C38" s="455">
+        <v>14348111</v>
+      </c>
+      <c r="B38" s="523"/>
+      <c r="C38" s="454">
         <f>1-G32</f>
-        <v>0.94312779761904764</v>
-      </c>
-      <c r="D38" s="456">
+        <v>0.85405422619047622</v>
+      </c>
+      <c r="D38" s="455">
         <f>(C38/0.8)*100</f>
-        <v>117.89097470238094</v>
-      </c>
-      <c r="E38" s="457" t="s">
+        <v>106.75677827380952</v>
+      </c>
+      <c r="E38" s="456" t="s">
         <v>132</v>
       </c>
-      <c r="F38" s="457"/>
-      <c r="G38" s="457"/>
-      <c r="H38" s="457"/>
-      <c r="I38" s="457"/>
-      <c r="J38" s="457"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F38" s="456"/>
+      <c r="G38" s="456"/>
+      <c r="H38" s="456"/>
+      <c r="I38" s="456"/>
+      <c r="J38" s="456"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="383"/>
       <c r="B39" s="383"/>
       <c r="C39" s="383"/>
@@ -10155,7 +10460,7 @@
       <c r="E39" s="383"/>
       <c r="F39" s="383"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="383"/>
       <c r="B40" s="383"/>
       <c r="C40" s="383"/>
@@ -10170,10 +10475,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="383"/>
-      <c r="B41" s="458"/>
-      <c r="C41" s="458"/>
+      <c r="B41" s="457"/>
+      <c r="C41" s="457"/>
       <c r="D41" s="383"/>
       <c r="E41" s="383"/>
       <c r="F41" s="383"/>
@@ -10182,146 +10487,146 @@
       <c r="I41" s="383"/>
       <c r="J41" s="383"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="459"/>
-      <c r="B42" s="459"/>
-      <c r="C42" s="459"/>
-      <c r="D42" s="459"/>
-      <c r="E42" s="459"/>
-      <c r="F42" s="459"/>
-      <c r="G42" s="459"/>
-      <c r="H42" s="459"/>
-      <c r="I42" s="515"/>
-      <c r="J42" s="516"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="460"/>
-      <c r="B43" s="461"/>
-      <c r="C43" s="461"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="458"/>
+      <c r="B42" s="458"/>
+      <c r="C42" s="458"/>
+      <c r="D42" s="458"/>
+      <c r="E42" s="458"/>
+      <c r="F42" s="458"/>
+      <c r="G42" s="458"/>
+      <c r="H42" s="458"/>
+      <c r="I42" s="514"/>
+      <c r="J42" s="515"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="459"/>
+      <c r="B43" s="460"/>
+      <c r="C43" s="460"/>
       <c r="D43" s="383"/>
       <c r="E43" s="383"/>
-      <c r="F43" s="461"/>
+      <c r="F43" s="460"/>
       <c r="G43" s="413"/>
-      <c r="H43" s="461"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="460"/>
-      <c r="B44" s="461"/>
-      <c r="C44" s="461"/>
-      <c r="D44" s="461"/>
-      <c r="E44" s="461"/>
-      <c r="F44" s="461"/>
+      <c r="H43" s="460"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="459"/>
+      <c r="B44" s="460"/>
+      <c r="C44" s="460"/>
+      <c r="D44" s="460"/>
+      <c r="E44" s="460"/>
+      <c r="F44" s="460"/>
       <c r="G44" s="413"/>
-      <c r="H44" s="461"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="460"/>
-      <c r="B45" s="461"/>
-      <c r="C45" s="461"/>
+      <c r="H44" s="460"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="459"/>
+      <c r="B45" s="460"/>
+      <c r="C45" s="460"/>
       <c r="D45" s="383"/>
       <c r="E45" s="383"/>
-      <c r="F45" s="461"/>
+      <c r="F45" s="460"/>
       <c r="G45" s="413"/>
-      <c r="H45" s="461"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="460"/>
-      <c r="B46" s="461"/>
-      <c r="C46" s="461"/>
-      <c r="D46" s="461"/>
-      <c r="E46" s="461"/>
-      <c r="F46" s="461"/>
+      <c r="H45" s="460"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="459"/>
+      <c r="B46" s="460"/>
+      <c r="C46" s="460"/>
+      <c r="D46" s="460"/>
+      <c r="E46" s="460"/>
+      <c r="F46" s="460"/>
       <c r="G46" s="413"/>
-      <c r="H46" s="461"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="460"/>
-      <c r="B47" s="461"/>
-      <c r="C47" s="461"/>
+      <c r="H46" s="460"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="459"/>
+      <c r="B47" s="460"/>
+      <c r="C47" s="460"/>
       <c r="D47" s="383"/>
       <c r="E47" s="383"/>
-      <c r="F47" s="461"/>
+      <c r="F47" s="460"/>
       <c r="G47" s="413"/>
-      <c r="H47" s="461"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="460"/>
-      <c r="B48" s="461"/>
+      <c r="H47" s="460"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="459"/>
+      <c r="B48" s="460"/>
       <c r="C48" s="403"/>
-      <c r="D48" s="462"/>
-      <c r="E48" s="462"/>
+      <c r="D48" s="461"/>
+      <c r="E48" s="461"/>
       <c r="F48" s="403"/>
       <c r="G48" s="403"/>
       <c r="H48" s="403"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="460"/>
-      <c r="B49" s="461"/>
-      <c r="C49" s="461"/>
-      <c r="D49" s="461"/>
-      <c r="E49" s="461"/>
-      <c r="F49" s="461"/>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="459"/>
+      <c r="B49" s="460"/>
+      <c r="C49" s="460"/>
+      <c r="D49" s="460"/>
+      <c r="E49" s="460"/>
+      <c r="F49" s="460"/>
       <c r="G49" s="413"/>
-      <c r="H49" s="461"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="460"/>
-      <c r="B50" s="461"/>
-      <c r="C50" s="461"/>
-      <c r="D50" s="461"/>
-      <c r="E50" s="461"/>
-      <c r="F50" s="461"/>
+      <c r="H49" s="460"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="459"/>
+      <c r="B50" s="460"/>
+      <c r="C50" s="460"/>
+      <c r="D50" s="460"/>
+      <c r="E50" s="460"/>
+      <c r="F50" s="460"/>
       <c r="G50" s="413"/>
-      <c r="H50" s="461"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="460"/>
-      <c r="B51" s="461"/>
-      <c r="C51" s="461"/>
+      <c r="H50" s="460"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="459"/>
+      <c r="B51" s="460"/>
+      <c r="C51" s="460"/>
       <c r="D51" s="383"/>
       <c r="E51" s="383"/>
-      <c r="F51" s="461"/>
+      <c r="F51" s="460"/>
       <c r="G51" s="413"/>
-      <c r="H51" s="461"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H51" s="460"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="383"/>
-      <c r="B52" s="518"/>
-      <c r="C52" s="518"/>
-      <c r="D52" s="519"/>
-      <c r="E52" s="457"/>
+      <c r="B52" s="517"/>
+      <c r="C52" s="517"/>
+      <c r="D52" s="518"/>
+      <c r="E52" s="456"/>
       <c r="F52" s="383"/>
       <c r="G52" s="383"/>
       <c r="H52" s="383"/>
       <c r="I52" s="383"/>
       <c r="J52" s="383"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="459"/>
-      <c r="B53" s="459"/>
-      <c r="C53" s="459"/>
-      <c r="D53" s="459"/>
-      <c r="E53" s="459"/>
-      <c r="F53" s="459"/>
-      <c r="G53" s="459"/>
-      <c r="H53" s="459"/>
-      <c r="I53" s="515"/>
-      <c r="J53" s="516"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="460"/>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="458"/>
+      <c r="B53" s="458"/>
+      <c r="C53" s="458"/>
+      <c r="D53" s="458"/>
+      <c r="E53" s="458"/>
+      <c r="F53" s="458"/>
+      <c r="G53" s="458"/>
+      <c r="H53" s="458"/>
+      <c r="I53" s="514"/>
+      <c r="J53" s="515"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="459"/>
       <c r="B54" s="383"/>
       <c r="C54" s="383"/>
       <c r="D54" s="383"/>
       <c r="E54" s="383"/>
       <c r="F54" s="413"/>
       <c r="G54" s="413"/>
-      <c r="H54" s="461"/>
-      <c r="I54" s="517"/>
-      <c r="J54" s="517"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="460"/>
+      <c r="H54" s="460"/>
+      <c r="I54" s="516"/>
+      <c r="J54" s="516"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="459"/>
       <c r="B55" s="383"/>
       <c r="C55" s="383"/>
       <c r="D55" s="403"/>
@@ -10329,10 +10634,10 @@
       <c r="F55" s="403"/>
       <c r="G55" s="403"/>
       <c r="H55" s="403"/>
-      <c r="I55" s="517"/>
-      <c r="J55" s="517"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I55" s="516"/>
+      <c r="J55" s="516"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="383"/>
       <c r="B56" s="383"/>
       <c r="C56" s="383"/>
@@ -10342,13 +10647,13 @@
       <c r="G56" s="383"/>
       <c r="H56" s="383"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="515"/>
-      <c r="C61" s="516"/>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="515"/>
-      <c r="C68" s="516"/>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B61" s="514"/>
+      <c r="C61" s="515"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B68" s="514"/>
+      <c r="C68" s="515"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10366,7 +10671,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="38" max="16383" man="1"/>
   </rowBreaks>
@@ -10374,26 +10679,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:K57"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A26" sqref="A26:A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="300"/>
+    <col min="1" max="3" width="9.140625" style="300"/>
     <col min="4" max="4" width="8" style="300" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="300"/>
-    <col min="6" max="6" width="10.33203125" style="300" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="300" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" style="300" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="300" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="300"/>
+    <col min="5" max="5" width="9.140625" style="300"/>
+    <col min="6" max="6" width="10.28515625" style="300" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="300" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="300" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="300" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="300"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="359" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="359" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G2" s="309" t="s">
         <v>58</v>
       </c>
@@ -10402,7 +10707,7 @@
       <c r="J2" s="310"/>
       <c r="K2" s="310"/>
     </row>
-    <row r="3" spans="1:11" s="359" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="359" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G3" s="309" t="s">
         <v>101</v>
       </c>
@@ -10411,7 +10716,7 @@
       <c r="J3" s="310"/>
       <c r="K3" s="310"/>
     </row>
-    <row r="4" spans="1:11" s="359" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="359" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G4" s="309" t="s">
         <v>104</v>
       </c>
@@ -10420,8 +10725,8 @@
       <c r="J4" s="310"/>
       <c r="K4" s="310"/>
     </row>
-    <row r="5" spans="1:11" s="359" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:11" s="359" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" s="359" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" s="359" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G6" s="360"/>
       <c r="H6" s="309" t="s">
         <v>102</v>
@@ -10429,12 +10734,12 @@
       <c r="I6" s="310"/>
       <c r="J6" s="310"/>
     </row>
-    <row r="7" spans="1:11" s="359" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" s="359" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="H7" s="310"/>
       <c r="I7" s="310"/>
       <c r="J7" s="310"/>
     </row>
-    <row r="8" spans="1:11" s="359" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" s="359" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G8" s="303" t="s">
         <v>59</v>
       </c>
@@ -10444,50 +10749,50 @@
       </c>
       <c r="J8" s="310"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="549" t="s">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="548" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="549"/>
-      <c r="C11" s="549"/>
-      <c r="D11" s="549"/>
-      <c r="E11" s="549"/>
-      <c r="F11" s="549"/>
-      <c r="G11" s="549"/>
-      <c r="H11" s="549"/>
-      <c r="I11" s="549"/>
-      <c r="J11" s="549"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="548" t="s">
+      <c r="B11" s="548"/>
+      <c r="C11" s="548"/>
+      <c r="D11" s="548"/>
+      <c r="E11" s="548"/>
+      <c r="F11" s="548"/>
+      <c r="G11" s="548"/>
+      <c r="H11" s="548"/>
+      <c r="I11" s="548"/>
+      <c r="J11" s="548"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="547" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="548"/>
-      <c r="C12" s="548"/>
-      <c r="D12" s="548"/>
-      <c r="E12" s="548"/>
-      <c r="F12" s="548"/>
-      <c r="G12" s="548"/>
-      <c r="H12" s="548"/>
-      <c r="I12" s="548"/>
-      <c r="J12" s="548"/>
-    </row>
-    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="550" t="str">
+      <c r="B12" s="547"/>
+      <c r="C12" s="547"/>
+      <c r="D12" s="547"/>
+      <c r="E12" s="547"/>
+      <c r="F12" s="547"/>
+      <c r="G12" s="547"/>
+      <c r="H12" s="547"/>
+      <c r="I12" s="547"/>
+      <c r="J12" s="547"/>
+    </row>
+    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="549" t="str">
         <f>Данные!A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="B13" s="549"/>
-      <c r="C13" s="549"/>
-      <c r="D13" s="549"/>
-      <c r="E13" s="549"/>
-      <c r="F13" s="549"/>
-      <c r="G13" s="549"/>
-      <c r="H13" s="549"/>
-      <c r="I13" s="549"/>
-      <c r="J13" s="549"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="548"/>
+      <c r="C13" s="548"/>
+      <c r="D13" s="548"/>
+      <c r="E13" s="548"/>
+      <c r="F13" s="548"/>
+      <c r="G13" s="548"/>
+      <c r="H13" s="548"/>
+      <c r="I13" s="548"/>
+      <c r="J13" s="548"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="304" t="s">
         <v>60</v>
       </c>
@@ -10504,7 +10809,7 @@
       <c r="I15" s="304"/>
       <c r="J15" s="305"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="304" t="s">
         <v>95</v>
       </c>
@@ -10518,7 +10823,7 @@
       <c r="I16" s="304"/>
       <c r="J16" s="305"/>
     </row>
-    <row r="17" spans="1:10" s="361" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="361" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="312" t="s">
         <v>61</v>
       </c>
@@ -10539,7 +10844,7 @@
       </c>
       <c r="J17" s="305"/>
     </row>
-    <row r="18" spans="1:10" s="361" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="361" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="312" t="s">
         <v>61</v>
       </c>
@@ -10560,7 +10865,7 @@
       </c>
       <c r="J18" s="305"/>
     </row>
-    <row r="19" spans="1:10" s="361" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="361" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="313"/>
       <c r="B19" s="313"/>
       <c r="C19" s="313"/>
@@ -10578,7 +10883,7 @@
       </c>
       <c r="J19" s="305"/>
     </row>
-    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="304" t="s">
         <v>75</v>
       </c>
@@ -10595,7 +10900,7 @@
       </c>
       <c r="J20" s="305"/>
     </row>
-    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="304" t="s">
         <v>76</v>
       </c>
@@ -10609,496 +10914,496 @@
       <c r="I21" s="304"/>
       <c r="J21" s="305"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="546" t="s">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="545" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="546" t="s">
+      <c r="B22" s="545" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="546"/>
-      <c r="D22" s="546"/>
-      <c r="E22" s="546" t="s">
+      <c r="C22" s="545"/>
+      <c r="D22" s="545"/>
+      <c r="E22" s="545" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="546"/>
-      <c r="G22" s="547" t="s">
+      <c r="F22" s="545"/>
+      <c r="G22" s="546" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="546" t="s">
+      <c r="H22" s="545" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="546"/>
-      <c r="J22" s="546"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="546"/>
-      <c r="B23" s="546"/>
-      <c r="C23" s="546"/>
-      <c r="D23" s="546"/>
-      <c r="E23" s="546"/>
-      <c r="F23" s="546"/>
-      <c r="G23" s="547"/>
-      <c r="H23" s="546"/>
-      <c r="I23" s="546"/>
-      <c r="J23" s="546"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="525">
+      <c r="I22" s="545"/>
+      <c r="J22" s="545"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="545"/>
+      <c r="B23" s="545"/>
+      <c r="C23" s="545"/>
+      <c r="D23" s="545"/>
+      <c r="E23" s="545"/>
+      <c r="F23" s="545"/>
+      <c r="G23" s="546"/>
+      <c r="H23" s="545"/>
+      <c r="I23" s="545"/>
+      <c r="J23" s="545"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="524">
         <v>1</v>
       </c>
-      <c r="B24" s="551" t="s">
+      <c r="B24" s="550" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="552"/>
-      <c r="D24" s="553"/>
-      <c r="E24" s="530" t="str">
+      <c r="C24" s="551"/>
+      <c r="D24" s="552"/>
+      <c r="E24" s="529" t="str">
         <f>Данные!C14</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F24" s="531"/>
-      <c r="G24" s="534">
+      <c r="F24" s="530"/>
+      <c r="G24" s="533">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="536"/>
-      <c r="I24" s="537"/>
-      <c r="J24" s="538"/>
-    </row>
-    <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="526"/>
-      <c r="B25" s="542" t="str">
+      <c r="H24" s="535"/>
+      <c r="I24" s="536"/>
+      <c r="J24" s="537"/>
+    </row>
+    <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="525"/>
+      <c r="B25" s="541" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C25" s="543"/>
-      <c r="D25" s="544"/>
-      <c r="E25" s="545"/>
-      <c r="F25" s="533"/>
-      <c r="G25" s="535"/>
-      <c r="H25" s="539"/>
-      <c r="I25" s="540"/>
-      <c r="J25" s="541"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="525">
+      <c r="C25" s="542"/>
+      <c r="D25" s="543"/>
+      <c r="E25" s="544"/>
+      <c r="F25" s="532"/>
+      <c r="G25" s="534"/>
+      <c r="H25" s="538"/>
+      <c r="I25" s="539"/>
+      <c r="J25" s="540"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="524">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="527" t="s">
+      <c r="B26" s="526" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="528"/>
-      <c r="D26" s="529"/>
-      <c r="E26" s="530" t="str">
+      <c r="C26" s="527"/>
+      <c r="D26" s="528"/>
+      <c r="E26" s="529" t="str">
         <f>Данные!C15</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F26" s="531"/>
-      <c r="G26" s="534">
+      <c r="F26" s="530"/>
+      <c r="G26" s="533">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="536"/>
-      <c r="I26" s="537"/>
-      <c r="J26" s="538"/>
-    </row>
-    <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="526"/>
-      <c r="B27" s="542" t="str">
+      <c r="H26" s="535"/>
+      <c r="I26" s="536"/>
+      <c r="J26" s="537"/>
+    </row>
+    <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="525"/>
+      <c r="B27" s="541" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C27" s="543"/>
-      <c r="D27" s="544"/>
-      <c r="E27" s="545"/>
-      <c r="F27" s="533"/>
-      <c r="G27" s="535"/>
-      <c r="H27" s="539"/>
-      <c r="I27" s="540"/>
-      <c r="J27" s="541"/>
-    </row>
-    <row r="28" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="525">
+      <c r="C27" s="542"/>
+      <c r="D27" s="543"/>
+      <c r="E27" s="544"/>
+      <c r="F27" s="532"/>
+      <c r="G27" s="534"/>
+      <c r="H27" s="538"/>
+      <c r="I27" s="539"/>
+      <c r="J27" s="540"/>
+    </row>
+    <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="524">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="527" t="s">
+      <c r="B28" s="526" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="528"/>
-      <c r="D28" s="529"/>
-      <c r="E28" s="530" t="str">
+      <c r="C28" s="527"/>
+      <c r="D28" s="528"/>
+      <c r="E28" s="529" t="str">
         <f>Данные!C16</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F28" s="531"/>
-      <c r="G28" s="534">
+      <c r="F28" s="530"/>
+      <c r="G28" s="533">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H28" s="536"/>
-      <c r="I28" s="537"/>
-      <c r="J28" s="538"/>
-    </row>
-    <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="526"/>
-      <c r="B29" s="542" t="str">
+      <c r="H28" s="535"/>
+      <c r="I28" s="536"/>
+      <c r="J28" s="537"/>
+    </row>
+    <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="525"/>
+      <c r="B29" s="541" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C29" s="543"/>
-      <c r="D29" s="544"/>
-      <c r="E29" s="545"/>
-      <c r="F29" s="533"/>
-      <c r="G29" s="535"/>
-      <c r="H29" s="539"/>
-      <c r="I29" s="540"/>
-      <c r="J29" s="541"/>
-    </row>
-    <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="525">
+      <c r="C29" s="542"/>
+      <c r="D29" s="543"/>
+      <c r="E29" s="544"/>
+      <c r="F29" s="532"/>
+      <c r="G29" s="534"/>
+      <c r="H29" s="538"/>
+      <c r="I29" s="539"/>
+      <c r="J29" s="540"/>
+    </row>
+    <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="524">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="527" t="s">
+      <c r="B30" s="526" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="528"/>
-      <c r="D30" s="529"/>
-      <c r="E30" s="530" t="str">
+      <c r="C30" s="527"/>
+      <c r="D30" s="528"/>
+      <c r="E30" s="529" t="str">
         <f>Данные!C17</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F30" s="531"/>
-      <c r="G30" s="534">
+      <c r="F30" s="530"/>
+      <c r="G30" s="533">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="536"/>
-      <c r="I30" s="537"/>
-      <c r="J30" s="538"/>
-    </row>
-    <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="526"/>
-      <c r="B31" s="542" t="str">
+      <c r="H30" s="535"/>
+      <c r="I30" s="536"/>
+      <c r="J30" s="537"/>
+    </row>
+    <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="525"/>
+      <c r="B31" s="541" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C31" s="543"/>
-      <c r="D31" s="544"/>
-      <c r="E31" s="532"/>
-      <c r="F31" s="533"/>
-      <c r="G31" s="535"/>
-      <c r="H31" s="539"/>
-      <c r="I31" s="540"/>
-      <c r="J31" s="541"/>
-    </row>
-    <row r="32" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="525">
+      <c r="C31" s="542"/>
+      <c r="D31" s="543"/>
+      <c r="E31" s="531"/>
+      <c r="F31" s="532"/>
+      <c r="G31" s="534"/>
+      <c r="H31" s="538"/>
+      <c r="I31" s="539"/>
+      <c r="J31" s="540"/>
+    </row>
+    <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="524">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="527" t="s">
+      <c r="B32" s="526" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="528"/>
-      <c r="D32" s="529"/>
-      <c r="E32" s="530" t="str">
+      <c r="C32" s="527"/>
+      <c r="D32" s="528"/>
+      <c r="E32" s="529" t="str">
         <f>Данные!C18</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F32" s="531"/>
-      <c r="G32" s="534">
+      <c r="F32" s="530"/>
+      <c r="G32" s="533">
         <f>Данные!B18</f>
         <v>130</v>
       </c>
-      <c r="H32" s="536"/>
-      <c r="I32" s="537"/>
-      <c r="J32" s="538"/>
-    </row>
-    <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="526"/>
-      <c r="B33" s="542" t="str">
+      <c r="H32" s="535"/>
+      <c r="I32" s="536"/>
+      <c r="J32" s="537"/>
+    </row>
+    <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="525"/>
+      <c r="B33" s="541" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C33" s="543"/>
-      <c r="D33" s="544"/>
-      <c r="E33" s="532"/>
-      <c r="F33" s="533"/>
-      <c r="G33" s="535"/>
-      <c r="H33" s="539"/>
-      <c r="I33" s="540"/>
-      <c r="J33" s="541"/>
-    </row>
-    <row r="34" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="525">
+      <c r="C33" s="542"/>
+      <c r="D33" s="543"/>
+      <c r="E33" s="531"/>
+      <c r="F33" s="532"/>
+      <c r="G33" s="534"/>
+      <c r="H33" s="538"/>
+      <c r="I33" s="539"/>
+      <c r="J33" s="540"/>
+    </row>
+    <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="524">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="527" t="s">
+      <c r="B34" s="526" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="528"/>
-      <c r="D34" s="529"/>
-      <c r="E34" s="530" t="str">
+      <c r="C34" s="527"/>
+      <c r="D34" s="528"/>
+      <c r="E34" s="529" t="str">
         <f>Данные!C19</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F34" s="531"/>
-      <c r="G34" s="534">
+      <c r="F34" s="530"/>
+      <c r="G34" s="533">
         <f>Данные!B19</f>
         <v>130</v>
       </c>
-      <c r="H34" s="536"/>
-      <c r="I34" s="537"/>
-      <c r="J34" s="538"/>
-    </row>
-    <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="526"/>
-      <c r="B35" s="542" t="str">
+      <c r="H34" s="535"/>
+      <c r="I34" s="536"/>
+      <c r="J34" s="537"/>
+    </row>
+    <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="525"/>
+      <c r="B35" s="541" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C35" s="543"/>
-      <c r="D35" s="544"/>
-      <c r="E35" s="532"/>
-      <c r="F35" s="533"/>
-      <c r="G35" s="535"/>
-      <c r="H35" s="539"/>
-      <c r="I35" s="540"/>
-      <c r="J35" s="541"/>
-    </row>
-    <row r="36" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="525">
+      <c r="C35" s="542"/>
+      <c r="D35" s="543"/>
+      <c r="E35" s="531"/>
+      <c r="F35" s="532"/>
+      <c r="G35" s="534"/>
+      <c r="H35" s="538"/>
+      <c r="I35" s="539"/>
+      <c r="J35" s="540"/>
+    </row>
+    <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="524">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="527" t="s">
+      <c r="B36" s="526" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="528"/>
-      <c r="D36" s="529"/>
-      <c r="E36" s="530" t="str">
+      <c r="C36" s="527"/>
+      <c r="D36" s="528"/>
+      <c r="E36" s="529" t="str">
         <f>Данные!C20</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F36" s="531"/>
-      <c r="G36" s="534">
+      <c r="F36" s="530"/>
+      <c r="G36" s="533">
         <f>Данные!B20</f>
         <v>60</v>
       </c>
-      <c r="H36" s="536"/>
-      <c r="I36" s="537"/>
-      <c r="J36" s="538"/>
-    </row>
-    <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="526"/>
-      <c r="B37" s="542" t="str">
+      <c r="H36" s="535"/>
+      <c r="I36" s="536"/>
+      <c r="J36" s="537"/>
+    </row>
+    <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="525"/>
+      <c r="B37" s="541" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C37" s="543"/>
-      <c r="D37" s="544"/>
-      <c r="E37" s="532"/>
-      <c r="F37" s="533"/>
-      <c r="G37" s="535"/>
-      <c r="H37" s="539"/>
-      <c r="I37" s="540"/>
-      <c r="J37" s="541"/>
-    </row>
-    <row r="38" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="525">
+      <c r="C37" s="542"/>
+      <c r="D37" s="543"/>
+      <c r="E37" s="531"/>
+      <c r="F37" s="532"/>
+      <c r="G37" s="534"/>
+      <c r="H37" s="538"/>
+      <c r="I37" s="539"/>
+      <c r="J37" s="540"/>
+    </row>
+    <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="524">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="527" t="s">
+      <c r="B38" s="526" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="528"/>
-      <c r="D38" s="529"/>
-      <c r="E38" s="530" t="str">
+      <c r="C38" s="527"/>
+      <c r="D38" s="528"/>
+      <c r="E38" s="529" t="str">
         <f>Данные!C21</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F38" s="531"/>
-      <c r="G38" s="534">
+      <c r="F38" s="530"/>
+      <c r="G38" s="533">
         <f>Данные!B21</f>
         <v>18</v>
       </c>
-      <c r="H38" s="536"/>
-      <c r="I38" s="537"/>
-      <c r="J38" s="538"/>
-    </row>
-    <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="526"/>
-      <c r="B39" s="542" t="str">
+      <c r="H38" s="535"/>
+      <c r="I38" s="536"/>
+      <c r="J38" s="537"/>
+    </row>
+    <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="525"/>
+      <c r="B39" s="541" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C39" s="543"/>
-      <c r="D39" s="544"/>
-      <c r="E39" s="532"/>
-      <c r="F39" s="533"/>
-      <c r="G39" s="535"/>
-      <c r="H39" s="539"/>
-      <c r="I39" s="540"/>
-      <c r="J39" s="541"/>
-    </row>
-    <row r="40" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="525">
+      <c r="C39" s="542"/>
+      <c r="D39" s="543"/>
+      <c r="E39" s="531"/>
+      <c r="F39" s="532"/>
+      <c r="G39" s="534"/>
+      <c r="H39" s="538"/>
+      <c r="I39" s="539"/>
+      <c r="J39" s="540"/>
+    </row>
+    <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="524">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="527" t="s">
+      <c r="B40" s="526" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="528"/>
-      <c r="D40" s="529"/>
-      <c r="E40" s="530" t="str">
+      <c r="C40" s="527"/>
+      <c r="D40" s="528"/>
+      <c r="E40" s="529" t="str">
         <f>Данные!C23</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F40" s="531"/>
-      <c r="G40" s="534">
+      <c r="F40" s="530"/>
+      <c r="G40" s="533">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="H40" s="536"/>
-      <c r="I40" s="537"/>
-      <c r="J40" s="538"/>
-    </row>
-    <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="526"/>
-      <c r="B41" s="542" t="str">
+      <c r="H40" s="535"/>
+      <c r="I40" s="536"/>
+      <c r="J40" s="537"/>
+    </row>
+    <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="525"/>
+      <c r="B41" s="541" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C41" s="543"/>
-      <c r="D41" s="544"/>
-      <c r="E41" s="532"/>
-      <c r="F41" s="533"/>
-      <c r="G41" s="535"/>
-      <c r="H41" s="539"/>
-      <c r="I41" s="540"/>
-      <c r="J41" s="541"/>
-    </row>
-    <row r="42" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="525">
+      <c r="C41" s="542"/>
+      <c r="D41" s="543"/>
+      <c r="E41" s="531"/>
+      <c r="F41" s="532"/>
+      <c r="G41" s="534"/>
+      <c r="H41" s="538"/>
+      <c r="I41" s="539"/>
+      <c r="J41" s="540"/>
+    </row>
+    <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="524">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="527" t="s">
+      <c r="B42" s="526" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="528"/>
-      <c r="D42" s="529"/>
-      <c r="E42" s="530" t="str">
+      <c r="C42" s="527"/>
+      <c r="D42" s="528"/>
+      <c r="E42" s="529" t="str">
         <f>Данные!C26</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F42" s="531"/>
-      <c r="G42" s="534">
+      <c r="F42" s="530"/>
+      <c r="G42" s="533">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="H42" s="536"/>
-      <c r="I42" s="537"/>
-      <c r="J42" s="538"/>
-    </row>
-    <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="526"/>
-      <c r="B43" s="542" t="str">
+      <c r="H42" s="535"/>
+      <c r="I42" s="536"/>
+      <c r="J42" s="537"/>
+    </row>
+    <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="525"/>
+      <c r="B43" s="541" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C43" s="543"/>
-      <c r="D43" s="544"/>
-      <c r="E43" s="532"/>
-      <c r="F43" s="533"/>
-      <c r="G43" s="535"/>
-      <c r="H43" s="539"/>
-      <c r="I43" s="540"/>
-      <c r="J43" s="541"/>
-    </row>
-    <row r="44" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="525">
+      <c r="C43" s="542"/>
+      <c r="D43" s="543"/>
+      <c r="E43" s="531"/>
+      <c r="F43" s="532"/>
+      <c r="G43" s="534"/>
+      <c r="H43" s="538"/>
+      <c r="I43" s="539"/>
+      <c r="J43" s="540"/>
+    </row>
+    <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="524">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="527" t="s">
+      <c r="B44" s="526" t="s">
         <v>105</v>
       </c>
-      <c r="C44" s="528"/>
-      <c r="D44" s="529"/>
-      <c r="E44" s="530">
+      <c r="C44" s="527"/>
+      <c r="D44" s="528"/>
+      <c r="E44" s="529">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="531"/>
-      <c r="G44" s="534">
+      <c r="F44" s="530"/>
+      <c r="G44" s="533">
         <f>Данные!B27</f>
         <v>18</v>
       </c>
-      <c r="H44" s="536"/>
-      <c r="I44" s="537"/>
-      <c r="J44" s="538"/>
-    </row>
-    <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="526"/>
-      <c r="B45" s="542" t="str">
+      <c r="H44" s="535"/>
+      <c r="I44" s="536"/>
+      <c r="J44" s="537"/>
+    </row>
+    <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="525"/>
+      <c r="B45" s="541" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C45" s="543"/>
-      <c r="D45" s="544"/>
-      <c r="E45" s="532"/>
-      <c r="F45" s="533"/>
-      <c r="G45" s="535"/>
-      <c r="H45" s="539"/>
-      <c r="I45" s="540"/>
-      <c r="J45" s="541"/>
-    </row>
-    <row r="46" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="525">
+      <c r="C45" s="542"/>
+      <c r="D45" s="543"/>
+      <c r="E45" s="531"/>
+      <c r="F45" s="532"/>
+      <c r="G45" s="534"/>
+      <c r="H45" s="538"/>
+      <c r="I45" s="539"/>
+      <c r="J45" s="540"/>
+    </row>
+    <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="524">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="527" t="s">
+      <c r="B46" s="526" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="528"/>
-      <c r="D46" s="529"/>
-      <c r="E46" s="530" t="str">
+      <c r="C46" s="527"/>
+      <c r="D46" s="528"/>
+      <c r="E46" s="529" t="str">
         <f>Данные!C24</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F46" s="531"/>
-      <c r="G46" s="534">
+      <c r="F46" s="530"/>
+      <c r="G46" s="533">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="536"/>
-      <c r="I46" s="537"/>
-      <c r="J46" s="538"/>
-    </row>
-    <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="526"/>
-      <c r="B47" s="542" t="str">
+      <c r="H46" s="535"/>
+      <c r="I46" s="536"/>
+      <c r="J46" s="537"/>
+    </row>
+    <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="525"/>
+      <c r="B47" s="541" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C47" s="543"/>
-      <c r="D47" s="544"/>
-      <c r="E47" s="532"/>
-      <c r="F47" s="533"/>
-      <c r="G47" s="535"/>
-      <c r="H47" s="539"/>
-      <c r="I47" s="540"/>
-      <c r="J47" s="541"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C47" s="542"/>
+      <c r="D47" s="543"/>
+      <c r="E47" s="531"/>
+      <c r="F47" s="532"/>
+      <c r="G47" s="534"/>
+      <c r="H47" s="538"/>
+      <c r="I47" s="539"/>
+      <c r="J47" s="540"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="304"/>
       <c r="B48" s="304"/>
       <c r="C48" s="304"/>
@@ -11110,7 +11415,7 @@
       <c r="I48" s="304"/>
       <c r="J48" s="305"/>
     </row>
-    <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="304" t="s">
         <v>71</v>
       </c>
@@ -11124,7 +11429,7 @@
       <c r="I49" s="304"/>
       <c r="J49" s="305"/>
     </row>
-    <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="304"/>
       <c r="B50" s="304"/>
       <c r="C50" s="304"/>
@@ -11136,7 +11441,7 @@
       <c r="I50" s="304"/>
       <c r="J50" s="305"/>
     </row>
-    <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="304"/>
       <c r="B51" s="307" t="s">
         <v>72</v>
@@ -11152,7 +11457,7 @@
       <c r="I51" s="304"/>
       <c r="J51" s="305"/>
     </row>
-    <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="304"/>
       <c r="B52" s="304"/>
       <c r="C52" s="304"/>
@@ -11164,7 +11469,7 @@
       <c r="I52" s="304"/>
       <c r="J52" s="305"/>
     </row>
-    <row r="53" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="304"/>
       <c r="B53" s="304"/>
       <c r="C53" s="304"/>
@@ -11178,7 +11483,7 @@
       </c>
       <c r="J53" s="304"/>
     </row>
-    <row r="54" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="304"/>
       <c r="B54" s="304"/>
       <c r="C54" s="304"/>
@@ -11189,7 +11494,7 @@
       <c r="I54" s="304"/>
       <c r="J54" s="304"/>
     </row>
-    <row r="55" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="304"/>
       <c r="B55" s="304"/>
       <c r="C55" s="304"/>
@@ -11202,14 +11507,14 @@
         <v>Д.Е. Серков</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="301"/>
       <c r="B56" s="301"/>
       <c r="C56" s="301"/>
       <c r="D56" s="301"/>
       <c r="E56" s="301"/>
     </row>
-    <row r="57" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="301"/>
       <c r="B57" s="301"/>
       <c r="C57" s="301"/>
@@ -11313,7 +11618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -11323,20 +11628,20 @@
       <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
     <col min="2" max="2" width="5" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="0.85546875" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -11357,49 +11662,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="558"/>
-      <c r="C2" s="559"/>
-      <c r="D2" s="560"/>
-      <c r="E2" s="567" t="s">
+      <c r="B2" s="557"/>
+      <c r="C2" s="558"/>
+      <c r="D2" s="559"/>
+      <c r="E2" s="566" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="568"/>
-      <c r="G2" s="568"/>
-      <c r="H2" s="569"/>
-      <c r="I2" s="574" t="s">
+      <c r="F2" s="567"/>
+      <c r="G2" s="567"/>
+      <c r="H2" s="568"/>
+      <c r="I2" s="573" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="575"/>
-      <c r="K2" s="578">
+      <c r="J2" s="574"/>
+      <c r="K2" s="577">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="579"/>
+      <c r="L2" s="578"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="570"/>
-      <c r="Q2" s="570"/>
+      <c r="P2" s="569"/>
+      <c r="Q2" s="569"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="561"/>
-      <c r="C3" s="562"/>
-      <c r="D3" s="563"/>
-      <c r="E3" s="571" t="s">
+      <c r="B3" s="560"/>
+      <c r="C3" s="561"/>
+      <c r="D3" s="562"/>
+      <c r="E3" s="570" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="572"/>
-      <c r="G3" s="572"/>
-      <c r="H3" s="573"/>
-      <c r="I3" s="576"/>
-      <c r="J3" s="577"/>
-      <c r="K3" s="580"/>
-      <c r="L3" s="581"/>
+      <c r="F3" s="571"/>
+      <c r="G3" s="571"/>
+      <c r="H3" s="572"/>
+      <c r="I3" s="575"/>
+      <c r="J3" s="576"/>
+      <c r="K3" s="579"/>
+      <c r="L3" s="580"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11408,11 +11713,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="564"/>
-      <c r="C4" s="565"/>
-      <c r="D4" s="566"/>
+      <c r="B4" s="563"/>
+      <c r="C4" s="564"/>
+      <c r="D4" s="565"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11429,24 +11734,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="585" t="s">
+      <c r="B5" s="584" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="586"/>
-      <c r="D5" s="509" t="str">
+      <c r="C5" s="585"/>
+      <c r="D5" s="508" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
-      <c r="I5" s="587"/>
-      <c r="J5" s="588"/>
-      <c r="K5" s="510"/>
-      <c r="L5" s="511"/>
+      <c r="E5" s="509"/>
+      <c r="F5" s="509"/>
+      <c r="G5" s="509"/>
+      <c r="H5" s="510"/>
+      <c r="I5" s="586"/>
+      <c r="J5" s="587"/>
+      <c r="K5" s="509"/>
+      <c r="L5" s="510"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11455,24 +11760,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="585" t="s">
+      <c r="B6" s="584" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="589"/>
-      <c r="D6" s="503" t="str">
+      <c r="C6" s="588"/>
+      <c r="D6" s="502" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="E6" s="590"/>
-      <c r="F6" s="590"/>
-      <c r="G6" s="590"/>
-      <c r="H6" s="591"/>
-      <c r="I6" s="587"/>
-      <c r="J6" s="588"/>
-      <c r="K6" s="510"/>
-      <c r="L6" s="511"/>
+      <c r="E6" s="589"/>
+      <c r="F6" s="589"/>
+      <c r="G6" s="589"/>
+      <c r="H6" s="590"/>
+      <c r="I6" s="586"/>
+      <c r="J6" s="587"/>
+      <c r="K6" s="509"/>
+      <c r="L6" s="510"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11481,29 +11786,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="595" t="s">
+      <c r="B7" s="594" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="596"/>
-      <c r="D7" s="512">
+      <c r="C7" s="595"/>
+      <c r="D7" s="511">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="597"/>
-      <c r="F7" s="597"/>
-      <c r="G7" s="597"/>
-      <c r="H7" s="598"/>
-      <c r="I7" s="595" t="s">
+      <c r="E7" s="596"/>
+      <c r="F7" s="596"/>
+      <c r="G7" s="596"/>
+      <c r="H7" s="597"/>
+      <c r="I7" s="594" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="599"/>
-      <c r="K7" s="500">
+      <c r="J7" s="598"/>
+      <c r="K7" s="499">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="500"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11512,7 +11817,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -11533,7 +11838,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -11566,7 +11871,7 @@
       <c r="R9" s="318"/>
       <c r="S9" s="190"/>
     </row>
-    <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -11599,7 +11904,7 @@
       <c r="R10" s="320"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="96" t="s">
         <v>26</v>
@@ -11632,7 +11937,7 @@
       <c r="R11" s="322"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="96" t="s">
         <v>2</v>
@@ -11665,7 +11970,7 @@
       <c r="R12" s="322"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="96" t="s">
         <v>3</v>
@@ -11698,7 +12003,7 @@
       <c r="R13" s="322"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="96" t="s">
         <v>27</v>
@@ -11731,7 +12036,7 @@
       <c r="R14" s="322"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="96" t="s">
         <v>9</v>
@@ -11764,7 +12069,7 @@
       <c r="R15" s="322"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="96" t="s">
         <v>5</v>
@@ -11797,7 +12102,7 @@
       <c r="R16" s="322"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="96" t="s">
         <v>30</v>
@@ -11830,7 +12135,7 @@
       <c r="R17" s="322"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="103" t="s">
         <v>32</v>
@@ -11861,7 +12166,7 @@
       <c r="R18" s="324"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="103" t="s">
         <v>33</v>
@@ -11894,7 +12199,7 @@
       <c r="R19" s="324"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="78"/>
       <c r="B20" s="103" t="s">
         <v>35</v>
@@ -11927,7 +12232,7 @@
       <c r="R20" s="324"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="78"/>
       <c r="B21" s="103" t="s">
         <v>40</v>
@@ -11960,7 +12265,7 @@
       <c r="R21" s="324"/>
       <c r="S21" s="86"/>
     </row>
-    <row r="22" spans="1:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="78"/>
       <c r="B22" s="103" t="s">
         <v>41</v>
@@ -11993,14 +12298,14 @@
       <c r="R22" s="324"/>
       <c r="S22" s="86"/>
     </row>
-    <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="592" t="s">
+      <c r="B23" s="591" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="593"/>
-      <c r="D23" s="593"/>
-      <c r="E23" s="594"/>
+      <c r="C23" s="592"/>
+      <c r="D23" s="592"/>
+      <c r="E23" s="593"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -12020,14 +12325,14 @@
       <c r="R23" s="324"/>
       <c r="S23" s="86"/>
     </row>
-    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="582" t="s">
+      <c r="B24" s="581" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="583"/>
-      <c r="D24" s="583"/>
-      <c r="E24" s="584"/>
+      <c r="C24" s="582"/>
+      <c r="D24" s="582"/>
+      <c r="E24" s="583"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -12047,7 +12352,7 @@
       <c r="R24" s="326"/>
       <c r="S24" s="86"/>
     </row>
-    <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="108"/>
       <c r="B25" s="109"/>
       <c r="C25" s="109"/>
@@ -12068,27 +12373,27 @@
       <c r="R25" s="111"/>
       <c r="S25" s="112"/>
     </row>
-    <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K27" s="557" t="s">
+    <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K27" s="556" t="s">
         <v>136</v>
       </c>
-      <c r="L27" s="557"/>
-      <c r="M27" s="557"/>
-      <c r="N27" s="467"/>
-      <c r="O27" s="467"/>
-      <c r="P27" s="483"/>
-      <c r="Q27" s="483"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N28" s="554" t="s">
+      <c r="L27" s="556"/>
+      <c r="M27" s="556"/>
+      <c r="N27" s="466"/>
+      <c r="O27" s="466"/>
+      <c r="P27" s="482"/>
+      <c r="Q27" s="482"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="N28" s="553" t="s">
         <v>140</v>
       </c>
-      <c r="O28" s="554"/>
-      <c r="P28" s="555" t="s">
+      <c r="O28" s="553"/>
+      <c r="P28" s="554" t="s">
         <v>141</v>
       </c>
-      <c r="Q28" s="556"/>
+      <c r="Q28" s="555"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -12134,7 +12439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -12144,20 +12449,20 @@
       <selection pane="bottomRight" activeCell="I7" sqref="I7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="64" customWidth="1"/>
     <col min="4" max="5" width="6" style="64" customWidth="1"/>
     <col min="6" max="6" width="7" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -12178,52 +12483,52 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="606">
+      <c r="B2" s="605">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="607"/>
-      <c r="D2" s="608"/>
-      <c r="E2" s="615" t="s">
+      <c r="C2" s="606"/>
+      <c r="D2" s="607"/>
+      <c r="E2" s="614" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="616"/>
-      <c r="G2" s="616"/>
-      <c r="H2" s="617"/>
-      <c r="I2" s="621" t="s">
+      <c r="F2" s="615"/>
+      <c r="G2" s="615"/>
+      <c r="H2" s="616"/>
+      <c r="I2" s="620" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="622"/>
-      <c r="K2" s="625">
+      <c r="J2" s="621"/>
+      <c r="K2" s="624">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="626"/>
+      <c r="L2" s="625"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="570"/>
-      <c r="Q2" s="570"/>
+      <c r="P2" s="569"/>
+      <c r="Q2" s="569"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="609"/>
-      <c r="C3" s="610"/>
-      <c r="D3" s="611"/>
-      <c r="E3" s="618" t="s">
+      <c r="B3" s="608"/>
+      <c r="C3" s="609"/>
+      <c r="D3" s="610"/>
+      <c r="E3" s="617" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="619"/>
-      <c r="G3" s="619"/>
-      <c r="H3" s="620"/>
-      <c r="I3" s="623"/>
-      <c r="J3" s="624"/>
-      <c r="K3" s="627"/>
-      <c r="L3" s="628"/>
+      <c r="F3" s="618"/>
+      <c r="G3" s="618"/>
+      <c r="H3" s="619"/>
+      <c r="I3" s="622"/>
+      <c r="J3" s="623"/>
+      <c r="K3" s="626"/>
+      <c r="L3" s="627"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12232,11 +12537,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="612"/>
-      <c r="C4" s="613"/>
-      <c r="D4" s="614"/>
+      <c r="B4" s="611"/>
+      <c r="C4" s="612"/>
+      <c r="D4" s="613"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12253,24 +12558,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="585" t="s">
+      <c r="B5" s="584" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="600"/>
-      <c r="D5" s="509" t="str">
+      <c r="C5" s="599"/>
+      <c r="D5" s="508" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
-      <c r="I5" s="601"/>
-      <c r="J5" s="602"/>
-      <c r="K5" s="603"/>
-      <c r="L5" s="511"/>
+      <c r="E5" s="509"/>
+      <c r="F5" s="509"/>
+      <c r="G5" s="509"/>
+      <c r="H5" s="510"/>
+      <c r="I5" s="600"/>
+      <c r="J5" s="601"/>
+      <c r="K5" s="602"/>
+      <c r="L5" s="510"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12279,24 +12584,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="585" t="s">
+      <c r="B6" s="584" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="600"/>
-      <c r="D6" s="503" t="str">
+      <c r="C6" s="599"/>
+      <c r="D6" s="502" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="E6" s="590"/>
-      <c r="F6" s="590"/>
-      <c r="G6" s="590"/>
-      <c r="H6" s="591"/>
-      <c r="I6" s="601"/>
-      <c r="J6" s="602"/>
-      <c r="K6" s="603"/>
-      <c r="L6" s="511"/>
+      <c r="E6" s="589"/>
+      <c r="F6" s="589"/>
+      <c r="G6" s="589"/>
+      <c r="H6" s="590"/>
+      <c r="I6" s="600"/>
+      <c r="J6" s="601"/>
+      <c r="K6" s="602"/>
+      <c r="L6" s="510"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12305,29 +12610,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="595" t="s">
+      <c r="B7" s="594" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="604"/>
-      <c r="D7" s="512">
+      <c r="C7" s="603"/>
+      <c r="D7" s="511">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="597"/>
-      <c r="F7" s="597"/>
-      <c r="G7" s="597"/>
-      <c r="H7" s="598"/>
-      <c r="I7" s="605" t="s">
+      <c r="E7" s="596"/>
+      <c r="F7" s="596"/>
+      <c r="G7" s="596"/>
+      <c r="H7" s="597"/>
+      <c r="I7" s="604" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="604"/>
-      <c r="K7" s="500">
+      <c r="J7" s="603"/>
+      <c r="K7" s="499">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="500"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12336,7 +12641,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -12357,7 +12662,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -12390,7 +12695,7 @@
       <c r="R9" s="318"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -12421,7 +12726,7 @@
       <c r="R10" s="320"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="96" t="s">
         <v>28</v>
@@ -12454,7 +12759,7 @@
       <c r="R11" s="322"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="96" t="s">
         <v>4</v>
@@ -12487,7 +12792,7 @@
       <c r="R12" s="322"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="96" t="s">
         <v>5</v>
@@ -12520,14 +12825,14 @@
       <c r="R13" s="322"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="630" t="s">
+      <c r="B14" s="629" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="631"/>
-      <c r="D14" s="631"/>
-      <c r="E14" s="631"/>
+      <c r="C14" s="630"/>
+      <c r="D14" s="630"/>
+      <c r="E14" s="630"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -12547,15 +12852,15 @@
       <c r="R14" s="324"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
-      <c r="B15" s="592" t="s">
+      <c r="B15" s="591" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="593"/>
-      <c r="D15" s="593"/>
-      <c r="E15" s="593"/>
-      <c r="F15" s="629"/>
+      <c r="C15" s="592"/>
+      <c r="D15" s="592"/>
+      <c r="E15" s="592"/>
+      <c r="F15" s="628"/>
       <c r="G15" s="56" t="s">
         <v>77</v>
       </c>
@@ -12572,14 +12877,14 @@
       <c r="R15" s="324"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="582" t="s">
+      <c r="B16" s="581" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="583"/>
-      <c r="D16" s="583"/>
-      <c r="E16" s="584"/>
+      <c r="C16" s="582"/>
+      <c r="D16" s="582"/>
+      <c r="E16" s="583"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -12599,7 +12904,7 @@
       <c r="R16" s="326"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="108"/>
       <c r="B17" s="109"/>
       <c r="C17" s="109"/>
@@ -12620,31 +12925,31 @@
       <c r="R17" s="111"/>
       <c r="S17" s="112"/>
     </row>
-    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B18" s="121"/>
       <c r="P18" s="122"/>
     </row>
-    <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="121"/>
-      <c r="L19" s="557" t="s">
+      <c r="L19" s="556" t="s">
         <v>136</v>
       </c>
-      <c r="M19" s="557"/>
-      <c r="N19" s="557"/>
-      <c r="O19" s="467"/>
-      <c r="P19" s="467"/>
-      <c r="Q19" s="483"/>
-      <c r="R19" s="483"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O20" s="554" t="s">
+      <c r="M19" s="556"/>
+      <c r="N19" s="556"/>
+      <c r="O19" s="466"/>
+      <c r="P19" s="466"/>
+      <c r="Q19" s="482"/>
+      <c r="R19" s="482"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O20" s="553" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="554"/>
-      <c r="Q20" s="555" t="s">
+      <c r="P20" s="553"/>
+      <c r="Q20" s="554" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="556"/>
+      <c r="R20" s="555"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -12699,7 +13004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -12709,20 +13014,20 @@
       <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="0.88671875" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="64" customWidth="1"/>
-    <col min="4" max="5" width="5.6640625" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="64" customWidth="1"/>
+    <col min="1" max="1" width="0.85546875" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="64" customWidth="1"/>
+    <col min="4" max="5" width="5.7109375" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="0.5546875" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="0.5703125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -12743,49 +13048,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="558"/>
-      <c r="C2" s="559"/>
-      <c r="D2" s="560"/>
-      <c r="E2" s="567" t="s">
+      <c r="B2" s="557"/>
+      <c r="C2" s="558"/>
+      <c r="D2" s="559"/>
+      <c r="E2" s="566" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="568"/>
-      <c r="G2" s="568"/>
-      <c r="H2" s="569"/>
-      <c r="I2" s="574" t="s">
+      <c r="F2" s="567"/>
+      <c r="G2" s="567"/>
+      <c r="H2" s="568"/>
+      <c r="I2" s="573" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="575"/>
-      <c r="K2" s="578">
+      <c r="J2" s="574"/>
+      <c r="K2" s="577">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="579"/>
+      <c r="L2" s="578"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="570"/>
-      <c r="Q2" s="570"/>
+      <c r="P2" s="569"/>
+      <c r="Q2" s="569"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="561"/>
-      <c r="C3" s="562"/>
-      <c r="D3" s="563"/>
-      <c r="E3" s="571" t="s">
+      <c r="B3" s="560"/>
+      <c r="C3" s="561"/>
+      <c r="D3" s="562"/>
+      <c r="E3" s="570" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="572"/>
-      <c r="G3" s="572"/>
-      <c r="H3" s="573"/>
-      <c r="I3" s="576"/>
-      <c r="J3" s="577"/>
-      <c r="K3" s="580"/>
-      <c r="L3" s="581"/>
+      <c r="F3" s="571"/>
+      <c r="G3" s="571"/>
+      <c r="H3" s="572"/>
+      <c r="I3" s="575"/>
+      <c r="J3" s="576"/>
+      <c r="K3" s="579"/>
+      <c r="L3" s="580"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12794,11 +13099,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="564"/>
-      <c r="C4" s="565"/>
-      <c r="D4" s="566"/>
+      <c r="B4" s="563"/>
+      <c r="C4" s="564"/>
+      <c r="D4" s="565"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12815,24 +13120,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="585" t="s">
+      <c r="B5" s="584" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="586"/>
-      <c r="D5" s="509" t="str">
+      <c r="C5" s="585"/>
+      <c r="D5" s="508" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
-      <c r="I5" s="587"/>
-      <c r="J5" s="588"/>
-      <c r="K5" s="510"/>
-      <c r="L5" s="511"/>
+      <c r="E5" s="509"/>
+      <c r="F5" s="509"/>
+      <c r="G5" s="509"/>
+      <c r="H5" s="510"/>
+      <c r="I5" s="586"/>
+      <c r="J5" s="587"/>
+      <c r="K5" s="509"/>
+      <c r="L5" s="510"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12841,24 +13146,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="585" t="s">
+      <c r="B6" s="584" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="589"/>
-      <c r="D6" s="503" t="str">
+      <c r="C6" s="588"/>
+      <c r="D6" s="502" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="E6" s="590"/>
-      <c r="F6" s="590"/>
-      <c r="G6" s="590"/>
-      <c r="H6" s="591"/>
-      <c r="I6" s="587"/>
-      <c r="J6" s="588"/>
-      <c r="K6" s="510"/>
-      <c r="L6" s="511"/>
+      <c r="E6" s="589"/>
+      <c r="F6" s="589"/>
+      <c r="G6" s="589"/>
+      <c r="H6" s="590"/>
+      <c r="I6" s="586"/>
+      <c r="J6" s="587"/>
+      <c r="K6" s="509"/>
+      <c r="L6" s="510"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12867,29 +13172,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="595" t="s">
+      <c r="B7" s="594" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="596"/>
-      <c r="D7" s="512">
+      <c r="C7" s="595"/>
+      <c r="D7" s="511">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="597"/>
-      <c r="F7" s="597"/>
-      <c r="G7" s="597"/>
-      <c r="H7" s="598"/>
-      <c r="I7" s="595" t="s">
+      <c r="E7" s="596"/>
+      <c r="F7" s="596"/>
+      <c r="G7" s="596"/>
+      <c r="H7" s="597"/>
+      <c r="I7" s="594" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="599"/>
-      <c r="K7" s="500">
+      <c r="J7" s="598"/>
+      <c r="K7" s="499">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="500"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12898,7 +13203,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -12919,7 +13224,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:24" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -12955,7 +13260,7 @@
       <c r="W9" s="91"/>
       <c r="X9" s="91"/>
     </row>
-    <row r="10" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -12991,7 +13296,7 @@
       <c r="W10" s="91"/>
       <c r="X10" s="91"/>
     </row>
-    <row r="11" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="96" t="s">
         <v>3</v>
@@ -13027,7 +13332,7 @@
       <c r="W11" s="100"/>
       <c r="X11" s="91"/>
     </row>
-    <row r="12" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="96" t="s">
         <v>27</v>
@@ -13063,7 +13368,7 @@
       <c r="W12" s="101"/>
       <c r="X12" s="91"/>
     </row>
-    <row r="13" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="96" t="s">
         <v>4</v>
@@ -13099,7 +13404,7 @@
       <c r="W13" s="101"/>
       <c r="X13" s="91"/>
     </row>
-    <row r="14" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="96" t="s">
         <v>5</v>
@@ -13135,7 +13440,7 @@
       <c r="W14" s="101"/>
       <c r="X14" s="91"/>
     </row>
-    <row r="15" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="96" t="s">
         <v>30</v>
@@ -13171,7 +13476,7 @@
       <c r="W15" s="100"/>
       <c r="X15" s="91"/>
     </row>
-    <row r="16" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="96" t="s">
         <v>31</v>
@@ -13207,7 +13512,7 @@
       <c r="W16" s="101"/>
       <c r="X16" s="91"/>
     </row>
-    <row r="17" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="103" t="s">
         <v>32</v>
@@ -13243,7 +13548,7 @@
       <c r="W17" s="100"/>
       <c r="X17" s="91"/>
     </row>
-    <row r="18" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="103" t="s">
         <v>33</v>
@@ -13279,7 +13584,7 @@
       <c r="W18" s="100"/>
       <c r="X18" s="91"/>
     </row>
-    <row r="19" spans="1:24" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="103" t="s">
         <v>34</v>
@@ -13313,7 +13618,7 @@
       <c r="W19" s="100"/>
       <c r="X19" s="91"/>
     </row>
-    <row r="20" spans="1:24" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
       <c r="B20" s="103" t="s">
         <v>35</v>
@@ -13346,7 +13651,7 @@
       <c r="R20" s="326"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="108"/>
       <c r="B21" s="109"/>
       <c r="C21" s="109"/>
@@ -13367,27 +13672,27 @@
       <c r="R21" s="111"/>
       <c r="S21" s="112"/>
     </row>
-    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="L23" s="632" t="s">
+    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="L23" s="631" t="s">
         <v>136</v>
       </c>
-      <c r="M23" s="632"/>
-      <c r="N23" s="632"/>
-      <c r="O23" s="467"/>
-      <c r="P23" s="467"/>
-      <c r="Q23" s="483"/>
-      <c r="R23" s="483"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="O24" s="554" t="s">
+      <c r="M23" s="631"/>
+      <c r="N23" s="631"/>
+      <c r="O23" s="466"/>
+      <c r="P23" s="466"/>
+      <c r="Q23" s="482"/>
+      <c r="R23" s="482"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O24" s="553" t="s">
         <v>140</v>
       </c>
-      <c r="P24" s="554"/>
-      <c r="Q24" s="555" t="s">
+      <c r="P24" s="553"/>
+      <c r="Q24" s="554" t="s">
         <v>141</v>
       </c>
-      <c r="R24" s="556"/>
+      <c r="R24" s="555"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -13433,7 +13738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -13443,20 +13748,20 @@
       <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="5" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="5" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="5" customWidth="1"/>
     <col min="8" max="18" width="9" style="5" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" style="5" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="5"/>
+    <col min="19" max="19" width="0.85546875" style="5" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -13477,49 +13782,49 @@
       <c r="R1" s="3"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="558"/>
-      <c r="C2" s="559"/>
-      <c r="D2" s="560"/>
-      <c r="E2" s="567" t="s">
+      <c r="B2" s="557"/>
+      <c r="C2" s="558"/>
+      <c r="D2" s="559"/>
+      <c r="E2" s="566" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="568"/>
-      <c r="G2" s="568"/>
-      <c r="H2" s="569"/>
-      <c r="I2" s="574" t="s">
+      <c r="F2" s="567"/>
+      <c r="G2" s="567"/>
+      <c r="H2" s="568"/>
+      <c r="I2" s="573" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="575"/>
-      <c r="K2" s="578">
+      <c r="J2" s="574"/>
+      <c r="K2" s="577">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="579"/>
+      <c r="L2" s="578"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="633"/>
-      <c r="Q2" s="633"/>
+      <c r="P2" s="632"/>
+      <c r="Q2" s="632"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="561"/>
-      <c r="C3" s="562"/>
-      <c r="D3" s="563"/>
-      <c r="E3" s="571" t="s">
+      <c r="B3" s="560"/>
+      <c r="C3" s="561"/>
+      <c r="D3" s="562"/>
+      <c r="E3" s="570" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="572"/>
-      <c r="G3" s="572"/>
-      <c r="H3" s="573"/>
-      <c r="I3" s="576"/>
-      <c r="J3" s="577"/>
-      <c r="K3" s="580"/>
-      <c r="L3" s="581"/>
+      <c r="F3" s="571"/>
+      <c r="G3" s="571"/>
+      <c r="H3" s="572"/>
+      <c r="I3" s="575"/>
+      <c r="J3" s="576"/>
+      <c r="K3" s="579"/>
+      <c r="L3" s="580"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13528,11 +13833,11 @@
       <c r="R3" s="15"/>
       <c r="S3" s="11"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="564"/>
-      <c r="C4" s="565"/>
-      <c r="D4" s="566"/>
+      <c r="B4" s="563"/>
+      <c r="C4" s="564"/>
+      <c r="D4" s="565"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13549,24 +13854,24 @@
       <c r="R4" s="15"/>
       <c r="S4" s="11"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="585" t="s">
+      <c r="B5" s="584" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="586"/>
-      <c r="D5" s="509" t="str">
+      <c r="C5" s="585"/>
+      <c r="D5" s="508" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
-      <c r="I5" s="587"/>
-      <c r="J5" s="588"/>
-      <c r="K5" s="510"/>
-      <c r="L5" s="511"/>
+      <c r="E5" s="509"/>
+      <c r="F5" s="509"/>
+      <c r="G5" s="509"/>
+      <c r="H5" s="510"/>
+      <c r="I5" s="586"/>
+      <c r="J5" s="587"/>
+      <c r="K5" s="509"/>
+      <c r="L5" s="510"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13575,24 +13880,24 @@
       <c r="R5" s="15"/>
       <c r="S5" s="11"/>
     </row>
-    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="585" t="s">
+      <c r="B6" s="584" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="589"/>
-      <c r="D6" s="503" t="str">
+      <c r="C6" s="588"/>
+      <c r="D6" s="502" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="E6" s="590"/>
-      <c r="F6" s="590"/>
-      <c r="G6" s="590"/>
-      <c r="H6" s="591"/>
-      <c r="I6" s="587"/>
-      <c r="J6" s="588"/>
-      <c r="K6" s="510"/>
-      <c r="L6" s="511"/>
+      <c r="E6" s="589"/>
+      <c r="F6" s="589"/>
+      <c r="G6" s="589"/>
+      <c r="H6" s="590"/>
+      <c r="I6" s="586"/>
+      <c r="J6" s="587"/>
+      <c r="K6" s="509"/>
+      <c r="L6" s="510"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13601,29 +13906,29 @@
       <c r="R6" s="15"/>
       <c r="S6" s="11"/>
     </row>
-    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="595" t="s">
+      <c r="B7" s="594" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="596"/>
-      <c r="D7" s="512">
+      <c r="C7" s="595"/>
+      <c r="D7" s="511">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="597"/>
-      <c r="F7" s="597"/>
-      <c r="G7" s="597"/>
-      <c r="H7" s="598"/>
-      <c r="I7" s="595" t="s">
+      <c r="E7" s="596"/>
+      <c r="F7" s="596"/>
+      <c r="G7" s="596"/>
+      <c r="H7" s="597"/>
+      <c r="I7" s="594" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="599"/>
-      <c r="K7" s="500">
+      <c r="J7" s="598"/>
+      <c r="K7" s="499">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="500"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13632,7 +13937,7 @@
       <c r="R7" s="23"/>
       <c r="S7" s="11"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="25"/>
       <c r="C8" s="26"/>
@@ -13653,7 +13958,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="32"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -13686,7 +13991,7 @@
       <c r="R9" s="328"/>
       <c r="S9" s="38"/>
     </row>
-    <row r="10" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="50" t="s">
         <v>6</v>
@@ -13717,7 +14022,7 @@
       <c r="R10" s="330"/>
       <c r="S10" s="32"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
       <c r="B11" s="50" t="s">
         <v>2</v>
@@ -13750,7 +14055,7 @@
       <c r="R11" s="330"/>
       <c r="S11" s="32"/>
     </row>
-    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24"/>
       <c r="B12" s="50" t="s">
         <v>3</v>
@@ -13783,7 +14088,7 @@
       <c r="R12" s="330"/>
       <c r="S12" s="32"/>
     </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24"/>
       <c r="B13" s="50" t="s">
         <v>7</v>
@@ -13816,7 +14121,7 @@
       <c r="R13" s="330"/>
       <c r="S13" s="32"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="24"/>
       <c r="B14" s="50" t="s">
         <v>8</v>
@@ -13849,7 +14154,7 @@
       <c r="R14" s="330"/>
       <c r="S14" s="32"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="57" t="s">
         <v>4</v>
@@ -13882,7 +14187,7 @@
       <c r="R15" s="332"/>
       <c r="S15" s="32"/>
     </row>
-    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
       <c r="B16" s="40"/>
       <c r="C16" s="41"/>
@@ -13903,27 +14208,27 @@
       <c r="R16" s="46"/>
       <c r="S16" s="43"/>
     </row>
-    <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L18" s="632" t="s">
+    <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L18" s="631" t="s">
         <v>136</v>
       </c>
-      <c r="M18" s="632"/>
-      <c r="N18" s="632"/>
-      <c r="O18" s="467"/>
-      <c r="P18" s="467"/>
-      <c r="Q18" s="483"/>
-      <c r="R18" s="483"/>
-    </row>
-    <row r="19" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="O19" s="554" t="s">
+      <c r="M18" s="631"/>
+      <c r="N18" s="631"/>
+      <c r="O18" s="466"/>
+      <c r="P18" s="466"/>
+      <c r="Q18" s="482"/>
+      <c r="R18" s="482"/>
+    </row>
+    <row r="19" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="O19" s="553" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="554"/>
-      <c r="Q19" s="555" t="s">
+      <c r="P19" s="553"/>
+      <c r="Q19" s="554" t="s">
         <v>141</v>
       </c>
-      <c r="R19" s="556"/>
+      <c r="R19" s="555"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -13970,7 +14275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -13983,20 +14288,20 @@
       <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="64" customWidth="1"/>
-    <col min="8" max="18" width="8.88671875" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="64" customWidth="1"/>
+    <col min="8" max="18" width="8.85546875" style="64" customWidth="1"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -14017,62 +14322,62 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="606"/>
-      <c r="C2" s="607"/>
-      <c r="D2" s="608"/>
-      <c r="E2" s="615" t="s">
+      <c r="B2" s="605"/>
+      <c r="C2" s="606"/>
+      <c r="D2" s="607"/>
+      <c r="E2" s="614" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="616"/>
-      <c r="G2" s="616"/>
-      <c r="H2" s="617"/>
-      <c r="I2" s="621" t="s">
+      <c r="F2" s="615"/>
+      <c r="G2" s="615"/>
+      <c r="H2" s="616"/>
+      <c r="I2" s="620" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="622"/>
-      <c r="K2" s="625">
+      <c r="J2" s="621"/>
+      <c r="K2" s="624">
         <f>Данные!B18</f>
         <v>130</v>
       </c>
-      <c r="L2" s="626"/>
-      <c r="M2" s="634"/>
-      <c r="N2" s="635"/>
-      <c r="O2" s="635"/>
-      <c r="P2" s="635"/>
-      <c r="Q2" s="635"/>
-      <c r="R2" s="636"/>
+      <c r="L2" s="625"/>
+      <c r="M2" s="633"/>
+      <c r="N2" s="634"/>
+      <c r="O2" s="634"/>
+      <c r="P2" s="634"/>
+      <c r="Q2" s="634"/>
+      <c r="R2" s="635"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="609"/>
-      <c r="C3" s="610"/>
-      <c r="D3" s="611"/>
-      <c r="E3" s="618" t="s">
+      <c r="B3" s="608"/>
+      <c r="C3" s="609"/>
+      <c r="D3" s="610"/>
+      <c r="E3" s="617" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="619"/>
-      <c r="G3" s="619"/>
-      <c r="H3" s="620"/>
-      <c r="I3" s="623"/>
-      <c r="J3" s="624"/>
-      <c r="K3" s="627"/>
-      <c r="L3" s="628"/>
-      <c r="M3" s="637"/>
-      <c r="N3" s="638"/>
-      <c r="O3" s="638"/>
-      <c r="P3" s="638"/>
-      <c r="Q3" s="638"/>
-      <c r="R3" s="639"/>
+      <c r="F3" s="618"/>
+      <c r="G3" s="618"/>
+      <c r="H3" s="619"/>
+      <c r="I3" s="622"/>
+      <c r="J3" s="623"/>
+      <c r="K3" s="626"/>
+      <c r="L3" s="627"/>
+      <c r="M3" s="636"/>
+      <c r="N3" s="637"/>
+      <c r="O3" s="637"/>
+      <c r="P3" s="637"/>
+      <c r="Q3" s="637"/>
+      <c r="R3" s="638"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="612"/>
-      <c r="C4" s="613"/>
-      <c r="D4" s="614"/>
+      <c r="B4" s="611"/>
+      <c r="C4" s="612"/>
+      <c r="D4" s="613"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14081,98 +14386,98 @@
       <c r="J4" s="242"/>
       <c r="K4" s="245"/>
       <c r="L4" s="246"/>
-      <c r="M4" s="637"/>
-      <c r="N4" s="638"/>
-      <c r="O4" s="638"/>
-      <c r="P4" s="638"/>
-      <c r="Q4" s="638"/>
-      <c r="R4" s="639"/>
+      <c r="M4" s="636"/>
+      <c r="N4" s="637"/>
+      <c r="O4" s="637"/>
+      <c r="P4" s="637"/>
+      <c r="Q4" s="637"/>
+      <c r="R4" s="638"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="585" t="s">
+      <c r="B5" s="584" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="600"/>
-      <c r="D5" s="509" t="str">
+      <c r="C5" s="599"/>
+      <c r="D5" s="508" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
-      <c r="I5" s="601"/>
-      <c r="J5" s="602"/>
-      <c r="K5" s="603"/>
-      <c r="L5" s="511"/>
-      <c r="M5" s="637"/>
-      <c r="N5" s="638"/>
-      <c r="O5" s="638"/>
-      <c r="P5" s="638"/>
-      <c r="Q5" s="638"/>
-      <c r="R5" s="639"/>
+      <c r="E5" s="509"/>
+      <c r="F5" s="509"/>
+      <c r="G5" s="509"/>
+      <c r="H5" s="510"/>
+      <c r="I5" s="600"/>
+      <c r="J5" s="601"/>
+      <c r="K5" s="602"/>
+      <c r="L5" s="510"/>
+      <c r="M5" s="636"/>
+      <c r="N5" s="637"/>
+      <c r="O5" s="637"/>
+      <c r="P5" s="637"/>
+      <c r="Q5" s="637"/>
+      <c r="R5" s="638"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="585" t="s">
+      <c r="B6" s="584" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="600"/>
-      <c r="D6" s="503" t="str">
+      <c r="C6" s="599"/>
+      <c r="D6" s="502" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="E6" s="590"/>
-      <c r="F6" s="590"/>
-      <c r="G6" s="590"/>
-      <c r="H6" s="591"/>
-      <c r="I6" s="601"/>
-      <c r="J6" s="602"/>
-      <c r="K6" s="603"/>
-      <c r="L6" s="511"/>
-      <c r="M6" s="637"/>
-      <c r="N6" s="638"/>
-      <c r="O6" s="638"/>
-      <c r="P6" s="638"/>
-      <c r="Q6" s="638"/>
-      <c r="R6" s="639"/>
+      <c r="E6" s="589"/>
+      <c r="F6" s="589"/>
+      <c r="G6" s="589"/>
+      <c r="H6" s="590"/>
+      <c r="I6" s="600"/>
+      <c r="J6" s="601"/>
+      <c r="K6" s="602"/>
+      <c r="L6" s="510"/>
+      <c r="M6" s="636"/>
+      <c r="N6" s="637"/>
+      <c r="O6" s="637"/>
+      <c r="P6" s="637"/>
+      <c r="Q6" s="637"/>
+      <c r="R6" s="638"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="595" t="s">
+      <c r="B7" s="594" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="604"/>
-      <c r="D7" s="512">
+      <c r="C7" s="603"/>
+      <c r="D7" s="511">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="597"/>
-      <c r="F7" s="597"/>
-      <c r="G7" s="597"/>
-      <c r="H7" s="598"/>
-      <c r="I7" s="605" t="s">
+      <c r="E7" s="596"/>
+      <c r="F7" s="596"/>
+      <c r="G7" s="596"/>
+      <c r="H7" s="597"/>
+      <c r="I7" s="604" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="604"/>
-      <c r="K7" s="500">
+      <c r="J7" s="603"/>
+      <c r="K7" s="499">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
-      <c r="M7" s="637"/>
-      <c r="N7" s="638"/>
-      <c r="O7" s="638"/>
-      <c r="P7" s="638"/>
-      <c r="Q7" s="638"/>
-      <c r="R7" s="639"/>
+      <c r="L7" s="500"/>
+      <c r="M7" s="636"/>
+      <c r="N7" s="637"/>
+      <c r="O7" s="637"/>
+      <c r="P7" s="637"/>
+      <c r="Q7" s="637"/>
+      <c r="R7" s="638"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -14193,7 +14498,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -14226,7 +14531,7 @@
       <c r="R9" s="318"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -14259,7 +14564,7 @@
       <c r="R10" s="320"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="193" t="s">
         <v>26</v>
@@ -14292,7 +14597,7 @@
       <c r="R11" s="322"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="193" t="s">
         <v>2</v>
@@ -14325,40 +14630,40 @@
       <c r="R12" s="322"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" s="478" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="468"/>
-      <c r="B13" s="469" t="s">
+    <row r="13" spans="1:19" s="477" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="467"/>
+      <c r="B13" s="468" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="470">
+      <c r="C13" s="469">
         <v>38.1</v>
       </c>
-      <c r="D13" s="471">
+      <c r="D13" s="470">
         <v>0.03</v>
       </c>
-      <c r="E13" s="471">
+      <c r="E13" s="470">
         <v>0</v>
       </c>
-      <c r="F13" s="472" t="s">
+      <c r="F13" s="471" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="296" t="s">
         <v>137</v>
       </c>
-      <c r="H13" s="473"/>
-      <c r="I13" s="474"/>
-      <c r="J13" s="474"/>
-      <c r="K13" s="474"/>
-      <c r="L13" s="474"/>
-      <c r="M13" s="475"/>
-      <c r="N13" s="475"/>
-      <c r="O13" s="475"/>
-      <c r="P13" s="475"/>
-      <c r="Q13" s="475"/>
-      <c r="R13" s="476"/>
-      <c r="S13" s="477"/>
-    </row>
-    <row r="14" spans="1:19" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="472"/>
+      <c r="I13" s="473"/>
+      <c r="J13" s="473"/>
+      <c r="K13" s="473"/>
+      <c r="L13" s="473"/>
+      <c r="M13" s="474"/>
+      <c r="N13" s="474"/>
+      <c r="O13" s="474"/>
+      <c r="P13" s="474"/>
+      <c r="Q13" s="474"/>
+      <c r="R13" s="475"/>
+      <c r="S13" s="476"/>
+    </row>
+    <row r="14" spans="1:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="96" t="s">
         <v>27</v>
@@ -14391,7 +14696,7 @@
       <c r="R14" s="322"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="96" t="s">
         <v>28</v>
@@ -14424,7 +14729,7 @@
       <c r="R15" s="322"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="96" t="s">
         <v>9</v>
@@ -14457,7 +14762,7 @@
       <c r="R16" s="322"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="96" t="s">
         <v>29</v>
@@ -14490,7 +14795,7 @@
       <c r="R17" s="322"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="96" t="s">
         <v>30</v>
@@ -14523,7 +14828,7 @@
       <c r="R18" s="322"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="96" t="s">
         <v>35</v>
@@ -14556,14 +14861,14 @@
       <c r="R19" s="322"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
-      <c r="B20" s="582" t="s">
+      <c r="B20" s="581" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="583"/>
-      <c r="D20" s="583"/>
-      <c r="E20" s="584"/>
+      <c r="C20" s="582"/>
+      <c r="D20" s="582"/>
+      <c r="E20" s="583"/>
       <c r="F20" s="114" t="s">
         <v>16</v>
       </c>
@@ -14583,7 +14888,7 @@
       <c r="R20" s="326"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="108"/>
       <c r="B21" s="109"/>
       <c r="C21" s="109"/>
@@ -14604,29 +14909,29 @@
       <c r="R21" s="111"/>
       <c r="S21" s="112"/>
     </row>
-    <row r="22" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B22" s="121"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L23" s="632" t="s">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="L23" s="631" t="s">
         <v>136</v>
       </c>
-      <c r="M23" s="632"/>
-      <c r="N23" s="632"/>
-      <c r="O23" s="467"/>
-      <c r="P23" s="467"/>
-      <c r="Q23" s="483"/>
-      <c r="R23" s="483"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O24" s="554" t="s">
+      <c r="M23" s="631"/>
+      <c r="N23" s="631"/>
+      <c r="O23" s="466"/>
+      <c r="P23" s="466"/>
+      <c r="Q23" s="482"/>
+      <c r="R23" s="482"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O24" s="553" t="s">
         <v>140</v>
       </c>
-      <c r="P24" s="554"/>
-      <c r="Q24" s="555" t="s">
+      <c r="P24" s="553"/>
+      <c r="Q24" s="554" t="s">
         <v>141</v>
       </c>
-      <c r="R24" s="556"/>
+      <c r="R24" s="555"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -14671,7 +14976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -14681,19 +14986,19 @@
       <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="64" customWidth="1"/>
-    <col min="4" max="6" width="5.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="64" customWidth="1"/>
+    <col min="4" max="6" width="5.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.109375" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.140625" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -14714,49 +15019,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="606"/>
-      <c r="C2" s="607"/>
-      <c r="D2" s="608"/>
-      <c r="E2" s="615" t="s">
+      <c r="B2" s="605"/>
+      <c r="C2" s="606"/>
+      <c r="D2" s="607"/>
+      <c r="E2" s="614" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="616"/>
-      <c r="G2" s="616"/>
-      <c r="H2" s="617"/>
-      <c r="I2" s="621" t="s">
+      <c r="F2" s="615"/>
+      <c r="G2" s="615"/>
+      <c r="H2" s="616"/>
+      <c r="I2" s="620" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="622"/>
-      <c r="K2" s="625">
+      <c r="J2" s="621"/>
+      <c r="K2" s="624">
         <f>Данные!B19</f>
         <v>130</v>
       </c>
-      <c r="L2" s="626"/>
+      <c r="L2" s="625"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="640"/>
-      <c r="Q2" s="640"/>
+      <c r="P2" s="639"/>
+      <c r="Q2" s="639"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="609"/>
-      <c r="C3" s="610"/>
-      <c r="D3" s="611"/>
-      <c r="E3" s="618" t="s">
+      <c r="B3" s="608"/>
+      <c r="C3" s="609"/>
+      <c r="D3" s="610"/>
+      <c r="E3" s="617" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="619"/>
-      <c r="G3" s="619"/>
-      <c r="H3" s="620"/>
-      <c r="I3" s="623"/>
-      <c r="J3" s="624"/>
-      <c r="K3" s="627"/>
-      <c r="L3" s="628"/>
+      <c r="F3" s="618"/>
+      <c r="G3" s="618"/>
+      <c r="H3" s="619"/>
+      <c r="I3" s="622"/>
+      <c r="J3" s="623"/>
+      <c r="K3" s="626"/>
+      <c r="L3" s="627"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14765,11 +15070,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="612"/>
-      <c r="C4" s="613"/>
-      <c r="D4" s="614"/>
+      <c r="B4" s="611"/>
+      <c r="C4" s="612"/>
+      <c r="D4" s="613"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14786,24 +15091,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="585" t="s">
+      <c r="B5" s="584" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="600"/>
-      <c r="D5" s="509" t="str">
+      <c r="C5" s="599"/>
+      <c r="D5" s="508" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
-      <c r="I5" s="601"/>
-      <c r="J5" s="602"/>
-      <c r="K5" s="603"/>
-      <c r="L5" s="511"/>
+      <c r="E5" s="509"/>
+      <c r="F5" s="509"/>
+      <c r="G5" s="509"/>
+      <c r="H5" s="510"/>
+      <c r="I5" s="600"/>
+      <c r="J5" s="601"/>
+      <c r="K5" s="602"/>
+      <c r="L5" s="510"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14812,24 +15117,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="585" t="s">
+      <c r="B6" s="584" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="600"/>
-      <c r="D6" s="503" t="str">
+      <c r="C6" s="599"/>
+      <c r="D6" s="502" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="E6" s="590"/>
-      <c r="F6" s="590"/>
-      <c r="G6" s="590"/>
-      <c r="H6" s="591"/>
-      <c r="I6" s="601"/>
-      <c r="J6" s="602"/>
-      <c r="K6" s="603"/>
-      <c r="L6" s="511"/>
+      <c r="E6" s="589"/>
+      <c r="F6" s="589"/>
+      <c r="G6" s="589"/>
+      <c r="H6" s="590"/>
+      <c r="I6" s="600"/>
+      <c r="J6" s="601"/>
+      <c r="K6" s="602"/>
+      <c r="L6" s="510"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14838,29 +15143,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="595" t="s">
+      <c r="B7" s="594" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="604"/>
-      <c r="D7" s="512">
+      <c r="C7" s="603"/>
+      <c r="D7" s="511">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="597"/>
-      <c r="F7" s="597"/>
-      <c r="G7" s="597"/>
-      <c r="H7" s="598"/>
-      <c r="I7" s="605" t="s">
+      <c r="E7" s="596"/>
+      <c r="F7" s="596"/>
+      <c r="G7" s="596"/>
+      <c r="H7" s="597"/>
+      <c r="I7" s="604" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="604"/>
-      <c r="K7" s="500">
+      <c r="J7" s="603"/>
+      <c r="K7" s="499">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="500"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -14869,7 +15174,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -14890,7 +15195,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -14923,7 +15228,7 @@
       <c r="R9" s="89"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="127" t="s">
         <v>26</v>
@@ -14956,7 +15261,7 @@
       <c r="R10" s="99"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="127" t="s">
         <v>2</v>
@@ -14989,40 +15294,40 @@
       <c r="R11" s="99"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" s="478" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="468"/>
-      <c r="B12" s="479" t="s">
+    <row r="12" spans="1:19" s="477" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="467"/>
+      <c r="B12" s="478" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="480">
+      <c r="C12" s="479">
         <v>28.6</v>
       </c>
-      <c r="D12" s="474">
+      <c r="D12" s="473">
         <v>0</v>
       </c>
-      <c r="E12" s="474">
+      <c r="E12" s="473">
         <v>-0.03</v>
       </c>
-      <c r="F12" s="472" t="s">
+      <c r="F12" s="471" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="296" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="481"/>
-      <c r="I12" s="474"/>
-      <c r="J12" s="474"/>
-      <c r="K12" s="474"/>
-      <c r="L12" s="474"/>
-      <c r="M12" s="474"/>
-      <c r="N12" s="474"/>
-      <c r="O12" s="474"/>
-      <c r="P12" s="474"/>
-      <c r="Q12" s="474"/>
-      <c r="R12" s="482"/>
-      <c r="S12" s="477"/>
-    </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="480"/>
+      <c r="I12" s="473"/>
+      <c r="J12" s="473"/>
+      <c r="K12" s="473"/>
+      <c r="L12" s="473"/>
+      <c r="M12" s="473"/>
+      <c r="N12" s="473"/>
+      <c r="O12" s="473"/>
+      <c r="P12" s="473"/>
+      <c r="Q12" s="473"/>
+      <c r="R12" s="481"/>
+      <c r="S12" s="476"/>
+    </row>
+    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="127" t="s">
         <v>27</v>
@@ -15055,7 +15360,7 @@
       <c r="R13" s="99"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="127" t="s">
         <v>9</v>
@@ -15088,7 +15393,7 @@
       <c r="R14" s="99"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="127" t="s">
         <v>5</v>
@@ -15121,14 +15426,14 @@
       <c r="R15" s="99"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="582" t="s">
+      <c r="B16" s="581" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="583"/>
-      <c r="D16" s="583"/>
-      <c r="E16" s="584"/>
+      <c r="C16" s="582"/>
+      <c r="D16" s="582"/>
+      <c r="E16" s="583"/>
       <c r="F16" s="252" t="s">
         <v>16</v>
       </c>
@@ -15148,7 +15453,7 @@
       <c r="R16" s="120"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="108"/>
       <c r="B17" s="126"/>
       <c r="C17" s="125"/>
@@ -15169,29 +15474,29 @@
       <c r="R17" s="111"/>
       <c r="S17" s="112"/>
     </row>
-    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B18" s="121"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L19" s="632" t="s">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="L19" s="631" t="s">
         <v>136</v>
       </c>
-      <c r="M19" s="632"/>
-      <c r="N19" s="632"/>
-      <c r="O19" s="467"/>
-      <c r="P19" s="467"/>
-      <c r="Q19" s="483"/>
-      <c r="R19" s="483"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O20" s="554" t="s">
+      <c r="M19" s="631"/>
+      <c r="N19" s="631"/>
+      <c r="O19" s="466"/>
+      <c r="P19" s="466"/>
+      <c r="Q19" s="482"/>
+      <c r="R19" s="482"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O20" s="553" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="554"/>
-      <c r="Q20" s="555" t="s">
+      <c r="P20" s="553"/>
+      <c r="Q20" s="554" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="556"/>
+      <c r="R20" s="555"/>
     </row>
   </sheetData>
   <mergeCells count="22">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)/XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью) от 23.01.2020.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)/XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью) от 23.01.2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC7EED5-FDBE-48B0-81A5-EFC2B960A76F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF9C0AB-8AB5-461E-84C0-4F5777C16569}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -3641,12 +3641,6 @@
     <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3691,26 +3685,53 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3719,6 +3740,54 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3728,77 +3797,38 @@
     <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
@@ -3899,40 +3929,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -3952,84 +4030,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -4060,34 +4060,34 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -6799,25 +6799,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="501" t="s">
+      <c r="A1" s="499" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="505"/>
-      <c r="C1" s="505"/>
-      <c r="D1" s="505"/>
-      <c r="E1" s="505"/>
+      <c r="B1" s="503"/>
+      <c r="C1" s="503"/>
+      <c r="D1" s="503"/>
+      <c r="E1" s="503"/>
       <c r="G1" s="363" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="502" t="s">
+      <c r="A2" s="500" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="503"/>
-      <c r="C2" s="503"/>
-      <c r="D2" s="503"/>
-      <c r="E2" s="504"/>
+      <c r="B2" s="501"/>
+      <c r="C2" s="501"/>
+      <c r="D2" s="501"/>
+      <c r="E2" s="502"/>
       <c r="G2" s="362" t="s">
         <v>79</v>
       </c>
@@ -6828,45 +6828,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="506" t="s">
+      <c r="A4" s="504" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="507"/>
-      <c r="C4" s="507"/>
-      <c r="D4" s="507"/>
-      <c r="E4" s="507"/>
+      <c r="B4" s="505"/>
+      <c r="C4" s="505"/>
+      <c r="D4" s="505"/>
+      <c r="E4" s="505"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="508" t="s">
+      <c r="A5" s="506" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="509"/>
-      <c r="C5" s="509"/>
-      <c r="D5" s="509"/>
-      <c r="E5" s="510"/>
+      <c r="B5" s="507"/>
+      <c r="C5" s="507"/>
+      <c r="D5" s="507"/>
+      <c r="E5" s="508"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="501" t="s">
+      <c r="A7" s="499" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="505"/>
-      <c r="C7" s="505"/>
-      <c r="D7" s="505"/>
-      <c r="E7" s="505"/>
+      <c r="B7" s="503"/>
+      <c r="C7" s="503"/>
+      <c r="D7" s="503"/>
+      <c r="E7" s="503"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="511"/>
-      <c r="B8" s="512"/>
-      <c r="C8" s="512"/>
-      <c r="D8" s="512"/>
-      <c r="E8" s="513"/>
+      <c r="A8" s="509"/>
+      <c r="B8" s="510"/>
+      <c r="C8" s="510"/>
+      <c r="D8" s="510"/>
+      <c r="E8" s="511"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="501" t="s">
+      <c r="A10" s="499" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="501"/>
+      <c r="B10" s="499"/>
       <c r="C10" s="364"/>
       <c r="D10" s="370" t="s">
         <v>93</v>
@@ -6877,33 +6877,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="499"/>
-      <c r="B11" s="500"/>
+      <c r="A11" s="497"/>
+      <c r="B11" s="498"/>
       <c r="D11" s="369">
         <v>43853</v>
       </c>
-      <c r="F11" s="496" t="s">
+      <c r="F11" s="512" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="496"/>
-      <c r="H11" s="496"/>
-      <c r="I11" s="496"/>
-      <c r="J11" s="497" t="s">
+      <c r="G11" s="512"/>
+      <c r="H11" s="512"/>
+      <c r="I11" s="512"/>
+      <c r="J11" s="513" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="497"/>
+      <c r="K11" s="513"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12" s="496" t="s">
+      <c r="F12" s="512" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="496"/>
-      <c r="H12" s="496"/>
-      <c r="I12" s="496"/>
-      <c r="J12" s="497" t="s">
+      <c r="G12" s="512"/>
+      <c r="H12" s="512"/>
+      <c r="I12" s="512"/>
+      <c r="J12" s="513" t="s">
         <v>99</v>
       </c>
-      <c r="K12" s="497"/>
+      <c r="K12" s="513"/>
     </row>
     <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="374" t="s">
@@ -6921,16 +6921,16 @@
       <c r="E13" s="465" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="496" t="s">
+      <c r="F13" s="512" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="496"/>
-      <c r="H13" s="496"/>
-      <c r="I13" s="496"/>
-      <c r="J13" s="497" t="s">
+      <c r="G13" s="512"/>
+      <c r="H13" s="512"/>
+      <c r="I13" s="512"/>
+      <c r="J13" s="513" t="s">
         <v>100</v>
       </c>
-      <c r="K13" s="497"/>
+      <c r="K13" s="513"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="365" t="s">
@@ -7185,11 +7185,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="498" t="s">
+      <c r="A29" s="496" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="498"/>
-      <c r="C29" s="498"/>
+      <c r="B29" s="496"/>
+      <c r="C29" s="496"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="363" t="s">
@@ -7198,6 +7198,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -7207,12 +7213,6 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -7266,24 +7266,24 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="163"/>
-      <c r="B2" s="605"/>
-      <c r="C2" s="606"/>
-      <c r="D2" s="607"/>
-      <c r="E2" s="614" t="s">
+      <c r="B2" s="602"/>
+      <c r="C2" s="603"/>
+      <c r="D2" s="604"/>
+      <c r="E2" s="611" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="615"/>
-      <c r="G2" s="615"/>
-      <c r="H2" s="616"/>
-      <c r="I2" s="620" t="s">
+      <c r="F2" s="612"/>
+      <c r="G2" s="612"/>
+      <c r="H2" s="613"/>
+      <c r="I2" s="617" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="621"/>
-      <c r="K2" s="624">
+      <c r="J2" s="618"/>
+      <c r="K2" s="621">
         <f>Данные!B20</f>
         <v>60</v>
       </c>
-      <c r="L2" s="625"/>
+      <c r="L2" s="622"/>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
@@ -7294,19 +7294,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="163"/>
-      <c r="B3" s="608"/>
-      <c r="C3" s="609"/>
-      <c r="D3" s="610"/>
-      <c r="E3" s="617" t="s">
+      <c r="B3" s="605"/>
+      <c r="C3" s="606"/>
+      <c r="D3" s="607"/>
+      <c r="E3" s="614" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="618"/>
-      <c r="G3" s="618"/>
-      <c r="H3" s="619"/>
-      <c r="I3" s="622"/>
-      <c r="J3" s="623"/>
-      <c r="K3" s="626"/>
-      <c r="L3" s="627"/>
+      <c r="F3" s="615"/>
+      <c r="G3" s="615"/>
+      <c r="H3" s="616"/>
+      <c r="I3" s="619"/>
+      <c r="J3" s="620"/>
+      <c r="K3" s="623"/>
+      <c r="L3" s="624"/>
       <c r="M3" s="169"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -7317,9 +7317,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="163"/>
-      <c r="B4" s="611"/>
-      <c r="C4" s="612"/>
-      <c r="D4" s="613"/>
+      <c r="B4" s="608"/>
+      <c r="C4" s="609"/>
+      <c r="D4" s="610"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7338,22 +7338,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="163"/>
-      <c r="B5" s="584" t="s">
+      <c r="B5" s="594" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="599"/>
-      <c r="D5" s="508" t="str">
+      <c r="C5" s="625"/>
+      <c r="D5" s="506" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="509"/>
-      <c r="F5" s="509"/>
-      <c r="G5" s="509"/>
-      <c r="H5" s="510"/>
-      <c r="I5" s="600"/>
-      <c r="J5" s="601"/>
-      <c r="K5" s="602"/>
-      <c r="L5" s="510"/>
+      <c r="E5" s="507"/>
+      <c r="F5" s="507"/>
+      <c r="G5" s="507"/>
+      <c r="H5" s="508"/>
+      <c r="I5" s="626"/>
+      <c r="J5" s="627"/>
+      <c r="K5" s="628"/>
+      <c r="L5" s="508"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
       <c r="O5" s="170"/>
@@ -7364,22 +7364,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="163"/>
-      <c r="B6" s="584" t="s">
+      <c r="B6" s="594" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="599"/>
-      <c r="D6" s="502" t="str">
+      <c r="C6" s="625"/>
+      <c r="D6" s="500" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="E6" s="589"/>
-      <c r="F6" s="589"/>
-      <c r="G6" s="589"/>
-      <c r="H6" s="590"/>
-      <c r="I6" s="600"/>
-      <c r="J6" s="601"/>
-      <c r="K6" s="602"/>
-      <c r="L6" s="510"/>
+      <c r="E6" s="597"/>
+      <c r="F6" s="597"/>
+      <c r="G6" s="597"/>
+      <c r="H6" s="598"/>
+      <c r="I6" s="626"/>
+      <c r="J6" s="627"/>
+      <c r="K6" s="628"/>
+      <c r="L6" s="508"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
       <c r="O6" s="170"/>
@@ -7390,27 +7390,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="163"/>
-      <c r="B7" s="594" t="s">
+      <c r="B7" s="558" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="603"/>
-      <c r="D7" s="511">
+      <c r="C7" s="629"/>
+      <c r="D7" s="509">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="596"/>
-      <c r="F7" s="596"/>
-      <c r="G7" s="596"/>
-      <c r="H7" s="597"/>
-      <c r="I7" s="604" t="s">
+      <c r="E7" s="560"/>
+      <c r="F7" s="560"/>
+      <c r="G7" s="560"/>
+      <c r="H7" s="561"/>
+      <c r="I7" s="630" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="603"/>
-      <c r="K7" s="499">
+      <c r="J7" s="629"/>
+      <c r="K7" s="497">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="500"/>
+      <c r="L7" s="498"/>
       <c r="M7" s="172"/>
       <c r="N7" s="170"/>
       <c r="O7" s="170"/>
@@ -7804,22 +7804,17 @@
       <c r="R21" s="482"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="553" t="s">
+      <c r="O22" s="563" t="s">
         <v>140</v>
       </c>
-      <c r="P22" s="553"/>
-      <c r="Q22" s="554" t="s">
+      <c r="P22" s="563"/>
+      <c r="Q22" s="564" t="s">
         <v>141</v>
       </c>
-      <c r="R22" s="555"/>
+      <c r="R22" s="565"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="B2:D4"/>
@@ -7836,6 +7831,11 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -7901,47 +7901,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="202"/>
-      <c r="B2" s="605"/>
-      <c r="C2" s="606"/>
-      <c r="D2" s="607"/>
-      <c r="E2" s="614" t="s">
+      <c r="B2" s="602"/>
+      <c r="C2" s="603"/>
+      <c r="D2" s="604"/>
+      <c r="E2" s="611" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="615"/>
-      <c r="G2" s="615"/>
-      <c r="H2" s="616"/>
-      <c r="I2" s="620" t="s">
+      <c r="F2" s="612"/>
+      <c r="G2" s="612"/>
+      <c r="H2" s="613"/>
+      <c r="I2" s="617" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="621"/>
-      <c r="K2" s="624">
+      <c r="J2" s="618"/>
+      <c r="K2" s="621">
         <f>Данные!B21</f>
         <v>18</v>
       </c>
-      <c r="L2" s="625"/>
+      <c r="L2" s="622"/>
       <c r="M2" s="203"/>
       <c r="N2" s="204"/>
       <c r="O2" s="205"/>
-      <c r="P2" s="641"/>
-      <c r="Q2" s="641"/>
+      <c r="P2" s="644"/>
+      <c r="Q2" s="644"/>
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202"/>
-      <c r="B3" s="608"/>
-      <c r="C3" s="609"/>
-      <c r="D3" s="610"/>
-      <c r="E3" s="617" t="s">
+      <c r="B3" s="605"/>
+      <c r="C3" s="606"/>
+      <c r="D3" s="607"/>
+      <c r="E3" s="614" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="618"/>
-      <c r="G3" s="618"/>
-      <c r="H3" s="619"/>
-      <c r="I3" s="622"/>
-      <c r="J3" s="623"/>
-      <c r="K3" s="626"/>
-      <c r="L3" s="627"/>
+      <c r="F3" s="615"/>
+      <c r="G3" s="615"/>
+      <c r="H3" s="616"/>
+      <c r="I3" s="619"/>
+      <c r="J3" s="620"/>
+      <c r="K3" s="623"/>
+      <c r="L3" s="624"/>
       <c r="M3" s="208"/>
       <c r="N3" s="209"/>
       <c r="O3" s="209"/>
@@ -7952,9 +7952,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="202"/>
-      <c r="B4" s="611"/>
-      <c r="C4" s="612"/>
-      <c r="D4" s="613"/>
+      <c r="B4" s="608"/>
+      <c r="C4" s="609"/>
+      <c r="D4" s="610"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7973,22 +7973,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="202"/>
-      <c r="B5" s="584" t="s">
+      <c r="B5" s="594" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="599"/>
-      <c r="D5" s="508" t="str">
+      <c r="C5" s="625"/>
+      <c r="D5" s="506" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="509"/>
-      <c r="F5" s="509"/>
-      <c r="G5" s="509"/>
-      <c r="H5" s="510"/>
-      <c r="I5" s="600"/>
-      <c r="J5" s="601"/>
-      <c r="K5" s="602"/>
-      <c r="L5" s="510"/>
+      <c r="E5" s="507"/>
+      <c r="F5" s="507"/>
+      <c r="G5" s="507"/>
+      <c r="H5" s="508"/>
+      <c r="I5" s="626"/>
+      <c r="J5" s="627"/>
+      <c r="K5" s="628"/>
+      <c r="L5" s="508"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
       <c r="O5" s="209"/>
@@ -7999,22 +7999,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="202"/>
-      <c r="B6" s="584" t="s">
+      <c r="B6" s="594" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="599"/>
-      <c r="D6" s="502" t="str">
+      <c r="C6" s="625"/>
+      <c r="D6" s="500" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="E6" s="589"/>
-      <c r="F6" s="589"/>
-      <c r="G6" s="589"/>
-      <c r="H6" s="590"/>
-      <c r="I6" s="600"/>
-      <c r="J6" s="601"/>
-      <c r="K6" s="602"/>
-      <c r="L6" s="510"/>
+      <c r="E6" s="597"/>
+      <c r="F6" s="597"/>
+      <c r="G6" s="597"/>
+      <c r="H6" s="598"/>
+      <c r="I6" s="626"/>
+      <c r="J6" s="627"/>
+      <c r="K6" s="628"/>
+      <c r="L6" s="508"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
       <c r="O6" s="209"/>
@@ -8025,27 +8025,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="202"/>
-      <c r="B7" s="594" t="s">
+      <c r="B7" s="558" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="603"/>
-      <c r="D7" s="511">
+      <c r="C7" s="629"/>
+      <c r="D7" s="509">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="596"/>
-      <c r="F7" s="596"/>
-      <c r="G7" s="596"/>
-      <c r="H7" s="597"/>
-      <c r="I7" s="604" t="s">
+      <c r="E7" s="560"/>
+      <c r="F7" s="560"/>
+      <c r="G7" s="560"/>
+      <c r="H7" s="561"/>
+      <c r="I7" s="630" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="603"/>
-      <c r="K7" s="499">
+      <c r="J7" s="629"/>
+      <c r="K7" s="497">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="500"/>
+      <c r="L7" s="498"/>
       <c r="M7" s="211"/>
       <c r="N7" s="209"/>
       <c r="O7" s="209"/>
@@ -8374,12 +8374,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="212"/>
-      <c r="B18" s="642" t="s">
+      <c r="B18" s="641" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="643"/>
-      <c r="D18" s="643"/>
-      <c r="E18" s="644"/>
+      <c r="C18" s="642"/>
+      <c r="D18" s="642"/>
+      <c r="E18" s="643"/>
       <c r="F18" s="114" t="s">
         <v>16</v>
       </c>
@@ -8433,26 +8433,17 @@
       <c r="R21" s="482"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="553" t="s">
+      <c r="O22" s="563" t="s">
         <v>140</v>
       </c>
-      <c r="P22" s="553"/>
-      <c r="Q22" s="554" t="s">
+      <c r="P22" s="563"/>
+      <c r="Q22" s="564" t="s">
         <v>141</v>
       </c>
-      <c r="R22" s="555"/>
+      <c r="R22" s="565"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="P2:Q2"/>
@@ -8466,6 +8457,15 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="L21:N21"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8540,24 +8540,24 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="130"/>
-      <c r="B2" s="605"/>
-      <c r="C2" s="606"/>
-      <c r="D2" s="607"/>
-      <c r="E2" s="614" t="s">
+      <c r="B2" s="602"/>
+      <c r="C2" s="603"/>
+      <c r="D2" s="604"/>
+      <c r="E2" s="611" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="615"/>
-      <c r="G2" s="615"/>
-      <c r="H2" s="616"/>
-      <c r="I2" s="620" t="s">
+      <c r="F2" s="612"/>
+      <c r="G2" s="612"/>
+      <c r="H2" s="613"/>
+      <c r="I2" s="617" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="621"/>
-      <c r="K2" s="624">
+      <c r="J2" s="618"/>
+      <c r="K2" s="621">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="L2" s="625"/>
+      <c r="L2" s="622"/>
       <c r="M2" s="131"/>
       <c r="N2" s="132"/>
       <c r="O2" s="133"/>
@@ -8568,19 +8568,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130"/>
-      <c r="B3" s="608"/>
-      <c r="C3" s="609"/>
-      <c r="D3" s="610"/>
-      <c r="E3" s="617" t="s">
+      <c r="B3" s="605"/>
+      <c r="C3" s="606"/>
+      <c r="D3" s="607"/>
+      <c r="E3" s="614" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="618"/>
-      <c r="G3" s="618"/>
-      <c r="H3" s="619"/>
-      <c r="I3" s="622"/>
-      <c r="J3" s="623"/>
-      <c r="K3" s="626"/>
-      <c r="L3" s="627"/>
+      <c r="F3" s="615"/>
+      <c r="G3" s="615"/>
+      <c r="H3" s="616"/>
+      <c r="I3" s="619"/>
+      <c r="J3" s="620"/>
+      <c r="K3" s="623"/>
+      <c r="L3" s="624"/>
       <c r="M3" s="136"/>
       <c r="N3" s="137"/>
       <c r="O3" s="137"/>
@@ -8591,9 +8591,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="130"/>
-      <c r="B4" s="611"/>
-      <c r="C4" s="612"/>
-      <c r="D4" s="613"/>
+      <c r="B4" s="608"/>
+      <c r="C4" s="609"/>
+      <c r="D4" s="610"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8612,22 +8612,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130"/>
-      <c r="B5" s="584" t="s">
+      <c r="B5" s="594" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="599"/>
-      <c r="D5" s="508" t="str">
+      <c r="C5" s="625"/>
+      <c r="D5" s="506" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="509"/>
-      <c r="F5" s="509"/>
-      <c r="G5" s="509"/>
-      <c r="H5" s="510"/>
-      <c r="I5" s="600"/>
-      <c r="J5" s="601"/>
-      <c r="K5" s="602"/>
-      <c r="L5" s="510"/>
+      <c r="E5" s="507"/>
+      <c r="F5" s="507"/>
+      <c r="G5" s="507"/>
+      <c r="H5" s="508"/>
+      <c r="I5" s="626"/>
+      <c r="J5" s="627"/>
+      <c r="K5" s="628"/>
+      <c r="L5" s="508"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
@@ -8638,22 +8638,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="130"/>
-      <c r="B6" s="584" t="s">
+      <c r="B6" s="594" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="599"/>
-      <c r="D6" s="502" t="str">
+      <c r="C6" s="625"/>
+      <c r="D6" s="500" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="E6" s="589"/>
-      <c r="F6" s="589"/>
-      <c r="G6" s="589"/>
-      <c r="H6" s="590"/>
-      <c r="I6" s="600"/>
-      <c r="J6" s="601"/>
-      <c r="K6" s="602"/>
-      <c r="L6" s="510"/>
+      <c r="E6" s="597"/>
+      <c r="F6" s="597"/>
+      <c r="G6" s="597"/>
+      <c r="H6" s="598"/>
+      <c r="I6" s="626"/>
+      <c r="J6" s="627"/>
+      <c r="K6" s="628"/>
+      <c r="L6" s="508"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
       <c r="O6" s="137"/>
@@ -8664,27 +8664,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="130"/>
-      <c r="B7" s="594" t="s">
+      <c r="B7" s="558" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="603"/>
-      <c r="D7" s="511">
+      <c r="C7" s="629"/>
+      <c r="D7" s="509">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="596"/>
-      <c r="F7" s="596"/>
-      <c r="G7" s="596"/>
-      <c r="H7" s="597"/>
-      <c r="I7" s="604" t="s">
+      <c r="E7" s="560"/>
+      <c r="F7" s="560"/>
+      <c r="G7" s="560"/>
+      <c r="H7" s="561"/>
+      <c r="I7" s="630" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="603"/>
-      <c r="K7" s="499">
+      <c r="J7" s="629"/>
+      <c r="K7" s="497">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="500"/>
+      <c r="L7" s="498"/>
       <c r="M7" s="139"/>
       <c r="N7" s="137"/>
       <c r="O7" s="137"/>
@@ -9012,22 +9012,17 @@
       <c r="R19" s="482"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="553" t="s">
+      <c r="O20" s="563" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="553"/>
-      <c r="Q20" s="554" t="s">
+      <c r="P20" s="563"/>
+      <c r="Q20" s="564" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="555"/>
+      <c r="R20" s="565"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B2:D4"/>
@@ -9044,6 +9039,11 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.17" bottom="0" header="0" footer="0"/>
@@ -9100,47 +9100,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="259"/>
-      <c r="B2" s="605"/>
-      <c r="C2" s="606"/>
-      <c r="D2" s="607"/>
-      <c r="E2" s="614" t="s">
+      <c r="B2" s="602"/>
+      <c r="C2" s="603"/>
+      <c r="D2" s="604"/>
+      <c r="E2" s="611" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="615"/>
-      <c r="G2" s="615"/>
-      <c r="H2" s="616"/>
-      <c r="I2" s="620" t="s">
+      <c r="F2" s="612"/>
+      <c r="G2" s="612"/>
+      <c r="H2" s="613"/>
+      <c r="I2" s="617" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="621"/>
-      <c r="K2" s="647">
+      <c r="J2" s="618"/>
+      <c r="K2" s="646">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="L2" s="648"/>
+      <c r="L2" s="647"/>
       <c r="M2" s="260"/>
       <c r="N2" s="261"/>
       <c r="O2" s="262"/>
-      <c r="P2" s="646"/>
-      <c r="Q2" s="646"/>
+      <c r="P2" s="650"/>
+      <c r="Q2" s="650"/>
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="259"/>
-      <c r="B3" s="608"/>
-      <c r="C3" s="609"/>
-      <c r="D3" s="610"/>
-      <c r="E3" s="617" t="s">
+      <c r="B3" s="605"/>
+      <c r="C3" s="606"/>
+      <c r="D3" s="607"/>
+      <c r="E3" s="614" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="618"/>
-      <c r="G3" s="618"/>
-      <c r="H3" s="619"/>
-      <c r="I3" s="622"/>
-      <c r="J3" s="623"/>
-      <c r="K3" s="649"/>
-      <c r="L3" s="650"/>
+      <c r="F3" s="615"/>
+      <c r="G3" s="615"/>
+      <c r="H3" s="616"/>
+      <c r="I3" s="619"/>
+      <c r="J3" s="620"/>
+      <c r="K3" s="648"/>
+      <c r="L3" s="649"/>
       <c r="M3" s="265"/>
       <c r="N3" s="266"/>
       <c r="O3" s="266"/>
@@ -9151,9 +9151,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="259"/>
-      <c r="B4" s="611"/>
-      <c r="C4" s="612"/>
-      <c r="D4" s="613"/>
+      <c r="B4" s="608"/>
+      <c r="C4" s="609"/>
+      <c r="D4" s="610"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -9172,22 +9172,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="259"/>
-      <c r="B5" s="584" t="s">
+      <c r="B5" s="594" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="599"/>
-      <c r="D5" s="508" t="str">
+      <c r="C5" s="625"/>
+      <c r="D5" s="506" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="509"/>
-      <c r="F5" s="509"/>
-      <c r="G5" s="509"/>
-      <c r="H5" s="510"/>
-      <c r="I5" s="600"/>
-      <c r="J5" s="601"/>
-      <c r="K5" s="602"/>
-      <c r="L5" s="510"/>
+      <c r="E5" s="507"/>
+      <c r="F5" s="507"/>
+      <c r="G5" s="507"/>
+      <c r="H5" s="508"/>
+      <c r="I5" s="626"/>
+      <c r="J5" s="627"/>
+      <c r="K5" s="628"/>
+      <c r="L5" s="508"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
       <c r="O5" s="266"/>
@@ -9198,22 +9198,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="259"/>
-      <c r="B6" s="584" t="s">
+      <c r="B6" s="594" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="599"/>
-      <c r="D6" s="502" t="str">
+      <c r="C6" s="625"/>
+      <c r="D6" s="500" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="E6" s="589"/>
-      <c r="F6" s="589"/>
-      <c r="G6" s="589"/>
-      <c r="H6" s="590"/>
-      <c r="I6" s="600"/>
-      <c r="J6" s="601"/>
-      <c r="K6" s="602"/>
-      <c r="L6" s="510"/>
+      <c r="E6" s="597"/>
+      <c r="F6" s="597"/>
+      <c r="G6" s="597"/>
+      <c r="H6" s="598"/>
+      <c r="I6" s="626"/>
+      <c r="J6" s="627"/>
+      <c r="K6" s="628"/>
+      <c r="L6" s="508"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
       <c r="O6" s="266"/>
@@ -9224,27 +9224,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="259"/>
-      <c r="B7" s="594" t="s">
+      <c r="B7" s="558" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="603"/>
-      <c r="D7" s="511">
+      <c r="C7" s="629"/>
+      <c r="D7" s="509">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="596"/>
-      <c r="F7" s="596"/>
-      <c r="G7" s="596"/>
-      <c r="H7" s="597"/>
-      <c r="I7" s="604" t="s">
+      <c r="E7" s="560"/>
+      <c r="F7" s="560"/>
+      <c r="G7" s="560"/>
+      <c r="H7" s="561"/>
+      <c r="I7" s="630" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="603"/>
-      <c r="K7" s="499">
+      <c r="J7" s="629"/>
+      <c r="K7" s="497">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="500"/>
+      <c r="L7" s="498"/>
       <c r="M7" s="268"/>
       <c r="N7" s="266"/>
       <c r="O7" s="266"/>
@@ -9525,22 +9525,17 @@
       <c r="R18" s="482"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="553" t="s">
+      <c r="O19" s="563" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="553"/>
-      <c r="Q19" s="554" t="s">
+      <c r="P19" s="563"/>
+      <c r="Q19" s="564" t="s">
         <v>141</v>
       </c>
-      <c r="R19" s="555"/>
+      <c r="R19" s="565"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="I5:J5"/>
@@ -9557,6 +9552,11 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9585,7 +9585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A8" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -9641,17 +9641,17 @@
       <c r="L2" s="381"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="519" t="s">
+      <c r="A3" s="516" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="519"/>
-      <c r="C3" s="519"/>
-      <c r="D3" s="519"/>
-      <c r="E3" s="519"/>
-      <c r="F3" s="519"/>
-      <c r="G3" s="519"/>
-      <c r="H3" s="519"/>
-      <c r="I3" s="519"/>
+      <c r="B3" s="516"/>
+      <c r="C3" s="516"/>
+      <c r="D3" s="516"/>
+      <c r="E3" s="516"/>
+      <c r="F3" s="516"/>
+      <c r="G3" s="516"/>
+      <c r="H3" s="516"/>
+      <c r="I3" s="516"/>
       <c r="K3" s="382"/>
       <c r="L3" s="382"/>
       <c r="M3" s="383"/>
@@ -10398,12 +10398,12 @@
       <c r="J35" s="383"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="520" t="s">
+      <c r="A36" s="517" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="520"/>
-      <c r="C36" s="520"/>
-      <c r="D36" s="520"/>
+      <c r="B36" s="517"/>
+      <c r="C36" s="517"/>
+      <c r="D36" s="517"/>
       <c r="E36" s="383"/>
       <c r="F36" s="383"/>
       <c r="G36" s="383"/>
@@ -10412,10 +10412,10 @@
       <c r="J36" s="383"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="521" t="s">
+      <c r="A37" s="518" t="s">
         <v>129</v>
       </c>
-      <c r="B37" s="521"/>
+      <c r="B37" s="518"/>
       <c r="C37" s="453" t="s">
         <v>130</v>
       </c>
@@ -10430,11 +10430,11 @@
       <c r="J37" s="383"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="522">
+      <c r="A38" s="519">
         <f>A21-F32</f>
         <v>14348111</v>
       </c>
-      <c r="B38" s="523"/>
+      <c r="B38" s="520"/>
       <c r="C38" s="454">
         <f>1-G32</f>
         <v>0.85405422619047622</v>
@@ -10496,8 +10496,8 @@
       <c r="F42" s="458"/>
       <c r="G42" s="458"/>
       <c r="H42" s="458"/>
-      <c r="I42" s="514"/>
-      <c r="J42" s="515"/>
+      <c r="I42" s="521"/>
+      <c r="J42" s="522"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="459"/>
@@ -10591,9 +10591,9 @@
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="383"/>
-      <c r="B52" s="517"/>
-      <c r="C52" s="517"/>
-      <c r="D52" s="518"/>
+      <c r="B52" s="514"/>
+      <c r="C52" s="514"/>
+      <c r="D52" s="515"/>
       <c r="E52" s="456"/>
       <c r="F52" s="383"/>
       <c r="G52" s="383"/>
@@ -10610,8 +10610,8 @@
       <c r="F53" s="458"/>
       <c r="G53" s="458"/>
       <c r="H53" s="458"/>
-      <c r="I53" s="514"/>
-      <c r="J53" s="515"/>
+      <c r="I53" s="521"/>
+      <c r="J53" s="522"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="459"/>
@@ -10622,8 +10622,8 @@
       <c r="F54" s="413"/>
       <c r="G54" s="413"/>
       <c r="H54" s="460"/>
-      <c r="I54" s="516"/>
-      <c r="J54" s="516"/>
+      <c r="I54" s="523"/>
+      <c r="J54" s="523"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="459"/>
@@ -10634,8 +10634,8 @@
       <c r="F55" s="403"/>
       <c r="G55" s="403"/>
       <c r="H55" s="403"/>
-      <c r="I55" s="516"/>
-      <c r="J55" s="516"/>
+      <c r="I55" s="523"/>
+      <c r="J55" s="523"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="383"/>
@@ -10648,26 +10648,26 @@
       <c r="H56" s="383"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="514"/>
-      <c r="C61" s="515"/>
+      <c r="B61" s="521"/>
+      <c r="C61" s="522"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="514"/>
-      <c r="C68" s="515"/>
+      <c r="B68" s="521"/>
+      <c r="C68" s="522"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B68:C68"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B68:C68"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10682,7 +10682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:K57"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A26" sqref="A26:A47"/>
     </sheetView>
   </sheetViews>
@@ -10750,47 +10750,47 @@
       <c r="J8" s="310"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="548" t="s">
+      <c r="A11" s="525" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="548"/>
-      <c r="C11" s="548"/>
-      <c r="D11" s="548"/>
-      <c r="E11" s="548"/>
-      <c r="F11" s="548"/>
-      <c r="G11" s="548"/>
-      <c r="H11" s="548"/>
-      <c r="I11" s="548"/>
-      <c r="J11" s="548"/>
+      <c r="B11" s="525"/>
+      <c r="C11" s="525"/>
+      <c r="D11" s="525"/>
+      <c r="E11" s="525"/>
+      <c r="F11" s="525"/>
+      <c r="G11" s="525"/>
+      <c r="H11" s="525"/>
+      <c r="I11" s="525"/>
+      <c r="J11" s="525"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="547" t="s">
+      <c r="A12" s="524" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="547"/>
-      <c r="C12" s="547"/>
-      <c r="D12" s="547"/>
-      <c r="E12" s="547"/>
-      <c r="F12" s="547"/>
-      <c r="G12" s="547"/>
-      <c r="H12" s="547"/>
-      <c r="I12" s="547"/>
-      <c r="J12" s="547"/>
+      <c r="B12" s="524"/>
+      <c r="C12" s="524"/>
+      <c r="D12" s="524"/>
+      <c r="E12" s="524"/>
+      <c r="F12" s="524"/>
+      <c r="G12" s="524"/>
+      <c r="H12" s="524"/>
+      <c r="I12" s="524"/>
+      <c r="J12" s="524"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="549" t="str">
+      <c r="A13" s="526" t="str">
         <f>Данные!A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="B13" s="548"/>
-      <c r="C13" s="548"/>
-      <c r="D13" s="548"/>
-      <c r="E13" s="548"/>
-      <c r="F13" s="548"/>
-      <c r="G13" s="548"/>
-      <c r="H13" s="548"/>
-      <c r="I13" s="548"/>
-      <c r="J13" s="548"/>
+      <c r="B13" s="525"/>
+      <c r="C13" s="525"/>
+      <c r="D13" s="525"/>
+      <c r="E13" s="525"/>
+      <c r="F13" s="525"/>
+      <c r="G13" s="525"/>
+      <c r="H13" s="525"/>
+      <c r="I13" s="525"/>
+      <c r="J13" s="525"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="304" t="s">
@@ -10915,493 +10915,493 @@
       <c r="J21" s="305"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="545" t="s">
+      <c r="A22" s="530" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="545" t="s">
+      <c r="B22" s="530" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="545"/>
-      <c r="D22" s="545"/>
-      <c r="E22" s="545" t="s">
+      <c r="C22" s="530"/>
+      <c r="D22" s="530"/>
+      <c r="E22" s="530" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="545"/>
-      <c r="G22" s="546" t="s">
+      <c r="F22" s="530"/>
+      <c r="G22" s="548" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="545" t="s">
+      <c r="H22" s="530" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="545"/>
-      <c r="J22" s="545"/>
+      <c r="I22" s="530"/>
+      <c r="J22" s="530"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="545"/>
-      <c r="B23" s="545"/>
-      <c r="C23" s="545"/>
-      <c r="D23" s="545"/>
-      <c r="E23" s="545"/>
-      <c r="F23" s="545"/>
-      <c r="G23" s="546"/>
-      <c r="H23" s="545"/>
-      <c r="I23" s="545"/>
-      <c r="J23" s="545"/>
+      <c r="A23" s="530"/>
+      <c r="B23" s="530"/>
+      <c r="C23" s="530"/>
+      <c r="D23" s="530"/>
+      <c r="E23" s="530"/>
+      <c r="F23" s="530"/>
+      <c r="G23" s="548"/>
+      <c r="H23" s="530"/>
+      <c r="I23" s="530"/>
+      <c r="J23" s="530"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="524">
+      <c r="A24" s="531">
         <v>1</v>
       </c>
-      <c r="B24" s="550" t="s">
+      <c r="B24" s="545" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="551"/>
-      <c r="D24" s="552"/>
-      <c r="E24" s="529" t="str">
+      <c r="C24" s="546"/>
+      <c r="D24" s="547"/>
+      <c r="E24" s="533" t="str">
         <f>Данные!C14</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F24" s="530"/>
-      <c r="G24" s="533">
+      <c r="F24" s="534"/>
+      <c r="G24" s="537">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="535"/>
-      <c r="I24" s="536"/>
-      <c r="J24" s="537"/>
+      <c r="H24" s="539"/>
+      <c r="I24" s="540"/>
+      <c r="J24" s="541"/>
     </row>
     <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="525"/>
-      <c r="B25" s="541" t="str">
+      <c r="A25" s="532"/>
+      <c r="B25" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C25" s="542"/>
-      <c r="D25" s="543"/>
-      <c r="E25" s="544"/>
-      <c r="F25" s="532"/>
-      <c r="G25" s="534"/>
-      <c r="H25" s="538"/>
-      <c r="I25" s="539"/>
-      <c r="J25" s="540"/>
+      <c r="C25" s="528"/>
+      <c r="D25" s="529"/>
+      <c r="E25" s="535"/>
+      <c r="F25" s="536"/>
+      <c r="G25" s="538"/>
+      <c r="H25" s="542"/>
+      <c r="I25" s="543"/>
+      <c r="J25" s="544"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="524">
+      <c r="A26" s="531">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="526" t="s">
+      <c r="B26" s="549" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="527"/>
-      <c r="D26" s="528"/>
-      <c r="E26" s="529" t="str">
+      <c r="C26" s="550"/>
+      <c r="D26" s="551"/>
+      <c r="E26" s="533" t="str">
         <f>Данные!C15</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F26" s="530"/>
-      <c r="G26" s="533">
+      <c r="F26" s="534"/>
+      <c r="G26" s="537">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="535"/>
-      <c r="I26" s="536"/>
-      <c r="J26" s="537"/>
+      <c r="H26" s="539"/>
+      <c r="I26" s="540"/>
+      <c r="J26" s="541"/>
     </row>
     <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="525"/>
-      <c r="B27" s="541" t="str">
+      <c r="A27" s="532"/>
+      <c r="B27" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C27" s="542"/>
-      <c r="D27" s="543"/>
-      <c r="E27" s="544"/>
-      <c r="F27" s="532"/>
-      <c r="G27" s="534"/>
-      <c r="H27" s="538"/>
-      <c r="I27" s="539"/>
-      <c r="J27" s="540"/>
+      <c r="C27" s="528"/>
+      <c r="D27" s="529"/>
+      <c r="E27" s="535"/>
+      <c r="F27" s="536"/>
+      <c r="G27" s="538"/>
+      <c r="H27" s="542"/>
+      <c r="I27" s="543"/>
+      <c r="J27" s="544"/>
     </row>
     <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="524">
+      <c r="A28" s="531">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="526" t="s">
+      <c r="B28" s="549" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="527"/>
-      <c r="D28" s="528"/>
-      <c r="E28" s="529" t="str">
+      <c r="C28" s="550"/>
+      <c r="D28" s="551"/>
+      <c r="E28" s="533" t="str">
         <f>Данные!C16</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F28" s="530"/>
-      <c r="G28" s="533">
+      <c r="F28" s="534"/>
+      <c r="G28" s="537">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H28" s="535"/>
-      <c r="I28" s="536"/>
-      <c r="J28" s="537"/>
+      <c r="H28" s="539"/>
+      <c r="I28" s="540"/>
+      <c r="J28" s="541"/>
     </row>
     <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="525"/>
-      <c r="B29" s="541" t="str">
+      <c r="A29" s="532"/>
+      <c r="B29" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C29" s="542"/>
-      <c r="D29" s="543"/>
-      <c r="E29" s="544"/>
-      <c r="F29" s="532"/>
-      <c r="G29" s="534"/>
-      <c r="H29" s="538"/>
-      <c r="I29" s="539"/>
-      <c r="J29" s="540"/>
+      <c r="C29" s="528"/>
+      <c r="D29" s="529"/>
+      <c r="E29" s="535"/>
+      <c r="F29" s="536"/>
+      <c r="G29" s="538"/>
+      <c r="H29" s="542"/>
+      <c r="I29" s="543"/>
+      <c r="J29" s="544"/>
     </row>
     <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="524">
+      <c r="A30" s="531">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="526" t="s">
+      <c r="B30" s="549" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="527"/>
-      <c r="D30" s="528"/>
-      <c r="E30" s="529" t="str">
+      <c r="C30" s="550"/>
+      <c r="D30" s="551"/>
+      <c r="E30" s="533" t="str">
         <f>Данные!C17</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F30" s="530"/>
-      <c r="G30" s="533">
+      <c r="F30" s="534"/>
+      <c r="G30" s="537">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="535"/>
-      <c r="I30" s="536"/>
-      <c r="J30" s="537"/>
+      <c r="H30" s="539"/>
+      <c r="I30" s="540"/>
+      <c r="J30" s="541"/>
     </row>
     <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="525"/>
-      <c r="B31" s="541" t="str">
+      <c r="A31" s="532"/>
+      <c r="B31" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C31" s="542"/>
-      <c r="D31" s="543"/>
-      <c r="E31" s="531"/>
-      <c r="F31" s="532"/>
-      <c r="G31" s="534"/>
-      <c r="H31" s="538"/>
-      <c r="I31" s="539"/>
-      <c r="J31" s="540"/>
+      <c r="C31" s="528"/>
+      <c r="D31" s="529"/>
+      <c r="E31" s="552"/>
+      <c r="F31" s="536"/>
+      <c r="G31" s="538"/>
+      <c r="H31" s="542"/>
+      <c r="I31" s="543"/>
+      <c r="J31" s="544"/>
     </row>
     <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="524">
+      <c r="A32" s="531">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="526" t="s">
+      <c r="B32" s="549" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="527"/>
-      <c r="D32" s="528"/>
-      <c r="E32" s="529" t="str">
+      <c r="C32" s="550"/>
+      <c r="D32" s="551"/>
+      <c r="E32" s="533" t="str">
         <f>Данные!C18</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F32" s="530"/>
-      <c r="G32" s="533">
+      <c r="F32" s="534"/>
+      <c r="G32" s="537">
         <f>Данные!B18</f>
         <v>130</v>
       </c>
-      <c r="H32" s="535"/>
-      <c r="I32" s="536"/>
-      <c r="J32" s="537"/>
+      <c r="H32" s="539"/>
+      <c r="I32" s="540"/>
+      <c r="J32" s="541"/>
     </row>
     <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="525"/>
-      <c r="B33" s="541" t="str">
+      <c r="A33" s="532"/>
+      <c r="B33" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C33" s="542"/>
-      <c r="D33" s="543"/>
-      <c r="E33" s="531"/>
-      <c r="F33" s="532"/>
-      <c r="G33" s="534"/>
-      <c r="H33" s="538"/>
-      <c r="I33" s="539"/>
-      <c r="J33" s="540"/>
+      <c r="C33" s="528"/>
+      <c r="D33" s="529"/>
+      <c r="E33" s="552"/>
+      <c r="F33" s="536"/>
+      <c r="G33" s="538"/>
+      <c r="H33" s="542"/>
+      <c r="I33" s="543"/>
+      <c r="J33" s="544"/>
     </row>
     <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="524">
+      <c r="A34" s="531">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="526" t="s">
+      <c r="B34" s="549" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="527"/>
-      <c r="D34" s="528"/>
-      <c r="E34" s="529" t="str">
+      <c r="C34" s="550"/>
+      <c r="D34" s="551"/>
+      <c r="E34" s="533" t="str">
         <f>Данные!C19</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F34" s="530"/>
-      <c r="G34" s="533">
+      <c r="F34" s="534"/>
+      <c r="G34" s="537">
         <f>Данные!B19</f>
         <v>130</v>
       </c>
-      <c r="H34" s="535"/>
-      <c r="I34" s="536"/>
-      <c r="J34" s="537"/>
+      <c r="H34" s="539"/>
+      <c r="I34" s="540"/>
+      <c r="J34" s="541"/>
     </row>
     <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="525"/>
-      <c r="B35" s="541" t="str">
+      <c r="A35" s="532"/>
+      <c r="B35" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C35" s="542"/>
-      <c r="D35" s="543"/>
-      <c r="E35" s="531"/>
-      <c r="F35" s="532"/>
-      <c r="G35" s="534"/>
-      <c r="H35" s="538"/>
-      <c r="I35" s="539"/>
-      <c r="J35" s="540"/>
+      <c r="C35" s="528"/>
+      <c r="D35" s="529"/>
+      <c r="E35" s="552"/>
+      <c r="F35" s="536"/>
+      <c r="G35" s="538"/>
+      <c r="H35" s="542"/>
+      <c r="I35" s="543"/>
+      <c r="J35" s="544"/>
     </row>
     <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="524">
+      <c r="A36" s="531">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="526" t="s">
+      <c r="B36" s="549" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="527"/>
-      <c r="D36" s="528"/>
-      <c r="E36" s="529" t="str">
+      <c r="C36" s="550"/>
+      <c r="D36" s="551"/>
+      <c r="E36" s="533" t="str">
         <f>Данные!C20</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F36" s="530"/>
-      <c r="G36" s="533">
+      <c r="F36" s="534"/>
+      <c r="G36" s="537">
         <f>Данные!B20</f>
         <v>60</v>
       </c>
-      <c r="H36" s="535"/>
-      <c r="I36" s="536"/>
-      <c r="J36" s="537"/>
+      <c r="H36" s="539"/>
+      <c r="I36" s="540"/>
+      <c r="J36" s="541"/>
     </row>
     <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="525"/>
-      <c r="B37" s="541" t="str">
+      <c r="A37" s="532"/>
+      <c r="B37" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C37" s="542"/>
-      <c r="D37" s="543"/>
-      <c r="E37" s="531"/>
-      <c r="F37" s="532"/>
-      <c r="G37" s="534"/>
-      <c r="H37" s="538"/>
-      <c r="I37" s="539"/>
-      <c r="J37" s="540"/>
+      <c r="C37" s="528"/>
+      <c r="D37" s="529"/>
+      <c r="E37" s="552"/>
+      <c r="F37" s="536"/>
+      <c r="G37" s="538"/>
+      <c r="H37" s="542"/>
+      <c r="I37" s="543"/>
+      <c r="J37" s="544"/>
     </row>
     <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="524">
+      <c r="A38" s="531">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="526" t="s">
+      <c r="B38" s="549" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="527"/>
-      <c r="D38" s="528"/>
-      <c r="E38" s="529" t="str">
+      <c r="C38" s="550"/>
+      <c r="D38" s="551"/>
+      <c r="E38" s="533" t="str">
         <f>Данные!C21</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F38" s="530"/>
-      <c r="G38" s="533">
+      <c r="F38" s="534"/>
+      <c r="G38" s="537">
         <f>Данные!B21</f>
         <v>18</v>
       </c>
-      <c r="H38" s="535"/>
-      <c r="I38" s="536"/>
-      <c r="J38" s="537"/>
+      <c r="H38" s="539"/>
+      <c r="I38" s="540"/>
+      <c r="J38" s="541"/>
     </row>
     <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="525"/>
-      <c r="B39" s="541" t="str">
+      <c r="A39" s="532"/>
+      <c r="B39" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C39" s="542"/>
-      <c r="D39" s="543"/>
-      <c r="E39" s="531"/>
-      <c r="F39" s="532"/>
-      <c r="G39" s="534"/>
-      <c r="H39" s="538"/>
-      <c r="I39" s="539"/>
-      <c r="J39" s="540"/>
+      <c r="C39" s="528"/>
+      <c r="D39" s="529"/>
+      <c r="E39" s="552"/>
+      <c r="F39" s="536"/>
+      <c r="G39" s="538"/>
+      <c r="H39" s="542"/>
+      <c r="I39" s="543"/>
+      <c r="J39" s="544"/>
     </row>
     <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="524">
+      <c r="A40" s="531">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="526" t="s">
+      <c r="B40" s="549" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="527"/>
-      <c r="D40" s="528"/>
-      <c r="E40" s="529" t="str">
+      <c r="C40" s="550"/>
+      <c r="D40" s="551"/>
+      <c r="E40" s="533" t="str">
         <f>Данные!C23</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F40" s="530"/>
-      <c r="G40" s="533">
+      <c r="F40" s="534"/>
+      <c r="G40" s="537">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="H40" s="535"/>
-      <c r="I40" s="536"/>
-      <c r="J40" s="537"/>
+      <c r="H40" s="539"/>
+      <c r="I40" s="540"/>
+      <c r="J40" s="541"/>
     </row>
     <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="525"/>
-      <c r="B41" s="541" t="str">
+      <c r="A41" s="532"/>
+      <c r="B41" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C41" s="542"/>
-      <c r="D41" s="543"/>
-      <c r="E41" s="531"/>
-      <c r="F41" s="532"/>
-      <c r="G41" s="534"/>
-      <c r="H41" s="538"/>
-      <c r="I41" s="539"/>
-      <c r="J41" s="540"/>
+      <c r="C41" s="528"/>
+      <c r="D41" s="529"/>
+      <c r="E41" s="552"/>
+      <c r="F41" s="536"/>
+      <c r="G41" s="538"/>
+      <c r="H41" s="542"/>
+      <c r="I41" s="543"/>
+      <c r="J41" s="544"/>
     </row>
     <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="524">
+      <c r="A42" s="531">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="526" t="s">
+      <c r="B42" s="549" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="527"/>
-      <c r="D42" s="528"/>
-      <c r="E42" s="529" t="str">
+      <c r="C42" s="550"/>
+      <c r="D42" s="551"/>
+      <c r="E42" s="533" t="str">
         <f>Данные!C26</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F42" s="530"/>
-      <c r="G42" s="533">
+      <c r="F42" s="534"/>
+      <c r="G42" s="537">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="H42" s="535"/>
-      <c r="I42" s="536"/>
-      <c r="J42" s="537"/>
+      <c r="H42" s="539"/>
+      <c r="I42" s="540"/>
+      <c r="J42" s="541"/>
     </row>
     <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="525"/>
-      <c r="B43" s="541" t="str">
+      <c r="A43" s="532"/>
+      <c r="B43" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C43" s="542"/>
-      <c r="D43" s="543"/>
-      <c r="E43" s="531"/>
-      <c r="F43" s="532"/>
-      <c r="G43" s="534"/>
-      <c r="H43" s="538"/>
-      <c r="I43" s="539"/>
-      <c r="J43" s="540"/>
+      <c r="C43" s="528"/>
+      <c r="D43" s="529"/>
+      <c r="E43" s="552"/>
+      <c r="F43" s="536"/>
+      <c r="G43" s="538"/>
+      <c r="H43" s="542"/>
+      <c r="I43" s="543"/>
+      <c r="J43" s="544"/>
     </row>
     <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="524">
+      <c r="A44" s="531">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="526" t="s">
+      <c r="B44" s="549" t="s">
         <v>105</v>
       </c>
-      <c r="C44" s="527"/>
-      <c r="D44" s="528"/>
-      <c r="E44" s="529">
+      <c r="C44" s="550"/>
+      <c r="D44" s="551"/>
+      <c r="E44" s="533">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="530"/>
-      <c r="G44" s="533">
+      <c r="F44" s="534"/>
+      <c r="G44" s="537">
         <f>Данные!B27</f>
         <v>18</v>
       </c>
-      <c r="H44" s="535"/>
-      <c r="I44" s="536"/>
-      <c r="J44" s="537"/>
+      <c r="H44" s="539"/>
+      <c r="I44" s="540"/>
+      <c r="J44" s="541"/>
     </row>
     <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="525"/>
-      <c r="B45" s="541" t="str">
+      <c r="A45" s="532"/>
+      <c r="B45" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C45" s="542"/>
-      <c r="D45" s="543"/>
-      <c r="E45" s="531"/>
-      <c r="F45" s="532"/>
-      <c r="G45" s="534"/>
-      <c r="H45" s="538"/>
-      <c r="I45" s="539"/>
-      <c r="J45" s="540"/>
+      <c r="C45" s="528"/>
+      <c r="D45" s="529"/>
+      <c r="E45" s="552"/>
+      <c r="F45" s="536"/>
+      <c r="G45" s="538"/>
+      <c r="H45" s="542"/>
+      <c r="I45" s="543"/>
+      <c r="J45" s="544"/>
     </row>
     <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="524">
+      <c r="A46" s="531">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="526" t="s">
+      <c r="B46" s="549" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="527"/>
-      <c r="D46" s="528"/>
-      <c r="E46" s="529" t="str">
+      <c r="C46" s="550"/>
+      <c r="D46" s="551"/>
+      <c r="E46" s="533" t="str">
         <f>Данные!C24</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F46" s="530"/>
-      <c r="G46" s="533">
+      <c r="F46" s="534"/>
+      <c r="G46" s="537">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="535"/>
-      <c r="I46" s="536"/>
-      <c r="J46" s="537"/>
+      <c r="H46" s="539"/>
+      <c r="I46" s="540"/>
+      <c r="J46" s="541"/>
     </row>
     <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="525"/>
-      <c r="B47" s="541" t="str">
+      <c r="A47" s="532"/>
+      <c r="B47" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C47" s="542"/>
-      <c r="D47" s="543"/>
-      <c r="E47" s="531"/>
-      <c r="F47" s="532"/>
-      <c r="G47" s="534"/>
-      <c r="H47" s="538"/>
-      <c r="I47" s="539"/>
-      <c r="J47" s="540"/>
+      <c r="C47" s="528"/>
+      <c r="D47" s="529"/>
+      <c r="E47" s="552"/>
+      <c r="F47" s="536"/>
+      <c r="G47" s="538"/>
+      <c r="H47" s="542"/>
+      <c r="I47" s="543"/>
+      <c r="J47" s="544"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="304"/>
@@ -11530,6 +11530,70 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -11546,74 +11610,10 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11664,47 +11664,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="557"/>
-      <c r="C2" s="558"/>
-      <c r="D2" s="559"/>
-      <c r="E2" s="566" t="s">
+      <c r="B2" s="567"/>
+      <c r="C2" s="568"/>
+      <c r="D2" s="569"/>
+      <c r="E2" s="576" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="567"/>
-      <c r="G2" s="567"/>
-      <c r="H2" s="568"/>
-      <c r="I2" s="573" t="s">
+      <c r="F2" s="577"/>
+      <c r="G2" s="577"/>
+      <c r="H2" s="578"/>
+      <c r="I2" s="583" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="574"/>
-      <c r="K2" s="577">
+      <c r="J2" s="584"/>
+      <c r="K2" s="587">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="578"/>
+      <c r="L2" s="588"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="569"/>
-      <c r="Q2" s="569"/>
+      <c r="P2" s="579"/>
+      <c r="Q2" s="579"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="560"/>
-      <c r="C3" s="561"/>
-      <c r="D3" s="562"/>
-      <c r="E3" s="570" t="s">
+      <c r="B3" s="570"/>
+      <c r="C3" s="571"/>
+      <c r="D3" s="572"/>
+      <c r="E3" s="580" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="571"/>
-      <c r="G3" s="571"/>
-      <c r="H3" s="572"/>
-      <c r="I3" s="575"/>
-      <c r="J3" s="576"/>
-      <c r="K3" s="579"/>
-      <c r="L3" s="580"/>
+      <c r="F3" s="581"/>
+      <c r="G3" s="581"/>
+      <c r="H3" s="582"/>
+      <c r="I3" s="585"/>
+      <c r="J3" s="586"/>
+      <c r="K3" s="589"/>
+      <c r="L3" s="590"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11715,9 +11715,9 @@
     </row>
     <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="563"/>
-      <c r="C4" s="564"/>
-      <c r="D4" s="565"/>
+      <c r="B4" s="573"/>
+      <c r="C4" s="574"/>
+      <c r="D4" s="575"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11736,22 +11736,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="584" t="s">
+      <c r="B5" s="594" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="585"/>
-      <c r="D5" s="508" t="str">
+      <c r="C5" s="595"/>
+      <c r="D5" s="506" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="509"/>
-      <c r="F5" s="509"/>
-      <c r="G5" s="509"/>
-      <c r="H5" s="510"/>
-      <c r="I5" s="586"/>
-      <c r="J5" s="587"/>
-      <c r="K5" s="509"/>
-      <c r="L5" s="510"/>
+      <c r="E5" s="507"/>
+      <c r="F5" s="507"/>
+      <c r="G5" s="507"/>
+      <c r="H5" s="508"/>
+      <c r="I5" s="556"/>
+      <c r="J5" s="557"/>
+      <c r="K5" s="507"/>
+      <c r="L5" s="508"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11762,22 +11762,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="584" t="s">
+      <c r="B6" s="594" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="588"/>
-      <c r="D6" s="502" t="str">
+      <c r="C6" s="596"/>
+      <c r="D6" s="500" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="E6" s="589"/>
-      <c r="F6" s="589"/>
-      <c r="G6" s="589"/>
-      <c r="H6" s="590"/>
-      <c r="I6" s="586"/>
-      <c r="J6" s="587"/>
-      <c r="K6" s="509"/>
-      <c r="L6" s="510"/>
+      <c r="E6" s="597"/>
+      <c r="F6" s="597"/>
+      <c r="G6" s="597"/>
+      <c r="H6" s="598"/>
+      <c r="I6" s="556"/>
+      <c r="J6" s="557"/>
+      <c r="K6" s="507"/>
+      <c r="L6" s="508"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11788,27 +11788,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="594" t="s">
+      <c r="B7" s="558" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="595"/>
-      <c r="D7" s="511">
+      <c r="C7" s="559"/>
+      <c r="D7" s="509">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="596"/>
-      <c r="F7" s="596"/>
-      <c r="G7" s="596"/>
-      <c r="H7" s="597"/>
-      <c r="I7" s="594" t="s">
+      <c r="E7" s="560"/>
+      <c r="F7" s="560"/>
+      <c r="G7" s="560"/>
+      <c r="H7" s="561"/>
+      <c r="I7" s="558" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="598"/>
-      <c r="K7" s="499">
+      <c r="J7" s="562"/>
+      <c r="K7" s="497">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="500"/>
+      <c r="L7" s="498"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12300,12 +12300,12 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="591" t="s">
+      <c r="B23" s="553" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="592"/>
-      <c r="D23" s="592"/>
-      <c r="E23" s="593"/>
+      <c r="C23" s="554"/>
+      <c r="D23" s="554"/>
+      <c r="E23" s="555"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -12327,12 +12327,12 @@
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="581" t="s">
+      <c r="B24" s="591" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="582"/>
-      <c r="D24" s="582"/>
-      <c r="E24" s="583"/>
+      <c r="C24" s="592"/>
+      <c r="D24" s="592"/>
+      <c r="E24" s="593"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -12375,35 +12375,28 @@
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K27" s="556" t="s">
+      <c r="K27" s="566" t="s">
         <v>136</v>
       </c>
-      <c r="L27" s="556"/>
-      <c r="M27" s="556"/>
+      <c r="L27" s="566"/>
+      <c r="M27" s="566"/>
       <c r="N27" s="466"/>
       <c r="O27" s="466"/>
       <c r="P27" s="482"/>
       <c r="Q27" s="482"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="N28" s="553" t="s">
+      <c r="N28" s="563" t="s">
         <v>140</v>
       </c>
-      <c r="O28" s="553"/>
-      <c r="P28" s="554" t="s">
+      <c r="O28" s="563"/>
+      <c r="P28" s="564" t="s">
         <v>141</v>
       </c>
-      <c r="Q28" s="555"/>
+      <c r="Q28" s="565"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="P28:Q28"/>
     <mergeCell ref="K27:M27"/>
@@ -12420,6 +12413,13 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
@@ -12485,50 +12485,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="605">
+      <c r="B2" s="602">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="606"/>
-      <c r="D2" s="607"/>
-      <c r="E2" s="614" t="s">
+      <c r="C2" s="603"/>
+      <c r="D2" s="604"/>
+      <c r="E2" s="611" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="615"/>
-      <c r="G2" s="615"/>
-      <c r="H2" s="616"/>
-      <c r="I2" s="620" t="s">
+      <c r="F2" s="612"/>
+      <c r="G2" s="612"/>
+      <c r="H2" s="613"/>
+      <c r="I2" s="617" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="621"/>
-      <c r="K2" s="624">
+      <c r="J2" s="618"/>
+      <c r="K2" s="621">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="625"/>
+      <c r="L2" s="622"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="569"/>
-      <c r="Q2" s="569"/>
+      <c r="P2" s="579"/>
+      <c r="Q2" s="579"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="608"/>
-      <c r="C3" s="609"/>
-      <c r="D3" s="610"/>
-      <c r="E3" s="617" t="s">
+      <c r="B3" s="605"/>
+      <c r="C3" s="606"/>
+      <c r="D3" s="607"/>
+      <c r="E3" s="614" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="618"/>
-      <c r="G3" s="618"/>
-      <c r="H3" s="619"/>
-      <c r="I3" s="622"/>
-      <c r="J3" s="623"/>
-      <c r="K3" s="626"/>
-      <c r="L3" s="627"/>
+      <c r="F3" s="615"/>
+      <c r="G3" s="615"/>
+      <c r="H3" s="616"/>
+      <c r="I3" s="619"/>
+      <c r="J3" s="620"/>
+      <c r="K3" s="623"/>
+      <c r="L3" s="624"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12539,9 +12539,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="611"/>
-      <c r="C4" s="612"/>
-      <c r="D4" s="613"/>
+      <c r="B4" s="608"/>
+      <c r="C4" s="609"/>
+      <c r="D4" s="610"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12560,22 +12560,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="584" t="s">
+      <c r="B5" s="594" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="599"/>
-      <c r="D5" s="508" t="str">
+      <c r="C5" s="625"/>
+      <c r="D5" s="506" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="509"/>
-      <c r="F5" s="509"/>
-      <c r="G5" s="509"/>
-      <c r="H5" s="510"/>
-      <c r="I5" s="600"/>
-      <c r="J5" s="601"/>
-      <c r="K5" s="602"/>
-      <c r="L5" s="510"/>
+      <c r="E5" s="507"/>
+      <c r="F5" s="507"/>
+      <c r="G5" s="507"/>
+      <c r="H5" s="508"/>
+      <c r="I5" s="626"/>
+      <c r="J5" s="627"/>
+      <c r="K5" s="628"/>
+      <c r="L5" s="508"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12586,22 +12586,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="584" t="s">
+      <c r="B6" s="594" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="599"/>
-      <c r="D6" s="502" t="str">
+      <c r="C6" s="625"/>
+      <c r="D6" s="500" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="E6" s="589"/>
-      <c r="F6" s="589"/>
-      <c r="G6" s="589"/>
-      <c r="H6" s="590"/>
-      <c r="I6" s="600"/>
-      <c r="J6" s="601"/>
-      <c r="K6" s="602"/>
-      <c r="L6" s="510"/>
+      <c r="E6" s="597"/>
+      <c r="F6" s="597"/>
+      <c r="G6" s="597"/>
+      <c r="H6" s="598"/>
+      <c r="I6" s="626"/>
+      <c r="J6" s="627"/>
+      <c r="K6" s="628"/>
+      <c r="L6" s="508"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12612,27 +12612,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="594" t="s">
+      <c r="B7" s="558" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="603"/>
-      <c r="D7" s="511">
+      <c r="C7" s="629"/>
+      <c r="D7" s="509">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="596"/>
-      <c r="F7" s="596"/>
-      <c r="G7" s="596"/>
-      <c r="H7" s="597"/>
-      <c r="I7" s="604" t="s">
+      <c r="E7" s="560"/>
+      <c r="F7" s="560"/>
+      <c r="G7" s="560"/>
+      <c r="H7" s="561"/>
+      <c r="I7" s="630" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="603"/>
-      <c r="K7" s="499">
+      <c r="J7" s="629"/>
+      <c r="K7" s="497">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="500"/>
+      <c r="L7" s="498"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12827,12 +12827,12 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="629" t="s">
+      <c r="B14" s="600" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="630"/>
-      <c r="D14" s="630"/>
-      <c r="E14" s="630"/>
+      <c r="C14" s="601"/>
+      <c r="D14" s="601"/>
+      <c r="E14" s="601"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -12854,13 +12854,13 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
-      <c r="B15" s="591" t="s">
+      <c r="B15" s="553" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="592"/>
-      <c r="D15" s="592"/>
-      <c r="E15" s="592"/>
-      <c r="F15" s="628"/>
+      <c r="C15" s="554"/>
+      <c r="D15" s="554"/>
+      <c r="E15" s="554"/>
+      <c r="F15" s="599"/>
       <c r="G15" s="56" t="s">
         <v>77</v>
       </c>
@@ -12879,12 +12879,12 @@
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="581" t="s">
+      <c r="B16" s="591" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="582"/>
-      <c r="D16" s="582"/>
-      <c r="E16" s="583"/>
+      <c r="C16" s="592"/>
+      <c r="D16" s="592"/>
+      <c r="E16" s="593"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -12931,39 +12931,28 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="121"/>
-      <c r="L19" s="556" t="s">
+      <c r="L19" s="566" t="s">
         <v>136</v>
       </c>
-      <c r="M19" s="556"/>
-      <c r="N19" s="556"/>
+      <c r="M19" s="566"/>
+      <c r="N19" s="566"/>
       <c r="O19" s="466"/>
       <c r="P19" s="466"/>
       <c r="Q19" s="482"/>
       <c r="R19" s="482"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="553" t="s">
+      <c r="O20" s="563" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="553"/>
-      <c r="Q20" s="554" t="s">
+      <c r="P20" s="563"/>
+      <c r="Q20" s="564" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="555"/>
+      <c r="R20" s="565"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -12977,6 +12966,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:R16">
     <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="notBetween">
@@ -13050,47 +13050,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="557"/>
-      <c r="C2" s="558"/>
-      <c r="D2" s="559"/>
-      <c r="E2" s="566" t="s">
+      <c r="B2" s="567"/>
+      <c r="C2" s="568"/>
+      <c r="D2" s="569"/>
+      <c r="E2" s="576" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="567"/>
-      <c r="G2" s="567"/>
-      <c r="H2" s="568"/>
-      <c r="I2" s="573" t="s">
+      <c r="F2" s="577"/>
+      <c r="G2" s="577"/>
+      <c r="H2" s="578"/>
+      <c r="I2" s="583" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="574"/>
-      <c r="K2" s="577">
+      <c r="J2" s="584"/>
+      <c r="K2" s="587">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="578"/>
+      <c r="L2" s="588"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="569"/>
-      <c r="Q2" s="569"/>
+      <c r="P2" s="579"/>
+      <c r="Q2" s="579"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="560"/>
-      <c r="C3" s="561"/>
-      <c r="D3" s="562"/>
-      <c r="E3" s="570" t="s">
+      <c r="B3" s="570"/>
+      <c r="C3" s="571"/>
+      <c r="D3" s="572"/>
+      <c r="E3" s="580" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="571"/>
-      <c r="G3" s="571"/>
-      <c r="H3" s="572"/>
-      <c r="I3" s="575"/>
-      <c r="J3" s="576"/>
-      <c r="K3" s="579"/>
-      <c r="L3" s="580"/>
+      <c r="F3" s="581"/>
+      <c r="G3" s="581"/>
+      <c r="H3" s="582"/>
+      <c r="I3" s="585"/>
+      <c r="J3" s="586"/>
+      <c r="K3" s="589"/>
+      <c r="L3" s="590"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -13101,9 +13101,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="563"/>
-      <c r="C4" s="564"/>
-      <c r="D4" s="565"/>
+      <c r="B4" s="573"/>
+      <c r="C4" s="574"/>
+      <c r="D4" s="575"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13122,22 +13122,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="584" t="s">
+      <c r="B5" s="594" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="585"/>
-      <c r="D5" s="508" t="str">
+      <c r="C5" s="595"/>
+      <c r="D5" s="506" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="509"/>
-      <c r="F5" s="509"/>
-      <c r="G5" s="509"/>
-      <c r="H5" s="510"/>
-      <c r="I5" s="586"/>
-      <c r="J5" s="587"/>
-      <c r="K5" s="509"/>
-      <c r="L5" s="510"/>
+      <c r="E5" s="507"/>
+      <c r="F5" s="507"/>
+      <c r="G5" s="507"/>
+      <c r="H5" s="508"/>
+      <c r="I5" s="556"/>
+      <c r="J5" s="557"/>
+      <c r="K5" s="507"/>
+      <c r="L5" s="508"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13148,22 +13148,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="584" t="s">
+      <c r="B6" s="594" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="588"/>
-      <c r="D6" s="502" t="str">
+      <c r="C6" s="596"/>
+      <c r="D6" s="500" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="E6" s="589"/>
-      <c r="F6" s="589"/>
-      <c r="G6" s="589"/>
-      <c r="H6" s="590"/>
-      <c r="I6" s="586"/>
-      <c r="J6" s="587"/>
-      <c r="K6" s="509"/>
-      <c r="L6" s="510"/>
+      <c r="E6" s="597"/>
+      <c r="F6" s="597"/>
+      <c r="G6" s="597"/>
+      <c r="H6" s="598"/>
+      <c r="I6" s="556"/>
+      <c r="J6" s="557"/>
+      <c r="K6" s="507"/>
+      <c r="L6" s="508"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13174,27 +13174,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="594" t="s">
+      <c r="B7" s="558" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="595"/>
-      <c r="D7" s="511">
+      <c r="C7" s="559"/>
+      <c r="D7" s="509">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="596"/>
-      <c r="F7" s="596"/>
-      <c r="G7" s="596"/>
-      <c r="H7" s="597"/>
-      <c r="I7" s="594" t="s">
+      <c r="E7" s="560"/>
+      <c r="F7" s="560"/>
+      <c r="G7" s="560"/>
+      <c r="H7" s="561"/>
+      <c r="I7" s="558" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="598"/>
-      <c r="K7" s="499">
+      <c r="J7" s="562"/>
+      <c r="K7" s="497">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="500"/>
+      <c r="L7" s="498"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13685,17 +13685,24 @@
       <c r="R23" s="482"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="O24" s="553" t="s">
+      <c r="O24" s="563" t="s">
         <v>140</v>
       </c>
-      <c r="P24" s="553"/>
-      <c r="Q24" s="554" t="s">
+      <c r="P24" s="563"/>
+      <c r="Q24" s="564" t="s">
         <v>141</v>
       </c>
-      <c r="R24" s="555"/>
+      <c r="R24" s="565"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B6:C6"/>
@@ -13710,13 +13717,6 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
@@ -13784,24 +13784,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="557"/>
-      <c r="C2" s="558"/>
-      <c r="D2" s="559"/>
-      <c r="E2" s="566" t="s">
+      <c r="B2" s="567"/>
+      <c r="C2" s="568"/>
+      <c r="D2" s="569"/>
+      <c r="E2" s="576" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="567"/>
-      <c r="G2" s="567"/>
-      <c r="H2" s="568"/>
-      <c r="I2" s="573" t="s">
+      <c r="F2" s="577"/>
+      <c r="G2" s="577"/>
+      <c r="H2" s="578"/>
+      <c r="I2" s="583" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="574"/>
-      <c r="K2" s="577">
+      <c r="J2" s="584"/>
+      <c r="K2" s="587">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="578"/>
+      <c r="L2" s="588"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
@@ -13812,19 +13812,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="560"/>
-      <c r="C3" s="561"/>
-      <c r="D3" s="562"/>
-      <c r="E3" s="570" t="s">
+      <c r="B3" s="570"/>
+      <c r="C3" s="571"/>
+      <c r="D3" s="572"/>
+      <c r="E3" s="580" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="571"/>
-      <c r="G3" s="571"/>
-      <c r="H3" s="572"/>
-      <c r="I3" s="575"/>
-      <c r="J3" s="576"/>
-      <c r="K3" s="579"/>
-      <c r="L3" s="580"/>
+      <c r="F3" s="581"/>
+      <c r="G3" s="581"/>
+      <c r="H3" s="582"/>
+      <c r="I3" s="585"/>
+      <c r="J3" s="586"/>
+      <c r="K3" s="589"/>
+      <c r="L3" s="590"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13835,9 +13835,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="563"/>
-      <c r="C4" s="564"/>
-      <c r="D4" s="565"/>
+      <c r="B4" s="573"/>
+      <c r="C4" s="574"/>
+      <c r="D4" s="575"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13856,22 +13856,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="584" t="s">
+      <c r="B5" s="594" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="585"/>
-      <c r="D5" s="508" t="str">
+      <c r="C5" s="595"/>
+      <c r="D5" s="506" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="509"/>
-      <c r="F5" s="509"/>
-      <c r="G5" s="509"/>
-      <c r="H5" s="510"/>
-      <c r="I5" s="586"/>
-      <c r="J5" s="587"/>
-      <c r="K5" s="509"/>
-      <c r="L5" s="510"/>
+      <c r="E5" s="507"/>
+      <c r="F5" s="507"/>
+      <c r="G5" s="507"/>
+      <c r="H5" s="508"/>
+      <c r="I5" s="556"/>
+      <c r="J5" s="557"/>
+      <c r="K5" s="507"/>
+      <c r="L5" s="508"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13882,22 +13882,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="584" t="s">
+      <c r="B6" s="594" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="588"/>
-      <c r="D6" s="502" t="str">
+      <c r="C6" s="596"/>
+      <c r="D6" s="500" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="E6" s="589"/>
-      <c r="F6" s="589"/>
-      <c r="G6" s="589"/>
-      <c r="H6" s="590"/>
-      <c r="I6" s="586"/>
-      <c r="J6" s="587"/>
-      <c r="K6" s="509"/>
-      <c r="L6" s="510"/>
+      <c r="E6" s="597"/>
+      <c r="F6" s="597"/>
+      <c r="G6" s="597"/>
+      <c r="H6" s="598"/>
+      <c r="I6" s="556"/>
+      <c r="J6" s="557"/>
+      <c r="K6" s="507"/>
+      <c r="L6" s="508"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13908,27 +13908,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="594" t="s">
+      <c r="B7" s="558" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="595"/>
-      <c r="D7" s="511">
+      <c r="C7" s="559"/>
+      <c r="D7" s="509">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="596"/>
-      <c r="F7" s="596"/>
-      <c r="G7" s="596"/>
-      <c r="H7" s="597"/>
-      <c r="I7" s="594" t="s">
+      <c r="E7" s="560"/>
+      <c r="F7" s="560"/>
+      <c r="G7" s="560"/>
+      <c r="H7" s="561"/>
+      <c r="I7" s="558" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="598"/>
-      <c r="K7" s="499">
+      <c r="J7" s="562"/>
+      <c r="K7" s="497">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="500"/>
+      <c r="L7" s="498"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -14221,17 +14221,23 @@
       <c r="R18" s="482"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="553" t="s">
+      <c r="O19" s="563" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="553"/>
-      <c r="Q19" s="554" t="s">
+      <c r="P19" s="563"/>
+      <c r="Q19" s="564" t="s">
         <v>141</v>
       </c>
-      <c r="R19" s="555"/>
+      <c r="R19" s="565"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="L18:N18"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B7:C7"/>
@@ -14247,12 +14253,6 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="L18:N18"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -14324,24 +14324,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="605"/>
-      <c r="C2" s="606"/>
-      <c r="D2" s="607"/>
-      <c r="E2" s="614" t="s">
+      <c r="B2" s="602"/>
+      <c r="C2" s="603"/>
+      <c r="D2" s="604"/>
+      <c r="E2" s="611" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="615"/>
-      <c r="G2" s="615"/>
-      <c r="H2" s="616"/>
-      <c r="I2" s="620" t="s">
+      <c r="F2" s="612"/>
+      <c r="G2" s="612"/>
+      <c r="H2" s="613"/>
+      <c r="I2" s="617" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="621"/>
-      <c r="K2" s="624">
+      <c r="J2" s="618"/>
+      <c r="K2" s="621">
         <f>Данные!B18</f>
         <v>130</v>
       </c>
-      <c r="L2" s="625"/>
+      <c r="L2" s="622"/>
       <c r="M2" s="633"/>
       <c r="N2" s="634"/>
       <c r="O2" s="634"/>
@@ -14352,19 +14352,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="608"/>
-      <c r="C3" s="609"/>
-      <c r="D3" s="610"/>
-      <c r="E3" s="617" t="s">
+      <c r="B3" s="605"/>
+      <c r="C3" s="606"/>
+      <c r="D3" s="607"/>
+      <c r="E3" s="614" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="618"/>
-      <c r="G3" s="618"/>
-      <c r="H3" s="619"/>
-      <c r="I3" s="622"/>
-      <c r="J3" s="623"/>
-      <c r="K3" s="626"/>
-      <c r="L3" s="627"/>
+      <c r="F3" s="615"/>
+      <c r="G3" s="615"/>
+      <c r="H3" s="616"/>
+      <c r="I3" s="619"/>
+      <c r="J3" s="620"/>
+      <c r="K3" s="623"/>
+      <c r="L3" s="624"/>
       <c r="M3" s="636"/>
       <c r="N3" s="637"/>
       <c r="O3" s="637"/>
@@ -14375,9 +14375,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="611"/>
-      <c r="C4" s="612"/>
-      <c r="D4" s="613"/>
+      <c r="B4" s="608"/>
+      <c r="C4" s="609"/>
+      <c r="D4" s="610"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14396,22 +14396,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="584" t="s">
+      <c r="B5" s="594" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="599"/>
-      <c r="D5" s="508" t="str">
+      <c r="C5" s="625"/>
+      <c r="D5" s="506" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="509"/>
-      <c r="F5" s="509"/>
-      <c r="G5" s="509"/>
-      <c r="H5" s="510"/>
-      <c r="I5" s="600"/>
-      <c r="J5" s="601"/>
-      <c r="K5" s="602"/>
-      <c r="L5" s="510"/>
+      <c r="E5" s="507"/>
+      <c r="F5" s="507"/>
+      <c r="G5" s="507"/>
+      <c r="H5" s="508"/>
+      <c r="I5" s="626"/>
+      <c r="J5" s="627"/>
+      <c r="K5" s="628"/>
+      <c r="L5" s="508"/>
       <c r="M5" s="636"/>
       <c r="N5" s="637"/>
       <c r="O5" s="637"/>
@@ -14422,22 +14422,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="584" t="s">
+      <c r="B6" s="594" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="599"/>
-      <c r="D6" s="502" t="str">
+      <c r="C6" s="625"/>
+      <c r="D6" s="500" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="E6" s="589"/>
-      <c r="F6" s="589"/>
-      <c r="G6" s="589"/>
-      <c r="H6" s="590"/>
-      <c r="I6" s="600"/>
-      <c r="J6" s="601"/>
-      <c r="K6" s="602"/>
-      <c r="L6" s="510"/>
+      <c r="E6" s="597"/>
+      <c r="F6" s="597"/>
+      <c r="G6" s="597"/>
+      <c r="H6" s="598"/>
+      <c r="I6" s="626"/>
+      <c r="J6" s="627"/>
+      <c r="K6" s="628"/>
+      <c r="L6" s="508"/>
       <c r="M6" s="636"/>
       <c r="N6" s="637"/>
       <c r="O6" s="637"/>
@@ -14448,27 +14448,27 @@
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="594" t="s">
+      <c r="B7" s="558" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="603"/>
-      <c r="D7" s="511">
+      <c r="C7" s="629"/>
+      <c r="D7" s="509">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="596"/>
-      <c r="F7" s="596"/>
-      <c r="G7" s="596"/>
-      <c r="H7" s="597"/>
-      <c r="I7" s="604" t="s">
+      <c r="E7" s="560"/>
+      <c r="F7" s="560"/>
+      <c r="G7" s="560"/>
+      <c r="H7" s="561"/>
+      <c r="I7" s="630" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="603"/>
-      <c r="K7" s="499">
+      <c r="J7" s="629"/>
+      <c r="K7" s="497">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="500"/>
+      <c r="L7" s="498"/>
       <c r="M7" s="636"/>
       <c r="N7" s="637"/>
       <c r="O7" s="637"/>
@@ -14863,12 +14863,12 @@
     </row>
     <row r="20" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
-      <c r="B20" s="581" t="s">
+      <c r="B20" s="591" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="582"/>
-      <c r="D20" s="582"/>
-      <c r="E20" s="583"/>
+      <c r="C20" s="592"/>
+      <c r="D20" s="592"/>
+      <c r="E20" s="593"/>
       <c r="F20" s="114" t="s">
         <v>16</v>
       </c>
@@ -14924,23 +14924,17 @@
       <c r="R23" s="482"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O24" s="553" t="s">
+      <c r="O24" s="563" t="s">
         <v>140</v>
       </c>
-      <c r="P24" s="553"/>
-      <c r="Q24" s="554" t="s">
+      <c r="P24" s="563"/>
+      <c r="Q24" s="564" t="s">
         <v>141</v>
       </c>
-      <c r="R24" s="555"/>
+      <c r="R24" s="565"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="B20:E20"/>
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="Q24:R24"/>
     <mergeCell ref="B2:D4"/>
@@ -14957,6 +14951,12 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
@@ -15021,24 +15021,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="605"/>
-      <c r="C2" s="606"/>
-      <c r="D2" s="607"/>
-      <c r="E2" s="614" t="s">
+      <c r="B2" s="602"/>
+      <c r="C2" s="603"/>
+      <c r="D2" s="604"/>
+      <c r="E2" s="611" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="615"/>
-      <c r="G2" s="615"/>
-      <c r="H2" s="616"/>
-      <c r="I2" s="620" t="s">
+      <c r="F2" s="612"/>
+      <c r="G2" s="612"/>
+      <c r="H2" s="613"/>
+      <c r="I2" s="617" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="621"/>
-      <c r="K2" s="624">
+      <c r="J2" s="618"/>
+      <c r="K2" s="621">
         <f>Данные!B19</f>
         <v>130</v>
       </c>
-      <c r="L2" s="625"/>
+      <c r="L2" s="622"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
@@ -15049,19 +15049,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="608"/>
-      <c r="C3" s="609"/>
-      <c r="D3" s="610"/>
-      <c r="E3" s="617" t="s">
+      <c r="B3" s="605"/>
+      <c r="C3" s="606"/>
+      <c r="D3" s="607"/>
+      <c r="E3" s="614" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="618"/>
-      <c r="G3" s="618"/>
-      <c r="H3" s="619"/>
-      <c r="I3" s="622"/>
-      <c r="J3" s="623"/>
-      <c r="K3" s="626"/>
-      <c r="L3" s="627"/>
+      <c r="F3" s="615"/>
+      <c r="G3" s="615"/>
+      <c r="H3" s="616"/>
+      <c r="I3" s="619"/>
+      <c r="J3" s="620"/>
+      <c r="K3" s="623"/>
+      <c r="L3" s="624"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -15072,9 +15072,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="611"/>
-      <c r="C4" s="612"/>
-      <c r="D4" s="613"/>
+      <c r="B4" s="608"/>
+      <c r="C4" s="609"/>
+      <c r="D4" s="610"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -15093,22 +15093,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="584" t="s">
+      <c r="B5" s="594" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="599"/>
-      <c r="D5" s="508" t="str">
+      <c r="C5" s="625"/>
+      <c r="D5" s="506" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="509"/>
-      <c r="F5" s="509"/>
-      <c r="G5" s="509"/>
-      <c r="H5" s="510"/>
-      <c r="I5" s="600"/>
-      <c r="J5" s="601"/>
-      <c r="K5" s="602"/>
-      <c r="L5" s="510"/>
+      <c r="E5" s="507"/>
+      <c r="F5" s="507"/>
+      <c r="G5" s="507"/>
+      <c r="H5" s="508"/>
+      <c r="I5" s="626"/>
+      <c r="J5" s="627"/>
+      <c r="K5" s="628"/>
+      <c r="L5" s="508"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -15119,22 +15119,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="584" t="s">
+      <c r="B6" s="594" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="599"/>
-      <c r="D6" s="502" t="str">
+      <c r="C6" s="625"/>
+      <c r="D6" s="500" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="E6" s="589"/>
-      <c r="F6" s="589"/>
-      <c r="G6" s="589"/>
-      <c r="H6" s="590"/>
-      <c r="I6" s="600"/>
-      <c r="J6" s="601"/>
-      <c r="K6" s="602"/>
-      <c r="L6" s="510"/>
+      <c r="E6" s="597"/>
+      <c r="F6" s="597"/>
+      <c r="G6" s="597"/>
+      <c r="H6" s="598"/>
+      <c r="I6" s="626"/>
+      <c r="J6" s="627"/>
+      <c r="K6" s="628"/>
+      <c r="L6" s="508"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -15145,27 +15145,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="594" t="s">
+      <c r="B7" s="558" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="603"/>
-      <c r="D7" s="511">
+      <c r="C7" s="629"/>
+      <c r="D7" s="509">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="596"/>
-      <c r="F7" s="596"/>
-      <c r="G7" s="596"/>
-      <c r="H7" s="597"/>
-      <c r="I7" s="604" t="s">
+      <c r="E7" s="560"/>
+      <c r="F7" s="560"/>
+      <c r="G7" s="560"/>
+      <c r="H7" s="561"/>
+      <c r="I7" s="630" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="603"/>
-      <c r="K7" s="499">
+      <c r="J7" s="629"/>
+      <c r="K7" s="497">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="500"/>
+      <c r="L7" s="498"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -15428,12 +15428,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="581" t="s">
+      <c r="B16" s="591" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="582"/>
-      <c r="D16" s="582"/>
-      <c r="E16" s="583"/>
+      <c r="C16" s="592"/>
+      <c r="D16" s="592"/>
+      <c r="E16" s="593"/>
       <c r="F16" s="252" t="s">
         <v>16</v>
       </c>
@@ -15489,27 +15489,17 @@
       <c r="R19" s="482"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="553" t="s">
+      <c r="O20" s="563" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="553"/>
-      <c r="Q20" s="554" t="s">
+      <c r="P20" s="563"/>
+      <c r="Q20" s="564" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="555"/>
+      <c r="R20" s="565"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
@@ -15522,6 +15512,16 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="B16:E16"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)/XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью) от 23.01.2020.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)/XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью) от 23.01.2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF9C0AB-8AB5-461E-84C0-4F5777C16569}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74C95BF-B03E-4DD1-9010-5CE279690914}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="155">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -2209,7 +2209,7 @@
     <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="651">
+  <cellXfs count="649">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -3482,37 +3482,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
@@ -3617,9 +3592,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3640,6 +3612,48 @@
     </xf>
     <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3685,11 +3699,10 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -3708,10 +3721,74 @@
     <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3722,60 +3799,6 @@
     <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3785,29 +3808,104 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -3815,6 +3913,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3830,110 +3942,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3943,93 +4038,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -4060,6 +4068,9 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4069,12 +4080,12 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4085,9 +4096,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -6882,28 +6890,28 @@
       <c r="D11" s="369">
         <v>43853</v>
       </c>
-      <c r="F11" s="512" t="s">
+      <c r="F11" s="494" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="512"/>
-      <c r="H11" s="512"/>
-      <c r="I11" s="512"/>
-      <c r="J11" s="513" t="s">
+      <c r="G11" s="494"/>
+      <c r="H11" s="494"/>
+      <c r="I11" s="494"/>
+      <c r="J11" s="495" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="513"/>
+      <c r="K11" s="495"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12" s="512" t="s">
+      <c r="F12" s="494" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="512"/>
-      <c r="H12" s="512"/>
-      <c r="I12" s="512"/>
-      <c r="J12" s="513" t="s">
+      <c r="G12" s="494"/>
+      <c r="H12" s="494"/>
+      <c r="I12" s="494"/>
+      <c r="J12" s="495" t="s">
         <v>99</v>
       </c>
-      <c r="K12" s="513"/>
+      <c r="K12" s="495"/>
     </row>
     <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="374" t="s">
@@ -6918,19 +6926,19 @@
       <c r="D13" s="374" t="s">
         <v>133</v>
       </c>
-      <c r="E13" s="465" t="s">
+      <c r="E13" s="454" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="512" t="s">
+      <c r="F13" s="494" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="512"/>
-      <c r="H13" s="512"/>
-      <c r="I13" s="512"/>
-      <c r="J13" s="513" t="s">
+      <c r="G13" s="494"/>
+      <c r="H13" s="494"/>
+      <c r="I13" s="494"/>
+      <c r="J13" s="495" t="s">
         <v>100</v>
       </c>
-      <c r="K13" s="513"/>
+      <c r="K13" s="495"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="365" t="s">
@@ -7198,12 +7206,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -7213,6 +7215,12 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -7266,47 +7274,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="163"/>
-      <c r="B2" s="602"/>
-      <c r="C2" s="603"/>
-      <c r="D2" s="604"/>
-      <c r="E2" s="611" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="612"/>
-      <c r="G2" s="612"/>
-      <c r="H2" s="613"/>
-      <c r="I2" s="617" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="618"/>
-      <c r="K2" s="621">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B20</f>
         <v>60</v>
       </c>
-      <c r="L2" s="622"/>
+      <c r="L2" s="623"/>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
-      <c r="P2" s="640"/>
-      <c r="Q2" s="640"/>
+      <c r="P2" s="638"/>
+      <c r="Q2" s="638"/>
       <c r="R2" s="167"/>
       <c r="S2" s="168"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="163"/>
-      <c r="B3" s="605"/>
-      <c r="C3" s="606"/>
-      <c r="D3" s="607"/>
-      <c r="E3" s="614" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="615"/>
-      <c r="G3" s="615"/>
-      <c r="H3" s="616"/>
-      <c r="I3" s="619"/>
-      <c r="J3" s="620"/>
-      <c r="K3" s="623"/>
-      <c r="L3" s="624"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
       <c r="M3" s="169"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -7317,9 +7325,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="163"/>
-      <c r="B4" s="608"/>
-      <c r="C4" s="609"/>
-      <c r="D4" s="610"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7338,10 +7346,10 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="163"/>
-      <c r="B5" s="594" t="s">
+      <c r="B5" s="582" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="625"/>
+      <c r="C5" s="597"/>
       <c r="D5" s="506" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -7350,9 +7358,9 @@
       <c r="F5" s="507"/>
       <c r="G5" s="507"/>
       <c r="H5" s="508"/>
-      <c r="I5" s="626"/>
-      <c r="J5" s="627"/>
-      <c r="K5" s="628"/>
+      <c r="I5" s="598"/>
+      <c r="J5" s="599"/>
+      <c r="K5" s="600"/>
       <c r="L5" s="508"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
@@ -7364,21 +7372,21 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="163"/>
-      <c r="B6" s="594" t="s">
+      <c r="B6" s="582" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="625"/>
+      <c r="C6" s="597"/>
       <c r="D6" s="500" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="E6" s="597"/>
-      <c r="F6" s="597"/>
-      <c r="G6" s="597"/>
-      <c r="H6" s="598"/>
-      <c r="I6" s="626"/>
-      <c r="J6" s="627"/>
-      <c r="K6" s="628"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="598"/>
+      <c r="J6" s="599"/>
+      <c r="K6" s="600"/>
       <c r="L6" s="508"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
@@ -7390,22 +7398,22 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="163"/>
-      <c r="B7" s="558" t="s">
+      <c r="B7" s="592" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="629"/>
+      <c r="C7" s="601"/>
       <c r="D7" s="509">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="560"/>
-      <c r="F7" s="560"/>
-      <c r="G7" s="560"/>
-      <c r="H7" s="561"/>
-      <c r="I7" s="630" t="s">
+      <c r="E7" s="594"/>
+      <c r="F7" s="594"/>
+      <c r="G7" s="594"/>
+      <c r="H7" s="595"/>
+      <c r="I7" s="602" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="629"/>
+      <c r="J7" s="601"/>
       <c r="K7" s="497">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -7793,28 +7801,33 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="631" t="s">
+      <c r="L21" s="629" t="s">
         <v>136</v>
       </c>
-      <c r="M21" s="631"/>
-      <c r="N21" s="631"/>
-      <c r="O21" s="466"/>
-      <c r="P21" s="466"/>
-      <c r="Q21" s="482"/>
-      <c r="R21" s="482"/>
+      <c r="M21" s="629"/>
+      <c r="N21" s="629"/>
+      <c r="O21" s="455"/>
+      <c r="P21" s="455"/>
+      <c r="Q21" s="471"/>
+      <c r="R21" s="471"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="563" t="s">
+      <c r="O22" s="551" t="s">
         <v>140</v>
       </c>
-      <c r="P22" s="563"/>
-      <c r="Q22" s="564" t="s">
+      <c r="P22" s="551"/>
+      <c r="Q22" s="552" t="s">
         <v>141</v>
       </c>
-      <c r="R22" s="565"/>
+      <c r="R22" s="553"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="B2:D4"/>
@@ -7831,11 +7844,6 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -7901,47 +7909,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="202"/>
-      <c r="B2" s="602"/>
-      <c r="C2" s="603"/>
-      <c r="D2" s="604"/>
-      <c r="E2" s="611" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="612"/>
-      <c r="G2" s="612"/>
-      <c r="H2" s="613"/>
-      <c r="I2" s="617" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="618"/>
-      <c r="K2" s="621">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B21</f>
         <v>18</v>
       </c>
-      <c r="L2" s="622"/>
+      <c r="L2" s="623"/>
       <c r="M2" s="203"/>
       <c r="N2" s="204"/>
       <c r="O2" s="205"/>
-      <c r="P2" s="644"/>
-      <c r="Q2" s="644"/>
+      <c r="P2" s="639"/>
+      <c r="Q2" s="639"/>
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202"/>
-      <c r="B3" s="605"/>
-      <c r="C3" s="606"/>
-      <c r="D3" s="607"/>
-      <c r="E3" s="614" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="615"/>
-      <c r="G3" s="615"/>
-      <c r="H3" s="616"/>
-      <c r="I3" s="619"/>
-      <c r="J3" s="620"/>
-      <c r="K3" s="623"/>
-      <c r="L3" s="624"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
       <c r="M3" s="208"/>
       <c r="N3" s="209"/>
       <c r="O3" s="209"/>
@@ -7952,9 +7960,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="202"/>
-      <c r="B4" s="608"/>
-      <c r="C4" s="609"/>
-      <c r="D4" s="610"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7973,10 +7981,10 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="202"/>
-      <c r="B5" s="594" t="s">
+      <c r="B5" s="582" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="625"/>
+      <c r="C5" s="597"/>
       <c r="D5" s="506" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -7985,9 +7993,9 @@
       <c r="F5" s="507"/>
       <c r="G5" s="507"/>
       <c r="H5" s="508"/>
-      <c r="I5" s="626"/>
-      <c r="J5" s="627"/>
-      <c r="K5" s="628"/>
+      <c r="I5" s="598"/>
+      <c r="J5" s="599"/>
+      <c r="K5" s="600"/>
       <c r="L5" s="508"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
@@ -7999,21 +8007,21 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="202"/>
-      <c r="B6" s="594" t="s">
+      <c r="B6" s="582" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="625"/>
+      <c r="C6" s="597"/>
       <c r="D6" s="500" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="E6" s="597"/>
-      <c r="F6" s="597"/>
-      <c r="G6" s="597"/>
-      <c r="H6" s="598"/>
-      <c r="I6" s="626"/>
-      <c r="J6" s="627"/>
-      <c r="K6" s="628"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="598"/>
+      <c r="J6" s="599"/>
+      <c r="K6" s="600"/>
       <c r="L6" s="508"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
@@ -8025,22 +8033,22 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="202"/>
-      <c r="B7" s="558" t="s">
+      <c r="B7" s="592" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="629"/>
+      <c r="C7" s="601"/>
       <c r="D7" s="509">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="560"/>
-      <c r="F7" s="560"/>
-      <c r="G7" s="560"/>
-      <c r="H7" s="561"/>
-      <c r="I7" s="630" t="s">
+      <c r="E7" s="594"/>
+      <c r="F7" s="594"/>
+      <c r="G7" s="594"/>
+      <c r="H7" s="595"/>
+      <c r="I7" s="602" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="629"/>
+      <c r="J7" s="601"/>
       <c r="K7" s="497">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -8374,12 +8382,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="212"/>
-      <c r="B18" s="641" t="s">
+      <c r="B18" s="640" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="642"/>
-      <c r="D18" s="642"/>
-      <c r="E18" s="643"/>
+      <c r="C18" s="641"/>
+      <c r="D18" s="641"/>
+      <c r="E18" s="642"/>
       <c r="F18" s="114" t="s">
         <v>16</v>
       </c>
@@ -8422,28 +8430,37 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="631" t="s">
+      <c r="L21" s="629" t="s">
         <v>136</v>
       </c>
-      <c r="M21" s="631"/>
-      <c r="N21" s="631"/>
-      <c r="O21" s="466"/>
-      <c r="P21" s="466"/>
-      <c r="Q21" s="482"/>
-      <c r="R21" s="482"/>
+      <c r="M21" s="629"/>
+      <c r="N21" s="629"/>
+      <c r="O21" s="455"/>
+      <c r="P21" s="455"/>
+      <c r="Q21" s="471"/>
+      <c r="R21" s="471"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="563" t="s">
+      <c r="O22" s="551" t="s">
         <v>140</v>
       </c>
-      <c r="P22" s="563"/>
-      <c r="Q22" s="564" t="s">
+      <c r="P22" s="551"/>
+      <c r="Q22" s="552" t="s">
         <v>141</v>
       </c>
-      <c r="R22" s="565"/>
+      <c r="R22" s="553"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="P2:Q2"/>
@@ -8457,15 +8474,6 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="L21:N21"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8540,47 +8548,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="130"/>
-      <c r="B2" s="602"/>
-      <c r="C2" s="603"/>
-      <c r="D2" s="604"/>
-      <c r="E2" s="611" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="612"/>
-      <c r="G2" s="612"/>
-      <c r="H2" s="613"/>
-      <c r="I2" s="617" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="618"/>
-      <c r="K2" s="621">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="L2" s="622"/>
+      <c r="L2" s="623"/>
       <c r="M2" s="131"/>
       <c r="N2" s="132"/>
       <c r="O2" s="133"/>
-      <c r="P2" s="645"/>
-      <c r="Q2" s="645"/>
+      <c r="P2" s="643"/>
+      <c r="Q2" s="643"/>
       <c r="R2" s="134"/>
       <c r="S2" s="135"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130"/>
-      <c r="B3" s="605"/>
-      <c r="C3" s="606"/>
-      <c r="D3" s="607"/>
-      <c r="E3" s="614" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="615"/>
-      <c r="G3" s="615"/>
-      <c r="H3" s="616"/>
-      <c r="I3" s="619"/>
-      <c r="J3" s="620"/>
-      <c r="K3" s="623"/>
-      <c r="L3" s="624"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
       <c r="M3" s="136"/>
       <c r="N3" s="137"/>
       <c r="O3" s="137"/>
@@ -8591,9 +8599,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="130"/>
-      <c r="B4" s="608"/>
-      <c r="C4" s="609"/>
-      <c r="D4" s="610"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8612,10 +8620,10 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130"/>
-      <c r="B5" s="594" t="s">
+      <c r="B5" s="582" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="625"/>
+      <c r="C5" s="597"/>
       <c r="D5" s="506" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -8624,9 +8632,9 @@
       <c r="F5" s="507"/>
       <c r="G5" s="507"/>
       <c r="H5" s="508"/>
-      <c r="I5" s="626"/>
-      <c r="J5" s="627"/>
-      <c r="K5" s="628"/>
+      <c r="I5" s="598"/>
+      <c r="J5" s="599"/>
+      <c r="K5" s="600"/>
       <c r="L5" s="508"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
@@ -8638,21 +8646,21 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="130"/>
-      <c r="B6" s="594" t="s">
+      <c r="B6" s="582" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="625"/>
+      <c r="C6" s="597"/>
       <c r="D6" s="500" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="E6" s="597"/>
-      <c r="F6" s="597"/>
-      <c r="G6" s="597"/>
-      <c r="H6" s="598"/>
-      <c r="I6" s="626"/>
-      <c r="J6" s="627"/>
-      <c r="K6" s="628"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="598"/>
+      <c r="J6" s="599"/>
+      <c r="K6" s="600"/>
       <c r="L6" s="508"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
@@ -8664,22 +8672,22 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="130"/>
-      <c r="B7" s="558" t="s">
+      <c r="B7" s="592" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="629"/>
+      <c r="C7" s="601"/>
       <c r="D7" s="509">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="560"/>
-      <c r="F7" s="560"/>
-      <c r="G7" s="560"/>
-      <c r="H7" s="561"/>
-      <c r="I7" s="630" t="s">
+      <c r="E7" s="594"/>
+      <c r="F7" s="594"/>
+      <c r="G7" s="594"/>
+      <c r="H7" s="595"/>
+      <c r="I7" s="602" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="629"/>
+      <c r="J7" s="601"/>
       <c r="K7" s="497">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -9001,28 +9009,33 @@
     </row>
     <row r="18" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="631" t="s">
+      <c r="L19" s="629" t="s">
         <v>136</v>
       </c>
-      <c r="M19" s="631"/>
-      <c r="N19" s="631"/>
-      <c r="O19" s="466"/>
-      <c r="P19" s="466"/>
-      <c r="Q19" s="482"/>
-      <c r="R19" s="482"/>
+      <c r="M19" s="629"/>
+      <c r="N19" s="629"/>
+      <c r="O19" s="455"/>
+      <c r="P19" s="455"/>
+      <c r="Q19" s="471"/>
+      <c r="R19" s="471"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="563" t="s">
+      <c r="O20" s="551" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="563"/>
-      <c r="Q20" s="564" t="s">
+      <c r="P20" s="551"/>
+      <c r="Q20" s="552" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="565"/>
+      <c r="R20" s="553"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B2:D4"/>
@@ -9039,11 +9052,6 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.17" bottom="0" header="0" footer="0"/>
@@ -9100,47 +9108,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="259"/>
-      <c r="B2" s="602"/>
-      <c r="C2" s="603"/>
-      <c r="D2" s="604"/>
-      <c r="E2" s="611" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="612"/>
-      <c r="G2" s="612"/>
-      <c r="H2" s="613"/>
-      <c r="I2" s="617" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="618"/>
-      <c r="K2" s="646">
+      <c r="J2" s="619"/>
+      <c r="K2" s="645">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="L2" s="647"/>
+      <c r="L2" s="646"/>
       <c r="M2" s="260"/>
       <c r="N2" s="261"/>
       <c r="O2" s="262"/>
-      <c r="P2" s="650"/>
-      <c r="Q2" s="650"/>
+      <c r="P2" s="644"/>
+      <c r="Q2" s="644"/>
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="259"/>
-      <c r="B3" s="605"/>
-      <c r="C3" s="606"/>
-      <c r="D3" s="607"/>
-      <c r="E3" s="614" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="615"/>
-      <c r="G3" s="615"/>
-      <c r="H3" s="616"/>
-      <c r="I3" s="619"/>
-      <c r="J3" s="620"/>
-      <c r="K3" s="648"/>
-      <c r="L3" s="649"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="647"/>
+      <c r="L3" s="648"/>
       <c r="M3" s="265"/>
       <c r="N3" s="266"/>
       <c r="O3" s="266"/>
@@ -9151,9 +9159,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="259"/>
-      <c r="B4" s="608"/>
-      <c r="C4" s="609"/>
-      <c r="D4" s="610"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -9172,10 +9180,10 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="259"/>
-      <c r="B5" s="594" t="s">
+      <c r="B5" s="582" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="625"/>
+      <c r="C5" s="597"/>
       <c r="D5" s="506" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -9184,9 +9192,9 @@
       <c r="F5" s="507"/>
       <c r="G5" s="507"/>
       <c r="H5" s="508"/>
-      <c r="I5" s="626"/>
-      <c r="J5" s="627"/>
-      <c r="K5" s="628"/>
+      <c r="I5" s="598"/>
+      <c r="J5" s="599"/>
+      <c r="K5" s="600"/>
       <c r="L5" s="508"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
@@ -9198,21 +9206,21 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="259"/>
-      <c r="B6" s="594" t="s">
+      <c r="B6" s="582" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="625"/>
+      <c r="C6" s="597"/>
       <c r="D6" s="500" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="E6" s="597"/>
-      <c r="F6" s="597"/>
-      <c r="G6" s="597"/>
-      <c r="H6" s="598"/>
-      <c r="I6" s="626"/>
-      <c r="J6" s="627"/>
-      <c r="K6" s="628"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="598"/>
+      <c r="J6" s="599"/>
+      <c r="K6" s="600"/>
       <c r="L6" s="508"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
@@ -9224,22 +9232,22 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="259"/>
-      <c r="B7" s="558" t="s">
+      <c r="B7" s="592" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="629"/>
+      <c r="C7" s="601"/>
       <c r="D7" s="509">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="560"/>
-      <c r="F7" s="560"/>
-      <c r="G7" s="560"/>
-      <c r="H7" s="561"/>
-      <c r="I7" s="630" t="s">
+      <c r="E7" s="594"/>
+      <c r="F7" s="594"/>
+      <c r="G7" s="594"/>
+      <c r="H7" s="595"/>
+      <c r="I7" s="602" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="629"/>
+      <c r="J7" s="601"/>
       <c r="K7" s="497">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -9514,28 +9522,33 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="631" t="s">
+      <c r="L18" s="629" t="s">
         <v>136</v>
       </c>
-      <c r="M18" s="631"/>
-      <c r="N18" s="631"/>
-      <c r="O18" s="466"/>
-      <c r="P18" s="466"/>
-      <c r="Q18" s="482"/>
-      <c r="R18" s="482"/>
+      <c r="M18" s="629"/>
+      <c r="N18" s="629"/>
+      <c r="O18" s="455"/>
+      <c r="P18" s="455"/>
+      <c r="Q18" s="471"/>
+      <c r="R18" s="471"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="563" t="s">
+      <c r="O19" s="551" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="563"/>
-      <c r="Q19" s="564" t="s">
+      <c r="P19" s="551"/>
+      <c r="Q19" s="552" t="s">
         <v>141</v>
       </c>
-      <c r="R19" s="565"/>
+      <c r="R19" s="553"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="I5:J5"/>
@@ -9552,11 +9565,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9585,8 +9593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A8" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9607,11 +9615,11 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="380"/>
-      <c r="B1" s="464" t="s">
+      <c r="B1" s="453" t="s">
         <v>109</v>
       </c>
       <c r="C1" s="380"/>
-      <c r="D1" s="463" t="str">
+      <c r="D1" s="452" t="str">
         <f>Данные!A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
@@ -9641,17 +9649,17 @@
       <c r="L2" s="381"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="516" t="s">
+      <c r="A3" s="517" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="516"/>
-      <c r="C3" s="516"/>
-      <c r="D3" s="516"/>
-      <c r="E3" s="516"/>
-      <c r="F3" s="516"/>
-      <c r="G3" s="516"/>
-      <c r="H3" s="516"/>
-      <c r="I3" s="516"/>
+      <c r="B3" s="517"/>
+      <c r="C3" s="517"/>
+      <c r="D3" s="517"/>
+      <c r="E3" s="517"/>
+      <c r="F3" s="517"/>
+      <c r="G3" s="517"/>
+      <c r="H3" s="517"/>
+      <c r="I3" s="517"/>
       <c r="K3" s="382"/>
       <c r="L3" s="382"/>
       <c r="M3" s="383"/>
@@ -9964,7 +9972,7 @@
         <f>Данные!$B22</f>
         <v>24</v>
       </c>
-      <c r="E14" s="462">
+      <c r="E14" s="451">
         <v>24</v>
       </c>
       <c r="F14" s="379"/>
@@ -10142,20 +10150,20 @@
       <c r="B21" s="428">
         <v>43887</v>
       </c>
-      <c r="C21" s="490" t="s">
+      <c r="C21" s="476" t="s">
         <v>154</v>
       </c>
       <c r="D21" s="428">
         <v>43892</v>
       </c>
-      <c r="E21" s="491">
+      <c r="E21" s="477">
         <v>491040</v>
       </c>
-      <c r="F21" s="491">
+      <c r="F21" s="477">
         <v>540631</v>
       </c>
       <c r="G21" s="423">
-        <f>F21/A$21</f>
+        <f t="shared" ref="G21:G26" si="2">F21/A$21</f>
         <v>3.218041666666667E-2</v>
       </c>
       <c r="H21" s="424">
@@ -10166,7 +10174,7 @@
         <f>1-G21</f>
         <v>0.96781958333333329</v>
       </c>
-      <c r="J21" s="483">
+      <c r="J21" s="472">
         <v>455</v>
       </c>
       <c r="K21" s="403"/>
@@ -10174,34 +10182,34 @@
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="427"/>
-      <c r="B22" s="490" t="s">
+      <c r="B22" s="476" t="s">
         <v>154</v>
       </c>
-      <c r="C22" s="490">
+      <c r="C22" s="476">
         <v>43893</v>
       </c>
       <c r="D22" s="428">
         <v>43900</v>
       </c>
-      <c r="E22" s="491">
+      <c r="E22" s="477">
         <v>400752</v>
       </c>
-      <c r="F22" s="491">
+      <c r="F22" s="477">
         <v>414822</v>
       </c>
       <c r="G22" s="423">
-        <f>F22/A$21</f>
+        <f t="shared" si="2"/>
         <v>2.4691785714285715E-2</v>
       </c>
       <c r="H22" s="429">
-        <f>H21-F22</f>
+        <f t="shared" ref="H22:I24" si="3">H21-F22</f>
         <v>15844547</v>
       </c>
       <c r="I22" s="430">
-        <f>I21-G22</f>
+        <f t="shared" si="3"/>
         <v>0.94312779761904753</v>
       </c>
-      <c r="J22" s="484">
+      <c r="J22" s="473">
         <v>455</v>
       </c>
       <c r="K22" s="383"/>
@@ -10218,25 +10226,25 @@
       <c r="D23" s="432">
         <v>43972</v>
       </c>
-      <c r="E23" s="492">
+      <c r="E23" s="478">
         <v>1424016</v>
       </c>
-      <c r="F23" s="492">
+      <c r="F23" s="478">
         <v>1496436</v>
       </c>
       <c r="G23" s="423">
-        <f>F23/A$21</f>
+        <f t="shared" si="2"/>
         <v>8.9073571428571433E-2</v>
       </c>
       <c r="H23" s="429">
-        <f>H22-F23</f>
+        <f t="shared" si="3"/>
         <v>14348111</v>
       </c>
       <c r="I23" s="430">
-        <f>I22-G23</f>
+        <f t="shared" si="3"/>
         <v>0.85405422619047611</v>
       </c>
-      <c r="J23" s="484">
+      <c r="J23" s="473">
         <v>456</v>
       </c>
       <c r="K23" s="403"/>
@@ -10244,146 +10252,272 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="431"/>
-      <c r="B24" s="375"/>
-      <c r="C24" s="375"/>
-      <c r="D24" s="375"/>
-      <c r="E24" s="492"/>
-      <c r="F24" s="492"/>
-      <c r="G24" s="375"/>
-      <c r="H24" s="375"/>
-      <c r="I24" s="435"/>
-      <c r="J24" s="486"/>
+      <c r="B24" s="369">
+        <v>44054</v>
+      </c>
+      <c r="C24" s="369">
+        <v>44061</v>
+      </c>
+      <c r="D24" s="369">
+        <v>44070</v>
+      </c>
+      <c r="E24" s="478">
+        <v>1034352</v>
+      </c>
+      <c r="F24" s="478">
+        <v>1090012</v>
+      </c>
+      <c r="G24" s="423">
+        <f t="shared" si="2"/>
+        <v>6.4881666666666671E-2</v>
+      </c>
+      <c r="H24" s="429">
+        <f t="shared" si="3"/>
+        <v>13258099</v>
+      </c>
+      <c r="I24" s="430">
+        <f t="shared" si="3"/>
+        <v>0.78917255952380949</v>
+      </c>
+      <c r="J24" s="473">
+        <v>455</v>
+      </c>
       <c r="K24" s="426"/>
       <c r="L24" s="383"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="431"/>
-      <c r="B25" s="432"/>
-      <c r="C25" s="432"/>
-      <c r="D25" s="432"/>
-      <c r="E25" s="492"/>
-      <c r="F25" s="492"/>
-      <c r="G25" s="436"/>
-      <c r="H25" s="433"/>
-      <c r="I25" s="434"/>
-      <c r="J25" s="485"/>
-      <c r="K25" s="437"/>
+      <c r="B25" s="369">
+        <v>44096</v>
+      </c>
+      <c r="C25" s="369">
+        <v>44103</v>
+      </c>
+      <c r="D25" s="369">
+        <v>44105</v>
+      </c>
+      <c r="E25" s="478">
+        <v>1043856</v>
+      </c>
+      <c r="F25" s="478">
+        <v>1097631</v>
+      </c>
+      <c r="G25" s="482">
+        <f t="shared" si="2"/>
+        <v>6.5335178571428565E-2</v>
+      </c>
+      <c r="H25" s="429">
+        <f t="shared" ref="H25" si="4">H24-F25</f>
+        <v>12160468</v>
+      </c>
+      <c r="I25" s="430">
+        <f t="shared" ref="I25" si="5">I24-G25</f>
+        <v>0.72383738095238093</v>
+      </c>
+      <c r="J25" s="474">
+        <v>456</v>
+      </c>
+      <c r="K25" s="433"/>
       <c r="L25" s="383"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="431"/>
-      <c r="B26" s="432"/>
-      <c r="C26" s="432"/>
-      <c r="D26" s="432"/>
-      <c r="E26" s="492"/>
-      <c r="F26" s="492"/>
-      <c r="G26" s="436"/>
-      <c r="H26" s="433"/>
-      <c r="I26" s="434"/>
-      <c r="J26" s="485"/>
+      <c r="B26" s="369">
+        <v>44140</v>
+      </c>
+      <c r="C26" s="369">
+        <v>44150</v>
+      </c>
+      <c r="D26" s="369">
+        <v>44166</v>
+      </c>
+      <c r="E26" s="478">
+        <v>1435104</v>
+      </c>
+      <c r="F26" s="478">
+        <v>1506527</v>
+      </c>
+      <c r="G26" s="482">
+        <f t="shared" si="2"/>
+        <v>8.9674226190476186E-2</v>
+      </c>
+      <c r="H26" s="429">
+        <f t="shared" ref="H26" si="6">H25-F26</f>
+        <v>10653941</v>
+      </c>
+      <c r="I26" s="430">
+        <f t="shared" ref="I26" si="7">I25-G26</f>
+        <v>0.63416315476190477</v>
+      </c>
+      <c r="J26" s="474">
+        <v>456</v>
+      </c>
       <c r="K26" s="426"/>
       <c r="L26" s="383"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="431"/>
-      <c r="B27" s="432"/>
-      <c r="C27" s="432"/>
-      <c r="D27" s="432"/>
-      <c r="E27" s="492"/>
-      <c r="F27" s="492"/>
-      <c r="G27" s="436"/>
-      <c r="H27" s="433"/>
-      <c r="I27" s="434"/>
-      <c r="J27" s="485"/>
+      <c r="B27" s="369">
+        <v>44202</v>
+      </c>
+      <c r="C27" s="369">
+        <v>44210</v>
+      </c>
+      <c r="D27" s="369">
+        <v>44228</v>
+      </c>
+      <c r="E27" s="478">
+        <v>1176912</v>
+      </c>
+      <c r="F27" s="478">
+        <v>1237834</v>
+      </c>
+      <c r="G27" s="482">
+        <f t="shared" ref="G27:G29" si="8">F27/A$21</f>
+        <v>7.3680595238095239E-2</v>
+      </c>
+      <c r="H27" s="429">
+        <f t="shared" ref="H27" si="9">H26-F27</f>
+        <v>9416107</v>
+      </c>
+      <c r="I27" s="430">
+        <f t="shared" ref="I27" si="10">I26-G27</f>
+        <v>0.56048255952380954</v>
+      </c>
+      <c r="J27" s="474">
+        <v>455</v>
+      </c>
       <c r="K27" s="426"/>
       <c r="L27" s="383"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="431"/>
-      <c r="B28" s="432"/>
-      <c r="C28" s="432"/>
-      <c r="D28" s="432"/>
-      <c r="E28" s="492"/>
-      <c r="F28" s="492"/>
-      <c r="G28" s="436"/>
-      <c r="H28" s="433"/>
-      <c r="I28" s="434"/>
-      <c r="J28" s="485"/>
+      <c r="B28" s="369">
+        <v>44313</v>
+      </c>
+      <c r="C28" s="493" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" s="369">
+        <v>44319</v>
+      </c>
+      <c r="E28" s="478">
+        <v>522720</v>
+      </c>
+      <c r="F28" s="478">
+        <v>548957</v>
+      </c>
+      <c r="G28" s="482">
+        <f t="shared" si="8"/>
+        <v>3.2676011904761902E-2</v>
+      </c>
+      <c r="H28" s="429">
+        <f t="shared" ref="H28" si="11">H27-F28</f>
+        <v>8867150</v>
+      </c>
+      <c r="I28" s="430">
+        <f t="shared" ref="I28" si="12">I27-G28</f>
+        <v>0.52780654761904766</v>
+      </c>
+      <c r="J28" s="474">
+        <v>456</v>
+      </c>
       <c r="K28" s="426"/>
       <c r="L28" s="383"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="431"/>
-      <c r="B29" s="432"/>
-      <c r="C29" s="432"/>
-      <c r="D29" s="375"/>
-      <c r="E29" s="492"/>
-      <c r="F29" s="492"/>
-      <c r="G29" s="438"/>
-      <c r="H29" s="433"/>
-      <c r="I29" s="439"/>
-      <c r="J29" s="487"/>
+      <c r="B29" s="493" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="369">
+        <v>44318</v>
+      </c>
+      <c r="D29" s="369">
+        <v>44349</v>
+      </c>
+      <c r="E29" s="478">
+        <v>272448</v>
+      </c>
+      <c r="F29" s="478">
+        <v>277724</v>
+      </c>
+      <c r="G29" s="484">
+        <f t="shared" si="8"/>
+        <v>1.6531190476190477E-2</v>
+      </c>
+      <c r="H29" s="429">
+        <f t="shared" ref="H29" si="13">H28-F29</f>
+        <v>8589426</v>
+      </c>
+      <c r="I29" s="430">
+        <f t="shared" ref="I29" si="14">I28-G29</f>
+        <v>0.51127535714285721</v>
+      </c>
+      <c r="J29" s="486">
+        <v>457</v>
+      </c>
       <c r="K29" s="426"/>
       <c r="L29" s="383"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="431"/>
-      <c r="B30" s="432"/>
-      <c r="C30" s="432"/>
-      <c r="D30" s="375"/>
-      <c r="E30" s="492"/>
-      <c r="F30" s="492"/>
-      <c r="G30" s="436"/>
-      <c r="H30" s="433"/>
-      <c r="I30" s="439"/>
-      <c r="J30" s="487"/>
+      <c r="B30" s="369"/>
+      <c r="C30" s="369"/>
+      <c r="D30" s="366"/>
+      <c r="E30" s="478"/>
+      <c r="F30" s="478"/>
+      <c r="G30" s="482"/>
+      <c r="H30" s="483"/>
+      <c r="I30" s="485"/>
+      <c r="J30" s="486"/>
       <c r="K30" s="426"/>
       <c r="L30" s="383"/>
     </row>
     <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="440"/>
-      <c r="B31" s="441"/>
-      <c r="C31" s="441"/>
-      <c r="D31" s="442"/>
-      <c r="E31" s="493"/>
-      <c r="F31" s="493"/>
-      <c r="G31" s="443"/>
-      <c r="H31" s="444"/>
-      <c r="I31" s="445"/>
-      <c r="J31" s="488"/>
+      <c r="A31" s="434"/>
+      <c r="B31" s="487"/>
+      <c r="C31" s="487"/>
+      <c r="D31" s="488"/>
+      <c r="E31" s="479"/>
+      <c r="F31" s="479"/>
+      <c r="G31" s="489"/>
+      <c r="H31" s="490"/>
+      <c r="I31" s="491"/>
+      <c r="J31" s="492"/>
       <c r="K31" s="383"/>
       <c r="L31" s="383"/>
     </row>
     <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="446" t="s">
+      <c r="A32" s="435" t="s">
         <v>127</v>
       </c>
-      <c r="B32" s="447"/>
-      <c r="C32" s="447"/>
-      <c r="D32" s="448"/>
-      <c r="E32" s="494">
+      <c r="B32" s="436"/>
+      <c r="C32" s="436"/>
+      <c r="D32" s="437"/>
+      <c r="E32" s="480">
         <f>SUM(E21:E31)</f>
-        <v>2315808</v>
-      </c>
-      <c r="F32" s="495">
+        <v>7801200</v>
+      </c>
+      <c r="F32" s="481">
         <f>SUM(F21:F31)</f>
-        <v>2451889</v>
-      </c>
-      <c r="G32" s="449">
+        <v>8210574</v>
+      </c>
+      <c r="G32" s="438">
         <f>SUM(G21:G31)</f>
-        <v>0.14594577380952381</v>
-      </c>
-      <c r="H32" s="450">
+        <v>0.48872464285714279</v>
+      </c>
+      <c r="H32" s="439">
         <f>A21-F32</f>
-        <v>14348111</v>
-      </c>
-      <c r="I32" s="451">
+        <v>8589426</v>
+      </c>
+      <c r="I32" s="440">
         <f>1-G32</f>
-        <v>0.85405422619047622</v>
-      </c>
-      <c r="J32" s="489"/>
-      <c r="K32" s="452"/>
-      <c r="L32" s="452"/>
+        <v>0.51127535714285721</v>
+      </c>
+      <c r="J32" s="475"/>
+      <c r="K32" s="441"/>
+      <c r="L32" s="441"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="383"/>
@@ -10398,12 +10532,12 @@
       <c r="J35" s="383"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="517" t="s">
+      <c r="A36" s="518" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="517"/>
-      <c r="C36" s="517"/>
-      <c r="D36" s="517"/>
+      <c r="B36" s="518"/>
+      <c r="C36" s="518"/>
+      <c r="D36" s="518"/>
       <c r="E36" s="383"/>
       <c r="F36" s="383"/>
       <c r="G36" s="383"/>
@@ -10412,14 +10546,14 @@
       <c r="J36" s="383"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="518" t="s">
+      <c r="A37" s="519" t="s">
         <v>129</v>
       </c>
-      <c r="B37" s="518"/>
-      <c r="C37" s="453" t="s">
+      <c r="B37" s="519"/>
+      <c r="C37" s="442" t="s">
         <v>130</v>
       </c>
-      <c r="D37" s="453" t="s">
+      <c r="D37" s="442" t="s">
         <v>131</v>
       </c>
       <c r="E37" s="383"/>
@@ -10430,27 +10564,27 @@
       <c r="J37" s="383"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="519">
+      <c r="A38" s="520">
         <f>A21-F32</f>
-        <v>14348111</v>
-      </c>
-      <c r="B38" s="520"/>
-      <c r="C38" s="454">
+        <v>8589426</v>
+      </c>
+      <c r="B38" s="521"/>
+      <c r="C38" s="443">
         <f>1-G32</f>
-        <v>0.85405422619047622</v>
-      </c>
-      <c r="D38" s="455">
+        <v>0.51127535714285721</v>
+      </c>
+      <c r="D38" s="444">
         <f>(C38/0.8)*100</f>
-        <v>106.75677827380952</v>
-      </c>
-      <c r="E38" s="456" t="s">
+        <v>63.909419642857145</v>
+      </c>
+      <c r="E38" s="445" t="s">
         <v>132</v>
       </c>
-      <c r="F38" s="456"/>
-      <c r="G38" s="456"/>
-      <c r="H38" s="456"/>
-      <c r="I38" s="456"/>
-      <c r="J38" s="456"/>
+      <c r="F38" s="445"/>
+      <c r="G38" s="445"/>
+      <c r="H38" s="445"/>
+      <c r="I38" s="445"/>
+      <c r="J38" s="445"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="383"/>
@@ -10477,8 +10611,8 @@
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="383"/>
-      <c r="B41" s="457"/>
-      <c r="C41" s="457"/>
+      <c r="B41" s="446"/>
+      <c r="C41" s="446"/>
       <c r="D41" s="383"/>
       <c r="E41" s="383"/>
       <c r="F41" s="383"/>
@@ -10488,113 +10622,113 @@
       <c r="J41" s="383"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="458"/>
-      <c r="B42" s="458"/>
-      <c r="C42" s="458"/>
-      <c r="D42" s="458"/>
-      <c r="E42" s="458"/>
-      <c r="F42" s="458"/>
-      <c r="G42" s="458"/>
-      <c r="H42" s="458"/>
-      <c r="I42" s="521"/>
-      <c r="J42" s="522"/>
+      <c r="A42" s="447"/>
+      <c r="B42" s="447"/>
+      <c r="C42" s="447"/>
+      <c r="D42" s="447"/>
+      <c r="E42" s="447"/>
+      <c r="F42" s="447"/>
+      <c r="G42" s="447"/>
+      <c r="H42" s="447"/>
+      <c r="I42" s="512"/>
+      <c r="J42" s="513"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="459"/>
-      <c r="B43" s="460"/>
-      <c r="C43" s="460"/>
+      <c r="A43" s="448"/>
+      <c r="B43" s="449"/>
+      <c r="C43" s="449"/>
       <c r="D43" s="383"/>
       <c r="E43" s="383"/>
-      <c r="F43" s="460"/>
+      <c r="F43" s="449"/>
       <c r="G43" s="413"/>
-      <c r="H43" s="460"/>
+      <c r="H43" s="449"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="459"/>
-      <c r="B44" s="460"/>
-      <c r="C44" s="460"/>
-      <c r="D44" s="460"/>
-      <c r="E44" s="460"/>
-      <c r="F44" s="460"/>
+      <c r="A44" s="448"/>
+      <c r="B44" s="449"/>
+      <c r="C44" s="449"/>
+      <c r="D44" s="449"/>
+      <c r="E44" s="449"/>
+      <c r="F44" s="449"/>
       <c r="G44" s="413"/>
-      <c r="H44" s="460"/>
+      <c r="H44" s="449"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="459"/>
-      <c r="B45" s="460"/>
-      <c r="C45" s="460"/>
+      <c r="A45" s="448"/>
+      <c r="B45" s="449"/>
+      <c r="C45" s="449"/>
       <c r="D45" s="383"/>
       <c r="E45" s="383"/>
-      <c r="F45" s="460"/>
+      <c r="F45" s="449"/>
       <c r="G45" s="413"/>
-      <c r="H45" s="460"/>
+      <c r="H45" s="449"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="459"/>
-      <c r="B46" s="460"/>
-      <c r="C46" s="460"/>
-      <c r="D46" s="460"/>
-      <c r="E46" s="460"/>
-      <c r="F46" s="460"/>
+      <c r="A46" s="448"/>
+      <c r="B46" s="449"/>
+      <c r="C46" s="449"/>
+      <c r="D46" s="449"/>
+      <c r="E46" s="449"/>
+      <c r="F46" s="449"/>
       <c r="G46" s="413"/>
-      <c r="H46" s="460"/>
+      <c r="H46" s="449"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="459"/>
-      <c r="B47" s="460"/>
-      <c r="C47" s="460"/>
+      <c r="A47" s="448"/>
+      <c r="B47" s="449"/>
+      <c r="C47" s="449"/>
       <c r="D47" s="383"/>
       <c r="E47" s="383"/>
-      <c r="F47" s="460"/>
+      <c r="F47" s="449"/>
       <c r="G47" s="413"/>
-      <c r="H47" s="460"/>
+      <c r="H47" s="449"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="459"/>
-      <c r="B48" s="460"/>
+      <c r="A48" s="448"/>
+      <c r="B48" s="449"/>
       <c r="C48" s="403"/>
-      <c r="D48" s="461"/>
-      <c r="E48" s="461"/>
+      <c r="D48" s="450"/>
+      <c r="E48" s="450"/>
       <c r="F48" s="403"/>
       <c r="G48" s="403"/>
       <c r="H48" s="403"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="459"/>
-      <c r="B49" s="460"/>
-      <c r="C49" s="460"/>
-      <c r="D49" s="460"/>
-      <c r="E49" s="460"/>
-      <c r="F49" s="460"/>
+      <c r="A49" s="448"/>
+      <c r="B49" s="449"/>
+      <c r="C49" s="449"/>
+      <c r="D49" s="449"/>
+      <c r="E49" s="449"/>
+      <c r="F49" s="449"/>
       <c r="G49" s="413"/>
-      <c r="H49" s="460"/>
+      <c r="H49" s="449"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="459"/>
-      <c r="B50" s="460"/>
-      <c r="C50" s="460"/>
-      <c r="D50" s="460"/>
-      <c r="E50" s="460"/>
-      <c r="F50" s="460"/>
+      <c r="A50" s="448"/>
+      <c r="B50" s="449"/>
+      <c r="C50" s="449"/>
+      <c r="D50" s="449"/>
+      <c r="E50" s="449"/>
+      <c r="F50" s="449"/>
       <c r="G50" s="413"/>
-      <c r="H50" s="460"/>
+      <c r="H50" s="449"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="459"/>
-      <c r="B51" s="460"/>
-      <c r="C51" s="460"/>
+      <c r="A51" s="448"/>
+      <c r="B51" s="449"/>
+      <c r="C51" s="449"/>
       <c r="D51" s="383"/>
       <c r="E51" s="383"/>
-      <c r="F51" s="460"/>
+      <c r="F51" s="449"/>
       <c r="G51" s="413"/>
-      <c r="H51" s="460"/>
+      <c r="H51" s="449"/>
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="383"/>
-      <c r="B52" s="514"/>
-      <c r="C52" s="514"/>
-      <c r="D52" s="515"/>
-      <c r="E52" s="456"/>
+      <c r="B52" s="515"/>
+      <c r="C52" s="515"/>
+      <c r="D52" s="516"/>
+      <c r="E52" s="445"/>
       <c r="F52" s="383"/>
       <c r="G52" s="383"/>
       <c r="H52" s="383"/>
@@ -10602,31 +10736,31 @@
       <c r="J52" s="383"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="458"/>
-      <c r="B53" s="458"/>
-      <c r="C53" s="458"/>
-      <c r="D53" s="458"/>
-      <c r="E53" s="458"/>
-      <c r="F53" s="458"/>
-      <c r="G53" s="458"/>
-      <c r="H53" s="458"/>
-      <c r="I53" s="521"/>
-      <c r="J53" s="522"/>
+      <c r="A53" s="447"/>
+      <c r="B53" s="447"/>
+      <c r="C53" s="447"/>
+      <c r="D53" s="447"/>
+      <c r="E53" s="447"/>
+      <c r="F53" s="447"/>
+      <c r="G53" s="447"/>
+      <c r="H53" s="447"/>
+      <c r="I53" s="512"/>
+      <c r="J53" s="513"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="459"/>
+      <c r="A54" s="448"/>
       <c r="B54" s="383"/>
       <c r="C54" s="383"/>
       <c r="D54" s="383"/>
       <c r="E54" s="383"/>
       <c r="F54" s="413"/>
       <c r="G54" s="413"/>
-      <c r="H54" s="460"/>
-      <c r="I54" s="523"/>
-      <c r="J54" s="523"/>
+      <c r="H54" s="449"/>
+      <c r="I54" s="514"/>
+      <c r="J54" s="514"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="459"/>
+      <c r="A55" s="448"/>
       <c r="B55" s="383"/>
       <c r="C55" s="383"/>
       <c r="D55" s="403"/>
@@ -10634,8 +10768,8 @@
       <c r="F55" s="403"/>
       <c r="G55" s="403"/>
       <c r="H55" s="403"/>
-      <c r="I55" s="523"/>
-      <c r="J55" s="523"/>
+      <c r="I55" s="514"/>
+      <c r="J55" s="514"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="383"/>
@@ -10648,26 +10782,26 @@
       <c r="H56" s="383"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="521"/>
-      <c r="C61" s="522"/>
+      <c r="B61" s="512"/>
+      <c r="C61" s="513"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="521"/>
-      <c r="C68" s="522"/>
+      <c r="B68" s="512"/>
+      <c r="C68" s="513"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B68:C68"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B68:C68"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10682,7 +10816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:K57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A26" sqref="A26:A47"/>
     </sheetView>
   </sheetViews>
@@ -10750,47 +10884,47 @@
       <c r="J8" s="310"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="525" t="s">
+      <c r="A11" s="546" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="525"/>
-      <c r="C11" s="525"/>
-      <c r="D11" s="525"/>
-      <c r="E11" s="525"/>
-      <c r="F11" s="525"/>
-      <c r="G11" s="525"/>
-      <c r="H11" s="525"/>
-      <c r="I11" s="525"/>
-      <c r="J11" s="525"/>
+      <c r="B11" s="546"/>
+      <c r="C11" s="546"/>
+      <c r="D11" s="546"/>
+      <c r="E11" s="546"/>
+      <c r="F11" s="546"/>
+      <c r="G11" s="546"/>
+      <c r="H11" s="546"/>
+      <c r="I11" s="546"/>
+      <c r="J11" s="546"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="524" t="s">
+      <c r="A12" s="545" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="524"/>
-      <c r="C12" s="524"/>
-      <c r="D12" s="524"/>
-      <c r="E12" s="524"/>
-      <c r="F12" s="524"/>
-      <c r="G12" s="524"/>
-      <c r="H12" s="524"/>
-      <c r="I12" s="524"/>
-      <c r="J12" s="524"/>
+      <c r="B12" s="545"/>
+      <c r="C12" s="545"/>
+      <c r="D12" s="545"/>
+      <c r="E12" s="545"/>
+      <c r="F12" s="545"/>
+      <c r="G12" s="545"/>
+      <c r="H12" s="545"/>
+      <c r="I12" s="545"/>
+      <c r="J12" s="545"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="526" t="str">
+      <c r="A13" s="547" t="str">
         <f>Данные!A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="B13" s="525"/>
-      <c r="C13" s="525"/>
-      <c r="D13" s="525"/>
-      <c r="E13" s="525"/>
-      <c r="F13" s="525"/>
-      <c r="G13" s="525"/>
-      <c r="H13" s="525"/>
-      <c r="I13" s="525"/>
-      <c r="J13" s="525"/>
+      <c r="B13" s="546"/>
+      <c r="C13" s="546"/>
+      <c r="D13" s="546"/>
+      <c r="E13" s="546"/>
+      <c r="F13" s="546"/>
+      <c r="G13" s="546"/>
+      <c r="H13" s="546"/>
+      <c r="I13" s="546"/>
+      <c r="J13" s="546"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="304" t="s">
@@ -10915,493 +11049,493 @@
       <c r="J21" s="305"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="530" t="s">
+      <c r="A22" s="543" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="530" t="s">
+      <c r="B22" s="543" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="530"/>
-      <c r="D22" s="530"/>
-      <c r="E22" s="530" t="s">
+      <c r="C22" s="543"/>
+      <c r="D22" s="543"/>
+      <c r="E22" s="543" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="530"/>
-      <c r="G22" s="548" t="s">
+      <c r="F22" s="543"/>
+      <c r="G22" s="544" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="530" t="s">
+      <c r="H22" s="543" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="530"/>
-      <c r="J22" s="530"/>
+      <c r="I22" s="543"/>
+      <c r="J22" s="543"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="530"/>
-      <c r="B23" s="530"/>
-      <c r="C23" s="530"/>
-      <c r="D23" s="530"/>
-      <c r="E23" s="530"/>
-      <c r="F23" s="530"/>
-      <c r="G23" s="548"/>
-      <c r="H23" s="530"/>
-      <c r="I23" s="530"/>
-      <c r="J23" s="530"/>
+      <c r="A23" s="543"/>
+      <c r="B23" s="543"/>
+      <c r="C23" s="543"/>
+      <c r="D23" s="543"/>
+      <c r="E23" s="543"/>
+      <c r="F23" s="543"/>
+      <c r="G23" s="544"/>
+      <c r="H23" s="543"/>
+      <c r="I23" s="543"/>
+      <c r="J23" s="543"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="531">
+      <c r="A24" s="522">
         <v>1</v>
       </c>
-      <c r="B24" s="545" t="s">
+      <c r="B24" s="548" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="546"/>
-      <c r="D24" s="547"/>
-      <c r="E24" s="533" t="str">
+      <c r="C24" s="549"/>
+      <c r="D24" s="550"/>
+      <c r="E24" s="527" t="str">
         <f>Данные!C14</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F24" s="534"/>
-      <c r="G24" s="537">
+      <c r="F24" s="528"/>
+      <c r="G24" s="531">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="539"/>
-      <c r="I24" s="540"/>
-      <c r="J24" s="541"/>
+      <c r="H24" s="533"/>
+      <c r="I24" s="534"/>
+      <c r="J24" s="535"/>
     </row>
     <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="532"/>
-      <c r="B25" s="527" t="str">
+      <c r="A25" s="523"/>
+      <c r="B25" s="539" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C25" s="528"/>
-      <c r="D25" s="529"/>
-      <c r="E25" s="535"/>
-      <c r="F25" s="536"/>
-      <c r="G25" s="538"/>
-      <c r="H25" s="542"/>
-      <c r="I25" s="543"/>
-      <c r="J25" s="544"/>
+      <c r="C25" s="540"/>
+      <c r="D25" s="541"/>
+      <c r="E25" s="542"/>
+      <c r="F25" s="530"/>
+      <c r="G25" s="532"/>
+      <c r="H25" s="536"/>
+      <c r="I25" s="537"/>
+      <c r="J25" s="538"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="531">
+      <c r="A26" s="522">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="549" t="s">
+      <c r="B26" s="524" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="550"/>
-      <c r="D26" s="551"/>
-      <c r="E26" s="533" t="str">
+      <c r="C26" s="525"/>
+      <c r="D26" s="526"/>
+      <c r="E26" s="527" t="str">
         <f>Данные!C15</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F26" s="534"/>
-      <c r="G26" s="537">
+      <c r="F26" s="528"/>
+      <c r="G26" s="531">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="539"/>
-      <c r="I26" s="540"/>
-      <c r="J26" s="541"/>
+      <c r="H26" s="533"/>
+      <c r="I26" s="534"/>
+      <c r="J26" s="535"/>
     </row>
     <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="532"/>
-      <c r="B27" s="527" t="str">
+      <c r="A27" s="523"/>
+      <c r="B27" s="539" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C27" s="528"/>
-      <c r="D27" s="529"/>
-      <c r="E27" s="535"/>
-      <c r="F27" s="536"/>
-      <c r="G27" s="538"/>
-      <c r="H27" s="542"/>
-      <c r="I27" s="543"/>
-      <c r="J27" s="544"/>
+      <c r="C27" s="540"/>
+      <c r="D27" s="541"/>
+      <c r="E27" s="542"/>
+      <c r="F27" s="530"/>
+      <c r="G27" s="532"/>
+      <c r="H27" s="536"/>
+      <c r="I27" s="537"/>
+      <c r="J27" s="538"/>
     </row>
     <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="531">
+      <c r="A28" s="522">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="549" t="s">
+      <c r="B28" s="524" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="550"/>
-      <c r="D28" s="551"/>
-      <c r="E28" s="533" t="str">
+      <c r="C28" s="525"/>
+      <c r="D28" s="526"/>
+      <c r="E28" s="527" t="str">
         <f>Данные!C16</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F28" s="534"/>
-      <c r="G28" s="537">
+      <c r="F28" s="528"/>
+      <c r="G28" s="531">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H28" s="539"/>
-      <c r="I28" s="540"/>
-      <c r="J28" s="541"/>
+      <c r="H28" s="533"/>
+      <c r="I28" s="534"/>
+      <c r="J28" s="535"/>
     </row>
     <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="532"/>
-      <c r="B29" s="527" t="str">
+      <c r="A29" s="523"/>
+      <c r="B29" s="539" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C29" s="528"/>
-      <c r="D29" s="529"/>
-      <c r="E29" s="535"/>
-      <c r="F29" s="536"/>
-      <c r="G29" s="538"/>
-      <c r="H29" s="542"/>
-      <c r="I29" s="543"/>
-      <c r="J29" s="544"/>
+      <c r="C29" s="540"/>
+      <c r="D29" s="541"/>
+      <c r="E29" s="542"/>
+      <c r="F29" s="530"/>
+      <c r="G29" s="532"/>
+      <c r="H29" s="536"/>
+      <c r="I29" s="537"/>
+      <c r="J29" s="538"/>
     </row>
     <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="531">
+      <c r="A30" s="522">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="549" t="s">
+      <c r="B30" s="524" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="550"/>
-      <c r="D30" s="551"/>
-      <c r="E30" s="533" t="str">
+      <c r="C30" s="525"/>
+      <c r="D30" s="526"/>
+      <c r="E30" s="527" t="str">
         <f>Данные!C17</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F30" s="534"/>
-      <c r="G30" s="537">
+      <c r="F30" s="528"/>
+      <c r="G30" s="531">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="539"/>
-      <c r="I30" s="540"/>
-      <c r="J30" s="541"/>
+      <c r="H30" s="533"/>
+      <c r="I30" s="534"/>
+      <c r="J30" s="535"/>
     </row>
     <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="532"/>
-      <c r="B31" s="527" t="str">
+      <c r="A31" s="523"/>
+      <c r="B31" s="539" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C31" s="528"/>
-      <c r="D31" s="529"/>
-      <c r="E31" s="552"/>
-      <c r="F31" s="536"/>
-      <c r="G31" s="538"/>
-      <c r="H31" s="542"/>
-      <c r="I31" s="543"/>
-      <c r="J31" s="544"/>
+      <c r="C31" s="540"/>
+      <c r="D31" s="541"/>
+      <c r="E31" s="529"/>
+      <c r="F31" s="530"/>
+      <c r="G31" s="532"/>
+      <c r="H31" s="536"/>
+      <c r="I31" s="537"/>
+      <c r="J31" s="538"/>
     </row>
     <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="531">
+      <c r="A32" s="522">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="549" t="s">
+      <c r="B32" s="524" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="550"/>
-      <c r="D32" s="551"/>
-      <c r="E32" s="533" t="str">
+      <c r="C32" s="525"/>
+      <c r="D32" s="526"/>
+      <c r="E32" s="527" t="str">
         <f>Данные!C18</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F32" s="534"/>
-      <c r="G32" s="537">
+      <c r="F32" s="528"/>
+      <c r="G32" s="531">
         <f>Данные!B18</f>
         <v>130</v>
       </c>
-      <c r="H32" s="539"/>
-      <c r="I32" s="540"/>
-      <c r="J32" s="541"/>
+      <c r="H32" s="533"/>
+      <c r="I32" s="534"/>
+      <c r="J32" s="535"/>
     </row>
     <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="532"/>
-      <c r="B33" s="527" t="str">
+      <c r="A33" s="523"/>
+      <c r="B33" s="539" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C33" s="528"/>
-      <c r="D33" s="529"/>
-      <c r="E33" s="552"/>
-      <c r="F33" s="536"/>
-      <c r="G33" s="538"/>
-      <c r="H33" s="542"/>
-      <c r="I33" s="543"/>
-      <c r="J33" s="544"/>
+      <c r="C33" s="540"/>
+      <c r="D33" s="541"/>
+      <c r="E33" s="529"/>
+      <c r="F33" s="530"/>
+      <c r="G33" s="532"/>
+      <c r="H33" s="536"/>
+      <c r="I33" s="537"/>
+      <c r="J33" s="538"/>
     </row>
     <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="531">
+      <c r="A34" s="522">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="549" t="s">
+      <c r="B34" s="524" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="550"/>
-      <c r="D34" s="551"/>
-      <c r="E34" s="533" t="str">
+      <c r="C34" s="525"/>
+      <c r="D34" s="526"/>
+      <c r="E34" s="527" t="str">
         <f>Данные!C19</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F34" s="534"/>
-      <c r="G34" s="537">
+      <c r="F34" s="528"/>
+      <c r="G34" s="531">
         <f>Данные!B19</f>
         <v>130</v>
       </c>
-      <c r="H34" s="539"/>
-      <c r="I34" s="540"/>
-      <c r="J34" s="541"/>
+      <c r="H34" s="533"/>
+      <c r="I34" s="534"/>
+      <c r="J34" s="535"/>
     </row>
     <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="532"/>
-      <c r="B35" s="527" t="str">
+      <c r="A35" s="523"/>
+      <c r="B35" s="539" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C35" s="528"/>
-      <c r="D35" s="529"/>
-      <c r="E35" s="552"/>
-      <c r="F35" s="536"/>
-      <c r="G35" s="538"/>
-      <c r="H35" s="542"/>
-      <c r="I35" s="543"/>
-      <c r="J35" s="544"/>
+      <c r="C35" s="540"/>
+      <c r="D35" s="541"/>
+      <c r="E35" s="529"/>
+      <c r="F35" s="530"/>
+      <c r="G35" s="532"/>
+      <c r="H35" s="536"/>
+      <c r="I35" s="537"/>
+      <c r="J35" s="538"/>
     </row>
     <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="531">
+      <c r="A36" s="522">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="549" t="s">
+      <c r="B36" s="524" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="550"/>
-      <c r="D36" s="551"/>
-      <c r="E36" s="533" t="str">
+      <c r="C36" s="525"/>
+      <c r="D36" s="526"/>
+      <c r="E36" s="527" t="str">
         <f>Данные!C20</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F36" s="534"/>
-      <c r="G36" s="537">
+      <c r="F36" s="528"/>
+      <c r="G36" s="531">
         <f>Данные!B20</f>
         <v>60</v>
       </c>
-      <c r="H36" s="539"/>
-      <c r="I36" s="540"/>
-      <c r="J36" s="541"/>
+      <c r="H36" s="533"/>
+      <c r="I36" s="534"/>
+      <c r="J36" s="535"/>
     </row>
     <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="532"/>
-      <c r="B37" s="527" t="str">
+      <c r="A37" s="523"/>
+      <c r="B37" s="539" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C37" s="528"/>
-      <c r="D37" s="529"/>
-      <c r="E37" s="552"/>
-      <c r="F37" s="536"/>
-      <c r="G37" s="538"/>
-      <c r="H37" s="542"/>
-      <c r="I37" s="543"/>
-      <c r="J37" s="544"/>
+      <c r="C37" s="540"/>
+      <c r="D37" s="541"/>
+      <c r="E37" s="529"/>
+      <c r="F37" s="530"/>
+      <c r="G37" s="532"/>
+      <c r="H37" s="536"/>
+      <c r="I37" s="537"/>
+      <c r="J37" s="538"/>
     </row>
     <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="531">
+      <c r="A38" s="522">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="549" t="s">
+      <c r="B38" s="524" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="550"/>
-      <c r="D38" s="551"/>
-      <c r="E38" s="533" t="str">
+      <c r="C38" s="525"/>
+      <c r="D38" s="526"/>
+      <c r="E38" s="527" t="str">
         <f>Данные!C21</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F38" s="534"/>
-      <c r="G38" s="537">
+      <c r="F38" s="528"/>
+      <c r="G38" s="531">
         <f>Данные!B21</f>
         <v>18</v>
       </c>
-      <c r="H38" s="539"/>
-      <c r="I38" s="540"/>
-      <c r="J38" s="541"/>
+      <c r="H38" s="533"/>
+      <c r="I38" s="534"/>
+      <c r="J38" s="535"/>
     </row>
     <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="532"/>
-      <c r="B39" s="527" t="str">
+      <c r="A39" s="523"/>
+      <c r="B39" s="539" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C39" s="528"/>
-      <c r="D39" s="529"/>
-      <c r="E39" s="552"/>
-      <c r="F39" s="536"/>
-      <c r="G39" s="538"/>
-      <c r="H39" s="542"/>
-      <c r="I39" s="543"/>
-      <c r="J39" s="544"/>
+      <c r="C39" s="540"/>
+      <c r="D39" s="541"/>
+      <c r="E39" s="529"/>
+      <c r="F39" s="530"/>
+      <c r="G39" s="532"/>
+      <c r="H39" s="536"/>
+      <c r="I39" s="537"/>
+      <c r="J39" s="538"/>
     </row>
     <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="531">
+      <c r="A40" s="522">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="549" t="s">
+      <c r="B40" s="524" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="550"/>
-      <c r="D40" s="551"/>
-      <c r="E40" s="533" t="str">
+      <c r="C40" s="525"/>
+      <c r="D40" s="526"/>
+      <c r="E40" s="527" t="str">
         <f>Данные!C23</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F40" s="534"/>
-      <c r="G40" s="537">
+      <c r="F40" s="528"/>
+      <c r="G40" s="531">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="H40" s="539"/>
-      <c r="I40" s="540"/>
-      <c r="J40" s="541"/>
+      <c r="H40" s="533"/>
+      <c r="I40" s="534"/>
+      <c r="J40" s="535"/>
     </row>
     <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="532"/>
-      <c r="B41" s="527" t="str">
+      <c r="A41" s="523"/>
+      <c r="B41" s="539" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C41" s="528"/>
-      <c r="D41" s="529"/>
-      <c r="E41" s="552"/>
-      <c r="F41" s="536"/>
-      <c r="G41" s="538"/>
-      <c r="H41" s="542"/>
-      <c r="I41" s="543"/>
-      <c r="J41" s="544"/>
+      <c r="C41" s="540"/>
+      <c r="D41" s="541"/>
+      <c r="E41" s="529"/>
+      <c r="F41" s="530"/>
+      <c r="G41" s="532"/>
+      <c r="H41" s="536"/>
+      <c r="I41" s="537"/>
+      <c r="J41" s="538"/>
     </row>
     <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="531">
+      <c r="A42" s="522">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="549" t="s">
+      <c r="B42" s="524" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="550"/>
-      <c r="D42" s="551"/>
-      <c r="E42" s="533" t="str">
+      <c r="C42" s="525"/>
+      <c r="D42" s="526"/>
+      <c r="E42" s="527" t="str">
         <f>Данные!C26</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F42" s="534"/>
-      <c r="G42" s="537">
+      <c r="F42" s="528"/>
+      <c r="G42" s="531">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="H42" s="539"/>
-      <c r="I42" s="540"/>
-      <c r="J42" s="541"/>
+      <c r="H42" s="533"/>
+      <c r="I42" s="534"/>
+      <c r="J42" s="535"/>
     </row>
     <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="532"/>
-      <c r="B43" s="527" t="str">
+      <c r="A43" s="523"/>
+      <c r="B43" s="539" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C43" s="528"/>
-      <c r="D43" s="529"/>
-      <c r="E43" s="552"/>
-      <c r="F43" s="536"/>
-      <c r="G43" s="538"/>
-      <c r="H43" s="542"/>
-      <c r="I43" s="543"/>
-      <c r="J43" s="544"/>
+      <c r="C43" s="540"/>
+      <c r="D43" s="541"/>
+      <c r="E43" s="529"/>
+      <c r="F43" s="530"/>
+      <c r="G43" s="532"/>
+      <c r="H43" s="536"/>
+      <c r="I43" s="537"/>
+      <c r="J43" s="538"/>
     </row>
     <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="531">
+      <c r="A44" s="522">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="549" t="s">
+      <c r="B44" s="524" t="s">
         <v>105</v>
       </c>
-      <c r="C44" s="550"/>
-      <c r="D44" s="551"/>
-      <c r="E44" s="533">
+      <c r="C44" s="525"/>
+      <c r="D44" s="526"/>
+      <c r="E44" s="527">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="534"/>
-      <c r="G44" s="537">
+      <c r="F44" s="528"/>
+      <c r="G44" s="531">
         <f>Данные!B27</f>
         <v>18</v>
       </c>
-      <c r="H44" s="539"/>
-      <c r="I44" s="540"/>
-      <c r="J44" s="541"/>
+      <c r="H44" s="533"/>
+      <c r="I44" s="534"/>
+      <c r="J44" s="535"/>
     </row>
     <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="532"/>
-      <c r="B45" s="527" t="str">
+      <c r="A45" s="523"/>
+      <c r="B45" s="539" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C45" s="528"/>
-      <c r="D45" s="529"/>
-      <c r="E45" s="552"/>
-      <c r="F45" s="536"/>
-      <c r="G45" s="538"/>
-      <c r="H45" s="542"/>
-      <c r="I45" s="543"/>
-      <c r="J45" s="544"/>
+      <c r="C45" s="540"/>
+      <c r="D45" s="541"/>
+      <c r="E45" s="529"/>
+      <c r="F45" s="530"/>
+      <c r="G45" s="532"/>
+      <c r="H45" s="536"/>
+      <c r="I45" s="537"/>
+      <c r="J45" s="538"/>
     </row>
     <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="531">
+      <c r="A46" s="522">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="549" t="s">
+      <c r="B46" s="524" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="550"/>
-      <c r="D46" s="551"/>
-      <c r="E46" s="533" t="str">
+      <c r="C46" s="525"/>
+      <c r="D46" s="526"/>
+      <c r="E46" s="527" t="str">
         <f>Данные!C24</f>
         <v>ExtraNew 0.5L</v>
       </c>
-      <c r="F46" s="534"/>
-      <c r="G46" s="537">
+      <c r="F46" s="528"/>
+      <c r="G46" s="531">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="539"/>
-      <c r="I46" s="540"/>
-      <c r="J46" s="541"/>
+      <c r="H46" s="533"/>
+      <c r="I46" s="534"/>
+      <c r="J46" s="535"/>
     </row>
     <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="532"/>
-      <c r="B47" s="527" t="str">
+      <c r="A47" s="523"/>
+      <c r="B47" s="539" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
-      <c r="C47" s="528"/>
-      <c r="D47" s="529"/>
-      <c r="E47" s="552"/>
-      <c r="F47" s="536"/>
-      <c r="G47" s="538"/>
-      <c r="H47" s="542"/>
-      <c r="I47" s="543"/>
-      <c r="J47" s="544"/>
+      <c r="C47" s="540"/>
+      <c r="D47" s="541"/>
+      <c r="E47" s="529"/>
+      <c r="F47" s="530"/>
+      <c r="G47" s="532"/>
+      <c r="H47" s="536"/>
+      <c r="I47" s="537"/>
+      <c r="J47" s="538"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="304"/>
@@ -11530,70 +11664,6 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -11610,6 +11680,70 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11664,47 +11798,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="567"/>
-      <c r="C2" s="568"/>
-      <c r="D2" s="569"/>
-      <c r="E2" s="576" t="s">
+      <c r="B2" s="555"/>
+      <c r="C2" s="556"/>
+      <c r="D2" s="557"/>
+      <c r="E2" s="564" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="577"/>
-      <c r="G2" s="577"/>
-      <c r="H2" s="578"/>
-      <c r="I2" s="583" t="s">
+      <c r="F2" s="565"/>
+      <c r="G2" s="565"/>
+      <c r="H2" s="566"/>
+      <c r="I2" s="571" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="584"/>
-      <c r="K2" s="587">
+      <c r="J2" s="572"/>
+      <c r="K2" s="575">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="588"/>
+      <c r="L2" s="576"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="579"/>
-      <c r="Q2" s="579"/>
+      <c r="P2" s="567"/>
+      <c r="Q2" s="567"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="570"/>
-      <c r="C3" s="571"/>
-      <c r="D3" s="572"/>
-      <c r="E3" s="580" t="s">
+      <c r="B3" s="558"/>
+      <c r="C3" s="559"/>
+      <c r="D3" s="560"/>
+      <c r="E3" s="568" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="581"/>
-      <c r="G3" s="581"/>
-      <c r="H3" s="582"/>
-      <c r="I3" s="585"/>
-      <c r="J3" s="586"/>
-      <c r="K3" s="589"/>
-      <c r="L3" s="590"/>
+      <c r="F3" s="569"/>
+      <c r="G3" s="569"/>
+      <c r="H3" s="570"/>
+      <c r="I3" s="573"/>
+      <c r="J3" s="574"/>
+      <c r="K3" s="577"/>
+      <c r="L3" s="578"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11715,9 +11849,9 @@
     </row>
     <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="573"/>
-      <c r="C4" s="574"/>
-      <c r="D4" s="575"/>
+      <c r="B4" s="561"/>
+      <c r="C4" s="562"/>
+      <c r="D4" s="563"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11736,10 +11870,10 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="594" t="s">
+      <c r="B5" s="582" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="595"/>
+      <c r="C5" s="583"/>
       <c r="D5" s="506" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -11748,8 +11882,8 @@
       <c r="F5" s="507"/>
       <c r="G5" s="507"/>
       <c r="H5" s="508"/>
-      <c r="I5" s="556"/>
-      <c r="J5" s="557"/>
+      <c r="I5" s="584"/>
+      <c r="J5" s="585"/>
       <c r="K5" s="507"/>
       <c r="L5" s="508"/>
       <c r="M5" s="74"/>
@@ -11762,20 +11896,20 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="594" t="s">
+      <c r="B6" s="582" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="596"/>
+      <c r="C6" s="586"/>
       <c r="D6" s="500" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="E6" s="597"/>
-      <c r="F6" s="597"/>
-      <c r="G6" s="597"/>
-      <c r="H6" s="598"/>
-      <c r="I6" s="556"/>
-      <c r="J6" s="557"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="584"/>
+      <c r="J6" s="585"/>
       <c r="K6" s="507"/>
       <c r="L6" s="508"/>
       <c r="M6" s="74"/>
@@ -11788,22 +11922,22 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="558" t="s">
+      <c r="B7" s="592" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="559"/>
+      <c r="C7" s="593"/>
       <c r="D7" s="509">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="560"/>
-      <c r="F7" s="560"/>
-      <c r="G7" s="560"/>
-      <c r="H7" s="561"/>
-      <c r="I7" s="558" t="s">
+      <c r="E7" s="594"/>
+      <c r="F7" s="594"/>
+      <c r="G7" s="594"/>
+      <c r="H7" s="595"/>
+      <c r="I7" s="592" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="562"/>
+      <c r="J7" s="596"/>
       <c r="K7" s="497">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -12300,12 +12434,12 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="553" t="s">
+      <c r="B23" s="589" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="554"/>
-      <c r="D23" s="554"/>
-      <c r="E23" s="555"/>
+      <c r="C23" s="590"/>
+      <c r="D23" s="590"/>
+      <c r="E23" s="591"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -12327,12 +12461,12 @@
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="591" t="s">
+      <c r="B24" s="579" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="592"/>
-      <c r="D24" s="592"/>
-      <c r="E24" s="593"/>
+      <c r="C24" s="580"/>
+      <c r="D24" s="580"/>
+      <c r="E24" s="581"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -12375,28 +12509,35 @@
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K27" s="566" t="s">
+      <c r="K27" s="554" t="s">
         <v>136</v>
       </c>
-      <c r="L27" s="566"/>
-      <c r="M27" s="566"/>
-      <c r="N27" s="466"/>
-      <c r="O27" s="466"/>
-      <c r="P27" s="482"/>
-      <c r="Q27" s="482"/>
+      <c r="L27" s="554"/>
+      <c r="M27" s="554"/>
+      <c r="N27" s="455"/>
+      <c r="O27" s="455"/>
+      <c r="P27" s="471"/>
+      <c r="Q27" s="471"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="N28" s="563" t="s">
+      <c r="N28" s="551" t="s">
         <v>140</v>
       </c>
-      <c r="O28" s="563"/>
-      <c r="P28" s="564" t="s">
+      <c r="O28" s="551"/>
+      <c r="P28" s="552" t="s">
         <v>141</v>
       </c>
-      <c r="Q28" s="565"/>
+      <c r="Q28" s="553"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="P28:Q28"/>
     <mergeCell ref="K27:M27"/>
@@ -12413,13 +12554,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
@@ -12485,50 +12619,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="602">
+      <c r="B2" s="603">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="603"/>
-      <c r="D2" s="604"/>
-      <c r="E2" s="611" t="s">
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="612"/>
-      <c r="G2" s="612"/>
-      <c r="H2" s="613"/>
-      <c r="I2" s="617" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="618"/>
-      <c r="K2" s="621">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="622"/>
+      <c r="L2" s="623"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="579"/>
-      <c r="Q2" s="579"/>
+      <c r="P2" s="567"/>
+      <c r="Q2" s="567"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="605"/>
-      <c r="C3" s="606"/>
-      <c r="D3" s="607"/>
-      <c r="E3" s="614" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="615"/>
-      <c r="G3" s="615"/>
-      <c r="H3" s="616"/>
-      <c r="I3" s="619"/>
-      <c r="J3" s="620"/>
-      <c r="K3" s="623"/>
-      <c r="L3" s="624"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12539,9 +12673,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="608"/>
-      <c r="C4" s="609"/>
-      <c r="D4" s="610"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12560,10 +12694,10 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="594" t="s">
+      <c r="B5" s="582" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="625"/>
+      <c r="C5" s="597"/>
       <c r="D5" s="506" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -12572,9 +12706,9 @@
       <c r="F5" s="507"/>
       <c r="G5" s="507"/>
       <c r="H5" s="508"/>
-      <c r="I5" s="626"/>
-      <c r="J5" s="627"/>
-      <c r="K5" s="628"/>
+      <c r="I5" s="598"/>
+      <c r="J5" s="599"/>
+      <c r="K5" s="600"/>
       <c r="L5" s="508"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
@@ -12586,21 +12720,21 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="594" t="s">
+      <c r="B6" s="582" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="625"/>
+      <c r="C6" s="597"/>
       <c r="D6" s="500" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="E6" s="597"/>
-      <c r="F6" s="597"/>
-      <c r="G6" s="597"/>
-      <c r="H6" s="598"/>
-      <c r="I6" s="626"/>
-      <c r="J6" s="627"/>
-      <c r="K6" s="628"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="598"/>
+      <c r="J6" s="599"/>
+      <c r="K6" s="600"/>
       <c r="L6" s="508"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
@@ -12612,22 +12746,22 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="558" t="s">
+      <c r="B7" s="592" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="629"/>
+      <c r="C7" s="601"/>
       <c r="D7" s="509">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="560"/>
-      <c r="F7" s="560"/>
-      <c r="G7" s="560"/>
-      <c r="H7" s="561"/>
-      <c r="I7" s="630" t="s">
+      <c r="E7" s="594"/>
+      <c r="F7" s="594"/>
+      <c r="G7" s="594"/>
+      <c r="H7" s="595"/>
+      <c r="I7" s="602" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="629"/>
+      <c r="J7" s="601"/>
       <c r="K7" s="497">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -12827,12 +12961,12 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="600" t="s">
+      <c r="B14" s="627" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="601"/>
-      <c r="D14" s="601"/>
-      <c r="E14" s="601"/>
+      <c r="C14" s="628"/>
+      <c r="D14" s="628"/>
+      <c r="E14" s="628"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -12854,13 +12988,13 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
-      <c r="B15" s="553" t="s">
+      <c r="B15" s="589" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="554"/>
-      <c r="D15" s="554"/>
-      <c r="E15" s="554"/>
-      <c r="F15" s="599"/>
+      <c r="C15" s="590"/>
+      <c r="D15" s="590"/>
+      <c r="E15" s="590"/>
+      <c r="F15" s="626"/>
       <c r="G15" s="56" t="s">
         <v>77</v>
       </c>
@@ -12879,12 +13013,12 @@
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="591" t="s">
+      <c r="B16" s="579" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="592"/>
-      <c r="D16" s="592"/>
-      <c r="E16" s="593"/>
+      <c r="C16" s="580"/>
+      <c r="D16" s="580"/>
+      <c r="E16" s="581"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -12931,28 +13065,39 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="121"/>
-      <c r="L19" s="566" t="s">
+      <c r="L19" s="554" t="s">
         <v>136</v>
       </c>
-      <c r="M19" s="566"/>
-      <c r="N19" s="566"/>
-      <c r="O19" s="466"/>
-      <c r="P19" s="466"/>
-      <c r="Q19" s="482"/>
-      <c r="R19" s="482"/>
+      <c r="M19" s="554"/>
+      <c r="N19" s="554"/>
+      <c r="O19" s="455"/>
+      <c r="P19" s="455"/>
+      <c r="Q19" s="471"/>
+      <c r="R19" s="471"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="563" t="s">
+      <c r="O20" s="551" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="563"/>
-      <c r="Q20" s="564" t="s">
+      <c r="P20" s="551"/>
+      <c r="Q20" s="552" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="565"/>
+      <c r="R20" s="553"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -12966,17 +13111,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:R16">
     <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="notBetween">
@@ -13050,47 +13184,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="567"/>
-      <c r="C2" s="568"/>
-      <c r="D2" s="569"/>
-      <c r="E2" s="576" t="s">
+      <c r="B2" s="555"/>
+      <c r="C2" s="556"/>
+      <c r="D2" s="557"/>
+      <c r="E2" s="564" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="577"/>
-      <c r="G2" s="577"/>
-      <c r="H2" s="578"/>
-      <c r="I2" s="583" t="s">
+      <c r="F2" s="565"/>
+      <c r="G2" s="565"/>
+      <c r="H2" s="566"/>
+      <c r="I2" s="571" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="584"/>
-      <c r="K2" s="587">
+      <c r="J2" s="572"/>
+      <c r="K2" s="575">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="588"/>
+      <c r="L2" s="576"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="579"/>
-      <c r="Q2" s="579"/>
+      <c r="P2" s="567"/>
+      <c r="Q2" s="567"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="570"/>
-      <c r="C3" s="571"/>
-      <c r="D3" s="572"/>
-      <c r="E3" s="580" t="s">
+      <c r="B3" s="558"/>
+      <c r="C3" s="559"/>
+      <c r="D3" s="560"/>
+      <c r="E3" s="568" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="581"/>
-      <c r="G3" s="581"/>
-      <c r="H3" s="582"/>
-      <c r="I3" s="585"/>
-      <c r="J3" s="586"/>
-      <c r="K3" s="589"/>
-      <c r="L3" s="590"/>
+      <c r="F3" s="569"/>
+      <c r="G3" s="569"/>
+      <c r="H3" s="570"/>
+      <c r="I3" s="573"/>
+      <c r="J3" s="574"/>
+      <c r="K3" s="577"/>
+      <c r="L3" s="578"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -13101,9 +13235,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="573"/>
-      <c r="C4" s="574"/>
-      <c r="D4" s="575"/>
+      <c r="B4" s="561"/>
+      <c r="C4" s="562"/>
+      <c r="D4" s="563"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13122,10 +13256,10 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="594" t="s">
+      <c r="B5" s="582" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="595"/>
+      <c r="C5" s="583"/>
       <c r="D5" s="506" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -13134,8 +13268,8 @@
       <c r="F5" s="507"/>
       <c r="G5" s="507"/>
       <c r="H5" s="508"/>
-      <c r="I5" s="556"/>
-      <c r="J5" s="557"/>
+      <c r="I5" s="584"/>
+      <c r="J5" s="585"/>
       <c r="K5" s="507"/>
       <c r="L5" s="508"/>
       <c r="M5" s="74"/>
@@ -13148,20 +13282,20 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="594" t="s">
+      <c r="B6" s="582" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="596"/>
+      <c r="C6" s="586"/>
       <c r="D6" s="500" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="E6" s="597"/>
-      <c r="F6" s="597"/>
-      <c r="G6" s="597"/>
-      <c r="H6" s="598"/>
-      <c r="I6" s="556"/>
-      <c r="J6" s="557"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="584"/>
+      <c r="J6" s="585"/>
       <c r="K6" s="507"/>
       <c r="L6" s="508"/>
       <c r="M6" s="74"/>
@@ -13174,22 +13308,22 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="558" t="s">
+      <c r="B7" s="592" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="559"/>
+      <c r="C7" s="593"/>
       <c r="D7" s="509">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="560"/>
-      <c r="F7" s="560"/>
-      <c r="G7" s="560"/>
-      <c r="H7" s="561"/>
-      <c r="I7" s="558" t="s">
+      <c r="E7" s="594"/>
+      <c r="F7" s="594"/>
+      <c r="G7" s="594"/>
+      <c r="H7" s="595"/>
+      <c r="I7" s="592" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="562"/>
+      <c r="J7" s="596"/>
       <c r="K7" s="497">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -13674,35 +13808,28 @@
     </row>
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="L23" s="631" t="s">
+      <c r="L23" s="629" t="s">
         <v>136</v>
       </c>
-      <c r="M23" s="631"/>
-      <c r="N23" s="631"/>
-      <c r="O23" s="466"/>
-      <c r="P23" s="466"/>
-      <c r="Q23" s="482"/>
-      <c r="R23" s="482"/>
+      <c r="M23" s="629"/>
+      <c r="N23" s="629"/>
+      <c r="O23" s="455"/>
+      <c r="P23" s="455"/>
+      <c r="Q23" s="471"/>
+      <c r="R23" s="471"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="O24" s="563" t="s">
+      <c r="O24" s="551" t="s">
         <v>140</v>
       </c>
-      <c r="P24" s="563"/>
-      <c r="Q24" s="564" t="s">
+      <c r="P24" s="551"/>
+      <c r="Q24" s="552" t="s">
         <v>141</v>
       </c>
-      <c r="R24" s="565"/>
+      <c r="R24" s="553"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B6:C6"/>
@@ -13717,6 +13844,13 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
@@ -13784,47 +13918,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="567"/>
-      <c r="C2" s="568"/>
-      <c r="D2" s="569"/>
-      <c r="E2" s="576" t="s">
+      <c r="B2" s="555"/>
+      <c r="C2" s="556"/>
+      <c r="D2" s="557"/>
+      <c r="E2" s="564" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="577"/>
-      <c r="G2" s="577"/>
-      <c r="H2" s="578"/>
-      <c r="I2" s="583" t="s">
+      <c r="F2" s="565"/>
+      <c r="G2" s="565"/>
+      <c r="H2" s="566"/>
+      <c r="I2" s="571" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="584"/>
-      <c r="K2" s="587">
+      <c r="J2" s="572"/>
+      <c r="K2" s="575">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="588"/>
+      <c r="L2" s="576"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="632"/>
-      <c r="Q2" s="632"/>
+      <c r="P2" s="630"/>
+      <c r="Q2" s="630"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="570"/>
-      <c r="C3" s="571"/>
-      <c r="D3" s="572"/>
-      <c r="E3" s="580" t="s">
+      <c r="B3" s="558"/>
+      <c r="C3" s="559"/>
+      <c r="D3" s="560"/>
+      <c r="E3" s="568" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="581"/>
-      <c r="G3" s="581"/>
-      <c r="H3" s="582"/>
-      <c r="I3" s="585"/>
-      <c r="J3" s="586"/>
-      <c r="K3" s="589"/>
-      <c r="L3" s="590"/>
+      <c r="F3" s="569"/>
+      <c r="G3" s="569"/>
+      <c r="H3" s="570"/>
+      <c r="I3" s="573"/>
+      <c r="J3" s="574"/>
+      <c r="K3" s="577"/>
+      <c r="L3" s="578"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13835,9 +13969,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="573"/>
-      <c r="C4" s="574"/>
-      <c r="D4" s="575"/>
+      <c r="B4" s="561"/>
+      <c r="C4" s="562"/>
+      <c r="D4" s="563"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13856,10 +13990,10 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="594" t="s">
+      <c r="B5" s="582" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="595"/>
+      <c r="C5" s="583"/>
       <c r="D5" s="506" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -13868,8 +14002,8 @@
       <c r="F5" s="507"/>
       <c r="G5" s="507"/>
       <c r="H5" s="508"/>
-      <c r="I5" s="556"/>
-      <c r="J5" s="557"/>
+      <c r="I5" s="584"/>
+      <c r="J5" s="585"/>
       <c r="K5" s="507"/>
       <c r="L5" s="508"/>
       <c r="M5" s="21"/>
@@ -13882,20 +14016,20 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="594" t="s">
+      <c r="B6" s="582" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="596"/>
+      <c r="C6" s="586"/>
       <c r="D6" s="500" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="E6" s="597"/>
-      <c r="F6" s="597"/>
-      <c r="G6" s="597"/>
-      <c r="H6" s="598"/>
-      <c r="I6" s="556"/>
-      <c r="J6" s="557"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="584"/>
+      <c r="J6" s="585"/>
       <c r="K6" s="507"/>
       <c r="L6" s="508"/>
       <c r="M6" s="21"/>
@@ -13908,22 +14042,22 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="558" t="s">
+      <c r="B7" s="592" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="559"/>
+      <c r="C7" s="593"/>
       <c r="D7" s="509">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="560"/>
-      <c r="F7" s="560"/>
-      <c r="G7" s="560"/>
-      <c r="H7" s="561"/>
-      <c r="I7" s="558" t="s">
+      <c r="E7" s="594"/>
+      <c r="F7" s="594"/>
+      <c r="G7" s="594"/>
+      <c r="H7" s="595"/>
+      <c r="I7" s="592" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="562"/>
+      <c r="J7" s="596"/>
       <c r="K7" s="497">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -14210,34 +14344,28 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="631" t="s">
+      <c r="L18" s="629" t="s">
         <v>136</v>
       </c>
-      <c r="M18" s="631"/>
-      <c r="N18" s="631"/>
-      <c r="O18" s="466"/>
-      <c r="P18" s="466"/>
-      <c r="Q18" s="482"/>
-      <c r="R18" s="482"/>
+      <c r="M18" s="629"/>
+      <c r="N18" s="629"/>
+      <c r="O18" s="455"/>
+      <c r="P18" s="455"/>
+      <c r="Q18" s="471"/>
+      <c r="R18" s="471"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="563" t="s">
+      <c r="O19" s="551" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="563"/>
-      <c r="Q19" s="564" t="s">
+      <c r="P19" s="551"/>
+      <c r="Q19" s="552" t="s">
         <v>141</v>
       </c>
-      <c r="R19" s="565"/>
+      <c r="R19" s="553"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="L18:N18"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B7:C7"/>
@@ -14253,6 +14381,12 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E2:H2"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="L18:N18"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -14324,60 +14458,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="602"/>
-      <c r="C2" s="603"/>
-      <c r="D2" s="604"/>
-      <c r="E2" s="611" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="612"/>
-      <c r="G2" s="612"/>
-      <c r="H2" s="613"/>
-      <c r="I2" s="617" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="618"/>
-      <c r="K2" s="621">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B18</f>
         <v>130</v>
       </c>
-      <c r="L2" s="622"/>
-      <c r="M2" s="633"/>
-      <c r="N2" s="634"/>
-      <c r="O2" s="634"/>
-      <c r="P2" s="634"/>
-      <c r="Q2" s="634"/>
-      <c r="R2" s="635"/>
+      <c r="L2" s="623"/>
+      <c r="M2" s="631"/>
+      <c r="N2" s="632"/>
+      <c r="O2" s="632"/>
+      <c r="P2" s="632"/>
+      <c r="Q2" s="632"/>
+      <c r="R2" s="633"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="605"/>
-      <c r="C3" s="606"/>
-      <c r="D3" s="607"/>
-      <c r="E3" s="614" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="615"/>
-      <c r="G3" s="615"/>
-      <c r="H3" s="616"/>
-      <c r="I3" s="619"/>
-      <c r="J3" s="620"/>
-      <c r="K3" s="623"/>
-      <c r="L3" s="624"/>
-      <c r="M3" s="636"/>
-      <c r="N3" s="637"/>
-      <c r="O3" s="637"/>
-      <c r="P3" s="637"/>
-      <c r="Q3" s="637"/>
-      <c r="R3" s="638"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
+      <c r="M3" s="634"/>
+      <c r="N3" s="635"/>
+      <c r="O3" s="635"/>
+      <c r="P3" s="635"/>
+      <c r="Q3" s="635"/>
+      <c r="R3" s="636"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="608"/>
-      <c r="C4" s="609"/>
-      <c r="D4" s="610"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14386,20 +14520,20 @@
       <c r="J4" s="242"/>
       <c r="K4" s="245"/>
       <c r="L4" s="246"/>
-      <c r="M4" s="636"/>
-      <c r="N4" s="637"/>
-      <c r="O4" s="637"/>
-      <c r="P4" s="637"/>
-      <c r="Q4" s="637"/>
-      <c r="R4" s="638"/>
+      <c r="M4" s="634"/>
+      <c r="N4" s="635"/>
+      <c r="O4" s="635"/>
+      <c r="P4" s="635"/>
+      <c r="Q4" s="635"/>
+      <c r="R4" s="636"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="594" t="s">
+      <c r="B5" s="582" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="625"/>
+      <c r="C5" s="597"/>
       <c r="D5" s="506" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -14408,73 +14542,73 @@
       <c r="F5" s="507"/>
       <c r="G5" s="507"/>
       <c r="H5" s="508"/>
-      <c r="I5" s="626"/>
-      <c r="J5" s="627"/>
-      <c r="K5" s="628"/>
+      <c r="I5" s="598"/>
+      <c r="J5" s="599"/>
+      <c r="K5" s="600"/>
       <c r="L5" s="508"/>
-      <c r="M5" s="636"/>
-      <c r="N5" s="637"/>
-      <c r="O5" s="637"/>
-      <c r="P5" s="637"/>
-      <c r="Q5" s="637"/>
-      <c r="R5" s="638"/>
+      <c r="M5" s="634"/>
+      <c r="N5" s="635"/>
+      <c r="O5" s="635"/>
+      <c r="P5" s="635"/>
+      <c r="Q5" s="635"/>
+      <c r="R5" s="636"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="594" t="s">
+      <c r="B6" s="582" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="625"/>
+      <c r="C6" s="597"/>
       <c r="D6" s="500" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="E6" s="597"/>
-      <c r="F6" s="597"/>
-      <c r="G6" s="597"/>
-      <c r="H6" s="598"/>
-      <c r="I6" s="626"/>
-      <c r="J6" s="627"/>
-      <c r="K6" s="628"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="598"/>
+      <c r="J6" s="599"/>
+      <c r="K6" s="600"/>
       <c r="L6" s="508"/>
-      <c r="M6" s="636"/>
-      <c r="N6" s="637"/>
-      <c r="O6" s="637"/>
-      <c r="P6" s="637"/>
-      <c r="Q6" s="637"/>
-      <c r="R6" s="638"/>
+      <c r="M6" s="634"/>
+      <c r="N6" s="635"/>
+      <c r="O6" s="635"/>
+      <c r="P6" s="635"/>
+      <c r="Q6" s="635"/>
+      <c r="R6" s="636"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="558" t="s">
+      <c r="B7" s="592" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="629"/>
+      <c r="C7" s="601"/>
       <c r="D7" s="509">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="560"/>
-      <c r="F7" s="560"/>
-      <c r="G7" s="560"/>
-      <c r="H7" s="561"/>
-      <c r="I7" s="630" t="s">
+      <c r="E7" s="594"/>
+      <c r="F7" s="594"/>
+      <c r="G7" s="594"/>
+      <c r="H7" s="595"/>
+      <c r="I7" s="602" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="629"/>
+      <c r="J7" s="601"/>
       <c r="K7" s="497">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
       <c r="L7" s="498"/>
-      <c r="M7" s="636"/>
-      <c r="N7" s="637"/>
-      <c r="O7" s="637"/>
-      <c r="P7" s="637"/>
-      <c r="Q7" s="637"/>
-      <c r="R7" s="638"/>
+      <c r="M7" s="634"/>
+      <c r="N7" s="635"/>
+      <c r="O7" s="635"/>
+      <c r="P7" s="635"/>
+      <c r="Q7" s="635"/>
+      <c r="R7" s="636"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14630,38 +14764,38 @@
       <c r="R12" s="322"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" s="477" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="467"/>
-      <c r="B13" s="468" t="s">
+    <row r="13" spans="1:19" s="466" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="456"/>
+      <c r="B13" s="457" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="469">
+      <c r="C13" s="458">
         <v>38.1</v>
       </c>
-      <c r="D13" s="470">
+      <c r="D13" s="459">
         <v>0.03</v>
       </c>
-      <c r="E13" s="470">
+      <c r="E13" s="459">
         <v>0</v>
       </c>
-      <c r="F13" s="471" t="s">
+      <c r="F13" s="460" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="296" t="s">
         <v>137</v>
       </c>
-      <c r="H13" s="472"/>
-      <c r="I13" s="473"/>
-      <c r="J13" s="473"/>
-      <c r="K13" s="473"/>
-      <c r="L13" s="473"/>
-      <c r="M13" s="474"/>
-      <c r="N13" s="474"/>
-      <c r="O13" s="474"/>
-      <c r="P13" s="474"/>
-      <c r="Q13" s="474"/>
-      <c r="R13" s="475"/>
-      <c r="S13" s="476"/>
+      <c r="H13" s="461"/>
+      <c r="I13" s="462"/>
+      <c r="J13" s="462"/>
+      <c r="K13" s="462"/>
+      <c r="L13" s="462"/>
+      <c r="M13" s="463"/>
+      <c r="N13" s="463"/>
+      <c r="O13" s="463"/>
+      <c r="P13" s="463"/>
+      <c r="Q13" s="463"/>
+      <c r="R13" s="464"/>
+      <c r="S13" s="465"/>
     </row>
     <row r="14" spans="1:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
@@ -14863,12 +14997,12 @@
     </row>
     <row r="20" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
-      <c r="B20" s="591" t="s">
+      <c r="B20" s="579" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="592"/>
-      <c r="D20" s="592"/>
-      <c r="E20" s="593"/>
+      <c r="C20" s="580"/>
+      <c r="D20" s="580"/>
+      <c r="E20" s="581"/>
       <c r="F20" s="114" t="s">
         <v>16</v>
       </c>
@@ -14913,28 +15047,34 @@
       <c r="B22" s="121"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L23" s="631" t="s">
+      <c r="L23" s="629" t="s">
         <v>136</v>
       </c>
-      <c r="M23" s="631"/>
-      <c r="N23" s="631"/>
-      <c r="O23" s="466"/>
-      <c r="P23" s="466"/>
-      <c r="Q23" s="482"/>
-      <c r="R23" s="482"/>
+      <c r="M23" s="629"/>
+      <c r="N23" s="629"/>
+      <c r="O23" s="455"/>
+      <c r="P23" s="455"/>
+      <c r="Q23" s="471"/>
+      <c r="R23" s="471"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O24" s="563" t="s">
+      <c r="O24" s="551" t="s">
         <v>140</v>
       </c>
-      <c r="P24" s="563"/>
-      <c r="Q24" s="564" t="s">
+      <c r="P24" s="551"/>
+      <c r="Q24" s="552" t="s">
         <v>141</v>
       </c>
-      <c r="R24" s="565"/>
+      <c r="R24" s="553"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B20:E20"/>
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="Q24:R24"/>
     <mergeCell ref="B2:D4"/>
@@ -14951,12 +15091,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
@@ -15021,47 +15155,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="602"/>
-      <c r="C2" s="603"/>
-      <c r="D2" s="604"/>
-      <c r="E2" s="611" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="612"/>
-      <c r="G2" s="612"/>
-      <c r="H2" s="613"/>
-      <c r="I2" s="617" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="618"/>
-      <c r="K2" s="621">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B19</f>
         <v>130</v>
       </c>
-      <c r="L2" s="622"/>
+      <c r="L2" s="623"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="639"/>
-      <c r="Q2" s="639"/>
+      <c r="P2" s="637"/>
+      <c r="Q2" s="637"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="605"/>
-      <c r="C3" s="606"/>
-      <c r="D3" s="607"/>
-      <c r="E3" s="614" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="615"/>
-      <c r="G3" s="615"/>
-      <c r="H3" s="616"/>
-      <c r="I3" s="619"/>
-      <c r="J3" s="620"/>
-      <c r="K3" s="623"/>
-      <c r="L3" s="624"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -15072,9 +15206,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="608"/>
-      <c r="C4" s="609"/>
-      <c r="D4" s="610"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -15093,10 +15227,10 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="594" t="s">
+      <c r="B5" s="582" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="625"/>
+      <c r="C5" s="597"/>
       <c r="D5" s="506" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -15105,9 +15239,9 @@
       <c r="F5" s="507"/>
       <c r="G5" s="507"/>
       <c r="H5" s="508"/>
-      <c r="I5" s="626"/>
-      <c r="J5" s="627"/>
-      <c r="K5" s="628"/>
+      <c r="I5" s="598"/>
+      <c r="J5" s="599"/>
+      <c r="K5" s="600"/>
       <c r="L5" s="508"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
@@ -15119,21 +15253,21 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="594" t="s">
+      <c r="B6" s="582" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="625"/>
+      <c r="C6" s="597"/>
       <c r="D6" s="500" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
-      <c r="E6" s="597"/>
-      <c r="F6" s="597"/>
-      <c r="G6" s="597"/>
-      <c r="H6" s="598"/>
-      <c r="I6" s="626"/>
-      <c r="J6" s="627"/>
-      <c r="K6" s="628"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="598"/>
+      <c r="J6" s="599"/>
+      <c r="K6" s="600"/>
       <c r="L6" s="508"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
@@ -15145,22 +15279,22 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="558" t="s">
+      <c r="B7" s="592" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="629"/>
+      <c r="C7" s="601"/>
       <c r="D7" s="509">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="560"/>
-      <c r="F7" s="560"/>
-      <c r="G7" s="560"/>
-      <c r="H7" s="561"/>
-      <c r="I7" s="630" t="s">
+      <c r="E7" s="594"/>
+      <c r="F7" s="594"/>
+      <c r="G7" s="594"/>
+      <c r="H7" s="595"/>
+      <c r="I7" s="602" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="629"/>
+      <c r="J7" s="601"/>
       <c r="K7" s="497">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -15294,38 +15428,38 @@
       <c r="R11" s="99"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" s="477" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="467"/>
-      <c r="B12" s="478" t="s">
+    <row r="12" spans="1:19" s="466" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="456"/>
+      <c r="B12" s="467" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="479">
+      <c r="C12" s="468">
         <v>28.6</v>
       </c>
-      <c r="D12" s="473">
+      <c r="D12" s="462">
         <v>0</v>
       </c>
-      <c r="E12" s="473">
+      <c r="E12" s="462">
         <v>-0.03</v>
       </c>
-      <c r="F12" s="471" t="s">
+      <c r="F12" s="460" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="296" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="480"/>
-      <c r="I12" s="473"/>
-      <c r="J12" s="473"/>
-      <c r="K12" s="473"/>
-      <c r="L12" s="473"/>
-      <c r="M12" s="473"/>
-      <c r="N12" s="473"/>
-      <c r="O12" s="473"/>
-      <c r="P12" s="473"/>
-      <c r="Q12" s="473"/>
-      <c r="R12" s="481"/>
-      <c r="S12" s="476"/>
+      <c r="H12" s="469"/>
+      <c r="I12" s="462"/>
+      <c r="J12" s="462"/>
+      <c r="K12" s="462"/>
+      <c r="L12" s="462"/>
+      <c r="M12" s="462"/>
+      <c r="N12" s="462"/>
+      <c r="O12" s="462"/>
+      <c r="P12" s="462"/>
+      <c r="Q12" s="462"/>
+      <c r="R12" s="470"/>
+      <c r="S12" s="465"/>
     </row>
     <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
@@ -15428,12 +15562,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="591" t="s">
+      <c r="B16" s="579" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="592"/>
-      <c r="D16" s="592"/>
-      <c r="E16" s="593"/>
+      <c r="C16" s="580"/>
+      <c r="D16" s="580"/>
+      <c r="E16" s="581"/>
       <c r="F16" s="252" t="s">
         <v>16</v>
       </c>
@@ -15478,28 +15612,38 @@
       <c r="B18" s="121"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="631" t="s">
+      <c r="L19" s="629" t="s">
         <v>136</v>
       </c>
-      <c r="M19" s="631"/>
-      <c r="N19" s="631"/>
-      <c r="O19" s="466"/>
-      <c r="P19" s="466"/>
-      <c r="Q19" s="482"/>
-      <c r="R19" s="482"/>
+      <c r="M19" s="629"/>
+      <c r="N19" s="629"/>
+      <c r="O19" s="455"/>
+      <c r="P19" s="455"/>
+      <c r="Q19" s="471"/>
+      <c r="R19" s="471"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="563" t="s">
+      <c r="O20" s="551" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="563"/>
-      <c r="Q20" s="564" t="s">
+      <c r="P20" s="551"/>
+      <c r="Q20" s="552" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="565"/>
+      <c r="R20" s="553"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
@@ -15512,16 +15656,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="B16:E16"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
